--- a/設計書/設計書もどき.xlsx
+++ b/設計書/設計書もどき.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="画面一覧" sheetId="11" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="313">
   <si>
     <t>画面レイアウト定義</t>
     <rPh sb="0" eb="2">
@@ -1306,25 +1306,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>所属学科　及び　全学科</t>
-    <rPh sb="0" eb="2">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガッカ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>オヨ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>全ての学科</t>
     <rPh sb="0" eb="1">
       <t>スベ</t>
@@ -1903,39 +1884,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>有効期限</t>
-    <rPh sb="0" eb="2">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウントの有効期限を入力する。入力
-しない場合は無期限となる</t>
-    <rPh sb="6" eb="8">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キゲン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="25" eb="28">
-      <t>ムキゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CSV登録</t>
     <rPh sb="3" eb="5">
       <t>トウロク</t>
@@ -2043,25 +1991,6 @@
     <t>学科マスタのID</t>
     <rPh sb="0" eb="2">
       <t>ガッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>yyyy/mm/dd形式。空文字の場合は無期限</t>
-    <rPh sb="10" eb="12">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カラ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ムキゲン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3502,6 +3431,100 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>入学年度</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウガク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ネンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロールが学生の場合から文字</t>
+    <rPh sb="4" eb="6">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yyyy形式。学生以外の場合は空文字</t>
+    <rPh sb="4" eb="6">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSV登録画面</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>留年設定画面</t>
+    <rPh sb="0" eb="2">
+      <t>リュウネン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卒業設定画面</t>
+    <rPh sb="0" eb="2">
+      <t>ソツギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退学設定画面</t>
+    <rPh sb="0" eb="2">
+      <t>タイガク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -3555,7 +3578,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3583,6 +3606,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3768,7 +3797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3860,7 +3889,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3931,6 +3959,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -24723,16 +24753,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -24741,7 +24771,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="4210050"/>
+          <a:off x="6305550" y="4600575"/>
           <a:ext cx="885825" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -24770,6 +24800,336 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>検索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>723899</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>29190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="正方形/長方形 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705099" y="4143990"/>
+          <a:ext cx="781051" cy="332760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>点数</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="正方形/長方形 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3495675" y="4143376"/>
+          <a:ext cx="1657349" cy="314324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="正方形/長方形 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5133976" y="3552825"/>
+          <a:ext cx="1447800" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="正方形/長方形 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6305551" y="3562351"/>
+          <a:ext cx="295274" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>▼</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="正方形/長方形 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4362451" y="4191000"/>
+          <a:ext cx="723899" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>以上</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>809626</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="正方形/長方形 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4772026" y="4219576"/>
+          <a:ext cx="295274" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>▼</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -26474,7 +26834,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>有効期限</a:t>
+            <a:t>入学年度</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -27364,10 +27724,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J29"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A2:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27378,67 +27739,67 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="56" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2" s="56" t="s">
-        <v>187</v>
-      </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56" t="s">
-        <v>276</v>
-      </c>
-      <c r="H2" s="56" t="s">
-        <v>277</v>
-      </c>
-      <c r="I2" s="56" t="s">
-        <v>277</v>
+      <c r="A2" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55" t="s">
+        <v>272</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>273</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>275</v>
-      </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="F3" s="52" t="s">
+      <c r="E3" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="F3" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="64">
+      <c r="A4" s="63">
         <v>0</v>
       </c>
-      <c r="B4" s="54">
+      <c r="B4" s="53">
         <v>1</v>
       </c>
-      <c r="C4" s="51" t="s">
-        <v>189</v>
+      <c r="C4" s="83" t="s">
+        <v>185</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G4" s="2" t="str">
         <f>"display"&amp;TEXT($A$4,"000")&amp;TEXT(B4,"00")</f>
@@ -27458,15 +27819,15 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="65"/>
-      <c r="B5" s="54">
+      <c r="A5" s="64"/>
+      <c r="B5" s="53">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
@@ -27488,16 +27849,16 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="65"/>
-      <c r="B6" s="54">
+      <c r="A6" s="64"/>
+      <c r="B6" s="53">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="2" t="str">
@@ -27518,17 +27879,17 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="66"/>
-      <c r="B7" s="54">
+      <c r="A7" s="65"/>
+      <c r="B7" s="53">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -27548,17 +27909,17 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="60">
+      <c r="A8" s="59">
         <v>1</v>
       </c>
-      <c r="B8" s="54">
+      <c r="B8" s="53">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>191</v>
+      <c r="C8" s="84" t="s">
+        <v>187</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
@@ -27580,15 +27941,15 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="61"/>
-      <c r="B9" s="54">
+      <c r="A9" s="60"/>
+      <c r="B9" s="53">
         <v>2</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>192</v>
+      <c r="C9" s="84" t="s">
+        <v>188</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
@@ -27610,20 +27971,20 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="57">
+      <c r="A10" s="56">
         <v>2</v>
       </c>
-      <c r="B10" s="54">
+      <c r="B10" s="53">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>205</v>
+      <c r="C10" s="84" t="s">
+        <v>201</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F10" s="27"/>
       <c r="G10" s="2" t="str">
@@ -27644,18 +28005,18 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="59"/>
-      <c r="B11" s="54">
+      <c r="A11" s="58"/>
+      <c r="B11" s="53">
         <v>2</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>193</v>
+      <c r="C11" s="84" t="s">
+        <v>189</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="2" t="str">
@@ -27676,20 +28037,20 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="57">
+      <c r="A12" s="56">
         <v>3</v>
       </c>
-      <c r="B12" s="54">
+      <c r="B12" s="53">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F12" s="27"/>
       <c r="G12" s="2" t="str">
@@ -27710,18 +28071,18 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="59"/>
-      <c r="B13" s="54">
+      <c r="A13" s="58"/>
+      <c r="B13" s="53">
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F13" s="27"/>
       <c r="G13" s="2" t="str">
@@ -27742,20 +28103,20 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="60">
+      <c r="A14" s="59">
         <v>4</v>
       </c>
-      <c r="B14" s="54">
+      <c r="B14" s="53">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="2" t="str">
@@ -27776,18 +28137,18 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="61"/>
-      <c r="B15" s="54">
+      <c r="A15" s="60"/>
+      <c r="B15" s="53">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="2" t="str">
@@ -27808,18 +28169,18 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="57">
+      <c r="A16" s="56">
         <v>5</v>
       </c>
-      <c r="B16" s="54">
+      <c r="B16" s="53">
         <v>1</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>198</v>
+      <c r="C16" s="84" t="s">
+        <v>194</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F16" s="27"/>
       <c r="G16" s="2" t="str">
@@ -27840,16 +28201,16 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="58"/>
-      <c r="B17" s="54">
+      <c r="A17" s="57"/>
+      <c r="B17" s="53">
         <v>2</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>199</v>
+      <c r="C17" s="84" t="s">
+        <v>195</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="2" t="str">
@@ -27870,16 +28231,16 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="59"/>
-      <c r="B18" s="54">
+      <c r="A18" s="58"/>
+      <c r="B18" s="53">
         <v>3</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>200</v>
+      <c r="C18" s="84" t="s">
+        <v>196</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F18" s="27"/>
       <c r="G18" s="2" t="str">
@@ -27900,18 +28261,18 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="57">
+      <c r="A19" s="56">
         <v>6</v>
       </c>
-      <c r="B19" s="54">
+      <c r="B19" s="53">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F19" s="27"/>
       <c r="G19" s="2" t="str">
@@ -27932,16 +28293,16 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="58"/>
-      <c r="B20" s="54">
+      <c r="A20" s="57"/>
+      <c r="B20" s="53">
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F20" s="27"/>
       <c r="G20" s="2" t="str">
@@ -27962,16 +28323,16 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="59"/>
-      <c r="B21" s="54">
+      <c r="A21" s="58"/>
+      <c r="B21" s="53">
         <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F21" s="27"/>
       <c r="G21" s="2" t="str">
@@ -27992,18 +28353,18 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="55">
+      <c r="A22" s="54">
         <v>7</v>
       </c>
-      <c r="B22" s="54">
+      <c r="B22" s="53">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F22" s="27"/>
       <c r="G22" s="2" t="str">
@@ -28024,21 +28385,21 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="57">
+      <c r="A23" s="56">
         <v>8</v>
       </c>
-      <c r="B23" s="54">
+      <c r="B23" s="53">
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G23" s="2" t="str">
         <f>"display"&amp;TEXT($A$23,"000")&amp;TEXT(B23,"00")</f>
@@ -28058,17 +28419,17 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="58"/>
-      <c r="B24" s="54">
+      <c r="A24" s="57"/>
+      <c r="B24" s="53">
         <v>2</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>209</v>
+      <c r="C24" s="84" t="s">
+        <v>205</v>
       </c>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G24" s="2" t="str">
         <f t="shared" ref="G24:G26" si="6">"display"&amp;TEXT($A$23,"000")&amp;TEXT(B24,"00")</f>
@@ -28088,17 +28449,17 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="58"/>
-      <c r="B25" s="54">
+      <c r="A25" s="57"/>
+      <c r="B25" s="53">
         <v>3</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>210</v>
+      <c r="C25" s="84" t="s">
+        <v>206</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G25" s="2" t="str">
         <f t="shared" si="6"/>
@@ -28118,17 +28479,17 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="59"/>
-      <c r="B26" s="54">
+      <c r="A26" s="58"/>
+      <c r="B26" s="53">
         <v>4</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>211</v>
+      <c r="C26" s="84" t="s">
+        <v>207</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
       <c r="F26" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G26" s="2" t="str">
         <f t="shared" si="6"/>
@@ -28148,21 +28509,21 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="57">
+      <c r="A27" s="56">
         <v>9</v>
       </c>
-      <c r="B27" s="54">
+      <c r="B27" s="53">
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G27" s="2" t="str">
         <f>"display"&amp;TEXT($A$27,"000")&amp;TEXT(B27,"00")</f>
@@ -28182,19 +28543,19 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="58"/>
-      <c r="B28" s="54">
+      <c r="A28" s="57"/>
+      <c r="B28" s="53">
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G28" s="2" t="str">
         <f t="shared" ref="G28:G29" si="7">"display"&amp;TEXT($A$27,"000")&amp;TEXT(B28,"00")</f>
@@ -28214,19 +28575,19 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="59"/>
-      <c r="B29" s="54">
+      <c r="A29" s="58"/>
+      <c r="B29" s="53">
         <v>3</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G29" s="2" t="str">
         <f t="shared" si="7"/>
@@ -28245,8 +28606,139 @@
         <v>display00903=1,2</v>
       </c>
     </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="54">
+        <v>10</v>
+      </c>
+      <c r="B30" s="53">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="G30" s="2" t="str">
+        <f>"display"&amp;TEXT($A$30,"000")&amp;TEXT(B30,"00")</f>
+        <v>display01001</v>
+      </c>
+      <c r="H30" s="2" t="str">
+        <f t="shared" ref="H30:H33" si="8">IF(D30="○","0,","")&amp;IF(E30="○","1,","")&amp;IF(F30="○","2","")</f>
+        <v>2</v>
+      </c>
+      <c r="I30" s="2" t="str">
+        <f t="shared" ref="I30:I33" si="9">IF(RIGHT(H30,1)=",",LEFT(H30,LEN(H30)-1),H30)</f>
+        <v>2</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" ref="J30:J33" si="10">G30&amp;"="&amp;I30</f>
+        <v>display01001=2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="56">
+        <v>11</v>
+      </c>
+      <c r="B31" s="53">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="G31" s="2" t="str">
+        <f>"display"&amp;TEXT($A$31,"000")&amp;TEXT(B31,"00")</f>
+        <v>display01101</v>
+      </c>
+      <c r="H31" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1,2</v>
+      </c>
+      <c r="I31" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>1,2</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="10"/>
+        <v>display01101=1,2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="57"/>
+      <c r="B32" s="53">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="G32" s="2" t="str">
+        <f t="shared" ref="G32:G33" si="11">"display"&amp;TEXT($A$31,"000")&amp;TEXT(B32,"00")</f>
+        <v>display01102</v>
+      </c>
+      <c r="H32" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1,2</v>
+      </c>
+      <c r="I32" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>1,2</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="10"/>
+        <v>display01102=1,2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="58"/>
+      <c r="B33" s="53">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="G33" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>display01103</v>
+      </c>
+      <c r="H33" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>1,2</v>
+      </c>
+      <c r="I33" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>1,2</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="10"/>
+        <v>display01103=1,2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="A31:A33"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A23:A26"/>
@@ -28270,10 +28762,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -28282,17 +28775,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="72"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -28301,11 +28794,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="75"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="74"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -28316,11 +28809,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="75"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -28331,11 +28824,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -28348,11 +28841,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -28363,13 +28856,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="75"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -28389,17 +28882,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="72"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="71"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -28842,26 +29335,26 @@
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="70" t="s">
+      <c r="A49" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="71"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="72"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="71"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="76" t="s">
+      <c r="B50" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="77"/>
+      <c r="C50" s="76"/>
       <c r="D50" s="25" t="s">
         <v>18</v>
       </c>
@@ -28869,30 +29362,30 @@
       <c r="F50" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="76" t="s">
+      <c r="G50" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="78"/>
-      <c r="I50" s="77"/>
+      <c r="H50" s="77"/>
+      <c r="I50" s="76"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="73" t="s">
+      <c r="B51" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="75"/>
-      <c r="D51" s="73" t="s">
+      <c r="C51" s="74"/>
+      <c r="D51" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="75"/>
+      <c r="E51" s="74"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="73"/>
-      <c r="H51" s="74"/>
-      <c r="I51" s="75"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="74"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="27">
@@ -28900,72 +29393,72 @@
       </c>
       <c r="B52" s="36"/>
       <c r="C52" s="37"/>
-      <c r="D52" s="73" t="s">
+      <c r="D52" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="75"/>
+      <c r="E52" s="74"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="73" t="s">
+      <c r="G52" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="74"/>
-      <c r="I52" s="75"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="74"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
         <v>3</v>
       </c>
-      <c r="B53" s="73" t="s">
+      <c r="B53" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="75"/>
-      <c r="D53" s="73" t="s">
+      <c r="C53" s="74"/>
+      <c r="D53" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="75"/>
+      <c r="E53" s="74"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="73" t="s">
+      <c r="G53" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="H53" s="74"/>
-      <c r="I53" s="75"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="74"/>
     </row>
     <row r="54" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="27">
         <v>4</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C54" s="37"/>
-      <c r="D54" s="73" t="s">
+      <c r="D54" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="E54" s="75"/>
+      <c r="E54" s="74"/>
       <c r="F54" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="79" t="s">
-        <v>149</v>
-      </c>
-      <c r="H54" s="74"/>
-      <c r="I54" s="75"/>
+      <c r="G54" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="H54" s="73"/>
+      <c r="I54" s="74"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="27">
         <v>5</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C55" s="37"/>
       <c r="D55" s="36"/>
       <c r="E55" s="37"/>
       <c r="F55" s="27"/>
       <c r="G55" s="36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H55" s="38"/>
       <c r="I55" s="37"/>
@@ -28974,33 +29467,33 @@
       <c r="A56" s="27">
         <v>6</v>
       </c>
-      <c r="B56" s="73" t="s">
+      <c r="B56" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" s="74"/>
+      <c r="D56" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" s="74"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="C56" s="75"/>
-      <c r="D56" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="E56" s="75"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="73" t="s">
-        <v>153</v>
-      </c>
-      <c r="H56" s="74"/>
-      <c r="I56" s="75"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="74"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="70" t="s">
+      <c r="A57" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="71"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="71"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="72"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="71"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="29"/>
@@ -29191,10 +29684,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -29203,17 +29697,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="72"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -29222,11 +29716,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="75"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="74"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -29237,11 +29731,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="75"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -29252,11 +29746,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -29269,11 +29763,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -29284,13 +29778,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="79" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="75"/>
+      <c r="C6" s="78" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -29310,17 +29804,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="72"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="71"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -29763,26 +30257,26 @@
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="70" t="s">
+      <c r="A49" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="71"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="72"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="71"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="76" t="s">
+      <c r="B50" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="77"/>
+      <c r="C50" s="76"/>
       <c r="D50" s="25" t="s">
         <v>18</v>
       </c>
@@ -29790,30 +30284,30 @@
       <c r="F50" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="76" t="s">
+      <c r="G50" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="78"/>
-      <c r="I50" s="77"/>
+      <c r="H50" s="77"/>
+      <c r="I50" s="76"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="73" t="s">
+      <c r="B51" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="75"/>
-      <c r="D51" s="73" t="s">
+      <c r="C51" s="74"/>
+      <c r="D51" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="75"/>
+      <c r="E51" s="74"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="73"/>
-      <c r="H51" s="74"/>
-      <c r="I51" s="75"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="74"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="27">
@@ -29821,65 +30315,65 @@
       </c>
       <c r="B52" s="36"/>
       <c r="C52" s="37"/>
-      <c r="D52" s="73" t="s">
+      <c r="D52" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="75"/>
+      <c r="E52" s="74"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="73" t="s">
+      <c r="G52" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="74"/>
-      <c r="I52" s="75"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="74"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
         <v>3</v>
       </c>
-      <c r="B53" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="C53" s="75"/>
-      <c r="D53" s="73" t="s">
+      <c r="B53" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="74"/>
+      <c r="D53" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="75"/>
+      <c r="E53" s="74"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="73" t="s">
+      <c r="G53" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="H53" s="74"/>
-      <c r="I53" s="75"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="74"/>
     </row>
     <row r="54" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="27">
         <v>4</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C54" s="37"/>
-      <c r="D54" s="73" t="s">
+      <c r="D54" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="E54" s="75"/>
+      <c r="E54" s="74"/>
       <c r="F54" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="79" t="s">
-        <v>157</v>
-      </c>
-      <c r="H54" s="74"/>
-      <c r="I54" s="75"/>
+      <c r="G54" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="H54" s="73"/>
+      <c r="I54" s="74"/>
     </row>
     <row r="55" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="27">
         <v>5</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C55" s="37"/>
       <c r="D55" s="36" t="s">
@@ -29887,138 +30381,138 @@
       </c>
       <c r="E55" s="37"/>
       <c r="F55" s="27"/>
-      <c r="G55" s="79" t="s">
-        <v>159</v>
-      </c>
-      <c r="H55" s="74"/>
-      <c r="I55" s="75"/>
+      <c r="G55" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="H55" s="73"/>
+      <c r="I55" s="74"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="27">
         <v>6</v>
       </c>
-      <c r="B56" s="73" t="s">
+      <c r="B56" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" s="74"/>
+      <c r="D56" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" s="74"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="C56" s="75"/>
-      <c r="D56" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="E56" s="75"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="73" t="s">
-        <v>163</v>
-      </c>
-      <c r="H56" s="74"/>
-      <c r="I56" s="75"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="74"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="27">
         <v>7</v>
       </c>
-      <c r="B57" s="73" t="s">
+      <c r="B57" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="75"/>
-      <c r="D57" s="73" t="s">
+      <c r="C57" s="74"/>
+      <c r="D57" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="E57" s="75"/>
+      <c r="E57" s="74"/>
       <c r="F57" s="27"/>
-      <c r="G57" s="73" t="s">
-        <v>160</v>
-      </c>
-      <c r="H57" s="74"/>
-      <c r="I57" s="75"/>
+      <c r="G57" s="72" t="s">
+        <v>159</v>
+      </c>
+      <c r="H57" s="73"/>
+      <c r="I57" s="74"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="27">
         <v>8</v>
       </c>
-      <c r="B58" s="73" t="s">
+      <c r="B58" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="C58" s="75"/>
-      <c r="D58" s="73" t="s">
+      <c r="C58" s="74"/>
+      <c r="D58" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="E58" s="75"/>
+      <c r="E58" s="74"/>
       <c r="F58" s="27"/>
-      <c r="G58" s="73" t="s">
-        <v>164</v>
-      </c>
-      <c r="H58" s="74"/>
-      <c r="I58" s="75"/>
+      <c r="G58" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="H58" s="73"/>
+      <c r="I58" s="74"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="27">
         <v>9</v>
       </c>
-      <c r="B59" s="73" t="s">
-        <v>166</v>
-      </c>
-      <c r="C59" s="75"/>
-      <c r="D59" s="73" t="s">
+      <c r="B59" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59" s="74"/>
+      <c r="D59" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="75"/>
+      <c r="E59" s="74"/>
       <c r="F59" s="27"/>
-      <c r="G59" s="73" t="s">
-        <v>166</v>
-      </c>
-      <c r="H59" s="74"/>
-      <c r="I59" s="75"/>
+      <c r="G59" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="H59" s="73"/>
+      <c r="I59" s="74"/>
     </row>
     <row r="60" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="27">
         <v>10</v>
       </c>
-      <c r="B60" s="73" t="s">
-        <v>167</v>
-      </c>
-      <c r="C60" s="75"/>
-      <c r="D60" s="73" t="s">
+      <c r="B60" s="72" t="s">
+        <v>306</v>
+      </c>
+      <c r="C60" s="74"/>
+      <c r="D60" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="E60" s="75"/>
+      <c r="E60" s="74"/>
       <c r="F60" s="27"/>
-      <c r="G60" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="H60" s="74"/>
-      <c r="I60" s="75"/>
+      <c r="G60" s="78" t="s">
+        <v>307</v>
+      </c>
+      <c r="H60" s="73"/>
+      <c r="I60" s="74"/>
     </row>
     <row r="61" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="27">
         <v>11</v>
       </c>
-      <c r="B61" s="73" t="s">
-        <v>169</v>
-      </c>
-      <c r="C61" s="75"/>
-      <c r="D61" s="73" t="s">
+      <c r="B61" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="C61" s="74"/>
+      <c r="D61" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="E61" s="75"/>
+      <c r="E61" s="74"/>
       <c r="F61" s="27"/>
-      <c r="G61" s="79" t="s">
-        <v>170</v>
-      </c>
-      <c r="H61" s="74"/>
-      <c r="I61" s="75"/>
+      <c r="G61" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="H61" s="73"/>
+      <c r="I61" s="74"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="70" t="s">
+      <c r="A62" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="71"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="72"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="71"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="29"/>
@@ -30033,7 +30527,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="17" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
@@ -30046,7 +30540,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
@@ -30063,7 +30557,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="42" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B67" s="2">
         <v>1</v>
@@ -30090,16 +30584,16 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="42" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C68" s="50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D68" s="50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E68" s="50" t="s">
         <v>116</v>
@@ -30108,62 +30602,62 @@
         <v>107</v>
       </c>
       <c r="G68" s="50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H68" s="50" t="s">
-        <v>167</v>
+        <v>306</v>
       </c>
       <c r="I68" s="20"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="D69" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I69" s="20"/>
     </row>
     <row r="70" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A70" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H70" s="39" t="s">
-        <v>184</v>
+        <v>308</v>
       </c>
       <c r="I70" s="20"/>
     </row>
@@ -30180,7 +30674,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="17" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
@@ -30204,7 +30698,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" s="17" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
@@ -30288,6 +30782,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30301,15 +30796,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="42" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -30317,7 +30812,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -30325,7 +30820,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -30333,7 +30828,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -30344,6 +30839,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -30357,32 +30853,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="72"/>
+      <c r="A1" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C2" s="73" t="s">
-        <v>221</v>
-      </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="75"/>
+        <v>214</v>
+      </c>
+      <c r="C2" s="72" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="74"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -30391,15 +30887,15 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C3" s="73" t="s">
-        <v>224</v>
-      </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="75"/>
+        <v>215</v>
+      </c>
+      <c r="C3" s="72" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -30408,13 +30904,13 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75"/>
+        <v>216</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -30423,20 +30919,20 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C5" s="73" t="s">
-        <v>223</v>
-      </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
+        <v>218</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
       <c r="H5" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -30444,40 +30940,40 @@
         <v>89</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E7" s="69" t="s">
-        <v>226</v>
-      </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
+        <v>173</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E8" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
+        <v>175</v>
+      </c>
+      <c r="E8" s="67" t="s">
+        <v>223</v>
+      </c>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
       <c r="K8" t="str">
         <f>B8&amp;"="</f>
         <v>password.expiry=</v>
@@ -30488,19 +30984,19 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E9" s="68" t="s">
-        <v>230</v>
-      </c>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="E9" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
       <c r="K9" t="str">
         <f>B9&amp;"="</f>
         <v>display00001=</v>
@@ -30511,19 +31007,19 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E10" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="E10" s="67" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
       <c r="K10" t="str">
         <f>B10&amp;"="</f>
         <v>display00002=</v>
@@ -30534,19 +31030,19 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E11" s="68" t="s">
-        <v>232</v>
-      </c>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="E11" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
       <c r="K11" t="str">
         <f t="shared" ref="K11:K39" si="0">B11&amp;"="</f>
         <v>display00003=</v>
@@ -30557,19 +31053,19 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E12" s="68" t="s">
-        <v>233</v>
-      </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="E12" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
         <v>display00004=</v>
@@ -30580,19 +31076,19 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E13" s="68" t="s">
-        <v>234</v>
-      </c>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="E13" s="67" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
         <v>display00101=</v>
@@ -30603,19 +31099,19 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E14" s="68" t="s">
-        <v>235</v>
-      </c>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>231</v>
+      </c>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
         <v>display00102=</v>
@@ -30626,19 +31122,19 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E15" s="68" t="s">
-        <v>236</v>
-      </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="E15" s="67" t="s">
+        <v>232</v>
+      </c>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
         <v>display00201=</v>
@@ -30649,19 +31145,19 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E16" s="68" t="s">
-        <v>237</v>
-      </c>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="E16" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
         <v>display00202=</v>
@@ -30672,19 +31168,19 @@
         <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17" s="68" t="s">
-        <v>238</v>
-      </c>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="E17" s="67" t="s">
+        <v>234</v>
+      </c>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
         <v>display00301=</v>
@@ -30695,19 +31191,19 @@
         <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E18" s="68" t="s">
-        <v>239</v>
-      </c>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="E18" s="67" t="s">
+        <v>235</v>
+      </c>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
         <v>display00302=</v>
@@ -30718,19 +31214,19 @@
         <v>12</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E19" s="68" t="s">
-        <v>240</v>
-      </c>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="E19" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
         <v>display00401=</v>
@@ -30741,19 +31237,19 @@
         <v>13</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E20" s="68" t="s">
-        <v>241</v>
-      </c>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="E20" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
         <v>display00402=</v>
@@ -30764,19 +31260,19 @@
         <v>14</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E21" s="68" t="s">
-        <v>242</v>
-      </c>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="E21" s="67" t="s">
+        <v>238</v>
+      </c>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
         <v>display00501=</v>
@@ -30787,19 +31283,19 @@
         <v>15</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E22" s="68" t="s">
-        <v>243</v>
-      </c>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="E22" s="67" t="s">
+        <v>239</v>
+      </c>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
         <v>display00502=</v>
@@ -30810,19 +31306,19 @@
         <v>16</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E23" s="68" t="s">
-        <v>244</v>
-      </c>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="E23" s="67" t="s">
+        <v>240</v>
+      </c>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
         <v>display00503=</v>
@@ -30833,19 +31329,19 @@
         <v>17</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E24" s="68" t="s">
-        <v>245</v>
-      </c>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="E24" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
         <v>display00601=</v>
@@ -30856,19 +31352,19 @@
         <v>18</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E25" s="68" t="s">
-        <v>246</v>
-      </c>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="E25" s="67" t="s">
+        <v>242</v>
+      </c>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
         <v>display00602=</v>
@@ -30879,19 +31375,19 @@
         <v>19</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E26" s="68" t="s">
-        <v>247</v>
-      </c>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="E26" s="67" t="s">
+        <v>243</v>
+      </c>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
         <v>display00603=</v>
@@ -30902,19 +31398,19 @@
         <v>20</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E27" s="68" t="s">
-        <v>248</v>
-      </c>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="E27" s="67" t="s">
+        <v>244</v>
+      </c>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
       <c r="K27" t="str">
         <f t="shared" si="0"/>
         <v>display00701=</v>
@@ -30925,19 +31421,19 @@
         <v>21</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E28" s="68" t="s">
-        <v>249</v>
-      </c>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
       <c r="K28" t="str">
         <f t="shared" si="0"/>
         <v>display00801=</v>
@@ -30948,19 +31444,19 @@
         <v>22</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E29" s="68" t="s">
-        <v>250</v>
-      </c>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="E29" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
       <c r="K29" t="str">
         <f t="shared" si="0"/>
         <v>display00802=</v>
@@ -30971,19 +31467,19 @@
         <v>23</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E30" s="68" t="s">
-        <v>251</v>
-      </c>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="E30" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
         <v>display00803=</v>
@@ -30994,19 +31490,19 @@
         <v>24</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E31" s="68" t="s">
-        <v>252</v>
-      </c>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="E31" s="67" t="s">
+        <v>248</v>
+      </c>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
       <c r="K31" t="str">
         <f t="shared" si="0"/>
         <v>display00804=</v>
@@ -31017,19 +31513,19 @@
         <v>25</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E32" s="68" t="s">
-        <v>253</v>
-      </c>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="E32" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
       <c r="K32" t="str">
         <f t="shared" si="0"/>
         <v>display00901=</v>
@@ -31040,19 +31536,19 @@
         <v>26</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E33" s="68" t="s">
-        <v>254</v>
-      </c>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="E33" s="67" t="s">
+        <v>250</v>
+      </c>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
       <c r="K33" t="str">
         <f t="shared" si="0"/>
         <v>display00902=</v>
@@ -31063,19 +31559,19 @@
         <v>27</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E34" s="68" t="s">
-        <v>255</v>
-      </c>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="E34" s="67" t="s">
+        <v>251</v>
+      </c>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
       <c r="K34" t="str">
         <f t="shared" si="0"/>
         <v>display00903=</v>
@@ -31086,21 +31582,21 @@
         <v>28</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E35" s="67" t="s">
-        <v>256</v>
-      </c>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
+        <v>176</v>
+      </c>
+      <c r="E35" s="66" t="s">
+        <v>252</v>
+      </c>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
       <c r="K35" t="str">
         <f t="shared" si="0"/>
         <v>password.policy=</v>
@@ -31111,21 +31607,21 @@
         <v>29</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E36" s="67" t="s">
-        <v>257</v>
-      </c>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
+        <v>176</v>
+      </c>
+      <c r="E36" s="66" t="s">
+        <v>253</v>
+      </c>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
       <c r="K36" t="str">
         <f t="shared" si="0"/>
         <v>judge.class=</v>
@@ -31136,21 +31632,21 @@
         <v>30</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E37" s="67" t="s">
-        <v>258</v>
-      </c>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
+        <v>175</v>
+      </c>
+      <c r="E37" s="66" t="s">
+        <v>254</v>
+      </c>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
       <c r="K37" t="str">
         <f t="shared" si="0"/>
         <v>force.pass.change=</v>
@@ -31161,21 +31657,21 @@
         <v>31</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E38" s="67" t="s">
-        <v>259</v>
-      </c>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
+        <v>176</v>
+      </c>
+      <c r="E38" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
       <c r="K38" t="str">
         <f t="shared" si="0"/>
         <v>judge.result.table.name=</v>
@@ -31186,21 +31682,21 @@
         <v>32</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E39" s="68" t="s">
-        <v>267</v>
-      </c>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68"/>
+        <v>262</v>
+      </c>
+      <c r="E39" s="67" t="s">
+        <v>263</v>
+      </c>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
       <c r="K39" t="str">
         <f t="shared" si="0"/>
         <v>pwd.hash.salt=</v>
@@ -31211,21 +31707,21 @@
         <v>33</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E40" s="68" t="s">
-        <v>307</v>
-      </c>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="E40" s="67" t="s">
+        <v>303</v>
+      </c>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
       <c r="K40" t="str">
         <f t="shared" ref="K40" si="1">B40&amp;"="</f>
         <v>upload.directory=</v>
@@ -31236,21 +31732,21 @@
         <v>34</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E41" s="68" t="s">
-        <v>309</v>
-      </c>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="E41" s="67" t="s">
+        <v>305</v>
+      </c>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
       <c r="K41" t="str">
         <f t="shared" ref="K41" si="2">B41&amp;"="</f>
         <v>result.directory=</v>
@@ -31307,6 +31803,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31324,6 +31821,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31336,17 +31834,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="72"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -31355,11 +31853,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="75"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="74"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -31370,11 +31868,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="75"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -31385,11 +31883,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -31402,11 +31900,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -31417,11 +31915,11 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="75"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -31441,17 +31939,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="72"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="71"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -31729,26 +32227,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="70" t="s">
+      <c r="A34" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="72"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="71"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="76" t="s">
+      <c r="B35" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="77"/>
+      <c r="C35" s="76"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -31756,100 +32254,100 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="76" t="s">
+      <c r="G35" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="78"/>
-      <c r="I35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="76"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="73" t="s">
+      <c r="B36" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="75"/>
-      <c r="D36" s="73" t="s">
+      <c r="C36" s="74"/>
+      <c r="D36" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="75"/>
+      <c r="E36" s="74"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="73"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="75"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="74"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="73" t="s">
+      <c r="B37" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="75"/>
-      <c r="D37" s="73" t="s">
+      <c r="C37" s="74"/>
+      <c r="D37" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="75"/>
+      <c r="E37" s="74"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="73"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="75"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="74"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="73" t="s">
+      <c r="B38" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="75"/>
-      <c r="D38" s="73" t="s">
+      <c r="C38" s="74"/>
+      <c r="D38" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="75"/>
+      <c r="E38" s="74"/>
       <c r="F38" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="73"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="75"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="74"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="73" t="s">
+      <c r="B39" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="75"/>
-      <c r="D39" s="73" t="s">
+      <c r="C39" s="74"/>
+      <c r="D39" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="75"/>
+      <c r="E39" s="74"/>
       <c r="F39" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="73"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="75"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="74"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="70" t="s">
+      <c r="A40" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="71"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="72"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="71"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="29"/>
@@ -32193,6 +32691,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -32205,17 +32704,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="72"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -32224,11 +32723,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="75"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="74"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -32239,11 +32738,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="75"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -32254,11 +32753,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -32271,11 +32770,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -32286,13 +32785,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="75"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -32312,17 +32811,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="72"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="71"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -32600,26 +33099,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="70" t="s">
+      <c r="A34" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="72"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="71"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="76" t="s">
+      <c r="B35" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="77"/>
+      <c r="C35" s="76"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -32627,30 +33126,30 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="76" t="s">
+      <c r="G35" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="78"/>
-      <c r="I35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="76"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="73" t="s">
+      <c r="B36" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="75"/>
-      <c r="D36" s="73" t="s">
+      <c r="C36" s="74"/>
+      <c r="D36" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="75"/>
+      <c r="E36" s="74"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="73"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="75"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="74"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="27">
@@ -32660,16 +33159,16 @@
         <v>36</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="73" t="s">
+      <c r="D37" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="75"/>
+      <c r="E37" s="74"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="73"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="75"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="74"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="27">
@@ -32679,16 +33178,16 @@
         <v>37</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="73" t="s">
+      <c r="D38" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="75"/>
+      <c r="E38" s="74"/>
       <c r="F38" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="73"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="75"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="74"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="27">
@@ -32751,33 +33250,33 @@
       <c r="A42" s="27">
         <v>7</v>
       </c>
-      <c r="B42" s="73"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="73" t="s">
+      <c r="B42" s="72"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="75"/>
+      <c r="E42" s="74"/>
       <c r="F42" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="73" t="s">
+      <c r="G42" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="H42" s="74"/>
-      <c r="I42" s="75"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="74"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="70" t="s">
+      <c r="A43" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="72"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="71"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="29"/>
@@ -33119,6 +33618,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -33131,17 +33631,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="72"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -33150,11 +33650,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="75"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="74"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -33165,11 +33665,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="75"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -33180,11 +33680,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -33197,11 +33697,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -33212,13 +33712,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="75"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -33238,17 +33738,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="72"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="71"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -33526,26 +34026,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="70" t="s">
+      <c r="A34" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="72"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="71"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="76" t="s">
+      <c r="B35" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="77"/>
+      <c r="C35" s="76"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -33553,30 +34053,30 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="76" t="s">
+      <c r="G35" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="78"/>
-      <c r="I35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="76"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="73" t="s">
+      <c r="B36" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="75"/>
-      <c r="D36" s="73" t="s">
+      <c r="C36" s="74"/>
+      <c r="D36" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="75"/>
+      <c r="E36" s="74"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="73"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="75"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="74"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="27">
@@ -33584,39 +34084,39 @@
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="31"/>
-      <c r="D37" s="73" t="s">
+      <c r="D37" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="75"/>
+      <c r="E37" s="74"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="73" t="s">
+      <c r="G37" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="74"/>
-      <c r="I37" s="75"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="74"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="27">
         <v>3</v>
       </c>
-      <c r="B38" s="73" t="s">
+      <c r="B38" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="75"/>
-      <c r="D38" s="73" t="s">
+      <c r="C38" s="74"/>
+      <c r="D38" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="75"/>
+      <c r="E38" s="74"/>
       <c r="F38" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="73" t="s">
+      <c r="G38" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="74"/>
-      <c r="I38" s="75"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="74"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="27">
@@ -33626,16 +34126,16 @@
         <v>45</v>
       </c>
       <c r="C39" s="31"/>
-      <c r="D39" s="73" t="s">
+      <c r="D39" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="75"/>
+      <c r="E39" s="74"/>
       <c r="F39" s="27"/>
-      <c r="G39" s="73" t="s">
+      <c r="G39" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="H39" s="74"/>
-      <c r="I39" s="75"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="74"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="27">
@@ -33658,20 +34158,20 @@
       <c r="A41" s="27">
         <v>6</v>
       </c>
-      <c r="B41" s="73" t="s">
+      <c r="B41" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="75"/>
-      <c r="D41" s="73" t="s">
+      <c r="C41" s="74"/>
+      <c r="D41" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="75"/>
+      <c r="E41" s="74"/>
       <c r="F41" s="27"/>
-      <c r="G41" s="73" t="s">
+      <c r="G41" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="H41" s="74"/>
-      <c r="I41" s="75"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="74"/>
     </row>
     <row r="42" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="27">
@@ -33686,43 +34186,43 @@
       </c>
       <c r="E42" s="31"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="79" t="s">
+      <c r="G42" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="H42" s="74"/>
-      <c r="I42" s="75"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="74"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="27">
         <v>8</v>
       </c>
-      <c r="B43" s="73"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="73" t="s">
+      <c r="B43" s="72"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="75"/>
+      <c r="E43" s="74"/>
       <c r="F43" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="73" t="s">
+      <c r="G43" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="H43" s="74"/>
-      <c r="I43" s="75"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="74"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="70" t="s">
+      <c r="A44" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="72"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="71"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="29"/>
@@ -34079,9 +34579,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
@@ -34091,17 +34592,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="72"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -34110,11 +34611,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="75"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="74"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -34125,11 +34626,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="75"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -34140,11 +34641,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -34157,11 +34658,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -34172,13 +34673,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="75"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -34198,17 +34699,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="72"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="71"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -34640,26 +35141,26 @@
       <c r="I47" s="23"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="70" t="s">
+      <c r="A48" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="71"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="72"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="71"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="76" t="s">
+      <c r="B49" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="77"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="25" t="s">
         <v>18</v>
       </c>
@@ -34667,30 +35168,30 @@
       <c r="F49" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="76" t="s">
+      <c r="G49" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="H49" s="78"/>
-      <c r="I49" s="77"/>
+      <c r="H49" s="77"/>
+      <c r="I49" s="76"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="27">
         <v>1</v>
       </c>
-      <c r="B50" s="73" t="s">
+      <c r="B50" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="75"/>
-      <c r="D50" s="73" t="s">
+      <c r="C50" s="74"/>
+      <c r="D50" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="75"/>
+      <c r="E50" s="74"/>
       <c r="F50" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G50" s="73"/>
-      <c r="H50" s="74"/>
-      <c r="I50" s="75"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="74"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="27">
@@ -34698,69 +35199,69 @@
       </c>
       <c r="B51" s="30"/>
       <c r="C51" s="31"/>
-      <c r="D51" s="73" t="s">
+      <c r="D51" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="75"/>
+      <c r="E51" s="74"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="73" t="s">
+      <c r="G51" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="H51" s="74"/>
-      <c r="I51" s="75"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="74"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="27">
         <v>3</v>
       </c>
-      <c r="B52" s="73"/>
-      <c r="C52" s="75"/>
-      <c r="D52" s="73" t="s">
+      <c r="B52" s="72"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="75"/>
+      <c r="E52" s="74"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="73" t="s">
+      <c r="G52" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="H52" s="74"/>
-      <c r="I52" s="75"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="74"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
         <v>4</v>
       </c>
-      <c r="B53" s="73" t="s">
+      <c r="B53" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="75"/>
-      <c r="D53" s="73" t="s">
+      <c r="C53" s="74"/>
+      <c r="D53" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="75"/>
+      <c r="E53" s="74"/>
       <c r="F53" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G53" s="73" t="s">
+      <c r="G53" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="H53" s="74"/>
-      <c r="I53" s="75"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="74"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="27">
         <v>5</v>
       </c>
-      <c r="B54" s="73"/>
-      <c r="C54" s="75"/>
-      <c r="D54" s="73" t="s">
+      <c r="B54" s="72"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="75"/>
+      <c r="E54" s="74"/>
       <c r="F54" s="27" t="s">
         <v>22</v>
       </c>
@@ -34774,14 +35275,14 @@
       <c r="A55" s="27">
         <v>6</v>
       </c>
-      <c r="B55" s="73" t="s">
+      <c r="B55" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="75"/>
-      <c r="D55" s="73" t="s">
+      <c r="C55" s="74"/>
+      <c r="D55" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="E55" s="75"/>
+      <c r="E55" s="74"/>
       <c r="F55" s="27" t="s">
         <v>22</v>
       </c>
@@ -34795,124 +35296,124 @@
       <c r="A56" s="27">
         <v>7</v>
       </c>
-      <c r="B56" s="73" t="s">
+      <c r="B56" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="75"/>
-      <c r="D56" s="73" t="s">
+      <c r="C56" s="74"/>
+      <c r="D56" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="E56" s="75"/>
+      <c r="E56" s="74"/>
       <c r="F56" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G56" s="79" t="s">
+      <c r="G56" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="H56" s="80"/>
-      <c r="I56" s="81"/>
+      <c r="H56" s="79"/>
+      <c r="I56" s="80"/>
     </row>
     <row r="57" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="27">
         <v>8</v>
       </c>
-      <c r="B57" s="73" t="s">
+      <c r="B57" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="75"/>
-      <c r="D57" s="73" t="s">
+      <c r="C57" s="74"/>
+      <c r="D57" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="75"/>
+      <c r="E57" s="74"/>
       <c r="F57" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G57" s="79" t="s">
+      <c r="G57" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="H57" s="80"/>
-      <c r="I57" s="81"/>
+      <c r="H57" s="79"/>
+      <c r="I57" s="80"/>
     </row>
     <row r="58" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="27">
         <v>9</v>
       </c>
-      <c r="B58" s="73" t="s">
+      <c r="B58" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="75"/>
-      <c r="D58" s="73" t="s">
+      <c r="C58" s="74"/>
+      <c r="D58" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="75"/>
+      <c r="E58" s="74"/>
       <c r="F58" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G58" s="79" t="s">
+      <c r="G58" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="H58" s="80"/>
-      <c r="I58" s="81"/>
+      <c r="H58" s="79"/>
+      <c r="I58" s="80"/>
     </row>
     <row r="59" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="27">
         <v>10</v>
       </c>
-      <c r="B59" s="73" t="s">
+      <c r="B59" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="75"/>
-      <c r="D59" s="73" t="s">
+      <c r="C59" s="74"/>
+      <c r="D59" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="E59" s="75"/>
+      <c r="E59" s="74"/>
       <c r="F59" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G59" s="79" t="s">
+      <c r="G59" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="H59" s="80"/>
-      <c r="I59" s="81"/>
+      <c r="H59" s="79"/>
+      <c r="I59" s="80"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="27">
         <v>11</v>
       </c>
-      <c r="B60" s="73"/>
-      <c r="C60" s="75"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="74"/>
       <c r="D60" s="30"/>
       <c r="E60" s="31"/>
       <c r="F60" s="27"/>
-      <c r="G60" s="79"/>
-      <c r="H60" s="74"/>
-      <c r="I60" s="75"/>
+      <c r="G60" s="78"/>
+      <c r="H60" s="73"/>
+      <c r="I60" s="74"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="27">
         <v>12</v>
       </c>
-      <c r="B61" s="73"/>
-      <c r="C61" s="75"/>
-      <c r="D61" s="73"/>
-      <c r="E61" s="75"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="74"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="74"/>
       <c r="F61" s="27"/>
-      <c r="G61" s="73"/>
-      <c r="H61" s="74"/>
-      <c r="I61" s="75"/>
+      <c r="G61" s="72"/>
+      <c r="H61" s="73"/>
+      <c r="I61" s="74"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="70" t="s">
+      <c r="A62" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="71"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="72"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="71"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="29"/>
@@ -35294,10 +35795,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -35306,17 +35808,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="72"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -35325,11 +35827,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="75"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="74"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -35340,11 +35842,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="75"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -35355,11 +35857,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -35372,11 +35874,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -35387,13 +35889,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="75"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -35413,17 +35915,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="72"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="71"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -35701,26 +36203,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="70" t="s">
+      <c r="A34" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="72"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="71"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="76" t="s">
+      <c r="B35" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="77"/>
+      <c r="C35" s="76"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -35728,30 +36230,30 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="76" t="s">
+      <c r="G35" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="78"/>
-      <c r="I35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="76"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="73" t="s">
+      <c r="B36" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="75"/>
-      <c r="D36" s="73" t="s">
+      <c r="C36" s="74"/>
+      <c r="D36" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="75"/>
+      <c r="E36" s="74"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="73"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="75"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="74"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="27">
@@ -35778,16 +36280,16 @@
       </c>
       <c r="B38" s="36"/>
       <c r="C38" s="37"/>
-      <c r="D38" s="73" t="s">
+      <c r="D38" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="75"/>
+      <c r="E38" s="74"/>
       <c r="F38" s="27"/>
-      <c r="G38" s="73" t="s">
+      <c r="G38" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="H38" s="74"/>
-      <c r="I38" s="75"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="74"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="27">
@@ -35850,20 +36352,20 @@
       <c r="A42" s="27">
         <v>7</v>
       </c>
-      <c r="B42" s="73" t="s">
+      <c r="B42" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="75"/>
-      <c r="D42" s="73" t="s">
+      <c r="C42" s="74"/>
+      <c r="D42" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="75"/>
+      <c r="E42" s="74"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="73" t="s">
+      <c r="G42" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="H42" s="74"/>
-      <c r="I42" s="75"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="74"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="27">
@@ -35907,33 +36409,33 @@
       <c r="A45" s="27">
         <v>10</v>
       </c>
-      <c r="B45" s="73" t="s">
+      <c r="B45" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="75"/>
-      <c r="D45" s="73" t="s">
+      <c r="C45" s="74"/>
+      <c r="D45" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="75"/>
+      <c r="E45" s="74"/>
       <c r="F45" s="27"/>
-      <c r="G45" s="73" t="s">
+      <c r="G45" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="H45" s="74"/>
-      <c r="I45" s="75"/>
+      <c r="H45" s="73"/>
+      <c r="I45" s="74"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="70" t="s">
+      <c r="A46" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="71"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="72"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="71"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="29"/>
@@ -35954,7 +36456,7 @@
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
       <c r="E48" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
@@ -35969,7 +36471,7 @@
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
       <c r="E49" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
@@ -35991,13 +36493,13 @@
       <c r="A51" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="B51" s="82" t="s">
+      <c r="B51" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="C51" s="82"/>
+      <c r="C51" s="81"/>
       <c r="D51" s="18"/>
       <c r="E51" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F51" s="46" t="s">
         <v>123</v>
@@ -36010,16 +36512,16 @@
       <c r="A52" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B52" s="68" t="s">
+      <c r="B52" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="68"/>
+      <c r="C52" s="67"/>
       <c r="D52" s="18"/>
       <c r="E52" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="F52" s="44" t="s">
         <v>132</v>
-      </c>
-      <c r="F52" s="44" t="s">
-        <v>133</v>
       </c>
       <c r="G52" s="45"/>
       <c r="H52" s="8"/>
@@ -36029,16 +36531,16 @@
       <c r="A53" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B53" s="68" t="s">
-        <v>128</v>
-      </c>
-      <c r="C53" s="68"/>
+      <c r="B53" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="67"/>
       <c r="D53" s="18"/>
       <c r="E53" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="F53" s="44" t="s">
         <v>134</v>
-      </c>
-      <c r="F53" s="44" t="s">
-        <v>135</v>
       </c>
       <c r="G53" s="45"/>
       <c r="H53" s="8"/>
@@ -36048,10 +36550,10 @@
       <c r="A54" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B54" s="68" t="s">
-        <v>128</v>
-      </c>
-      <c r="C54" s="68"/>
+      <c r="B54" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="67"/>
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
       <c r="F54" s="18"/>
@@ -36065,7 +36567,7 @@
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
       <c r="E55" s="41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
@@ -36078,7 +36580,7 @@
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
       <c r="E56" s="41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
@@ -36091,7 +36593,7 @@
       <c r="C57" s="18"/>
       <c r="D57" s="18"/>
       <c r="E57" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
@@ -36104,7 +36606,7 @@
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
       <c r="E58" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
@@ -36117,7 +36619,7 @@
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
       <c r="E59" s="41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
@@ -36130,7 +36632,7 @@
       <c r="C60" s="18"/>
       <c r="D60" s="18"/>
       <c r="E60" s="41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
@@ -36143,7 +36645,7 @@
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
       <c r="E61" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
@@ -36330,6 +36832,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
@@ -36342,17 +36845,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="72"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -36361,11 +36864,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="75"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="74"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -36376,11 +36879,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="75"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -36391,11 +36894,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -36408,11 +36911,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -36423,13 +36926,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="75"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -36449,17 +36952,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="72"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="71"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -36957,26 +37460,26 @@
       <c r="I53" s="23"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="70" t="s">
+      <c r="A54" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="71"/>
-      <c r="I54" s="72"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="71"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="76" t="s">
+      <c r="B55" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="77"/>
+      <c r="C55" s="76"/>
       <c r="D55" s="25" t="s">
         <v>18</v>
       </c>
@@ -36984,30 +37487,30 @@
       <c r="F55" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="76" t="s">
+      <c r="G55" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="H55" s="78"/>
-      <c r="I55" s="77"/>
+      <c r="H55" s="77"/>
+      <c r="I55" s="76"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="27">
         <v>1</v>
       </c>
-      <c r="B56" s="73" t="s">
+      <c r="B56" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="75"/>
-      <c r="D56" s="73" t="s">
+      <c r="C56" s="74"/>
+      <c r="D56" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="75"/>
+      <c r="E56" s="74"/>
       <c r="F56" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G56" s="73"/>
-      <c r="H56" s="74"/>
-      <c r="I56" s="75"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="74"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="27">
@@ -37015,37 +37518,37 @@
       </c>
       <c r="B57" s="33"/>
       <c r="C57" s="35"/>
-      <c r="D57" s="73" t="s">
+      <c r="D57" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="75"/>
+      <c r="E57" s="74"/>
       <c r="F57" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G57" s="73" t="s">
+      <c r="G57" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="H57" s="74"/>
-      <c r="I57" s="75"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="74"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="27">
         <v>3</v>
       </c>
-      <c r="B58" s="73" t="s">
+      <c r="B58" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="75"/>
-      <c r="D58" s="73" t="s">
+      <c r="C58" s="74"/>
+      <c r="D58" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="75"/>
+      <c r="E58" s="74"/>
       <c r="F58" s="27"/>
-      <c r="G58" s="73" t="s">
+      <c r="G58" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="H58" s="74"/>
-      <c r="I58" s="75"/>
+      <c r="H58" s="73"/>
+      <c r="I58" s="74"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="27">
@@ -37055,18 +37558,18 @@
         <v>82</v>
       </c>
       <c r="C59" s="35"/>
-      <c r="D59" s="73" t="s">
+      <c r="D59" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="75"/>
+      <c r="E59" s="74"/>
       <c r="F59" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G59" s="73" t="s">
+      <c r="G59" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H59" s="74"/>
-      <c r="I59" s="75"/>
+      <c r="H59" s="73"/>
+      <c r="I59" s="74"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="27">
@@ -37091,20 +37594,20 @@
       <c r="A61" s="27">
         <v>6</v>
       </c>
-      <c r="B61" s="73" t="s">
+      <c r="B61" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="C61" s="75"/>
-      <c r="D61" s="73" t="s">
+      <c r="C61" s="74"/>
+      <c r="D61" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="E61" s="75"/>
+      <c r="E61" s="74"/>
       <c r="F61" s="27"/>
-      <c r="G61" s="73" t="s">
+      <c r="G61" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="H61" s="74"/>
-      <c r="I61" s="75"/>
+      <c r="H61" s="73"/>
+      <c r="I61" s="74"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="27">
@@ -37119,113 +37622,113 @@
       </c>
       <c r="E62" s="35"/>
       <c r="F62" s="27"/>
-      <c r="G62" s="79" t="s">
+      <c r="G62" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="H62" s="74"/>
-      <c r="I62" s="75"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="74"/>
     </row>
     <row r="63" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="27">
         <v>8</v>
       </c>
-      <c r="B63" s="73" t="s">
+      <c r="B63" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="C63" s="75"/>
+      <c r="C63" s="74"/>
       <c r="D63" s="33" t="s">
         <v>83</v>
       </c>
       <c r="E63" s="35"/>
       <c r="F63" s="27"/>
-      <c r="G63" s="79" t="s">
+      <c r="G63" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="H63" s="74"/>
-      <c r="I63" s="75"/>
+      <c r="H63" s="73"/>
+      <c r="I63" s="74"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="27">
         <v>9</v>
       </c>
-      <c r="B64" s="73" t="s">
+      <c r="B64" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="75"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="75"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="74"/>
       <c r="F64" s="27"/>
-      <c r="G64" s="73" t="s">
+      <c r="G64" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="H64" s="74"/>
-      <c r="I64" s="75"/>
+      <c r="H64" s="73"/>
+      <c r="I64" s="74"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="27">
         <v>10</v>
       </c>
-      <c r="B65" s="73" t="s">
+      <c r="B65" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="75"/>
-      <c r="D65" s="73" t="s">
+      <c r="C65" s="74"/>
+      <c r="D65" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="E65" s="75"/>
+      <c r="E65" s="74"/>
       <c r="F65" s="27"/>
-      <c r="G65" s="73" t="s">
-        <v>145</v>
-      </c>
-      <c r="H65" s="74"/>
-      <c r="I65" s="75"/>
+      <c r="G65" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="H65" s="73"/>
+      <c r="I65" s="74"/>
     </row>
     <row r="66" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="27">
         <v>11</v>
       </c>
-      <c r="B66" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="C66" s="75"/>
-      <c r="D66" s="73" t="s">
+      <c r="B66" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="74"/>
+      <c r="D66" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="E66" s="74"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="E66" s="75"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="79" t="s">
-        <v>147</v>
-      </c>
-      <c r="H66" s="74"/>
-      <c r="I66" s="75"/>
+      <c r="H66" s="73"/>
+      <c r="I66" s="74"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="27">
         <v>12</v>
       </c>
-      <c r="B67" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67" s="75"/>
-      <c r="D67" s="73"/>
-      <c r="E67" s="75"/>
+      <c r="B67" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="74"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="74"/>
       <c r="F67" s="27"/>
-      <c r="G67" s="73"/>
-      <c r="H67" s="74"/>
-      <c r="I67" s="75"/>
+      <c r="G67" s="72"/>
+      <c r="H67" s="73"/>
+      <c r="I67" s="74"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="70" t="s">
+      <c r="A68" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B68" s="71"/>
-      <c r="C68" s="71"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="71"/>
-      <c r="I68" s="72"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="70"/>
+      <c r="G68" s="70"/>
+      <c r="H68" s="70"/>
+      <c r="I68" s="71"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="29"/>
@@ -37465,12 +37968,12 @@
       <c r="B90" s="40">
         <v>1</v>
       </c>
-      <c r="C90" s="83" t="s">
+      <c r="C90" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="D90" s="83"/>
-      <c r="E90" s="83"/>
-      <c r="F90" s="83"/>
+      <c r="D90" s="82"/>
+      <c r="E90" s="82"/>
+      <c r="F90" s="82"/>
       <c r="G90" s="18"/>
       <c r="H90" s="18"/>
       <c r="I90" s="20"/>
@@ -37480,12 +37983,12 @@
       <c r="B91" s="40">
         <v>2</v>
       </c>
-      <c r="C91" s="83" t="s">
+      <c r="C91" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="D91" s="83"/>
-      <c r="E91" s="83"/>
-      <c r="F91" s="83"/>
+      <c r="D91" s="82"/>
+      <c r="E91" s="82"/>
+      <c r="F91" s="82"/>
       <c r="G91" s="18"/>
       <c r="H91" s="18"/>
       <c r="I91" s="20"/>
@@ -37495,12 +37998,12 @@
       <c r="B92" s="40">
         <v>3</v>
       </c>
-      <c r="C92" s="83" t="s">
+      <c r="C92" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="D92" s="83"/>
-      <c r="E92" s="83"/>
-      <c r="F92" s="83"/>
+      <c r="D92" s="82"/>
+      <c r="E92" s="82"/>
+      <c r="F92" s="82"/>
       <c r="G92" s="18"/>
       <c r="H92" s="18"/>
       <c r="I92" s="20"/>
@@ -37510,12 +38013,12 @@
       <c r="B93" s="40">
         <v>4</v>
       </c>
-      <c r="C93" s="83" t="s">
+      <c r="C93" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="D93" s="83"/>
-      <c r="E93" s="83"/>
-      <c r="F93" s="83"/>
+      <c r="D93" s="82"/>
+      <c r="E93" s="82"/>
+      <c r="F93" s="82"/>
       <c r="G93" s="18"/>
       <c r="H93" s="18"/>
       <c r="I93" s="20"/>

--- a/設計書/設計書もどき.xlsx
+++ b/設計書/設計書もどき.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="313">
   <si>
     <t>画面レイアウト定義</t>
     <rPh sb="0" eb="2">
@@ -3897,12 +3897,14 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3916,7 +3918,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3937,6 +3938,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3959,8 +3961,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -27728,7 +27728,7 @@
   <dimension ref="A2:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27739,25 +27739,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="55" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55" t="s">
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="60" t="s">
         <v>273</v>
       </c>
     </row>
@@ -27768,7 +27768,7 @@
       <c r="B3" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="51" t="s">
         <v>124</v>
       </c>
@@ -27778,18 +27778,18 @@
       <c r="F3" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="63">
+      <c r="A4" s="65">
         <v>0</v>
       </c>
       <c r="B4" s="53">
         <v>1</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="55" t="s">
         <v>185</v>
       </c>
       <c r="D4" s="27" t="s">
@@ -27819,7 +27819,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="64"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="53">
         <v>2</v>
       </c>
@@ -27830,26 +27830,28 @@
         <v>211</v>
       </c>
       <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
+      <c r="F5" s="27" t="s">
+        <v>211</v>
+      </c>
       <c r="G5" s="2" t="str">
         <f t="shared" ref="G5:G7" si="0">"display"&amp;TEXT($A$4,"000")&amp;TEXT(B5,"00")</f>
         <v>display00002</v>
       </c>
       <c r="H5" s="2" t="str">
         <f xml:space="preserve"> IF(D5="○","0,","")&amp;IF(E5="○","1,","")&amp;IF(F5="○","2","")</f>
-        <v>0,</v>
+        <v>0,2</v>
       </c>
       <c r="I5" s="2" t="str">
         <f t="shared" ref="I5:I29" si="1">IF(RIGHT(H5,1)=",",LEFT(H5,LEN(H5)-1),H5)</f>
-        <v>0</v>
+        <v>0,2</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" ref="J5:J29" si="2">G5&amp;"="&amp;I5</f>
-        <v>display00002=0</v>
+        <v>display00002=0,2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="64"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="53">
         <v>3</v>
       </c>
@@ -27860,26 +27862,28 @@
       <c r="E6" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="F6" s="27"/>
+      <c r="F6" s="27" t="s">
+        <v>211</v>
+      </c>
       <c r="G6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>display00003</v>
       </c>
       <c r="H6" s="2" t="str">
         <f t="shared" ref="H6:H29" si="3">IF(D6="○","0,","")&amp;IF(E6="○","1,","")&amp;IF(F6="○","2","")</f>
-        <v>1,</v>
+        <v>1,2</v>
       </c>
       <c r="I6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1,2</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="2"/>
-        <v>display00003=1</v>
+        <v>display00003=1,2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="65"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="53">
         <v>4</v>
       </c>
@@ -27909,75 +27913,79 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="59">
+      <c r="A8" s="61">
         <v>1</v>
       </c>
       <c r="B8" s="53">
         <v>1</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="56" t="s">
         <v>187</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>211</v>
       </c>
       <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
+      <c r="F8" s="27" t="s">
+        <v>211</v>
+      </c>
       <c r="G8" s="2" t="str">
         <f>"display"&amp;TEXT($A$8,"000")&amp;TEXT(B8,"00")</f>
         <v>display00101</v>
       </c>
       <c r="H8" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0,</v>
+        <v>0,2</v>
       </c>
       <c r="I8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0,2</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="2"/>
-        <v>display00101=0</v>
+        <v>display00101=0,2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="60"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="53">
         <v>2</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="56" t="s">
         <v>188</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>211</v>
       </c>
       <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="F9" s="27" t="s">
+        <v>211</v>
+      </c>
       <c r="G9" s="2" t="str">
         <f>"display"&amp;TEXT($A$8,"000")&amp;TEXT(B9,"00")</f>
         <v>display00102</v>
       </c>
       <c r="H9" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0,</v>
+        <v>0,2</v>
       </c>
       <c r="I9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0,2</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="2"/>
-        <v>display00102=0</v>
+        <v>display00102=0,2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="56">
+      <c r="A10" s="57">
         <v>2</v>
       </c>
       <c r="B10" s="53">
         <v>1</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="56" t="s">
         <v>201</v>
       </c>
       <c r="D10" s="27" t="s">
@@ -27986,30 +27994,32 @@
       <c r="E10" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="27" t="s">
+        <v>211</v>
+      </c>
       <c r="G10" s="2" t="str">
         <f>"display"&amp;TEXT($A$10,"000")&amp;TEXT(B10,"00")</f>
         <v>display00201</v>
       </c>
       <c r="H10" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0,1,</v>
+        <v>0,1,2</v>
       </c>
       <c r="I10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0,1</v>
+        <v>0,1,2</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="2"/>
-        <v>display00201=0,1</v>
+        <v>display00201=0,1,2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="58"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="53">
         <v>2</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="56" t="s">
         <v>189</v>
       </c>
       <c r="D11" s="27" t="s">
@@ -28018,26 +28028,28 @@
       <c r="E11" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="27" t="s">
+        <v>211</v>
+      </c>
       <c r="G11" s="2" t="str">
         <f>"display"&amp;TEXT($A$10,"000")&amp;TEXT(B11,"00")</f>
         <v>display00202</v>
       </c>
       <c r="H11" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0,1,</v>
+        <v>0,1,2</v>
       </c>
       <c r="I11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0,1</v>
+        <v>0,1,2</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="2"/>
-        <v>display00202=0,1</v>
+        <v>display00202=0,1,2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="56">
+      <c r="A12" s="57">
         <v>3</v>
       </c>
       <c r="B12" s="53">
@@ -28052,26 +28064,28 @@
       <c r="E12" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="27" t="s">
+        <v>211</v>
+      </c>
       <c r="G12" s="2" t="str">
         <f>"display"&amp;TEXT($A$12,"000")&amp;TEXT(B12,"00")</f>
         <v>display00301</v>
       </c>
       <c r="H12" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0,1,</v>
+        <v>0,1,2</v>
       </c>
       <c r="I12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0,1</v>
+        <v>0,1,2</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="2"/>
-        <v>display00301=0,1</v>
+        <v>display00301=0,1,2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="58"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="53">
         <v>2</v>
       </c>
@@ -28084,26 +28098,28 @@
       <c r="E13" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="F13" s="27"/>
+      <c r="F13" s="27" t="s">
+        <v>211</v>
+      </c>
       <c r="G13" s="2" t="str">
         <f>"display"&amp;TEXT($A$12,"000")&amp;TEXT(B13,"00")</f>
         <v>display00302</v>
       </c>
       <c r="H13" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0,1,</v>
+        <v>0,1,2</v>
       </c>
       <c r="I13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0,1</v>
+        <v>0,1,2</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="2"/>
-        <v>display00302=0,1</v>
+        <v>display00302=0,1,2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="59">
+      <c r="A14" s="61">
         <v>4</v>
       </c>
       <c r="B14" s="53">
@@ -28118,26 +28134,28 @@
       <c r="E14" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="F14" s="27"/>
+      <c r="F14" s="27" t="s">
+        <v>211</v>
+      </c>
       <c r="G14" s="2" t="str">
         <f>"display"&amp;TEXT($A$14,"000")&amp;TEXT(B14,"00")</f>
         <v>display00401</v>
       </c>
       <c r="H14" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0,1,</v>
+        <v>0,1,2</v>
       </c>
       <c r="I14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0,1</v>
+        <v>0,1,2</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="2"/>
-        <v>display00401=0,1</v>
+        <v>display00401=0,1,2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="60"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="53">
         <v>2</v>
       </c>
@@ -28150,118 +28168,126 @@
       <c r="E15" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="F15" s="27"/>
+      <c r="F15" s="27" t="s">
+        <v>211</v>
+      </c>
       <c r="G15" s="2" t="str">
         <f>"display"&amp;TEXT($A$14,"000")&amp;TEXT(B15,"00")</f>
         <v>display00402</v>
       </c>
       <c r="H15" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0,1,</v>
+        <v>0,1,2</v>
       </c>
       <c r="I15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0,1</v>
+        <v>0,1,2</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="2"/>
-        <v>display00402=0,1</v>
+        <v>display00402=0,1,2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="56">
+      <c r="A16" s="57">
         <v>5</v>
       </c>
       <c r="B16" s="53">
         <v>1</v>
       </c>
-      <c r="C16" s="84" t="s">
+      <c r="C16" s="56" t="s">
         <v>194</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="F16" s="27"/>
+      <c r="F16" s="27" t="s">
+        <v>211</v>
+      </c>
       <c r="G16" s="2" t="str">
         <f>"display"&amp;TEXT($A$16,"000")&amp;TEXT(B16,"00")</f>
         <v>display00501</v>
       </c>
       <c r="H16" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>1,</v>
+        <v>1,2</v>
       </c>
       <c r="I16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1,2</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="2"/>
-        <v>display00501=1</v>
+        <v>display00501=1,2</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="57"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="53">
         <v>2</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="C17" s="56" t="s">
         <v>195</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="F17" s="27"/>
+      <c r="F17" s="27" t="s">
+        <v>211</v>
+      </c>
       <c r="G17" s="2" t="str">
         <f t="shared" ref="G17:G18" si="4">"display"&amp;TEXT($A$16,"000")&amp;TEXT(B17,"00")</f>
         <v>display00502</v>
       </c>
       <c r="H17" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>1,</v>
+        <v>1,2</v>
       </c>
       <c r="I17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1,2</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="2"/>
-        <v>display00502=1</v>
+        <v>display00502=1,2</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="58"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="53">
         <v>3</v>
       </c>
-      <c r="C18" s="84" t="s">
+      <c r="C18" s="56" t="s">
         <v>196</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="F18" s="27"/>
+      <c r="F18" s="27" t="s">
+        <v>211</v>
+      </c>
       <c r="G18" s="2" t="str">
         <f t="shared" si="4"/>
         <v>display00503</v>
       </c>
       <c r="H18" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>1,</v>
+        <v>1,2</v>
       </c>
       <c r="I18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1,2</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="2"/>
-        <v>display00503=1</v>
+        <v>display00503=1,2</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="56">
+      <c r="A19" s="57">
         <v>6</v>
       </c>
       <c r="B19" s="53">
@@ -28274,26 +28300,28 @@
       <c r="E19" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="F19" s="27"/>
+      <c r="F19" s="27" t="s">
+        <v>211</v>
+      </c>
       <c r="G19" s="2" t="str">
         <f>"display"&amp;TEXT($A$19,"000")&amp;TEXT(B19,"00")</f>
         <v>display00601</v>
       </c>
       <c r="H19" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>1,</v>
+        <v>1,2</v>
       </c>
       <c r="I19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1,2</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="2"/>
-        <v>display00601=1</v>
+        <v>display00601=1,2</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="57"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="53">
         <v>2</v>
       </c>
@@ -28304,26 +28332,28 @@
       <c r="E20" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="F20" s="27"/>
+      <c r="F20" s="27" t="s">
+        <v>211</v>
+      </c>
       <c r="G20" s="2" t="str">
         <f t="shared" ref="G20:G21" si="5">"display"&amp;TEXT($A$19,"000")&amp;TEXT(B20,"00")</f>
         <v>display00602</v>
       </c>
       <c r="H20" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>1,</v>
+        <v>1,2</v>
       </c>
       <c r="I20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1,2</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="2"/>
-        <v>display00602=1</v>
+        <v>display00602=1,2</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="58"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="53">
         <v>3</v>
       </c>
@@ -28334,22 +28364,24 @@
       <c r="E21" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="F21" s="27"/>
+      <c r="F21" s="27" t="s">
+        <v>211</v>
+      </c>
       <c r="G21" s="2" t="str">
         <f t="shared" si="5"/>
         <v>display00603</v>
       </c>
       <c r="H21" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>1,</v>
+        <v>1,2</v>
       </c>
       <c r="I21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1,2</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="2"/>
-        <v>display00603=1</v>
+        <v>display00603=1,2</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
@@ -28366,26 +28398,28 @@
       <c r="E22" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="F22" s="27"/>
+      <c r="F22" s="27" t="s">
+        <v>211</v>
+      </c>
       <c r="G22" s="2" t="str">
         <f>"display"&amp;TEXT($A$22,"000")&amp;TEXT(B22,"00")</f>
         <v>display00701</v>
       </c>
       <c r="H22" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>1,</v>
+        <v>1,2</v>
       </c>
       <c r="I22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1,2</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="2"/>
-        <v>display00701=1</v>
+        <v>display00701=1,2</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="56">
+      <c r="A23" s="57">
         <v>8</v>
       </c>
       <c r="B23" s="53">
@@ -28419,11 +28453,11 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="57"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="53">
         <v>2</v>
       </c>
-      <c r="C24" s="84" t="s">
+      <c r="C24" s="56" t="s">
         <v>205</v>
       </c>
       <c r="D24" s="27"/>
@@ -28449,11 +28483,11 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="57"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="53">
         <v>3</v>
       </c>
-      <c r="C25" s="84" t="s">
+      <c r="C25" s="56" t="s">
         <v>206</v>
       </c>
       <c r="D25" s="27"/>
@@ -28479,11 +28513,11 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="58"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="53">
         <v>4</v>
       </c>
-      <c r="C26" s="84" t="s">
+      <c r="C26" s="56" t="s">
         <v>207</v>
       </c>
       <c r="D26" s="27"/>
@@ -28509,7 +28543,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="56">
+      <c r="A27" s="57">
         <v>9</v>
       </c>
       <c r="B27" s="53">
@@ -28543,7 +28577,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="57"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="53">
         <v>2</v>
       </c>
@@ -28575,7 +28609,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="58"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="53">
         <v>3</v>
       </c>
@@ -28639,7 +28673,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="56">
+      <c r="A31" s="57">
         <v>11</v>
       </c>
       <c r="B31" s="53">
@@ -28673,7 +28707,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="57"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="53">
         <v>2</v>
       </c>
@@ -28705,7 +28739,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="58"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="53">
         <v>3</v>
       </c>
@@ -28757,6 +28791,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -28775,17 +28810,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="72"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -28794,11 +28829,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="74"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="75"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -28809,11 +28844,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="75"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -28824,11 +28859,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -28841,11 +28876,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -28856,13 +28891,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="75"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -28882,17 +28917,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="72"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -29335,26 +29370,26 @@
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="69" t="s">
+      <c r="A49" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="71"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="72"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="75" t="s">
+      <c r="B50" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="76"/>
+      <c r="C50" s="78"/>
       <c r="D50" s="25" t="s">
         <v>18</v>
       </c>
@@ -29362,30 +29397,30 @@
       <c r="F50" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="75" t="s">
+      <c r="G50" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="77"/>
-      <c r="I50" s="76"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="78"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="72" t="s">
+      <c r="B51" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="74"/>
-      <c r="D51" s="72" t="s">
+      <c r="C51" s="75"/>
+      <c r="D51" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="74"/>
+      <c r="E51" s="75"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="72"/>
-      <c r="H51" s="73"/>
-      <c r="I51" s="74"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="75"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="27">
@@ -29393,37 +29428,37 @@
       </c>
       <c r="B52" s="36"/>
       <c r="C52" s="37"/>
-      <c r="D52" s="72" t="s">
+      <c r="D52" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="74"/>
+      <c r="E52" s="75"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="72" t="s">
+      <c r="G52" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="73"/>
-      <c r="I52" s="74"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="75"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
         <v>3</v>
       </c>
-      <c r="B53" s="72" t="s">
+      <c r="B53" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="74"/>
-      <c r="D53" s="72" t="s">
+      <c r="C53" s="75"/>
+      <c r="D53" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="74"/>
+      <c r="E53" s="75"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="72" t="s">
+      <c r="G53" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="H53" s="73"/>
-      <c r="I53" s="74"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="75"/>
     </row>
     <row r="54" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="27">
@@ -29433,18 +29468,18 @@
         <v>147</v>
       </c>
       <c r="C54" s="37"/>
-      <c r="D54" s="72" t="s">
+      <c r="D54" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="E54" s="74"/>
+      <c r="E54" s="75"/>
       <c r="F54" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="78" t="s">
+      <c r="G54" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="H54" s="73"/>
-      <c r="I54" s="74"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="75"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="27">
@@ -29467,33 +29502,33 @@
       <c r="A56" s="27">
         <v>6</v>
       </c>
-      <c r="B56" s="72" t="s">
+      <c r="B56" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="C56" s="74"/>
-      <c r="D56" s="72" t="s">
+      <c r="C56" s="75"/>
+      <c r="D56" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="74"/>
+      <c r="E56" s="75"/>
       <c r="F56" s="27"/>
-      <c r="G56" s="72" t="s">
+      <c r="G56" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="H56" s="73"/>
-      <c r="I56" s="74"/>
+      <c r="H56" s="74"/>
+      <c r="I56" s="75"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="69" t="s">
+      <c r="A57" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="70"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="70"/>
-      <c r="I57" s="71"/>
+      <c r="B57" s="71"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="71"/>
+      <c r="I57" s="72"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="29"/>
@@ -29651,19 +29686,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
     <mergeCell ref="A57:I57"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:E56"/>
@@ -29675,6 +29697,19 @@
     <mergeCell ref="G53:I53"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="G54:I54"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29697,17 +29732,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="72"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -29716,11 +29751,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="74"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="75"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -29731,11 +29766,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="75"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -29746,11 +29781,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -29763,11 +29798,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -29778,13 +29813,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="75"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -29804,17 +29839,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="72"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -30257,26 +30292,26 @@
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="69" t="s">
+      <c r="A49" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="71"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="72"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="75" t="s">
+      <c r="B50" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="76"/>
+      <c r="C50" s="78"/>
       <c r="D50" s="25" t="s">
         <v>18</v>
       </c>
@@ -30284,30 +30319,30 @@
       <c r="F50" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="75" t="s">
+      <c r="G50" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="77"/>
-      <c r="I50" s="76"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="78"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="72" t="s">
+      <c r="B51" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="74"/>
-      <c r="D51" s="72" t="s">
+      <c r="C51" s="75"/>
+      <c r="D51" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="74"/>
+      <c r="E51" s="75"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="72"/>
-      <c r="H51" s="73"/>
-      <c r="I51" s="74"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="75"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="27">
@@ -30315,37 +30350,37 @@
       </c>
       <c r="B52" s="36"/>
       <c r="C52" s="37"/>
-      <c r="D52" s="72" t="s">
+      <c r="D52" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="74"/>
+      <c r="E52" s="75"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="72" t="s">
+      <c r="G52" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="73"/>
-      <c r="I52" s="74"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="75"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
         <v>3</v>
       </c>
-      <c r="B53" s="72" t="s">
+      <c r="B53" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="C53" s="74"/>
-      <c r="D53" s="72" t="s">
+      <c r="C53" s="75"/>
+      <c r="D53" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="74"/>
+      <c r="E53" s="75"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="72" t="s">
+      <c r="G53" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="H53" s="73"/>
-      <c r="I53" s="74"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="75"/>
     </row>
     <row r="54" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="27">
@@ -30355,18 +30390,18 @@
         <v>155</v>
       </c>
       <c r="C54" s="37"/>
-      <c r="D54" s="72" t="s">
+      <c r="D54" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="E54" s="74"/>
+      <c r="E54" s="75"/>
       <c r="F54" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="78" t="s">
+      <c r="G54" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="H54" s="73"/>
-      <c r="I54" s="74"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="75"/>
     </row>
     <row r="55" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="27">
@@ -30381,138 +30416,138 @@
       </c>
       <c r="E55" s="37"/>
       <c r="F55" s="27"/>
-      <c r="G55" s="78" t="s">
+      <c r="G55" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="H55" s="73"/>
-      <c r="I55" s="74"/>
+      <c r="H55" s="74"/>
+      <c r="I55" s="75"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="27">
         <v>6</v>
       </c>
-      <c r="B56" s="72" t="s">
+      <c r="B56" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="C56" s="74"/>
-      <c r="D56" s="72" t="s">
+      <c r="C56" s="75"/>
+      <c r="D56" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="E56" s="74"/>
+      <c r="E56" s="75"/>
       <c r="F56" s="27"/>
-      <c r="G56" s="72" t="s">
+      <c r="G56" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="H56" s="73"/>
-      <c r="I56" s="74"/>
+      <c r="H56" s="74"/>
+      <c r="I56" s="75"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="27">
         <v>7</v>
       </c>
-      <c r="B57" s="72" t="s">
+      <c r="B57" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="74"/>
-      <c r="D57" s="72" t="s">
+      <c r="C57" s="75"/>
+      <c r="D57" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="E57" s="74"/>
+      <c r="E57" s="75"/>
       <c r="F57" s="27"/>
-      <c r="G57" s="72" t="s">
+      <c r="G57" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="H57" s="73"/>
-      <c r="I57" s="74"/>
+      <c r="H57" s="74"/>
+      <c r="I57" s="75"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="27">
         <v>8</v>
       </c>
-      <c r="B58" s="72" t="s">
+      <c r="B58" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="C58" s="74"/>
-      <c r="D58" s="72" t="s">
+      <c r="C58" s="75"/>
+      <c r="D58" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="E58" s="74"/>
+      <c r="E58" s="75"/>
       <c r="F58" s="27"/>
-      <c r="G58" s="72" t="s">
+      <c r="G58" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="H58" s="73"/>
-      <c r="I58" s="74"/>
+      <c r="H58" s="74"/>
+      <c r="I58" s="75"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="27">
         <v>9</v>
       </c>
-      <c r="B59" s="72" t="s">
+      <c r="B59" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="C59" s="74"/>
-      <c r="D59" s="72" t="s">
+      <c r="C59" s="75"/>
+      <c r="D59" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="74"/>
+      <c r="E59" s="75"/>
       <c r="F59" s="27"/>
-      <c r="G59" s="72" t="s">
+      <c r="G59" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="H59" s="73"/>
-      <c r="I59" s="74"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="75"/>
     </row>
     <row r="60" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="27">
         <v>10</v>
       </c>
-      <c r="B60" s="72" t="s">
+      <c r="B60" s="73" t="s">
         <v>306</v>
       </c>
-      <c r="C60" s="74"/>
-      <c r="D60" s="72" t="s">
+      <c r="C60" s="75"/>
+      <c r="D60" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="E60" s="74"/>
+      <c r="E60" s="75"/>
       <c r="F60" s="27"/>
-      <c r="G60" s="78" t="s">
+      <c r="G60" s="80" t="s">
         <v>307</v>
       </c>
-      <c r="H60" s="73"/>
-      <c r="I60" s="74"/>
+      <c r="H60" s="74"/>
+      <c r="I60" s="75"/>
     </row>
     <row r="61" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="27">
         <v>11</v>
       </c>
-      <c r="B61" s="72" t="s">
+      <c r="B61" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="C61" s="74"/>
-      <c r="D61" s="72" t="s">
+      <c r="C61" s="75"/>
+      <c r="D61" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="E61" s="74"/>
+      <c r="E61" s="75"/>
       <c r="F61" s="27"/>
-      <c r="G61" s="78" t="s">
+      <c r="G61" s="80" t="s">
         <v>167</v>
       </c>
-      <c r="H61" s="73"/>
-      <c r="I61" s="74"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="75"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="69" t="s">
+      <c r="A62" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="70"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="70"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="70"/>
-      <c r="I62" s="71"/>
+      <c r="B62" s="71"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="72"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="29"/>
@@ -30733,12 +30768,26 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="G57:I57"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="G54:I54"/>
     <mergeCell ref="A8:I8"/>
@@ -30753,26 +30802,12 @@
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="G53:I53"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30853,17 +30888,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="72"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -30872,13 +30907,13 @@
       <c r="B2" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="73" t="s">
         <v>217</v>
       </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="75"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -30889,13 +30924,13 @@
       <c r="B3" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="73" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="75"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -30906,11 +30941,11 @@
       <c r="B4" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -30921,13 +30956,13 @@
       <c r="B5" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="5" t="s">
         <v>224</v>
       </c>
@@ -30948,13 +30983,13 @@
       <c r="D7" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="69" t="s">
         <v>222</v>
       </c>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -30967,13 +31002,13 @@
       <c r="D8" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="68" t="s">
         <v>223</v>
       </c>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
       <c r="K8" t="str">
         <f>B8&amp;"="</f>
         <v>password.expiry=</v>
@@ -30990,13 +31025,13 @@
       <c r="D9" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="68" t="s">
         <v>226</v>
       </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
       <c r="K9" t="str">
         <f>B9&amp;"="</f>
         <v>display00001=</v>
@@ -31013,13 +31048,13 @@
       <c r="D10" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="68" t="s">
         <v>227</v>
       </c>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
       <c r="K10" t="str">
         <f>B10&amp;"="</f>
         <v>display00002=</v>
@@ -31036,13 +31071,13 @@
       <c r="D11" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E11" s="67" t="s">
+      <c r="E11" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
       <c r="K11" t="str">
         <f t="shared" ref="K11:K39" si="0">B11&amp;"="</f>
         <v>display00003=</v>
@@ -31059,13 +31094,13 @@
       <c r="D12" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E12" s="67" t="s">
+      <c r="E12" s="68" t="s">
         <v>229</v>
       </c>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
         <v>display00004=</v>
@@ -31082,13 +31117,13 @@
       <c r="D13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E13" s="67" t="s">
+      <c r="E13" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
         <v>display00101=</v>
@@ -31105,13 +31140,13 @@
       <c r="D14" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E14" s="67" t="s">
+      <c r="E14" s="68" t="s">
         <v>231</v>
       </c>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
         <v>display00102=</v>
@@ -31128,13 +31163,13 @@
       <c r="D15" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="67" t="s">
+      <c r="E15" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
         <v>display00201=</v>
@@ -31151,13 +31186,13 @@
       <c r="D16" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E16" s="67" t="s">
+      <c r="E16" s="68" t="s">
         <v>233</v>
       </c>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
         <v>display00202=</v>
@@ -31174,13 +31209,13 @@
       <c r="D17" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E17" s="67" t="s">
+      <c r="E17" s="68" t="s">
         <v>234</v>
       </c>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
         <v>display00301=</v>
@@ -31197,13 +31232,13 @@
       <c r="D18" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E18" s="67" t="s">
+      <c r="E18" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
         <v>display00302=</v>
@@ -31220,13 +31255,13 @@
       <c r="D19" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E19" s="67" t="s">
+      <c r="E19" s="68" t="s">
         <v>236</v>
       </c>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
         <v>display00401=</v>
@@ -31243,13 +31278,13 @@
       <c r="D20" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E20" s="67" t="s">
+      <c r="E20" s="68" t="s">
         <v>237</v>
       </c>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
         <v>display00402=</v>
@@ -31266,13 +31301,13 @@
       <c r="D21" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E21" s="67" t="s">
+      <c r="E21" s="68" t="s">
         <v>238</v>
       </c>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
         <v>display00501=</v>
@@ -31289,13 +31324,13 @@
       <c r="D22" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E22" s="67" t="s">
+      <c r="E22" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
         <v>display00502=</v>
@@ -31312,13 +31347,13 @@
       <c r="D23" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E23" s="67" t="s">
+      <c r="E23" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
         <v>display00503=</v>
@@ -31335,13 +31370,13 @@
       <c r="D24" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E24" s="67" t="s">
+      <c r="E24" s="68" t="s">
         <v>241</v>
       </c>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
         <v>display00601=</v>
@@ -31358,13 +31393,13 @@
       <c r="D25" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E25" s="67" t="s">
+      <c r="E25" s="68" t="s">
         <v>242</v>
       </c>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
         <v>display00602=</v>
@@ -31381,13 +31416,13 @@
       <c r="D26" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E26" s="67" t="s">
+      <c r="E26" s="68" t="s">
         <v>243</v>
       </c>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
         <v>display00603=</v>
@@ -31404,13 +31439,13 @@
       <c r="D27" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E27" s="67" t="s">
+      <c r="E27" s="68" t="s">
         <v>244</v>
       </c>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
       <c r="K27" t="str">
         <f t="shared" si="0"/>
         <v>display00701=</v>
@@ -31427,13 +31462,13 @@
       <c r="D28" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E28" s="67" t="s">
+      <c r="E28" s="68" t="s">
         <v>245</v>
       </c>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
       <c r="K28" t="str">
         <f t="shared" si="0"/>
         <v>display00801=</v>
@@ -31450,13 +31485,13 @@
       <c r="D29" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E29" s="67" t="s">
+      <c r="E29" s="68" t="s">
         <v>246</v>
       </c>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
       <c r="K29" t="str">
         <f t="shared" si="0"/>
         <v>display00802=</v>
@@ -31473,13 +31508,13 @@
       <c r="D30" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E30" s="67" t="s">
+      <c r="E30" s="68" t="s">
         <v>247</v>
       </c>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
         <v>display00803=</v>
@@ -31496,13 +31531,13 @@
       <c r="D31" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E31" s="67" t="s">
+      <c r="E31" s="68" t="s">
         <v>248</v>
       </c>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
       <c r="K31" t="str">
         <f t="shared" si="0"/>
         <v>display00804=</v>
@@ -31519,13 +31554,13 @@
       <c r="D32" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E32" s="67" t="s">
+      <c r="E32" s="68" t="s">
         <v>249</v>
       </c>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
       <c r="K32" t="str">
         <f t="shared" si="0"/>
         <v>display00901=</v>
@@ -31542,13 +31577,13 @@
       <c r="D33" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E33" s="67" t="s">
+      <c r="E33" s="68" t="s">
         <v>250</v>
       </c>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
       <c r="K33" t="str">
         <f t="shared" si="0"/>
         <v>display00902=</v>
@@ -31565,13 +31600,13 @@
       <c r="D34" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E34" s="67" t="s">
+      <c r="E34" s="68" t="s">
         <v>251</v>
       </c>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
       <c r="K34" t="str">
         <f t="shared" si="0"/>
         <v>display00903=</v>
@@ -31590,13 +31625,13 @@
       <c r="D35" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E35" s="66" t="s">
+      <c r="E35" s="76" t="s">
         <v>252</v>
       </c>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
       <c r="K35" t="str">
         <f t="shared" si="0"/>
         <v>password.policy=</v>
@@ -31615,13 +31650,13 @@
       <c r="D36" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E36" s="66" t="s">
+      <c r="E36" s="76" t="s">
         <v>253</v>
       </c>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
       <c r="K36" t="str">
         <f t="shared" si="0"/>
         <v>judge.class=</v>
@@ -31640,13 +31675,13 @@
       <c r="D37" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E37" s="66" t="s">
+      <c r="E37" s="76" t="s">
         <v>254</v>
       </c>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
       <c r="K37" t="str">
         <f t="shared" si="0"/>
         <v>force.pass.change=</v>
@@ -31665,13 +31700,13 @@
       <c r="D38" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E38" s="66" t="s">
+      <c r="E38" s="76" t="s">
         <v>255</v>
       </c>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
       <c r="K38" t="str">
         <f t="shared" si="0"/>
         <v>judge.result.table.name=</v>
@@ -31690,13 +31725,13 @@
       <c r="D39" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E39" s="67" t="s">
+      <c r="E39" s="68" t="s">
         <v>263</v>
       </c>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
       <c r="K39" t="str">
         <f t="shared" si="0"/>
         <v>pwd.hash.salt=</v>
@@ -31715,13 +31750,13 @@
       <c r="D40" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E40" s="67" t="s">
+      <c r="E40" s="68" t="s">
         <v>303</v>
       </c>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
       <c r="K40" t="str">
         <f t="shared" ref="K40" si="1">B40&amp;"="</f>
         <v>upload.directory=</v>
@@ -31740,13 +31775,13 @@
       <c r="D41" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E41" s="67" t="s">
+      <c r="E41" s="68" t="s">
         <v>305</v>
       </c>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
       <c r="K41" t="str">
         <f t="shared" ref="K41" si="2">B41&amp;"="</f>
         <v>result.directory=</v>
@@ -31754,6 +31789,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
     <mergeCell ref="E41:I41"/>
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="A1:I1"/>
@@ -31770,30 +31829,6 @@
     <mergeCell ref="E13:I13"/>
     <mergeCell ref="E14:I14"/>
     <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E37:I37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31834,17 +31869,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="72"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -31853,11 +31888,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="74"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="75"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -31868,11 +31903,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="75"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -31883,11 +31918,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -31900,11 +31935,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -31915,11 +31950,11 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="74"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="75"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -31939,17 +31974,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="72"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -32227,26 +32262,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="69" t="s">
+      <c r="A34" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="71"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="72"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="76"/>
+      <c r="C35" s="78"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -32254,100 +32289,100 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="75" t="s">
+      <c r="G35" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="77"/>
-      <c r="I35" s="76"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="78"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="72" t="s">
+      <c r="B36" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="74"/>
-      <c r="D36" s="72" t="s">
+      <c r="C36" s="75"/>
+      <c r="D36" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="74"/>
+      <c r="E36" s="75"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="72"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="74"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="75"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="72" t="s">
+      <c r="B37" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="74"/>
-      <c r="D37" s="72" t="s">
+      <c r="C37" s="75"/>
+      <c r="D37" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="74"/>
+      <c r="E37" s="75"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="72"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="74"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="75"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="72" t="s">
+      <c r="B38" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="74"/>
-      <c r="D38" s="72" t="s">
+      <c r="C38" s="75"/>
+      <c r="D38" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="74"/>
+      <c r="E38" s="75"/>
       <c r="F38" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="72"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="74"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="75"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="72" t="s">
+      <c r="B39" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="74"/>
-      <c r="D39" s="72" t="s">
+      <c r="C39" s="75"/>
+      <c r="D39" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="74"/>
+      <c r="E39" s="75"/>
       <c r="F39" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="72"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="74"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="75"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="69" t="s">
+      <c r="A40" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="71"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="72"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="29"/>
@@ -32659,19 +32694,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
     <mergeCell ref="A40:I40"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
@@ -32682,6 +32704,19 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="G38:I38"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32704,17 +32739,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="72"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -32723,11 +32758,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="74"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="75"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -32738,11 +32773,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="75"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -32753,11 +32788,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -32770,11 +32805,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -32785,13 +32820,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="75"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -32811,17 +32846,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="72"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -33099,26 +33134,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="69" t="s">
+      <c r="A34" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="71"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="72"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="76"/>
+      <c r="C35" s="78"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -33126,30 +33161,30 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="75" t="s">
+      <c r="G35" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="77"/>
-      <c r="I35" s="76"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="78"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="72" t="s">
+      <c r="B36" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="74"/>
-      <c r="D36" s="72" t="s">
+      <c r="C36" s="75"/>
+      <c r="D36" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="74"/>
+      <c r="E36" s="75"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="72"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="74"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="75"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="27">
@@ -33159,16 +33194,16 @@
         <v>36</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="72" t="s">
+      <c r="D37" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="74"/>
+      <c r="E37" s="75"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="72"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="74"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="75"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="27">
@@ -33178,16 +33213,16 @@
         <v>37</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="72" t="s">
+      <c r="D38" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="74"/>
+      <c r="E38" s="75"/>
       <c r="F38" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="72"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="74"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="75"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="27">
@@ -33250,33 +33285,33 @@
       <c r="A42" s="27">
         <v>7</v>
       </c>
-      <c r="B42" s="72"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="72" t="s">
+      <c r="B42" s="73"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="74"/>
+      <c r="E42" s="75"/>
       <c r="F42" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="72" t="s">
+      <c r="G42" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="H42" s="73"/>
-      <c r="I42" s="74"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="75"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="69" t="s">
+      <c r="A43" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="71"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="72"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="29"/>
@@ -33588,6 +33623,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="G36:I36"/>
@@ -33596,19 +33644,6 @@
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="G35:I35"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:I38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33631,17 +33666,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="72"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -33650,11 +33685,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="74"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="75"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -33665,11 +33700,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="75"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -33680,11 +33715,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -33697,11 +33732,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -33712,13 +33747,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="75"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -33738,17 +33773,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="72"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -34026,26 +34061,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="69" t="s">
+      <c r="A34" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="71"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="72"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="76"/>
+      <c r="C35" s="78"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -34053,30 +34088,30 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="75" t="s">
+      <c r="G35" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="77"/>
-      <c r="I35" s="76"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="78"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="72" t="s">
+      <c r="B36" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="74"/>
-      <c r="D36" s="72" t="s">
+      <c r="C36" s="75"/>
+      <c r="D36" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="74"/>
+      <c r="E36" s="75"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="72"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="74"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="75"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="27">
@@ -34084,39 +34119,39 @@
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="31"/>
-      <c r="D37" s="72" t="s">
+      <c r="D37" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="74"/>
+      <c r="E37" s="75"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="72" t="s">
+      <c r="G37" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="73"/>
-      <c r="I37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="75"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="27">
         <v>3</v>
       </c>
-      <c r="B38" s="72" t="s">
+      <c r="B38" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="74"/>
-      <c r="D38" s="72" t="s">
+      <c r="C38" s="75"/>
+      <c r="D38" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="74"/>
+      <c r="E38" s="75"/>
       <c r="F38" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="72" t="s">
+      <c r="G38" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="73"/>
-      <c r="I38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="75"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="27">
@@ -34126,16 +34161,16 @@
         <v>45</v>
       </c>
       <c r="C39" s="31"/>
-      <c r="D39" s="72" t="s">
+      <c r="D39" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="74"/>
+      <c r="E39" s="75"/>
       <c r="F39" s="27"/>
-      <c r="G39" s="72" t="s">
+      <c r="G39" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="H39" s="73"/>
-      <c r="I39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="75"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="27">
@@ -34158,20 +34193,20 @@
       <c r="A41" s="27">
         <v>6</v>
       </c>
-      <c r="B41" s="72" t="s">
+      <c r="B41" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="74"/>
-      <c r="D41" s="72" t="s">
+      <c r="C41" s="75"/>
+      <c r="D41" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="74"/>
+      <c r="E41" s="75"/>
       <c r="F41" s="27"/>
-      <c r="G41" s="72" t="s">
+      <c r="G41" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="H41" s="73"/>
-      <c r="I41" s="74"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="75"/>
     </row>
     <row r="42" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="27">
@@ -34186,43 +34221,43 @@
       </c>
       <c r="E42" s="31"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="78" t="s">
+      <c r="G42" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="H42" s="73"/>
-      <c r="I42" s="74"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="75"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="27">
         <v>8</v>
       </c>
-      <c r="B43" s="72"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="72" t="s">
+      <c r="B43" s="73"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="74"/>
+      <c r="E43" s="75"/>
       <c r="F43" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="72" t="s">
+      <c r="G43" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="H43" s="73"/>
-      <c r="I43" s="74"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="75"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="69" t="s">
+      <c r="A44" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="71"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="72"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="29"/>
@@ -34542,25 +34577,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G39:I39"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="G43:I43"/>
@@ -34570,6 +34586,25 @@
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="G41:I41"/>
     <mergeCell ref="G42:I42"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34592,17 +34627,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="72"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -34611,11 +34646,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="74"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="75"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -34626,11 +34661,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="75"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -34641,11 +34676,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -34658,11 +34693,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -34673,13 +34708,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="75"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -34699,17 +34734,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="72"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -35141,26 +35176,26 @@
       <c r="I47" s="23"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="69" t="s">
+      <c r="A48" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="70"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="71"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="72"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="75" t="s">
+      <c r="B49" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="76"/>
+      <c r="C49" s="78"/>
       <c r="D49" s="25" t="s">
         <v>18</v>
       </c>
@@ -35168,30 +35203,30 @@
       <c r="F49" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="75" t="s">
+      <c r="G49" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="H49" s="77"/>
-      <c r="I49" s="76"/>
+      <c r="H49" s="79"/>
+      <c r="I49" s="78"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="27">
         <v>1</v>
       </c>
-      <c r="B50" s="72" t="s">
+      <c r="B50" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="74"/>
-      <c r="D50" s="72" t="s">
+      <c r="C50" s="75"/>
+      <c r="D50" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="74"/>
+      <c r="E50" s="75"/>
       <c r="F50" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G50" s="72"/>
-      <c r="H50" s="73"/>
-      <c r="I50" s="74"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="75"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="27">
@@ -35199,69 +35234,69 @@
       </c>
       <c r="B51" s="30"/>
       <c r="C51" s="31"/>
-      <c r="D51" s="72" t="s">
+      <c r="D51" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="74"/>
+      <c r="E51" s="75"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="72" t="s">
+      <c r="G51" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="H51" s="73"/>
-      <c r="I51" s="74"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="75"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="27">
         <v>3</v>
       </c>
-      <c r="B52" s="72"/>
-      <c r="C52" s="74"/>
-      <c r="D52" s="72" t="s">
+      <c r="B52" s="73"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="74"/>
+      <c r="E52" s="75"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="72" t="s">
+      <c r="G52" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="H52" s="73"/>
-      <c r="I52" s="74"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="75"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
         <v>4</v>
       </c>
-      <c r="B53" s="72" t="s">
+      <c r="B53" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="74"/>
-      <c r="D53" s="72" t="s">
+      <c r="C53" s="75"/>
+      <c r="D53" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="74"/>
+      <c r="E53" s="75"/>
       <c r="F53" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G53" s="72" t="s">
+      <c r="G53" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="H53" s="73"/>
-      <c r="I53" s="74"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="75"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="27">
         <v>5</v>
       </c>
-      <c r="B54" s="72"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="72" t="s">
+      <c r="B54" s="73"/>
+      <c r="C54" s="75"/>
+      <c r="D54" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="74"/>
+      <c r="E54" s="75"/>
       <c r="F54" s="27" t="s">
         <v>22</v>
       </c>
@@ -35275,14 +35310,14 @@
       <c r="A55" s="27">
         <v>6</v>
       </c>
-      <c r="B55" s="72" t="s">
+      <c r="B55" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="74"/>
-      <c r="D55" s="72" t="s">
+      <c r="C55" s="75"/>
+      <c r="D55" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E55" s="74"/>
+      <c r="E55" s="75"/>
       <c r="F55" s="27" t="s">
         <v>22</v>
       </c>
@@ -35296,124 +35331,124 @@
       <c r="A56" s="27">
         <v>7</v>
       </c>
-      <c r="B56" s="72" t="s">
+      <c r="B56" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="74"/>
-      <c r="D56" s="72" t="s">
+      <c r="C56" s="75"/>
+      <c r="D56" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E56" s="74"/>
+      <c r="E56" s="75"/>
       <c r="F56" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G56" s="78" t="s">
+      <c r="G56" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="H56" s="79"/>
-      <c r="I56" s="80"/>
+      <c r="H56" s="81"/>
+      <c r="I56" s="82"/>
     </row>
     <row r="57" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="27">
         <v>8</v>
       </c>
-      <c r="B57" s="72" t="s">
+      <c r="B57" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="74"/>
-      <c r="D57" s="72" t="s">
+      <c r="C57" s="75"/>
+      <c r="D57" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="74"/>
+      <c r="E57" s="75"/>
       <c r="F57" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G57" s="78" t="s">
+      <c r="G57" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="H57" s="79"/>
-      <c r="I57" s="80"/>
+      <c r="H57" s="81"/>
+      <c r="I57" s="82"/>
     </row>
     <row r="58" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="27">
         <v>9</v>
       </c>
-      <c r="B58" s="72" t="s">
+      <c r="B58" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="74"/>
-      <c r="D58" s="72" t="s">
+      <c r="C58" s="75"/>
+      <c r="D58" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="74"/>
+      <c r="E58" s="75"/>
       <c r="F58" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G58" s="78" t="s">
+      <c r="G58" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="H58" s="79"/>
-      <c r="I58" s="80"/>
+      <c r="H58" s="81"/>
+      <c r="I58" s="82"/>
     </row>
     <row r="59" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="27">
         <v>10</v>
       </c>
-      <c r="B59" s="72" t="s">
+      <c r="B59" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="74"/>
-      <c r="D59" s="72" t="s">
+      <c r="C59" s="75"/>
+      <c r="D59" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E59" s="74"/>
+      <c r="E59" s="75"/>
       <c r="F59" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G59" s="78" t="s">
+      <c r="G59" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="H59" s="79"/>
-      <c r="I59" s="80"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="82"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="27">
         <v>11</v>
       </c>
-      <c r="B60" s="72"/>
-      <c r="C60" s="74"/>
+      <c r="B60" s="73"/>
+      <c r="C60" s="75"/>
       <c r="D60" s="30"/>
       <c r="E60" s="31"/>
       <c r="F60" s="27"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="73"/>
-      <c r="I60" s="74"/>
+      <c r="G60" s="80"/>
+      <c r="H60" s="74"/>
+      <c r="I60" s="75"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="27">
         <v>12</v>
       </c>
-      <c r="B61" s="72"/>
-      <c r="C61" s="74"/>
-      <c r="D61" s="72"/>
-      <c r="E61" s="74"/>
+      <c r="B61" s="73"/>
+      <c r="C61" s="75"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="75"/>
       <c r="F61" s="27"/>
-      <c r="G61" s="72"/>
-      <c r="H61" s="73"/>
-      <c r="I61" s="74"/>
+      <c r="G61" s="73"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="75"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="69" t="s">
+      <c r="A62" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="70"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="70"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="70"/>
-      <c r="I62" s="71"/>
+      <c r="B62" s="71"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="72"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="29"/>
@@ -35743,33 +35778,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
     <mergeCell ref="A62:I62"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B54:C54"/>
@@ -35786,6 +35794,33 @@
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="G57:I57"/>
     <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35808,17 +35843,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="72"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -35827,11 +35862,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="74"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="75"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -35842,11 +35877,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="75"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -35857,11 +35892,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -35874,11 +35909,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -35889,13 +35924,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="75"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -35915,17 +35950,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="72"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -36203,26 +36238,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="69" t="s">
+      <c r="A34" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="71"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="72"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="76"/>
+      <c r="C35" s="78"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -36230,30 +36265,30 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="75" t="s">
+      <c r="G35" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="77"/>
-      <c r="I35" s="76"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="78"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="72" t="s">
+      <c r="B36" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="74"/>
-      <c r="D36" s="72" t="s">
+      <c r="C36" s="75"/>
+      <c r="D36" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="74"/>
+      <c r="E36" s="75"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="72"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="74"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="75"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="27">
@@ -36280,16 +36315,16 @@
       </c>
       <c r="B38" s="36"/>
       <c r="C38" s="37"/>
-      <c r="D38" s="72" t="s">
+      <c r="D38" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="74"/>
+      <c r="E38" s="75"/>
       <c r="F38" s="27"/>
-      <c r="G38" s="72" t="s">
+      <c r="G38" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="H38" s="73"/>
-      <c r="I38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="75"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="27">
@@ -36352,20 +36387,20 @@
       <c r="A42" s="27">
         <v>7</v>
       </c>
-      <c r="B42" s="72" t="s">
+      <c r="B42" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="74"/>
-      <c r="D42" s="72" t="s">
+      <c r="C42" s="75"/>
+      <c r="D42" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="74"/>
+      <c r="E42" s="75"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="72" t="s">
+      <c r="G42" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="H42" s="73"/>
-      <c r="I42" s="74"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="75"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="27">
@@ -36409,33 +36444,33 @@
       <c r="A45" s="27">
         <v>10</v>
       </c>
-      <c r="B45" s="72" t="s">
+      <c r="B45" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="74"/>
-      <c r="D45" s="72" t="s">
+      <c r="C45" s="75"/>
+      <c r="D45" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="74"/>
+      <c r="E45" s="75"/>
       <c r="F45" s="27"/>
-      <c r="G45" s="72" t="s">
+      <c r="G45" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="H45" s="73"/>
-      <c r="I45" s="74"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="75"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="69" t="s">
+      <c r="A46" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="71"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="72"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="29"/>
@@ -36493,10 +36528,10 @@
       <c r="A51" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="B51" s="81" t="s">
+      <c r="B51" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="C51" s="81"/>
+      <c r="C51" s="83"/>
       <c r="D51" s="18"/>
       <c r="E51" s="42" t="s">
         <v>130</v>
@@ -36512,10 +36547,10 @@
       <c r="A52" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B52" s="67" t="s">
+      <c r="B52" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="67"/>
+      <c r="C52" s="68"/>
       <c r="D52" s="18"/>
       <c r="E52" s="43" t="s">
         <v>131</v>
@@ -36531,10 +36566,10 @@
       <c r="A53" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B53" s="67" t="s">
+      <c r="B53" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="C53" s="67"/>
+      <c r="C53" s="68"/>
       <c r="D53" s="18"/>
       <c r="E53" s="43" t="s">
         <v>133</v>
@@ -36550,10 +36585,10 @@
       <c r="A54" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B54" s="67" t="s">
+      <c r="B54" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="67"/>
+      <c r="C54" s="68"/>
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
       <c r="F54" s="18"/>
@@ -36797,24 +36832,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:I42"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="A46:I46"/>
@@ -36823,6 +36840,24 @@
     <mergeCell ref="G45:I45"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36845,17 +36880,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="72"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -36864,11 +36899,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="74"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="75"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -36879,11 +36914,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="75"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -36894,11 +36929,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -36911,11 +36946,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -36926,13 +36961,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="75"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -36952,17 +36987,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="72"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -37460,26 +37495,26 @@
       <c r="I53" s="23"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="69" t="s">
+      <c r="A54" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="70"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
-      <c r="H54" s="70"/>
-      <c r="I54" s="71"/>
+      <c r="B54" s="71"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="71"/>
+      <c r="I54" s="72"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="75" t="s">
+      <c r="B55" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="76"/>
+      <c r="C55" s="78"/>
       <c r="D55" s="25" t="s">
         <v>18</v>
       </c>
@@ -37487,30 +37522,30 @@
       <c r="F55" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="75" t="s">
+      <c r="G55" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="H55" s="77"/>
-      <c r="I55" s="76"/>
+      <c r="H55" s="79"/>
+      <c r="I55" s="78"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="27">
         <v>1</v>
       </c>
-      <c r="B56" s="72" t="s">
+      <c r="B56" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="74"/>
-      <c r="D56" s="72" t="s">
+      <c r="C56" s="75"/>
+      <c r="D56" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="74"/>
+      <c r="E56" s="75"/>
       <c r="F56" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G56" s="72"/>
-      <c r="H56" s="73"/>
-      <c r="I56" s="74"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="74"/>
+      <c r="I56" s="75"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="27">
@@ -37518,37 +37553,37 @@
       </c>
       <c r="B57" s="33"/>
       <c r="C57" s="35"/>
-      <c r="D57" s="72" t="s">
+      <c r="D57" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="74"/>
+      <c r="E57" s="75"/>
       <c r="F57" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G57" s="72" t="s">
+      <c r="G57" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="H57" s="73"/>
-      <c r="I57" s="74"/>
+      <c r="H57" s="74"/>
+      <c r="I57" s="75"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="27">
         <v>3</v>
       </c>
-      <c r="B58" s="72" t="s">
+      <c r="B58" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="74"/>
-      <c r="D58" s="72" t="s">
+      <c r="C58" s="75"/>
+      <c r="D58" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="74"/>
+      <c r="E58" s="75"/>
       <c r="F58" s="27"/>
-      <c r="G58" s="72" t="s">
+      <c r="G58" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="H58" s="73"/>
-      <c r="I58" s="74"/>
+      <c r="H58" s="74"/>
+      <c r="I58" s="75"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="27">
@@ -37558,18 +37593,18 @@
         <v>82</v>
       </c>
       <c r="C59" s="35"/>
-      <c r="D59" s="72" t="s">
+      <c r="D59" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="74"/>
+      <c r="E59" s="75"/>
       <c r="F59" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G59" s="72" t="s">
+      <c r="G59" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="H59" s="73"/>
-      <c r="I59" s="74"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="75"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="27">
@@ -37594,20 +37629,20 @@
       <c r="A61" s="27">
         <v>6</v>
       </c>
-      <c r="B61" s="72" t="s">
+      <c r="B61" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="C61" s="74"/>
-      <c r="D61" s="72" t="s">
+      <c r="C61" s="75"/>
+      <c r="D61" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="E61" s="74"/>
+      <c r="E61" s="75"/>
       <c r="F61" s="27"/>
-      <c r="G61" s="72" t="s">
+      <c r="G61" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="H61" s="73"/>
-      <c r="I61" s="74"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="75"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="27">
@@ -37622,113 +37657,113 @@
       </c>
       <c r="E62" s="35"/>
       <c r="F62" s="27"/>
-      <c r="G62" s="78" t="s">
+      <c r="G62" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="H62" s="73"/>
-      <c r="I62" s="74"/>
+      <c r="H62" s="74"/>
+      <c r="I62" s="75"/>
     </row>
     <row r="63" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="27">
         <v>8</v>
       </c>
-      <c r="B63" s="72" t="s">
+      <c r="B63" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="C63" s="74"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="33" t="s">
         <v>83</v>
       </c>
       <c r="E63" s="35"/>
       <c r="F63" s="27"/>
-      <c r="G63" s="78" t="s">
+      <c r="G63" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="H63" s="73"/>
-      <c r="I63" s="74"/>
+      <c r="H63" s="74"/>
+      <c r="I63" s="75"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="27">
         <v>9</v>
       </c>
-      <c r="B64" s="72" t="s">
+      <c r="B64" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="74"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="74"/>
+      <c r="C64" s="75"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="75"/>
       <c r="F64" s="27"/>
-      <c r="G64" s="72" t="s">
+      <c r="G64" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="H64" s="73"/>
-      <c r="I64" s="74"/>
+      <c r="H64" s="74"/>
+      <c r="I64" s="75"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="27">
         <v>10</v>
       </c>
-      <c r="B65" s="72" t="s">
+      <c r="B65" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="74"/>
-      <c r="D65" s="72" t="s">
+      <c r="C65" s="75"/>
+      <c r="D65" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="E65" s="74"/>
+      <c r="E65" s="75"/>
       <c r="F65" s="27"/>
-      <c r="G65" s="72" t="s">
+      <c r="G65" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="H65" s="73"/>
-      <c r="I65" s="74"/>
+      <c r="H65" s="74"/>
+      <c r="I65" s="75"/>
     </row>
     <row r="66" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="27">
         <v>11</v>
       </c>
-      <c r="B66" s="72" t="s">
+      <c r="B66" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="C66" s="74"/>
-      <c r="D66" s="72" t="s">
+      <c r="C66" s="75"/>
+      <c r="D66" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="E66" s="74"/>
+      <c r="E66" s="75"/>
       <c r="F66" s="27"/>
-      <c r="G66" s="78" t="s">
+      <c r="G66" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="H66" s="73"/>
-      <c r="I66" s="74"/>
+      <c r="H66" s="74"/>
+      <c r="I66" s="75"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="27">
         <v>12</v>
       </c>
-      <c r="B67" s="72" t="s">
+      <c r="B67" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="C67" s="74"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="74"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="73"/>
+      <c r="E67" s="75"/>
       <c r="F67" s="27"/>
-      <c r="G67" s="72"/>
-      <c r="H67" s="73"/>
-      <c r="I67" s="74"/>
+      <c r="G67" s="73"/>
+      <c r="H67" s="74"/>
+      <c r="I67" s="75"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="69" t="s">
+      <c r="A68" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B68" s="70"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="70"/>
-      <c r="H68" s="70"/>
-      <c r="I68" s="71"/>
+      <c r="B68" s="71"/>
+      <c r="C68" s="71"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="71"/>
+      <c r="H68" s="71"/>
+      <c r="I68" s="72"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="29"/>
@@ -37968,12 +38003,12 @@
       <c r="B90" s="40">
         <v>1</v>
       </c>
-      <c r="C90" s="82" t="s">
+      <c r="C90" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="D90" s="82"/>
-      <c r="E90" s="82"/>
-      <c r="F90" s="82"/>
+      <c r="D90" s="84"/>
+      <c r="E90" s="84"/>
+      <c r="F90" s="84"/>
       <c r="G90" s="18"/>
       <c r="H90" s="18"/>
       <c r="I90" s="20"/>
@@ -37983,12 +38018,12 @@
       <c r="B91" s="40">
         <v>2</v>
       </c>
-      <c r="C91" s="82" t="s">
+      <c r="C91" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="D91" s="82"/>
-      <c r="E91" s="82"/>
-      <c r="F91" s="82"/>
+      <c r="D91" s="84"/>
+      <c r="E91" s="84"/>
+      <c r="F91" s="84"/>
       <c r="G91" s="18"/>
       <c r="H91" s="18"/>
       <c r="I91" s="20"/>
@@ -37998,12 +38033,12 @@
       <c r="B92" s="40">
         <v>3</v>
       </c>
-      <c r="C92" s="82" t="s">
+      <c r="C92" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="D92" s="82"/>
-      <c r="E92" s="82"/>
-      <c r="F92" s="82"/>
+      <c r="D92" s="84"/>
+      <c r="E92" s="84"/>
+      <c r="F92" s="84"/>
       <c r="G92" s="18"/>
       <c r="H92" s="18"/>
       <c r="I92" s="20"/>
@@ -38013,12 +38048,12 @@
       <c r="B93" s="40">
         <v>4</v>
       </c>
-      <c r="C93" s="82" t="s">
+      <c r="C93" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="D93" s="82"/>
-      <c r="E93" s="82"/>
-      <c r="F93" s="82"/>
+      <c r="D93" s="84"/>
+      <c r="E93" s="84"/>
+      <c r="F93" s="84"/>
       <c r="G93" s="18"/>
       <c r="H93" s="18"/>
       <c r="I93" s="20"/>
@@ -38058,33 +38093,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="C90:F90"/>
-    <mergeCell ref="C91:F91"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="D67:E67"/>
@@ -38101,6 +38109,33 @@
     <mergeCell ref="A54:I54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="G55:I55"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="C90:F90"/>
+    <mergeCell ref="C91:F91"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/設計書もどき.xlsx
+++ b/設計書/設計書もどき.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="画面一覧" sheetId="11" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="340">
   <si>
     <t>画面レイアウト定義</t>
     <rPh sb="0" eb="2">
@@ -3746,22 +3746,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>学科名をカンマ区切りで表示</t>
-    <rPh sb="0" eb="2">
-      <t>ガッカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>クギ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>作者名
 ユーザーテーブルのニックネームを表示</t>
     <rPh sb="0" eb="3">
@@ -3818,6 +3802,69 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題検索画面</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学科名をカンマ区切りで表示。また公開（必須）は「必：」、公開（任意）は「任：」、非公開は「非：」を学科の前につける</t>
+    <rPh sb="0" eb="2">
+      <t>ガッカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>ヒコウカイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ガッカ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>マエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4204,6 +4251,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -4223,7 +4279,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4244,6 +4299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4261,10 +4317,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4284,14 +4336,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -20055,62 +20102,6 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>683894</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>41909</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>784860</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>108584</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5141594" y="4400549"/>
-          <a:ext cx="992506" cy="234315"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>2017/1/1</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>135255</xdr:colOff>
       <xdr:row>17</xdr:row>
@@ -20403,8 +20394,8 @@
       <xdr:rowOff>89535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>822960</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>22861</xdr:rowOff>
     </xdr:to>
@@ -20416,7 +20407,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2708910" y="3274695"/>
-          <a:ext cx="1390650" cy="268606"/>
+          <a:ext cx="3463290" cy="268606"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20443,62 +20434,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>すべて</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>97155</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>30481</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="正方形/長方形 37"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3787140" y="3282315"/>
-          <a:ext cx="297180" cy="268606"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>▼</a:t>
+            <a:t>　　学科１　　　学科２　　　　学科３</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -20691,76 +20627,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:colOff>697230</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>120015</xdr:rowOff>
+      <xdr:rowOff>127635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>784860</xdr:colOff>
+      <xdr:colOff>655320</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>53341</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="正方形/長方形 42"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5124450" y="4143375"/>
-          <a:ext cx="1009650" cy="268606"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>公開開始日</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>788670</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>120015</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>746760</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>53341</xdr:rowOff>
+      <xdr:rowOff>60961</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20769,7 +20644,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6137910" y="4143375"/>
+          <a:off x="5154930" y="4150995"/>
           <a:ext cx="849630" cy="268606"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20868,16 +20743,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>683894</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>72389</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>775334</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>64769</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>731520</xdr:colOff>
+      <xdr:colOff>640080</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>131444</xdr:rowOff>
+      <xdr:rowOff>139064</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20886,7 +20761,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6124574" y="4423409"/>
+          <a:off x="5141594" y="4431029"/>
           <a:ext cx="847726" cy="234315"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -21173,45 +21048,40 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>398145</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>13335</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>137161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>622935</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>144781</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="線吹き出し 1 (枠付き) 49"/>
+        <xdr:cNvPr id="51" name="正方形/長方形 50"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5747385" y="3701415"/>
-          <a:ext cx="224790" cy="259080"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 104464"/>
-            <a:gd name="adj2" fmla="val 38726"/>
-            <a:gd name="adj3" fmla="val 217542"/>
-            <a:gd name="adj4" fmla="val 249204"/>
-          </a:avLst>
+          <a:off x="2758440" y="3322321"/>
+          <a:ext cx="144780" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="1">
           <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -21222,10 +21092,111 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>⑩</a:t>
-          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>137161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>144781</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="正方形/長方形 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3474720" y="3322321"/>
+          <a:ext cx="144780" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>137161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>144781</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="正方形/長方形 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4152900" y="3322321"/>
+          <a:ext cx="144780" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -29166,39 +29137,39 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:J33"/>
+  <dimension ref="A2:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="24.88671875" customWidth="1"/>
     <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="0.33203125" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="69" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="63" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63" t="s">
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66" t="s">
         <v>272</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="66" t="s">
         <v>273</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="66" t="s">
         <v>273</v>
       </c>
     </row>
@@ -29209,7 +29180,7 @@
       <c r="B3" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="63"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="51" t="s">
         <v>124</v>
       </c>
@@ -29219,12 +29190,12 @@
       <c r="F3" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="68">
+      <c r="A4" s="71">
         <v>0</v>
       </c>
       <c r="B4" s="53">
@@ -29260,7 +29231,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="69"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="53">
         <v>2</v>
       </c>
@@ -29283,16 +29254,16 @@
         <v>0,2</v>
       </c>
       <c r="I5" s="2" t="str">
-        <f t="shared" ref="I5:I29" si="1">IF(RIGHT(H5,1)=",",LEFT(H5,LEN(H5)-1),H5)</f>
+        <f t="shared" ref="I5:I30" si="1">IF(RIGHT(H5,1)=",",LEFT(H5,LEN(H5)-1),H5)</f>
         <v>0,2</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5:J29" si="2">G5&amp;"="&amp;I5</f>
+        <f t="shared" ref="J5:J30" si="2">G5&amp;"="&amp;I5</f>
         <v>display00002=0,2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="69"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="53">
         <v>3</v>
       </c>
@@ -29311,7 +29282,7 @@
         <v>display00003</v>
       </c>
       <c r="H6" s="2" t="str">
-        <f t="shared" ref="H6:H29" si="3">IF(D6="○","0,","")&amp;IF(E6="○","1,","")&amp;IF(F6="○","2","")</f>
+        <f t="shared" ref="H6:H30" si="3">IF(D6="○","0,","")&amp;IF(E6="○","1,","")&amp;IF(F6="○","2","")</f>
         <v>1,2</v>
       </c>
       <c r="I6" s="2" t="str">
@@ -29324,7 +29295,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="70"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="53">
         <v>4</v>
       </c>
@@ -29354,7 +29325,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="64">
+      <c r="A8" s="67">
         <v>1</v>
       </c>
       <c r="B8" s="53">
@@ -29388,7 +29359,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="53">
         <v>2</v>
       </c>
@@ -29420,7 +29391,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="60">
+      <c r="A10" s="63">
         <v>2</v>
       </c>
       <c r="B10" s="53">
@@ -29456,7 +29427,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="53">
         <v>2</v>
       </c>
@@ -29490,7 +29461,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="60">
+      <c r="A12" s="63">
         <v>3</v>
       </c>
       <c r="B12" s="53">
@@ -29526,7 +29497,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="53">
         <v>2</v>
       </c>
@@ -29560,7 +29531,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="64">
+      <c r="A14" s="67">
         <v>4</v>
       </c>
       <c r="B14" s="53">
@@ -29596,7 +29567,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="53">
         <v>2</v>
       </c>
@@ -29630,7 +29601,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="60">
+      <c r="A16" s="63">
         <v>5</v>
       </c>
       <c r="B16" s="53">
@@ -29664,7 +29635,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="61"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="53">
         <v>2</v>
       </c>
@@ -29687,7 +29658,7 @@
         <v>1,2</v>
       </c>
       <c r="I17" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(RIGHT(H17,1)=",",LEFT(H17,LEN(H17)-1),H17)</f>
         <v>1,2</v>
       </c>
       <c r="J17" t="str">
@@ -29696,7 +29667,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="62"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="53">
         <v>3</v>
       </c>
@@ -29728,7 +29699,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="60">
+      <c r="A19" s="63">
         <v>6</v>
       </c>
       <c r="B19" s="53">
@@ -29762,7 +29733,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="53">
         <v>2</v>
       </c>
@@ -29777,24 +29748,23 @@
         <v>211</v>
       </c>
       <c r="G20" s="2" t="str">
-        <f t="shared" ref="G20:G21" si="5">"display"&amp;TEXT($A$19,"000")&amp;TEXT(B20,"00")</f>
+        <f>"display"&amp;TEXT($A$19,"000")&amp;TEXT(B20,"00")</f>
         <v>display00602</v>
       </c>
-      <c r="H20" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1,2</v>
+      <c r="H20" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="I20" s="2" t="str">
         <f t="shared" si="1"/>
         <v>1,2</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J20" si="5">G20&amp;"="&amp;I20</f>
         <v>display00602=1,2</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="62"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="53">
         <v>3</v>
       </c>
@@ -29809,7 +29779,7 @@
         <v>211</v>
       </c>
       <c r="G21" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G21:G22" si="6">"display"&amp;TEXT($A$19,"000")&amp;TEXT(B21,"00")</f>
         <v>display00603</v>
       </c>
       <c r="H21" s="2" t="str">
@@ -29826,14 +29796,12 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="54">
-        <v>7</v>
-      </c>
+      <c r="A22" s="65"/>
       <c r="B22" s="53">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>200</v>
+        <v>4</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>337</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="27" t="s">
@@ -29843,8 +29811,8 @@
         <v>211</v>
       </c>
       <c r="G22" s="2" t="str">
-        <f>"display"&amp;TEXT($A$22,"000")&amp;TEXT(B22,"00")</f>
-        <v>display00701</v>
+        <f t="shared" si="6"/>
+        <v>display00604</v>
       </c>
       <c r="H22" s="2" t="str">
         <f t="shared" si="3"/>
@@ -29856,18 +29824,18 @@
       </c>
       <c r="J22" t="str">
         <f t="shared" si="2"/>
-        <v>display00701=1,2</v>
+        <v>display00604=1,2</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="60">
-        <v>8</v>
+      <c r="A23" s="54">
+        <v>7</v>
       </c>
       <c r="B23" s="53">
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27" t="s">
@@ -29878,7 +29846,7 @@
       </c>
       <c r="G23" s="2" t="str">
         <f>"display"&amp;TEXT($A$23,"000")&amp;TEXT(B23,"00")</f>
-        <v>display00801</v>
+        <v>display00701</v>
       </c>
       <c r="H23" s="2" t="str">
         <f t="shared" si="3"/>
@@ -29890,46 +29858,50 @@
       </c>
       <c r="J23" t="str">
         <f t="shared" si="2"/>
-        <v>display00801=1,2</v>
+        <v>display00701=1,2</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="61"/>
+      <c r="A24" s="63">
+        <v>8</v>
+      </c>
       <c r="B24" s="53">
-        <v>2</v>
-      </c>
-      <c r="C24" s="56" t="s">
-        <v>205</v>
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
+      <c r="E24" s="27" t="s">
+        <v>211</v>
+      </c>
       <c r="F24" s="27" t="s">
         <v>211</v>
       </c>
       <c r="G24" s="2" t="str">
-        <f t="shared" ref="G24:G26" si="6">"display"&amp;TEXT($A$23,"000")&amp;TEXT(B24,"00")</f>
-        <v>display00802</v>
+        <f>"display"&amp;TEXT($A$24,"000")&amp;TEXT(B24,"00")</f>
+        <v>display00801</v>
       </c>
       <c r="H24" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1,2</v>
       </c>
       <c r="I24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1,2</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="2"/>
-        <v>display00802=2</v>
+        <v>display00801=1,2</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="61"/>
+      <c r="A25" s="64"/>
       <c r="B25" s="53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="56" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
@@ -29937,8 +29909,8 @@
         <v>211</v>
       </c>
       <c r="G25" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>display00803</v>
+        <f t="shared" ref="G25:G27" si="7">"display"&amp;TEXT($A$24,"000")&amp;TEXT(B25,"00")</f>
+        <v>display00802</v>
       </c>
       <c r="H25" s="2" t="str">
         <f t="shared" si="3"/>
@@ -29950,16 +29922,16 @@
       </c>
       <c r="J25" t="str">
         <f t="shared" si="2"/>
-        <v>display00803=2</v>
+        <v>display00802=2</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="62"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
@@ -29967,8 +29939,8 @@
         <v>211</v>
       </c>
       <c r="G26" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>display00804</v>
+        <f t="shared" si="7"/>
+        <v>display00803</v>
       </c>
       <c r="H26" s="2" t="str">
         <f t="shared" si="3"/>
@@ -29980,50 +29952,48 @@
       </c>
       <c r="J26" t="str">
         <f t="shared" si="2"/>
-        <v>display00804=2</v>
+        <v>display00803=2</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="60">
-        <v>9</v>
-      </c>
+      <c r="A27" s="65"/>
       <c r="B27" s="53">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>208</v>
+        <v>4</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>207</v>
       </c>
       <c r="D27" s="27"/>
-      <c r="E27" s="27" t="s">
-        <v>211</v>
-      </c>
+      <c r="E27" s="27"/>
       <c r="F27" s="27" t="s">
         <v>211</v>
       </c>
       <c r="G27" s="2" t="str">
-        <f>"display"&amp;TEXT($A$27,"000")&amp;TEXT(B27,"00")</f>
-        <v>display00901</v>
+        <f t="shared" si="7"/>
+        <v>display00804</v>
       </c>
       <c r="H27" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>1,2</v>
+        <v>2</v>
       </c>
       <c r="I27" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>1,2</v>
+        <v>2</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="2"/>
-        <v>display00901=1,2</v>
+        <v>display00804=2</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="61"/>
+      <c r="A28" s="63">
+        <v>9</v>
+      </c>
       <c r="B28" s="53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="27" t="s">
@@ -30033,8 +30003,8 @@
         <v>211</v>
       </c>
       <c r="G28" s="2" t="str">
-        <f t="shared" ref="G28:G29" si="7">"display"&amp;TEXT($A$27,"000")&amp;TEXT(B28,"00")</f>
-        <v>display00902</v>
+        <f>"display"&amp;TEXT($A$28,"000")&amp;TEXT(B28,"00")</f>
+        <v>display00901</v>
       </c>
       <c r="H28" s="2" t="str">
         <f t="shared" si="3"/>
@@ -30046,16 +30016,16 @@
       </c>
       <c r="J28" t="str">
         <f t="shared" si="2"/>
-        <v>display00902=1,2</v>
+        <v>display00901=1,2</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="62"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="27" t="s">
@@ -30065,8 +30035,8 @@
         <v>211</v>
       </c>
       <c r="G29" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>display00903</v>
+        <f t="shared" ref="G29:G30" si="8">"display"&amp;TEXT($A$28,"000")&amp;TEXT(B29,"00")</f>
+        <v>display00902</v>
       </c>
       <c r="H29" s="2" t="str">
         <f t="shared" si="3"/>
@@ -30078,82 +30048,82 @@
       </c>
       <c r="J29" t="str">
         <f t="shared" si="2"/>
-        <v>display00903=1,2</v>
+        <v>display00902=1,2</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="54">
-        <v>10</v>
-      </c>
+      <c r="A30" s="65"/>
       <c r="B30" s="53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
+      <c r="E30" s="27" t="s">
+        <v>211</v>
+      </c>
       <c r="F30" s="27" t="s">
         <v>211</v>
       </c>
       <c r="G30" s="2" t="str">
-        <f>"display"&amp;TEXT($A$30,"000")&amp;TEXT(B30,"00")</f>
-        <v>display01001</v>
+        <f t="shared" si="8"/>
+        <v>display00903</v>
       </c>
       <c r="H30" s="2" t="str">
-        <f t="shared" ref="H30:H33" si="8">IF(D30="○","0,","")&amp;IF(E30="○","1,","")&amp;IF(F30="○","2","")</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1,2</v>
       </c>
       <c r="I30" s="2" t="str">
-        <f t="shared" ref="I30:I33" si="9">IF(RIGHT(H30,1)=",",LEFT(H30,LEN(H30)-1),H30)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1,2</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" ref="J30:J33" si="10">G30&amp;"="&amp;I30</f>
-        <v>display01001=2</v>
+        <f t="shared" si="2"/>
+        <v>display00903=1,2</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="60">
-        <v>11</v>
+      <c r="A31" s="54">
+        <v>10</v>
       </c>
       <c r="B31" s="53">
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D31" s="27"/>
-      <c r="E31" s="27" t="s">
-        <v>211</v>
-      </c>
+      <c r="E31" s="27"/>
       <c r="F31" s="27" t="s">
         <v>211</v>
       </c>
       <c r="G31" s="2" t="str">
         <f>"display"&amp;TEXT($A$31,"000")&amp;TEXT(B31,"00")</f>
-        <v>display01101</v>
+        <v>display01001</v>
       </c>
       <c r="H31" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1,2</v>
+        <f t="shared" ref="H31:H34" si="9">IF(D31="○","0,","")&amp;IF(E31="○","1,","")&amp;IF(F31="○","2","")</f>
+        <v>2</v>
       </c>
       <c r="I31" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>1,2</v>
+        <f t="shared" ref="I31:I34" si="10">IF(RIGHT(H31,1)=",",LEFT(H31,LEN(H31)-1),H31)</f>
+        <v>2</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="10"/>
-        <v>display01101=1,2</v>
+        <f t="shared" ref="J31:J34" si="11">G31&amp;"="&amp;I31</f>
+        <v>display01001=2</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="61"/>
+      <c r="A32" s="63">
+        <v>11</v>
+      </c>
       <c r="B32" s="53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D32" s="27"/>
       <c r="E32" s="27" t="s">
@@ -30163,29 +30133,29 @@
         <v>211</v>
       </c>
       <c r="G32" s="2" t="str">
-        <f t="shared" ref="G32:G33" si="11">"display"&amp;TEXT($A$31,"000")&amp;TEXT(B32,"00")</f>
-        <v>display01102</v>
+        <f>"display"&amp;TEXT($A$32,"000")&amp;TEXT(B32,"00")</f>
+        <v>display01101</v>
       </c>
       <c r="H32" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1,2</v>
-      </c>
-      <c r="I32" s="2" t="str">
         <f t="shared" si="9"/>
         <v>1,2</v>
       </c>
+      <c r="I32" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1,2</v>
+      </c>
       <c r="J32" t="str">
-        <f t="shared" si="10"/>
-        <v>display01102=1,2</v>
+        <f t="shared" si="11"/>
+        <v>display01101=1,2</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="62"/>
+      <c r="A33" s="64"/>
       <c r="B33" s="53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="27" t="s">
@@ -30195,29 +30165,61 @@
         <v>211</v>
       </c>
       <c r="G33" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>display01103</v>
+        <f t="shared" ref="G33:G34" si="12">"display"&amp;TEXT($A$32,"000")&amp;TEXT(B33,"00")</f>
+        <v>display01102</v>
       </c>
       <c r="H33" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1,2</v>
-      </c>
-      <c r="I33" s="2" t="str">
         <f t="shared" si="9"/>
         <v>1,2</v>
       </c>
+      <c r="I33" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>1,2</v>
+      </c>
       <c r="J33" t="str">
+        <f t="shared" si="11"/>
+        <v>display01102=1,2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="65"/>
+      <c r="B34" s="53">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="G34" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>display01103</v>
+      </c>
+      <c r="H34" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>1,2</v>
+      </c>
+      <c r="I34" s="2" t="str">
         <f t="shared" si="10"/>
+        <v>1,2</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="11"/>
         <v>display01103=1,2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A32:A34"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A30"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="A8:A9"/>
@@ -30251,17 +30253,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -30270,11 +30272,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="81"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -30285,11 +30287,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="81"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -30300,11 +30302,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="81"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -30317,11 +30319,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="81"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -30332,13 +30334,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="81"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -30358,17 +30360,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="76"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="78"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -30646,26 +30648,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="78"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="81"/>
+      <c r="C35" s="84"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -30673,30 +30675,30 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="80" t="s">
+      <c r="G35" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="82"/>
-      <c r="I35" s="81"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="84"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="77" t="s">
+      <c r="B36" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="79"/>
-      <c r="D36" s="77" t="s">
+      <c r="C36" s="81"/>
+      <c r="D36" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="79"/>
+      <c r="E36" s="81"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="77"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="81"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="27">
@@ -30723,16 +30725,16 @@
       </c>
       <c r="B38" s="36"/>
       <c r="C38" s="37"/>
-      <c r="D38" s="77" t="s">
+      <c r="D38" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="79"/>
+      <c r="E38" s="81"/>
       <c r="F38" s="27"/>
-      <c r="G38" s="77" t="s">
+      <c r="G38" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="H38" s="78"/>
-      <c r="I38" s="79"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="81"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
@@ -30795,20 +30797,20 @@
       <c r="A42" s="27">
         <v>7</v>
       </c>
-      <c r="B42" s="77" t="s">
+      <c r="B42" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="79"/>
-      <c r="D42" s="77" t="s">
+      <c r="C42" s="81"/>
+      <c r="D42" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="79"/>
+      <c r="E42" s="81"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="77" t="s">
+      <c r="G42" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="H42" s="78"/>
-      <c r="I42" s="79"/>
+      <c r="H42" s="80"/>
+      <c r="I42" s="81"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="27">
@@ -30852,33 +30854,33 @@
       <c r="A45" s="27">
         <v>10</v>
       </c>
-      <c r="B45" s="77" t="s">
+      <c r="B45" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="79"/>
-      <c r="D45" s="77" t="s">
+      <c r="C45" s="81"/>
+      <c r="D45" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="79"/>
+      <c r="E45" s="81"/>
       <c r="F45" s="27"/>
-      <c r="G45" s="77" t="s">
+      <c r="G45" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="H45" s="78"/>
-      <c r="I45" s="79"/>
+      <c r="H45" s="80"/>
+      <c r="I45" s="81"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="74" t="s">
+      <c r="A46" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="75"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="76"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="78"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="29"/>
@@ -30936,10 +30938,10 @@
       <c r="A51" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="B51" s="86" t="s">
+      <c r="B51" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="C51" s="86"/>
+      <c r="C51" s="95"/>
       <c r="D51" s="18"/>
       <c r="E51" s="42" t="s">
         <v>130</v>
@@ -30955,10 +30957,10 @@
       <c r="A52" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B52" s="72" t="s">
+      <c r="B52" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="72"/>
+      <c r="C52" s="74"/>
       <c r="D52" s="18"/>
       <c r="E52" s="43" t="s">
         <v>131</v>
@@ -30974,10 +30976,10 @@
       <c r="A53" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B53" s="72" t="s">
+      <c r="B53" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="C53" s="72"/>
+      <c r="C53" s="74"/>
       <c r="D53" s="18"/>
       <c r="E53" s="43" t="s">
         <v>133</v>
@@ -30993,10 +30995,10 @@
       <c r="A54" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B54" s="72" t="s">
+      <c r="B54" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="72"/>
+      <c r="C54" s="74"/>
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
       <c r="F54" s="18"/>
@@ -31240,24 +31242,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:I42"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="A46:I46"/>
@@ -31266,6 +31250,24 @@
     <mergeCell ref="G45:I45"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31288,17 +31290,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -31307,11 +31309,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="81"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -31322,11 +31324,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="81"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -31337,11 +31339,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="81"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -31354,11 +31356,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="81"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -31369,13 +31371,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="81"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -31395,17 +31397,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="76"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="78"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -31903,26 +31905,26 @@
       <c r="I53" s="23"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="74" t="s">
+      <c r="A54" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="75"/>
-      <c r="C54" s="75"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="75"/>
-      <c r="H54" s="75"/>
-      <c r="I54" s="76"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="77"/>
+      <c r="I54" s="78"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="80" t="s">
+      <c r="B55" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="81"/>
+      <c r="C55" s="84"/>
       <c r="D55" s="25" t="s">
         <v>18</v>
       </c>
@@ -31930,30 +31932,30 @@
       <c r="F55" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="80" t="s">
+      <c r="G55" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="H55" s="82"/>
-      <c r="I55" s="81"/>
+      <c r="H55" s="85"/>
+      <c r="I55" s="84"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="27">
         <v>1</v>
       </c>
-      <c r="B56" s="77" t="s">
+      <c r="B56" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="79"/>
-      <c r="D56" s="77" t="s">
+      <c r="C56" s="81"/>
+      <c r="D56" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="79"/>
+      <c r="E56" s="81"/>
       <c r="F56" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G56" s="77"/>
-      <c r="H56" s="78"/>
-      <c r="I56" s="79"/>
+      <c r="G56" s="79"/>
+      <c r="H56" s="80"/>
+      <c r="I56" s="81"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="27">
@@ -31961,37 +31963,37 @@
       </c>
       <c r="B57" s="33"/>
       <c r="C57" s="35"/>
-      <c r="D57" s="77" t="s">
+      <c r="D57" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="79"/>
+      <c r="E57" s="81"/>
       <c r="F57" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G57" s="77" t="s">
+      <c r="G57" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="H57" s="78"/>
-      <c r="I57" s="79"/>
+      <c r="H57" s="80"/>
+      <c r="I57" s="81"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="27">
         <v>3</v>
       </c>
-      <c r="B58" s="77" t="s">
+      <c r="B58" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="79"/>
-      <c r="D58" s="77" t="s">
+      <c r="C58" s="81"/>
+      <c r="D58" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="79"/>
+      <c r="E58" s="81"/>
       <c r="F58" s="27"/>
-      <c r="G58" s="77" t="s">
+      <c r="G58" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="H58" s="78"/>
-      <c r="I58" s="79"/>
+      <c r="H58" s="80"/>
+      <c r="I58" s="81"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="27">
@@ -32001,18 +32003,18 @@
         <v>82</v>
       </c>
       <c r="C59" s="35"/>
-      <c r="D59" s="77" t="s">
+      <c r="D59" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="79"/>
+      <c r="E59" s="81"/>
       <c r="F59" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G59" s="77" t="s">
+      <c r="G59" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="H59" s="78"/>
-      <c r="I59" s="79"/>
+      <c r="H59" s="80"/>
+      <c r="I59" s="81"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="27">
@@ -32037,20 +32039,20 @@
       <c r="A61" s="27">
         <v>6</v>
       </c>
-      <c r="B61" s="77" t="s">
+      <c r="B61" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="C61" s="79"/>
-      <c r="D61" s="77" t="s">
+      <c r="C61" s="81"/>
+      <c r="D61" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="E61" s="79"/>
+      <c r="E61" s="81"/>
       <c r="F61" s="27"/>
-      <c r="G61" s="77" t="s">
+      <c r="G61" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="H61" s="78"/>
-      <c r="I61" s="79"/>
+      <c r="H61" s="80"/>
+      <c r="I61" s="81"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="27">
@@ -32065,113 +32067,113 @@
       </c>
       <c r="E62" s="35"/>
       <c r="F62" s="27"/>
-      <c r="G62" s="83" t="s">
+      <c r="G62" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="H62" s="78"/>
-      <c r="I62" s="79"/>
+      <c r="H62" s="80"/>
+      <c r="I62" s="81"/>
     </row>
     <row r="63" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="27">
         <v>8</v>
       </c>
-      <c r="B63" s="77" t="s">
+      <c r="B63" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="C63" s="79"/>
+      <c r="C63" s="81"/>
       <c r="D63" s="33" t="s">
         <v>83</v>
       </c>
       <c r="E63" s="35"/>
       <c r="F63" s="27"/>
-      <c r="G63" s="83" t="s">
+      <c r="G63" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="H63" s="78"/>
-      <c r="I63" s="79"/>
+      <c r="H63" s="80"/>
+      <c r="I63" s="81"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="27">
         <v>9</v>
       </c>
-      <c r="B64" s="77" t="s">
+      <c r="B64" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="79"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="79"/>
+      <c r="C64" s="81"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="81"/>
       <c r="F64" s="27"/>
-      <c r="G64" s="77" t="s">
+      <c r="G64" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="H64" s="78"/>
-      <c r="I64" s="79"/>
+      <c r="H64" s="80"/>
+      <c r="I64" s="81"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="27">
         <v>10</v>
       </c>
-      <c r="B65" s="77" t="s">
+      <c r="B65" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="79"/>
-      <c r="D65" s="77" t="s">
+      <c r="C65" s="81"/>
+      <c r="D65" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="E65" s="79"/>
+      <c r="E65" s="81"/>
       <c r="F65" s="27"/>
-      <c r="G65" s="77" t="s">
+      <c r="G65" s="79" t="s">
         <v>144</v>
       </c>
-      <c r="H65" s="78"/>
-      <c r="I65" s="79"/>
+      <c r="H65" s="80"/>
+      <c r="I65" s="81"/>
     </row>
     <row r="66" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="27">
         <v>11</v>
       </c>
-      <c r="B66" s="77" t="s">
+      <c r="B66" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="C66" s="79"/>
-      <c r="D66" s="77" t="s">
+      <c r="C66" s="81"/>
+      <c r="D66" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="E66" s="79"/>
+      <c r="E66" s="81"/>
       <c r="F66" s="27"/>
-      <c r="G66" s="83" t="s">
+      <c r="G66" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="H66" s="78"/>
-      <c r="I66" s="79"/>
+      <c r="H66" s="80"/>
+      <c r="I66" s="81"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="27">
         <v>12</v>
       </c>
-      <c r="B67" s="77" t="s">
+      <c r="B67" s="79" t="s">
         <v>143</v>
       </c>
-      <c r="C67" s="79"/>
-      <c r="D67" s="77"/>
-      <c r="E67" s="79"/>
+      <c r="C67" s="81"/>
+      <c r="D67" s="79"/>
+      <c r="E67" s="81"/>
       <c r="F67" s="27"/>
-      <c r="G67" s="77"/>
-      <c r="H67" s="78"/>
-      <c r="I67" s="79"/>
+      <c r="G67" s="79"/>
+      <c r="H67" s="80"/>
+      <c r="I67" s="81"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="74" t="s">
+      <c r="A68" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B68" s="75"/>
-      <c r="C68" s="75"/>
-      <c r="D68" s="75"/>
-      <c r="E68" s="75"/>
-      <c r="F68" s="75"/>
-      <c r="G68" s="75"/>
-      <c r="H68" s="75"/>
-      <c r="I68" s="76"/>
+      <c r="B68" s="77"/>
+      <c r="C68" s="77"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="78"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="29"/>
@@ -32411,12 +32413,12 @@
       <c r="B90" s="40">
         <v>1</v>
       </c>
-      <c r="C90" s="87" t="s">
+      <c r="C90" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="D90" s="87"/>
-      <c r="E90" s="87"/>
-      <c r="F90" s="87"/>
+      <c r="D90" s="96"/>
+      <c r="E90" s="96"/>
+      <c r="F90" s="96"/>
       <c r="G90" s="18"/>
       <c r="H90" s="18"/>
       <c r="I90" s="20"/>
@@ -32426,12 +32428,12 @@
       <c r="B91" s="40">
         <v>2</v>
       </c>
-      <c r="C91" s="87" t="s">
+      <c r="C91" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="D91" s="87"/>
-      <c r="E91" s="87"/>
-      <c r="F91" s="87"/>
+      <c r="D91" s="96"/>
+      <c r="E91" s="96"/>
+      <c r="F91" s="96"/>
       <c r="G91" s="18"/>
       <c r="H91" s="18"/>
       <c r="I91" s="20"/>
@@ -32441,12 +32443,12 @@
       <c r="B92" s="40">
         <v>3</v>
       </c>
-      <c r="C92" s="87" t="s">
+      <c r="C92" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="D92" s="87"/>
-      <c r="E92" s="87"/>
-      <c r="F92" s="87"/>
+      <c r="D92" s="96"/>
+      <c r="E92" s="96"/>
+      <c r="F92" s="96"/>
       <c r="G92" s="18"/>
       <c r="H92" s="18"/>
       <c r="I92" s="20"/>
@@ -32456,12 +32458,12 @@
       <c r="B93" s="40">
         <v>4</v>
       </c>
-      <c r="C93" s="87" t="s">
+      <c r="C93" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="D93" s="87"/>
-      <c r="E93" s="87"/>
-      <c r="F93" s="87"/>
+      <c r="D93" s="96"/>
+      <c r="E93" s="96"/>
+      <c r="F93" s="96"/>
       <c r="G93" s="18"/>
       <c r="H93" s="18"/>
       <c r="I93" s="20"/>
@@ -32501,33 +32503,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="C90:F90"/>
-    <mergeCell ref="C91:F91"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="D67:E67"/>
@@ -32544,6 +32519,33 @@
     <mergeCell ref="A54:I54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="G55:I55"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="C90:F90"/>
+    <mergeCell ref="C91:F91"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32566,17 +32568,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -32585,11 +32587,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="81"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -32600,11 +32602,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="81"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -32615,11 +32617,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="81"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -32632,11 +32634,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="81"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -32647,13 +32649,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="81"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -32673,17 +32675,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="76"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="78"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -33126,26 +33128,26 @@
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="74" t="s">
+      <c r="A49" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="75"/>
-      <c r="C49" s="75"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="75"/>
-      <c r="G49" s="75"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="76"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="77"/>
+      <c r="I49" s="78"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="80" t="s">
+      <c r="B50" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="81"/>
+      <c r="C50" s="84"/>
       <c r="D50" s="25" t="s">
         <v>18</v>
       </c>
@@ -33153,30 +33155,30 @@
       <c r="F50" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="80" t="s">
+      <c r="G50" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="82"/>
-      <c r="I50" s="81"/>
+      <c r="H50" s="85"/>
+      <c r="I50" s="84"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="77" t="s">
+      <c r="B51" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="79"/>
-      <c r="D51" s="77" t="s">
+      <c r="C51" s="81"/>
+      <c r="D51" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="79"/>
+      <c r="E51" s="81"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="77"/>
-      <c r="H51" s="78"/>
-      <c r="I51" s="79"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="81"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="27">
@@ -33184,37 +33186,37 @@
       </c>
       <c r="B52" s="36"/>
       <c r="C52" s="37"/>
-      <c r="D52" s="77" t="s">
+      <c r="D52" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="79"/>
+      <c r="E52" s="81"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="77" t="s">
+      <c r="G52" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="78"/>
-      <c r="I52" s="79"/>
+      <c r="H52" s="80"/>
+      <c r="I52" s="81"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="27">
         <v>3</v>
       </c>
-      <c r="B53" s="77" t="s">
+      <c r="B53" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="79"/>
-      <c r="D53" s="77" t="s">
+      <c r="C53" s="81"/>
+      <c r="D53" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="79"/>
+      <c r="E53" s="81"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="77" t="s">
+      <c r="G53" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="H53" s="78"/>
-      <c r="I53" s="79"/>
+      <c r="H53" s="80"/>
+      <c r="I53" s="81"/>
     </row>
     <row r="54" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="27">
@@ -33224,18 +33226,18 @@
         <v>147</v>
       </c>
       <c r="C54" s="37"/>
-      <c r="D54" s="77" t="s">
+      <c r="D54" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="E54" s="79"/>
+      <c r="E54" s="81"/>
       <c r="F54" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="83" t="s">
+      <c r="G54" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="H54" s="78"/>
-      <c r="I54" s="79"/>
+      <c r="H54" s="80"/>
+      <c r="I54" s="81"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="27">
@@ -33258,33 +33260,33 @@
       <c r="A56" s="27">
         <v>6</v>
       </c>
-      <c r="B56" s="77" t="s">
+      <c r="B56" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="C56" s="79"/>
-      <c r="D56" s="77" t="s">
+      <c r="C56" s="81"/>
+      <c r="D56" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="79"/>
+      <c r="E56" s="81"/>
       <c r="F56" s="27"/>
-      <c r="G56" s="77" t="s">
+      <c r="G56" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="H56" s="78"/>
-      <c r="I56" s="79"/>
+      <c r="H56" s="80"/>
+      <c r="I56" s="81"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="74" t="s">
+      <c r="A57" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="75"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="75"/>
-      <c r="F57" s="75"/>
-      <c r="G57" s="75"/>
-      <c r="H57" s="75"/>
-      <c r="I57" s="76"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="77"/>
+      <c r="H57" s="77"/>
+      <c r="I57" s="78"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="29"/>
@@ -33442,19 +33444,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
     <mergeCell ref="A57:I57"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:E56"/>
@@ -33466,6 +33455,19 @@
     <mergeCell ref="G53:I53"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="G54:I54"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33488,17 +33490,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -33507,11 +33509,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="81"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -33522,11 +33524,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="81"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -33537,11 +33539,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="81"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -33554,11 +33556,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="81"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -33569,13 +33571,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="81"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -33595,17 +33597,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="76"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="78"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -34048,26 +34050,26 @@
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="74" t="s">
+      <c r="A49" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="75"/>
-      <c r="C49" s="75"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="75"/>
-      <c r="G49" s="75"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="76"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="77"/>
+      <c r="I49" s="78"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="80" t="s">
+      <c r="B50" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="81"/>
+      <c r="C50" s="84"/>
       <c r="D50" s="25" t="s">
         <v>18</v>
       </c>
@@ -34075,30 +34077,30 @@
       <c r="F50" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="80" t="s">
+      <c r="G50" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="82"/>
-      <c r="I50" s="81"/>
+      <c r="H50" s="85"/>
+      <c r="I50" s="84"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="77" t="s">
+      <c r="B51" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="79"/>
-      <c r="D51" s="77" t="s">
+      <c r="C51" s="81"/>
+      <c r="D51" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="79"/>
+      <c r="E51" s="81"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="77"/>
-      <c r="H51" s="78"/>
-      <c r="I51" s="79"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="81"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="27">
@@ -34106,37 +34108,37 @@
       </c>
       <c r="B52" s="36"/>
       <c r="C52" s="37"/>
-      <c r="D52" s="77" t="s">
+      <c r="D52" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="79"/>
+      <c r="E52" s="81"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="77" t="s">
+      <c r="G52" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="78"/>
-      <c r="I52" s="79"/>
+      <c r="H52" s="80"/>
+      <c r="I52" s="81"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="27">
         <v>3</v>
       </c>
-      <c r="B53" s="77" t="s">
+      <c r="B53" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="C53" s="79"/>
-      <c r="D53" s="77" t="s">
+      <c r="C53" s="81"/>
+      <c r="D53" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="79"/>
+      <c r="E53" s="81"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="77" t="s">
+      <c r="G53" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="H53" s="78"/>
-      <c r="I53" s="79"/>
+      <c r="H53" s="80"/>
+      <c r="I53" s="81"/>
     </row>
     <row r="54" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="27">
@@ -34146,18 +34148,18 @@
         <v>155</v>
       </c>
       <c r="C54" s="37"/>
-      <c r="D54" s="77" t="s">
+      <c r="D54" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="E54" s="79"/>
+      <c r="E54" s="81"/>
       <c r="F54" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="83" t="s">
+      <c r="G54" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="H54" s="78"/>
-      <c r="I54" s="79"/>
+      <c r="H54" s="80"/>
+      <c r="I54" s="81"/>
     </row>
     <row r="55" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="27">
@@ -34172,138 +34174,138 @@
       </c>
       <c r="E55" s="37"/>
       <c r="F55" s="27"/>
-      <c r="G55" s="83" t="s">
+      <c r="G55" s="86" t="s">
         <v>158</v>
       </c>
-      <c r="H55" s="78"/>
-      <c r="I55" s="79"/>
+      <c r="H55" s="80"/>
+      <c r="I55" s="81"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="27">
         <v>6</v>
       </c>
-      <c r="B56" s="77" t="s">
+      <c r="B56" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="C56" s="79"/>
-      <c r="D56" s="77" t="s">
+      <c r="C56" s="81"/>
+      <c r="D56" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="E56" s="79"/>
+      <c r="E56" s="81"/>
       <c r="F56" s="27"/>
-      <c r="G56" s="77" t="s">
+      <c r="G56" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="H56" s="78"/>
-      <c r="I56" s="79"/>
+      <c r="H56" s="80"/>
+      <c r="I56" s="81"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="27">
         <v>7</v>
       </c>
-      <c r="B57" s="77" t="s">
+      <c r="B57" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="79"/>
-      <c r="D57" s="77" t="s">
+      <c r="C57" s="81"/>
+      <c r="D57" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="E57" s="79"/>
+      <c r="E57" s="81"/>
       <c r="F57" s="27"/>
-      <c r="G57" s="77" t="s">
+      <c r="G57" s="79" t="s">
         <v>159</v>
       </c>
-      <c r="H57" s="78"/>
-      <c r="I57" s="79"/>
+      <c r="H57" s="80"/>
+      <c r="I57" s="81"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="27">
         <v>8</v>
       </c>
-      <c r="B58" s="77" t="s">
+      <c r="B58" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="C58" s="79"/>
-      <c r="D58" s="77" t="s">
+      <c r="C58" s="81"/>
+      <c r="D58" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="E58" s="79"/>
+      <c r="E58" s="81"/>
       <c r="F58" s="27"/>
-      <c r="G58" s="77" t="s">
+      <c r="G58" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="H58" s="78"/>
-      <c r="I58" s="79"/>
+      <c r="H58" s="80"/>
+      <c r="I58" s="81"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="27">
         <v>9</v>
       </c>
-      <c r="B59" s="77" t="s">
+      <c r="B59" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="C59" s="79"/>
-      <c r="D59" s="77" t="s">
+      <c r="C59" s="81"/>
+      <c r="D59" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="79"/>
+      <c r="E59" s="81"/>
       <c r="F59" s="27"/>
-      <c r="G59" s="77" t="s">
+      <c r="G59" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="H59" s="78"/>
-      <c r="I59" s="79"/>
+      <c r="H59" s="80"/>
+      <c r="I59" s="81"/>
     </row>
     <row r="60" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="27">
         <v>10</v>
       </c>
-      <c r="B60" s="77" t="s">
+      <c r="B60" s="79" t="s">
         <v>306</v>
       </c>
-      <c r="C60" s="79"/>
-      <c r="D60" s="77" t="s">
+      <c r="C60" s="81"/>
+      <c r="D60" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="E60" s="79"/>
+      <c r="E60" s="81"/>
       <c r="F60" s="27"/>
-      <c r="G60" s="83" t="s">
+      <c r="G60" s="86" t="s">
         <v>307</v>
       </c>
-      <c r="H60" s="78"/>
-      <c r="I60" s="79"/>
+      <c r="H60" s="80"/>
+      <c r="I60" s="81"/>
     </row>
     <row r="61" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="27">
         <v>11</v>
       </c>
-      <c r="B61" s="77" t="s">
+      <c r="B61" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="C61" s="79"/>
-      <c r="D61" s="77" t="s">
+      <c r="C61" s="81"/>
+      <c r="D61" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="E61" s="79"/>
+      <c r="E61" s="81"/>
       <c r="F61" s="27"/>
-      <c r="G61" s="83" t="s">
+      <c r="G61" s="86" t="s">
         <v>167</v>
       </c>
-      <c r="H61" s="78"/>
-      <c r="I61" s="79"/>
+      <c r="H61" s="80"/>
+      <c r="I61" s="81"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="74" t="s">
+      <c r="A62" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="75"/>
-      <c r="C62" s="75"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="75"/>
-      <c r="F62" s="75"/>
-      <c r="G62" s="75"/>
-      <c r="H62" s="75"/>
-      <c r="I62" s="76"/>
+      <c r="B62" s="77"/>
+      <c r="C62" s="77"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="77"/>
+      <c r="I62" s="78"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="29"/>
@@ -34524,12 +34526,26 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="G57:I57"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="G54:I54"/>
     <mergeCell ref="A8:I8"/>
@@ -34544,26 +34560,12 @@
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="G53:I53"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34644,17 +34646,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="76" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -34663,13 +34665,13 @@
       <c r="B2" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="81"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -34680,13 +34682,13 @@
       <c r="B3" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="81"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -34697,11 +34699,11 @@
       <c r="B4" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="81"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -34712,13 +34714,13 @@
       <c r="B5" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="79" t="s">
         <v>219</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="81"/>
       <c r="H5" s="5" t="s">
         <v>224</v>
       </c>
@@ -34739,13 +34741,13 @@
       <c r="D7" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -34758,13 +34760,13 @@
       <c r="D8" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E8" s="72" t="s">
+      <c r="E8" s="74" t="s">
         <v>223</v>
       </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
       <c r="K8" t="str">
         <f>B8&amp;"="</f>
         <v>password.expiry=</v>
@@ -34781,13 +34783,13 @@
       <c r="D9" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
       <c r="K9" t="str">
         <f>B9&amp;"="</f>
         <v>display00001=</v>
@@ -34804,13 +34806,13 @@
       <c r="D10" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="74" t="s">
         <v>227</v>
       </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
       <c r="K10" t="str">
         <f>B10&amp;"="</f>
         <v>display00002=</v>
@@ -34827,13 +34829,13 @@
       <c r="D11" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
       <c r="K11" t="str">
         <f t="shared" ref="K11:K39" si="0">B11&amp;"="</f>
         <v>display00003=</v>
@@ -34850,13 +34852,13 @@
       <c r="D12" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="74" t="s">
         <v>229</v>
       </c>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
         <v>display00004=</v>
@@ -34873,13 +34875,13 @@
       <c r="D13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="74" t="s">
         <v>230</v>
       </c>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
         <v>display00101=</v>
@@ -34896,13 +34898,13 @@
       <c r="D14" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E14" s="72" t="s">
+      <c r="E14" s="74" t="s">
         <v>231</v>
       </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
         <v>display00102=</v>
@@ -34919,13 +34921,13 @@
       <c r="D15" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="72" t="s">
+      <c r="E15" s="74" t="s">
         <v>232</v>
       </c>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
         <v>display00201=</v>
@@ -34942,13 +34944,13 @@
       <c r="D16" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E16" s="72" t="s">
+      <c r="E16" s="74" t="s">
         <v>233</v>
       </c>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
         <v>display00202=</v>
@@ -34965,13 +34967,13 @@
       <c r="D17" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E17" s="72" t="s">
+      <c r="E17" s="74" t="s">
         <v>234</v>
       </c>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
         <v>display00301=</v>
@@ -34988,13 +34990,13 @@
       <c r="D18" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E18" s="72" t="s">
+      <c r="E18" s="74" t="s">
         <v>235</v>
       </c>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
         <v>display00302=</v>
@@ -35011,13 +35013,13 @@
       <c r="D19" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E19" s="72" t="s">
+      <c r="E19" s="74" t="s">
         <v>236</v>
       </c>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
         <v>display00401=</v>
@@ -35034,13 +35036,13 @@
       <c r="D20" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E20" s="72" t="s">
+      <c r="E20" s="74" t="s">
         <v>237</v>
       </c>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
         <v>display00402=</v>
@@ -35057,13 +35059,13 @@
       <c r="D21" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E21" s="72" t="s">
+      <c r="E21" s="74" t="s">
         <v>238</v>
       </c>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
         <v>display00501=</v>
@@ -35080,13 +35082,13 @@
       <c r="D22" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E22" s="72" t="s">
+      <c r="E22" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
         <v>display00502=</v>
@@ -35103,13 +35105,13 @@
       <c r="D23" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E23" s="72" t="s">
+      <c r="E23" s="74" t="s">
         <v>240</v>
       </c>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
         <v>display00503=</v>
@@ -35126,13 +35128,13 @@
       <c r="D24" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E24" s="72" t="s">
+      <c r="E24" s="74" t="s">
         <v>241</v>
       </c>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
         <v>display00601=</v>
@@ -35149,13 +35151,13 @@
       <c r="D25" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E25" s="72" t="s">
+      <c r="E25" s="74" t="s">
         <v>242</v>
       </c>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
         <v>display00602=</v>
@@ -35172,13 +35174,13 @@
       <c r="D26" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E26" s="72" t="s">
+      <c r="E26" s="74" t="s">
         <v>243</v>
       </c>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
         <v>display00603=</v>
@@ -35195,13 +35197,13 @@
       <c r="D27" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E27" s="72" t="s">
+      <c r="E27" s="74" t="s">
         <v>244</v>
       </c>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
       <c r="K27" t="str">
         <f t="shared" si="0"/>
         <v>display00701=</v>
@@ -35218,13 +35220,13 @@
       <c r="D28" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E28" s="72" t="s">
+      <c r="E28" s="74" t="s">
         <v>245</v>
       </c>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
       <c r="K28" t="str">
         <f t="shared" si="0"/>
         <v>display00801=</v>
@@ -35241,13 +35243,13 @@
       <c r="D29" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E29" s="72" t="s">
+      <c r="E29" s="74" t="s">
         <v>246</v>
       </c>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
       <c r="K29" t="str">
         <f t="shared" si="0"/>
         <v>display00802=</v>
@@ -35264,13 +35266,13 @@
       <c r="D30" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E30" s="72" t="s">
+      <c r="E30" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
         <v>display00803=</v>
@@ -35287,13 +35289,13 @@
       <c r="D31" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E31" s="72" t="s">
+      <c r="E31" s="74" t="s">
         <v>248</v>
       </c>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
       <c r="K31" t="str">
         <f t="shared" si="0"/>
         <v>display00804=</v>
@@ -35310,13 +35312,13 @@
       <c r="D32" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E32" s="72" t="s">
+      <c r="E32" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
       <c r="K32" t="str">
         <f t="shared" si="0"/>
         <v>display00901=</v>
@@ -35333,13 +35335,13 @@
       <c r="D33" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E33" s="72" t="s">
+      <c r="E33" s="74" t="s">
         <v>250</v>
       </c>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
       <c r="K33" t="str">
         <f t="shared" si="0"/>
         <v>display00902=</v>
@@ -35356,13 +35358,13 @@
       <c r="D34" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E34" s="72" t="s">
+      <c r="E34" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
       <c r="K34" t="str">
         <f t="shared" si="0"/>
         <v>display00903=</v>
@@ -35381,13 +35383,13 @@
       <c r="D35" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E35" s="71" t="s">
+      <c r="E35" s="82" t="s">
         <v>252</v>
       </c>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
       <c r="K35" t="str">
         <f t="shared" si="0"/>
         <v>password.policy=</v>
@@ -35406,13 +35408,13 @@
       <c r="D36" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E36" s="71" t="s">
+      <c r="E36" s="82" t="s">
         <v>253</v>
       </c>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
       <c r="K36" t="str">
         <f t="shared" si="0"/>
         <v>judge.class=</v>
@@ -35431,13 +35433,13 @@
       <c r="D37" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E37" s="71" t="s">
+      <c r="E37" s="82" t="s">
         <v>254</v>
       </c>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="82"/>
       <c r="K37" t="str">
         <f t="shared" si="0"/>
         <v>force.pass.change=</v>
@@ -35456,13 +35458,13 @@
       <c r="D38" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E38" s="71" t="s">
+      <c r="E38" s="82" t="s">
         <v>255</v>
       </c>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="82"/>
       <c r="K38" t="str">
         <f t="shared" si="0"/>
         <v>judge.result.table.name=</v>
@@ -35481,13 +35483,13 @@
       <c r="D39" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E39" s="72" t="s">
+      <c r="E39" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
       <c r="K39" t="str">
         <f t="shared" si="0"/>
         <v>pwd.hash.salt=</v>
@@ -35506,13 +35508,13 @@
       <c r="D40" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E40" s="72" t="s">
+      <c r="E40" s="74" t="s">
         <v>303</v>
       </c>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
       <c r="K40" t="str">
         <f t="shared" ref="K40" si="1">B40&amp;"="</f>
         <v>upload.directory=</v>
@@ -35531,13 +35533,13 @@
       <c r="D41" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E41" s="72" t="s">
+      <c r="E41" s="74" t="s">
         <v>305</v>
       </c>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="74"/>
       <c r="K41" t="str">
         <f t="shared" ref="K41" si="2">B41&amp;"="</f>
         <v>result.directory=</v>
@@ -35545,6 +35547,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
     <mergeCell ref="E41:I41"/>
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="A1:I1"/>
@@ -35561,30 +35587,6 @@
     <mergeCell ref="E13:I13"/>
     <mergeCell ref="E14:I14"/>
     <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E37:I37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35625,17 +35627,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -35644,11 +35646,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="81"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -35659,11 +35661,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="81"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -35674,11 +35676,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="81"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -35691,11 +35693,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="81"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -35706,11 +35708,11 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="81"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -35730,17 +35732,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="76"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="78"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -36018,26 +36020,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="78"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="81"/>
+      <c r="C35" s="84"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -36045,100 +36047,100 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="80" t="s">
+      <c r="G35" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="82"/>
-      <c r="I35" s="81"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="84"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="77" t="s">
+      <c r="B36" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="79"/>
-      <c r="D36" s="77" t="s">
+      <c r="C36" s="81"/>
+      <c r="D36" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="79"/>
+      <c r="E36" s="81"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="77"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="81"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="77" t="s">
+      <c r="B37" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="79"/>
-      <c r="D37" s="77" t="s">
+      <c r="C37" s="81"/>
+      <c r="D37" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="79"/>
+      <c r="E37" s="81"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="77"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="81"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="77" t="s">
+      <c r="B38" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="79"/>
-      <c r="D38" s="77" t="s">
+      <c r="C38" s="81"/>
+      <c r="D38" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="79"/>
+      <c r="E38" s="81"/>
       <c r="F38" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="77"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="81"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="77" t="s">
+      <c r="B39" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="79"/>
-      <c r="D39" s="77" t="s">
+      <c r="C39" s="81"/>
+      <c r="D39" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="79"/>
+      <c r="E39" s="81"/>
       <c r="F39" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="77"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="81"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="74" t="s">
+      <c r="A40" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="75"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="76"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="78"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="29"/>
@@ -36450,19 +36452,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
     <mergeCell ref="A40:I40"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
@@ -36473,6 +36462,19 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="G38:I38"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36494,17 +36496,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -36513,11 +36515,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="81"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -36528,11 +36530,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="81"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -36543,11 +36545,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="81"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -36560,11 +36562,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="81"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -36575,11 +36577,11 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="81"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -36599,17 +36601,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="76"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="78"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -36887,26 +36889,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="78"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="81"/>
+      <c r="C35" s="84"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -36914,78 +36916,78 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="80" t="s">
+      <c r="G35" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="82"/>
-      <c r="I35" s="81"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="84"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="77" t="s">
+      <c r="B36" s="79" t="s">
         <v>313</v>
       </c>
-      <c r="C36" s="79"/>
-      <c r="D36" s="77" t="s">
+      <c r="C36" s="81"/>
+      <c r="D36" s="79" t="s">
         <v>314</v>
       </c>
-      <c r="E36" s="79"/>
+      <c r="E36" s="81"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="77" t="s">
+      <c r="G36" s="79" t="s">
         <v>315</v>
       </c>
-      <c r="H36" s="78"/>
-      <c r="I36" s="79"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="81"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="79"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="81"/>
       <c r="F37" s="27"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="81"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="79"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="81"/>
       <c r="F38" s="27"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="81"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="28"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="79"/>
+      <c r="B39" s="79"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="81"/>
       <c r="F39" s="27"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="81"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="74" t="s">
+      <c r="A40" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="75"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="76"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="78"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="29"/>
@@ -37307,6 +37309,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="G39:I39"/>
@@ -37317,19 +37332,6 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="G38:I38"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37353,17 +37355,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -37372,11 +37374,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="81"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -37387,11 +37389,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="81"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -37402,11 +37404,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="81"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -37419,11 +37421,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="81"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -37434,13 +37436,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="81"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -37460,17 +37462,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="76"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="78"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -37748,26 +37750,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="78"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="81"/>
+      <c r="C35" s="84"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -37775,30 +37777,30 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="80" t="s">
+      <c r="G35" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="82"/>
-      <c r="I35" s="81"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="84"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="77" t="s">
+      <c r="B36" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="79"/>
-      <c r="D36" s="77" t="s">
+      <c r="C36" s="81"/>
+      <c r="D36" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="79"/>
+      <c r="E36" s="81"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="77"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="81"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="27">
@@ -37808,16 +37810,16 @@
         <v>36</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="77" t="s">
+      <c r="D37" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="79"/>
+      <c r="E37" s="81"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="77"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="81"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="27">
@@ -37827,16 +37829,16 @@
         <v>37</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="77" t="s">
+      <c r="D38" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="79"/>
+      <c r="E38" s="81"/>
       <c r="F38" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="77"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="81"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
@@ -37899,33 +37901,33 @@
       <c r="A42" s="27">
         <v>7</v>
       </c>
-      <c r="B42" s="77"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="77" t="s">
+      <c r="B42" s="79"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="79"/>
+      <c r="E42" s="81"/>
       <c r="F42" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="77" t="s">
+      <c r="G42" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="H42" s="78"/>
-      <c r="I42" s="79"/>
+      <c r="H42" s="80"/>
+      <c r="I42" s="81"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="74" t="s">
+      <c r="A43" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="75"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="76"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="78"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="29"/>
@@ -38237,6 +38239,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="G36:I36"/>
@@ -38245,19 +38260,6 @@
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="G35:I35"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:I38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38280,17 +38282,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -38299,11 +38301,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="81"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -38314,11 +38316,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="81"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -38329,11 +38331,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="81"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -38346,11 +38348,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="81"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -38361,13 +38363,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="81"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -38387,17 +38389,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="76"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="78"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -38675,26 +38677,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="78"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="81"/>
+      <c r="C35" s="84"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -38702,30 +38704,30 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="80" t="s">
+      <c r="G35" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="82"/>
-      <c r="I35" s="81"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="84"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="77" t="s">
+      <c r="B36" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="79"/>
-      <c r="D36" s="77" t="s">
+      <c r="C36" s="81"/>
+      <c r="D36" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="79"/>
+      <c r="E36" s="81"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="77"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="81"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="27">
@@ -38733,39 +38735,39 @@
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="31"/>
-      <c r="D37" s="77" t="s">
+      <c r="D37" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="79"/>
+      <c r="E37" s="81"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="77" t="s">
+      <c r="G37" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="78"/>
-      <c r="I37" s="79"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="81"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="27">
         <v>3</v>
       </c>
-      <c r="B38" s="77" t="s">
+      <c r="B38" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="79"/>
-      <c r="D38" s="77" t="s">
+      <c r="C38" s="81"/>
+      <c r="D38" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="79"/>
+      <c r="E38" s="81"/>
       <c r="F38" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="77" t="s">
+      <c r="G38" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="78"/>
-      <c r="I38" s="79"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="81"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
@@ -38775,16 +38777,16 @@
         <v>45</v>
       </c>
       <c r="C39" s="31"/>
-      <c r="D39" s="77" t="s">
+      <c r="D39" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="79"/>
+      <c r="E39" s="81"/>
       <c r="F39" s="27"/>
-      <c r="G39" s="77" t="s">
+      <c r="G39" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="H39" s="78"/>
-      <c r="I39" s="79"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="81"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="27">
@@ -38807,20 +38809,20 @@
       <c r="A41" s="27">
         <v>6</v>
       </c>
-      <c r="B41" s="77" t="s">
+      <c r="B41" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="79"/>
-      <c r="D41" s="77" t="s">
+      <c r="C41" s="81"/>
+      <c r="D41" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="79"/>
+      <c r="E41" s="81"/>
       <c r="F41" s="27"/>
-      <c r="G41" s="77" t="s">
+      <c r="G41" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="H41" s="78"/>
-      <c r="I41" s="79"/>
+      <c r="H41" s="80"/>
+      <c r="I41" s="81"/>
     </row>
     <row r="42" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="27">
@@ -38835,43 +38837,43 @@
       </c>
       <c r="E42" s="31"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="83" t="s">
+      <c r="G42" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="H42" s="78"/>
-      <c r="I42" s="79"/>
+      <c r="H42" s="80"/>
+      <c r="I42" s="81"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="27">
         <v>8</v>
       </c>
-      <c r="B43" s="77"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="77" t="s">
+      <c r="B43" s="79"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="79"/>
+      <c r="E43" s="81"/>
       <c r="F43" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="77" t="s">
+      <c r="G43" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="H43" s="78"/>
-      <c r="I43" s="79"/>
+      <c r="H43" s="80"/>
+      <c r="I43" s="81"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="74" t="s">
+      <c r="A44" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="75"/>
-      <c r="C44" s="75"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="76"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="78"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="29"/>
@@ -39191,25 +39193,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G39:I39"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="G43:I43"/>
@@ -39219,6 +39202,25 @@
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="G41:I41"/>
     <mergeCell ref="G42:I42"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39241,17 +39243,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -39260,11 +39262,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="81"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -39275,11 +39277,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="81"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -39290,11 +39292,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="81"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -39307,11 +39309,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="81"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -39322,13 +39324,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="81"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -39348,17 +39350,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="76"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="78"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -39790,26 +39792,26 @@
       <c r="I47" s="23"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="74" t="s">
+      <c r="A48" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="75"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="75"/>
-      <c r="H48" s="75"/>
-      <c r="I48" s="76"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="78"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="80" t="s">
+      <c r="B49" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="81"/>
+      <c r="C49" s="84"/>
       <c r="D49" s="25" t="s">
         <v>18</v>
       </c>
@@ -39817,30 +39819,30 @@
       <c r="F49" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="80" t="s">
+      <c r="G49" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="H49" s="82"/>
-      <c r="I49" s="81"/>
+      <c r="H49" s="85"/>
+      <c r="I49" s="84"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="27">
         <v>1</v>
       </c>
-      <c r="B50" s="77" t="s">
+      <c r="B50" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="79"/>
-      <c r="D50" s="77" t="s">
+      <c r="C50" s="81"/>
+      <c r="D50" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="79"/>
+      <c r="E50" s="81"/>
       <c r="F50" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G50" s="77"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="79"/>
+      <c r="G50" s="79"/>
+      <c r="H50" s="80"/>
+      <c r="I50" s="81"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="27">
@@ -39848,69 +39850,69 @@
       </c>
       <c r="B51" s="30"/>
       <c r="C51" s="31"/>
-      <c r="D51" s="77" t="s">
+      <c r="D51" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="79"/>
+      <c r="E51" s="81"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="77" t="s">
+      <c r="G51" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="H51" s="78"/>
-      <c r="I51" s="79"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="81"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="27">
         <v>3</v>
       </c>
-      <c r="B52" s="77"/>
-      <c r="C52" s="79"/>
-      <c r="D52" s="77" t="s">
+      <c r="B52" s="79"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="79"/>
+      <c r="E52" s="81"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="77" t="s">
+      <c r="G52" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="H52" s="78"/>
-      <c r="I52" s="79"/>
+      <c r="H52" s="80"/>
+      <c r="I52" s="81"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="27">
         <v>4</v>
       </c>
-      <c r="B53" s="77" t="s">
+      <c r="B53" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="79"/>
-      <c r="D53" s="77" t="s">
+      <c r="C53" s="81"/>
+      <c r="D53" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="79"/>
+      <c r="E53" s="81"/>
       <c r="F53" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G53" s="77" t="s">
+      <c r="G53" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="H53" s="78"/>
-      <c r="I53" s="79"/>
+      <c r="H53" s="80"/>
+      <c r="I53" s="81"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="27">
         <v>5</v>
       </c>
-      <c r="B54" s="77"/>
-      <c r="C54" s="79"/>
-      <c r="D54" s="77" t="s">
+      <c r="B54" s="79"/>
+      <c r="C54" s="81"/>
+      <c r="D54" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="79"/>
+      <c r="E54" s="81"/>
       <c r="F54" s="27" t="s">
         <v>22</v>
       </c>
@@ -39924,14 +39926,14 @@
       <c r="A55" s="27">
         <v>6</v>
       </c>
-      <c r="B55" s="77" t="s">
+      <c r="B55" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="79"/>
-      <c r="D55" s="77" t="s">
+      <c r="C55" s="81"/>
+      <c r="D55" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E55" s="79"/>
+      <c r="E55" s="81"/>
       <c r="F55" s="27" t="s">
         <v>22</v>
       </c>
@@ -39945,124 +39947,124 @@
       <c r="A56" s="27">
         <v>7</v>
       </c>
-      <c r="B56" s="77" t="s">
+      <c r="B56" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="79"/>
-      <c r="D56" s="77" t="s">
+      <c r="C56" s="81"/>
+      <c r="D56" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E56" s="79"/>
+      <c r="E56" s="81"/>
       <c r="F56" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G56" s="83" t="s">
+      <c r="G56" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="H56" s="84"/>
-      <c r="I56" s="85"/>
+      <c r="H56" s="87"/>
+      <c r="I56" s="88"/>
     </row>
     <row r="57" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="27">
         <v>8</v>
       </c>
-      <c r="B57" s="77" t="s">
+      <c r="B57" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="79"/>
-      <c r="D57" s="77" t="s">
+      <c r="C57" s="81"/>
+      <c r="D57" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="79"/>
+      <c r="E57" s="81"/>
       <c r="F57" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G57" s="83" t="s">
+      <c r="G57" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="H57" s="84"/>
-      <c r="I57" s="85"/>
+      <c r="H57" s="87"/>
+      <c r="I57" s="88"/>
     </row>
     <row r="58" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="27">
         <v>9</v>
       </c>
-      <c r="B58" s="77" t="s">
+      <c r="B58" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="79"/>
-      <c r="D58" s="77" t="s">
+      <c r="C58" s="81"/>
+      <c r="D58" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="79"/>
+      <c r="E58" s="81"/>
       <c r="F58" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G58" s="83" t="s">
+      <c r="G58" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="H58" s="84"/>
-      <c r="I58" s="85"/>
+      <c r="H58" s="87"/>
+      <c r="I58" s="88"/>
     </row>
     <row r="59" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="27">
         <v>10</v>
       </c>
-      <c r="B59" s="77" t="s">
+      <c r="B59" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="79"/>
-      <c r="D59" s="77" t="s">
+      <c r="C59" s="81"/>
+      <c r="D59" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E59" s="79"/>
+      <c r="E59" s="81"/>
       <c r="F59" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G59" s="83" t="s">
+      <c r="G59" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="H59" s="84"/>
-      <c r="I59" s="85"/>
+      <c r="H59" s="87"/>
+      <c r="I59" s="88"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="27">
         <v>11</v>
       </c>
-      <c r="B60" s="77"/>
-      <c r="C60" s="79"/>
+      <c r="B60" s="79"/>
+      <c r="C60" s="81"/>
       <c r="D60" s="30"/>
       <c r="E60" s="31"/>
       <c r="F60" s="27"/>
-      <c r="G60" s="83"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="79"/>
+      <c r="G60" s="86"/>
+      <c r="H60" s="80"/>
+      <c r="I60" s="81"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="27">
         <v>12</v>
       </c>
-      <c r="B61" s="77"/>
-      <c r="C61" s="79"/>
-      <c r="D61" s="77"/>
-      <c r="E61" s="79"/>
+      <c r="B61" s="79"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="81"/>
       <c r="F61" s="27"/>
-      <c r="G61" s="77"/>
-      <c r="H61" s="78"/>
-      <c r="I61" s="79"/>
+      <c r="G61" s="79"/>
+      <c r="H61" s="80"/>
+      <c r="I61" s="81"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="74" t="s">
+      <c r="A62" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="75"/>
-      <c r="C62" s="75"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="75"/>
-      <c r="F62" s="75"/>
-      <c r="G62" s="75"/>
-      <c r="H62" s="75"/>
-      <c r="I62" s="76"/>
+      <c r="B62" s="77"/>
+      <c r="C62" s="77"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="77"/>
+      <c r="I62" s="78"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="29"/>
@@ -40392,33 +40394,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
     <mergeCell ref="A62:I62"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B54:C54"/>
@@ -40435,6 +40410,33 @@
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="G57:I57"/>
     <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40446,8 +40448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:I46"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -40456,17 +40458,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -40475,11 +40477,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="81"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -40490,11 +40492,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="81"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -40505,11 +40507,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="81"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -40522,11 +40524,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="81"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -40537,13 +40539,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="81"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -40563,17 +40565,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="76"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="78"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -40851,26 +40853,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="78"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="81"/>
+      <c r="C35" s="84"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -40878,30 +40880,30 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="80" t="s">
+      <c r="G35" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="82"/>
-      <c r="I35" s="81"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="84"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="77" t="s">
+      <c r="B36" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="79"/>
-      <c r="D36" s="77" t="s">
+      <c r="C36" s="81"/>
+      <c r="D36" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="79"/>
+      <c r="E36" s="81"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="77"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="81"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="27">
@@ -40909,16 +40911,16 @@
       </c>
       <c r="B37" s="57"/>
       <c r="C37" s="59"/>
-      <c r="D37" s="77" t="s">
+      <c r="D37" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="79"/>
+      <c r="E37" s="81"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="77"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="81"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="27">
@@ -40928,18 +40930,18 @@
         <v>82</v>
       </c>
       <c r="C38" s="59"/>
-      <c r="D38" s="77" t="s">
+      <c r="D38" s="79" t="s">
         <v>321</v>
       </c>
-      <c r="E38" s="79"/>
+      <c r="E38" s="81"/>
       <c r="F38" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="G38" s="77" t="s">
+      <c r="G38" s="79" t="s">
         <v>323</v>
       </c>
-      <c r="H38" s="78"/>
-      <c r="I38" s="79"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="81"/>
     </row>
     <row r="39" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
@@ -40956,11 +40958,11 @@
       <c r="F39" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="G39" s="88" t="s">
+      <c r="G39" s="89" t="s">
         <v>326</v>
       </c>
-      <c r="H39" s="89"/>
-      <c r="I39" s="90"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="91"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="27">
@@ -40994,11 +40996,11 @@
       </c>
       <c r="E41" s="59"/>
       <c r="F41" s="27"/>
-      <c r="G41" s="91" t="s">
+      <c r="G41" s="92" t="s">
         <v>330</v>
       </c>
-      <c r="H41" s="92"/>
-      <c r="I41" s="93"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="94"/>
     </row>
     <row r="42" spans="1:9" ht="31.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="27">
@@ -41013,13 +41015,13 @@
       </c>
       <c r="E42" s="59"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="88" t="s">
-        <v>333</v>
-      </c>
-      <c r="H42" s="92"/>
-      <c r="I42" s="93"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G42" s="89" t="s">
+        <v>332</v>
+      </c>
+      <c r="H42" s="93"/>
+      <c r="I42" s="94"/>
+    </row>
+    <row r="43" spans="1:9" ht="47.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="27">
         <v>8</v>
       </c>
@@ -41032,18 +41034,18 @@
       </c>
       <c r="E43" s="59"/>
       <c r="F43" s="27"/>
-      <c r="G43" s="91" t="s">
-        <v>332</v>
-      </c>
-      <c r="H43" s="92"/>
-      <c r="I43" s="93"/>
+      <c r="G43" s="89" t="s">
+        <v>339</v>
+      </c>
+      <c r="H43" s="93"/>
+      <c r="I43" s="94"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="27">
         <v>9</v>
       </c>
       <c r="B44" s="57" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C44" s="59"/>
       <c r="D44" s="57" t="s">
@@ -41051,43 +41053,43 @@
       </c>
       <c r="E44" s="59"/>
       <c r="F44" s="27"/>
-      <c r="G44" s="94" t="s">
-        <v>336</v>
-      </c>
-      <c r="H44" s="95"/>
-      <c r="I44" s="96"/>
+      <c r="G44" s="60" t="s">
+        <v>335</v>
+      </c>
+      <c r="H44" s="61"/>
+      <c r="I44" s="62"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="27">
         <v>10</v>
       </c>
-      <c r="B45" s="77" t="s">
-        <v>335</v>
-      </c>
-      <c r="C45" s="79"/>
-      <c r="D45" s="77" t="s">
+      <c r="B45" s="79" t="s">
+        <v>334</v>
+      </c>
+      <c r="C45" s="81"/>
+      <c r="D45" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="E45" s="79"/>
+      <c r="E45" s="81"/>
       <c r="F45" s="27"/>
-      <c r="G45" s="77" t="s">
-        <v>337</v>
-      </c>
-      <c r="H45" s="78"/>
-      <c r="I45" s="79"/>
+      <c r="G45" s="79" t="s">
+        <v>336</v>
+      </c>
+      <c r="H45" s="80"/>
+      <c r="I45" s="81"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="74" t="s">
+      <c r="A46" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="75"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="76"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="78"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="29"/>
@@ -41399,11 +41401,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="G37:I37"/>
     <mergeCell ref="D38:E38"/>
@@ -41411,19 +41421,11 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/設計書もどき.xlsx
+++ b/設計書/設計書もどき.xlsx
@@ -18,7 +18,7 @@
     <sheet name="課題検索画面" sheetId="15" r:id="rId9"/>
     <sheet name="ランキング画面" sheetId="9" r:id="rId10"/>
     <sheet name="課題作成画面" sheetId="6" r:id="rId11"/>
-    <sheet name="提出状況確認" sheetId="8" r:id="rId12"/>
+    <sheet name="ユーザー検索" sheetId="8" r:id="rId12"/>
     <sheet name="ユーザー登録" sheetId="10" r:id="rId13"/>
     <sheet name="カスタマイズ" sheetId="13" r:id="rId14"/>
   </sheets>
@@ -10288,119 +10288,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>723899</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>29190</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="正方形/長方形 57"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2705099" y="4143990"/>
-          <a:ext cx="781051" cy="332760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>点数</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="正方形/長方形 58"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3495675" y="4143376"/>
-          <a:ext cx="1657349" cy="314324"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180976</xdr:colOff>
       <xdr:row>20</xdr:row>
@@ -10508,16 +10395,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10526,8 +10413,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4362451" y="4191000"/>
-          <a:ext cx="723899" cy="228600"/>
+          <a:off x="4819651" y="3749040"/>
+          <a:ext cx="624839" cy="224790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10552,10 +10439,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>以上</a:t>
-          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10563,16 +10447,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>809626</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>771526</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>89536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>127636</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10581,8 +10465,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4772026" y="4219576"/>
-          <a:ext cx="295274" cy="209550"/>
+          <a:off x="5229226" y="3777616"/>
+          <a:ext cx="196214" cy="205740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -29139,8 +29023,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -29467,7 +29351,7 @@
       <c r="B12" s="53">
         <v>1</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="56" t="s">
         <v>190</v>
       </c>
       <c r="D12" s="27" t="s">
@@ -29501,7 +29385,7 @@
       <c r="B13" s="53">
         <v>2</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="56" t="s">
         <v>193</v>
       </c>
       <c r="D13" s="27" t="s">
@@ -29537,7 +29421,7 @@
       <c r="B14" s="53">
         <v>1</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="56" t="s">
         <v>191</v>
       </c>
       <c r="D14" s="27" t="s">
@@ -29571,7 +29455,7 @@
       <c r="B15" s="53">
         <v>2</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="56" t="s">
         <v>192</v>
       </c>
       <c r="D15" s="27" t="s">
@@ -29705,7 +29589,7 @@
       <c r="B19" s="53">
         <v>1</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="56" t="s">
         <v>197</v>
       </c>
       <c r="D19" s="27"/>
@@ -29737,7 +29621,7 @@
       <c r="B20" s="53">
         <v>2</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="56" t="s">
         <v>198</v>
       </c>
       <c r="D20" s="27"/>
@@ -29768,7 +29652,7 @@
       <c r="B21" s="53">
         <v>3</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="56" t="s">
         <v>199</v>
       </c>
       <c r="D21" s="27"/>
@@ -29868,7 +29752,7 @@
       <c r="B24" s="53">
         <v>1</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="56" t="s">
         <v>204</v>
       </c>
       <c r="D24" s="27"/>
@@ -30090,7 +29974,7 @@
       <c r="B31" s="53">
         <v>1</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="56" t="s">
         <v>309</v>
       </c>
       <c r="D31" s="27"/>
@@ -32559,7 +32443,7 @@
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -40448,7 +40332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>

--- a/設計書/設計書もどき.xlsx
+++ b/設計書/設計書もどき.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="画面一覧" sheetId="11" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="342">
   <si>
     <t>画面レイアウト定義</t>
     <rPh sb="0" eb="2">
@@ -3271,9 +3271,6 @@
       <t>カクノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>password.expiry</t>
   </si>
   <si>
     <t>password.policy</t>
@@ -3866,6 +3863,45 @@
     <rPh sb="52" eb="53">
       <t>マエ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password.expiry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードの失敗閾値。５を設定した場合、6回目の失敗でアカウントがロックする。ロックした場合は、管理者がロックを解除しなければならない</t>
+    <rPh sb="6" eb="8">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シキイチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カイメ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pwd.lock.limit</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4279,6 +4315,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4299,7 +4336,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -29023,7 +29059,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -29048,21 +29084,21 @@
       <c r="E2" s="66"/>
       <c r="F2" s="66"/>
       <c r="G2" s="66" t="s">
+        <v>271</v>
+      </c>
+      <c r="H2" s="66" t="s">
         <v>272</v>
       </c>
-      <c r="H2" s="66" t="s">
-        <v>273</v>
-      </c>
       <c r="I2" s="66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="52" t="s">
         <v>270</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>271</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="51" t="s">
@@ -29636,7 +29672,7 @@
         <v>display00602</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I20" s="2" t="str">
         <f t="shared" si="1"/>
@@ -29685,7 +29721,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="56" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="27" t="s">
@@ -29975,7 +30011,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="56" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
@@ -30007,7 +30043,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D32" s="27"/>
       <c r="E32" s="27" t="s">
@@ -30039,7 +30075,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="27" t="s">
@@ -30071,7 +30107,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="27" t="s">
@@ -30137,17 +30173,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -30156,11 +30192,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="81"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="82"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -30171,11 +30207,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="82"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -30186,11 +30222,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="82"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -30203,11 +30239,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="81"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="82"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -30221,10 +30257,10 @@
       <c r="C6" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="82"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -30244,17 +30280,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="79"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -30532,17 +30568,17 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="76" t="s">
+      <c r="A34" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="78"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="79"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
@@ -30569,20 +30605,20 @@
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="79" t="s">
+      <c r="B36" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="81"/>
-      <c r="D36" s="79" t="s">
+      <c r="C36" s="82"/>
+      <c r="D36" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="81"/>
+      <c r="E36" s="82"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="79"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="81"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="82"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="27">
@@ -30609,16 +30645,16 @@
       </c>
       <c r="B38" s="36"/>
       <c r="C38" s="37"/>
-      <c r="D38" s="79" t="s">
+      <c r="D38" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="81"/>
+      <c r="E38" s="82"/>
       <c r="F38" s="27"/>
-      <c r="G38" s="79" t="s">
+      <c r="G38" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="H38" s="80"/>
-      <c r="I38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="82"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
@@ -30681,20 +30717,20 @@
       <c r="A42" s="27">
         <v>7</v>
       </c>
-      <c r="B42" s="79" t="s">
+      <c r="B42" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="81"/>
-      <c r="D42" s="79" t="s">
+      <c r="C42" s="82"/>
+      <c r="D42" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="81"/>
+      <c r="E42" s="82"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="79" t="s">
+      <c r="G42" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="H42" s="80"/>
-      <c r="I42" s="81"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="82"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="27">
@@ -30738,33 +30774,33 @@
       <c r="A45" s="27">
         <v>10</v>
       </c>
-      <c r="B45" s="79" t="s">
+      <c r="B45" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="81"/>
-      <c r="D45" s="79" t="s">
+      <c r="C45" s="82"/>
+      <c r="D45" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="81"/>
+      <c r="E45" s="82"/>
       <c r="F45" s="27"/>
-      <c r="G45" s="79" t="s">
+      <c r="G45" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="H45" s="80"/>
-      <c r="I45" s="81"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="82"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="76" t="s">
+      <c r="A46" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="77"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="77"/>
-      <c r="I46" s="78"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="78"/>
+      <c r="H46" s="78"/>
+      <c r="I46" s="79"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="29"/>
@@ -30841,10 +30877,10 @@
       <c r="A52" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B52" s="74" t="s">
+      <c r="B52" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="74"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="18"/>
       <c r="E52" s="43" t="s">
         <v>131</v>
@@ -30860,10 +30896,10 @@
       <c r="A53" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B53" s="74" t="s">
+      <c r="B53" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="C53" s="74"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="18"/>
       <c r="E53" s="43" t="s">
         <v>133</v>
@@ -30879,10 +30915,10 @@
       <c r="A54" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B54" s="74" t="s">
+      <c r="B54" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="74"/>
+      <c r="C54" s="75"/>
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
       <c r="F54" s="18"/>
@@ -31126,6 +31162,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:I42"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="A46:I46"/>
@@ -31134,24 +31188,6 @@
     <mergeCell ref="G45:I45"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31174,17 +31210,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -31193,11 +31229,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="81"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="82"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -31208,11 +31244,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="82"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -31223,11 +31259,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="82"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -31240,11 +31276,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="81"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="82"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -31258,10 +31294,10 @@
       <c r="C6" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="82"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -31281,17 +31317,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="79"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -31789,17 +31825,17 @@
       <c r="I53" s="23"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="76" t="s">
+      <c r="A54" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="77"/>
-      <c r="C54" s="77"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="78"/>
+      <c r="B54" s="78"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="78"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="78"/>
+      <c r="H54" s="78"/>
+      <c r="I54" s="79"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="24" t="s">
@@ -31826,20 +31862,20 @@
       <c r="A56" s="27">
         <v>1</v>
       </c>
-      <c r="B56" s="79" t="s">
+      <c r="B56" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="81"/>
-      <c r="D56" s="79" t="s">
+      <c r="C56" s="82"/>
+      <c r="D56" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="81"/>
+      <c r="E56" s="82"/>
       <c r="F56" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G56" s="79"/>
-      <c r="H56" s="80"/>
-      <c r="I56" s="81"/>
+      <c r="G56" s="80"/>
+      <c r="H56" s="81"/>
+      <c r="I56" s="82"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="27">
@@ -31847,37 +31883,37 @@
       </c>
       <c r="B57" s="33"/>
       <c r="C57" s="35"/>
-      <c r="D57" s="79" t="s">
+      <c r="D57" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="81"/>
+      <c r="E57" s="82"/>
       <c r="F57" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G57" s="79" t="s">
+      <c r="G57" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="H57" s="80"/>
-      <c r="I57" s="81"/>
+      <c r="H57" s="81"/>
+      <c r="I57" s="82"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="27">
         <v>3</v>
       </c>
-      <c r="B58" s="79" t="s">
+      <c r="B58" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="81"/>
-      <c r="D58" s="79" t="s">
+      <c r="C58" s="82"/>
+      <c r="D58" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="81"/>
+      <c r="E58" s="82"/>
       <c r="F58" s="27"/>
-      <c r="G58" s="79" t="s">
+      <c r="G58" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="H58" s="80"/>
-      <c r="I58" s="81"/>
+      <c r="H58" s="81"/>
+      <c r="I58" s="82"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="27">
@@ -31887,18 +31923,18 @@
         <v>82</v>
       </c>
       <c r="C59" s="35"/>
-      <c r="D59" s="79" t="s">
+      <c r="D59" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="81"/>
+      <c r="E59" s="82"/>
       <c r="F59" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G59" s="79" t="s">
+      <c r="G59" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="H59" s="80"/>
-      <c r="I59" s="81"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="82"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="27">
@@ -31923,20 +31959,20 @@
       <c r="A61" s="27">
         <v>6</v>
       </c>
-      <c r="B61" s="79" t="s">
+      <c r="B61" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="C61" s="81"/>
-      <c r="D61" s="79" t="s">
+      <c r="C61" s="82"/>
+      <c r="D61" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="E61" s="81"/>
+      <c r="E61" s="82"/>
       <c r="F61" s="27"/>
-      <c r="G61" s="79" t="s">
+      <c r="G61" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="H61" s="80"/>
-      <c r="I61" s="81"/>
+      <c r="H61" s="81"/>
+      <c r="I61" s="82"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="27">
@@ -31954,17 +31990,17 @@
       <c r="G62" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="H62" s="80"/>
-      <c r="I62" s="81"/>
+      <c r="H62" s="81"/>
+      <c r="I62" s="82"/>
     </row>
     <row r="63" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="27">
         <v>8</v>
       </c>
-      <c r="B63" s="79" t="s">
+      <c r="B63" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="C63" s="81"/>
+      <c r="C63" s="82"/>
       <c r="D63" s="33" t="s">
         <v>83</v>
       </c>
@@ -31973,91 +32009,91 @@
       <c r="G63" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="H63" s="80"/>
-      <c r="I63" s="81"/>
+      <c r="H63" s="81"/>
+      <c r="I63" s="82"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="27">
         <v>9</v>
       </c>
-      <c r="B64" s="79" t="s">
+      <c r="B64" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="81"/>
-      <c r="D64" s="79"/>
-      <c r="E64" s="81"/>
+      <c r="C64" s="82"/>
+      <c r="D64" s="80"/>
+      <c r="E64" s="82"/>
       <c r="F64" s="27"/>
-      <c r="G64" s="79" t="s">
+      <c r="G64" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="H64" s="80"/>
-      <c r="I64" s="81"/>
+      <c r="H64" s="81"/>
+      <c r="I64" s="82"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="27">
         <v>10</v>
       </c>
-      <c r="B65" s="79" t="s">
+      <c r="B65" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="81"/>
-      <c r="D65" s="79" t="s">
+      <c r="C65" s="82"/>
+      <c r="D65" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="E65" s="81"/>
+      <c r="E65" s="82"/>
       <c r="F65" s="27"/>
-      <c r="G65" s="79" t="s">
+      <c r="G65" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="H65" s="80"/>
-      <c r="I65" s="81"/>
+      <c r="H65" s="81"/>
+      <c r="I65" s="82"/>
     </row>
     <row r="66" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="27">
         <v>11</v>
       </c>
-      <c r="B66" s="79" t="s">
+      <c r="B66" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="C66" s="81"/>
-      <c r="D66" s="79" t="s">
+      <c r="C66" s="82"/>
+      <c r="D66" s="80" t="s">
         <v>145</v>
       </c>
-      <c r="E66" s="81"/>
+      <c r="E66" s="82"/>
       <c r="F66" s="27"/>
       <c r="G66" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="H66" s="80"/>
-      <c r="I66" s="81"/>
+      <c r="H66" s="81"/>
+      <c r="I66" s="82"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="27">
         <v>12</v>
       </c>
-      <c r="B67" s="79" t="s">
+      <c r="B67" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="C67" s="81"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="81"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="80"/>
+      <c r="E67" s="82"/>
       <c r="F67" s="27"/>
-      <c r="G67" s="79"/>
-      <c r="H67" s="80"/>
-      <c r="I67" s="81"/>
+      <c r="G67" s="80"/>
+      <c r="H67" s="81"/>
+      <c r="I67" s="82"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="76" t="s">
+      <c r="A68" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="B68" s="77"/>
-      <c r="C68" s="77"/>
-      <c r="D68" s="77"/>
-      <c r="E68" s="77"/>
-      <c r="F68" s="77"/>
-      <c r="G68" s="77"/>
-      <c r="H68" s="77"/>
-      <c r="I68" s="78"/>
+      <c r="B68" s="78"/>
+      <c r="C68" s="78"/>
+      <c r="D68" s="78"/>
+      <c r="E68" s="78"/>
+      <c r="F68" s="78"/>
+      <c r="G68" s="78"/>
+      <c r="H68" s="78"/>
+      <c r="I68" s="79"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="29"/>
@@ -32387,6 +32423,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="C90:F90"/>
+    <mergeCell ref="C91:F91"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="D67:E67"/>
@@ -32403,33 +32466,6 @@
     <mergeCell ref="A54:I54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="G55:I55"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="C90:F90"/>
-    <mergeCell ref="C91:F91"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32452,17 +32488,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -32471,11 +32507,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="81"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="82"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -32486,11 +32522,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="82"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -32501,11 +32537,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="82"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -32518,11 +32554,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="81"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="82"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -32536,10 +32572,10 @@
       <c r="C6" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="82"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -32559,17 +32595,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="79"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -33012,17 +33048,17 @@
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="76" t="s">
+      <c r="A49" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="77"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="78"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="78"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="78"/>
+      <c r="I49" s="79"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="24" t="s">
@@ -33049,20 +33085,20 @@
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="79" t="s">
+      <c r="B51" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="81"/>
-      <c r="D51" s="79" t="s">
+      <c r="C51" s="82"/>
+      <c r="D51" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="81"/>
+      <c r="E51" s="82"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="79"/>
-      <c r="H51" s="80"/>
-      <c r="I51" s="81"/>
+      <c r="G51" s="80"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="82"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="27">
@@ -33070,37 +33106,37 @@
       </c>
       <c r="B52" s="36"/>
       <c r="C52" s="37"/>
-      <c r="D52" s="79" t="s">
+      <c r="D52" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="81"/>
+      <c r="E52" s="82"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="79" t="s">
+      <c r="G52" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="80"/>
-      <c r="I52" s="81"/>
+      <c r="H52" s="81"/>
+      <c r="I52" s="82"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="27">
         <v>3</v>
       </c>
-      <c r="B53" s="79" t="s">
+      <c r="B53" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="81"/>
-      <c r="D53" s="79" t="s">
+      <c r="C53" s="82"/>
+      <c r="D53" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="81"/>
+      <c r="E53" s="82"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="79" t="s">
+      <c r="G53" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="H53" s="80"/>
-      <c r="I53" s="81"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="82"/>
     </row>
     <row r="54" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="27">
@@ -33110,18 +33146,18 @@
         <v>147</v>
       </c>
       <c r="C54" s="37"/>
-      <c r="D54" s="79" t="s">
+      <c r="D54" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="E54" s="81"/>
+      <c r="E54" s="82"/>
       <c r="F54" s="27" t="s">
         <v>84</v>
       </c>
       <c r="G54" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="H54" s="80"/>
-      <c r="I54" s="81"/>
+      <c r="H54" s="81"/>
+      <c r="I54" s="82"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="27">
@@ -33144,33 +33180,33 @@
       <c r="A56" s="27">
         <v>6</v>
       </c>
-      <c r="B56" s="79" t="s">
+      <c r="B56" s="80" t="s">
         <v>151</v>
       </c>
-      <c r="C56" s="81"/>
-      <c r="D56" s="79" t="s">
+      <c r="C56" s="82"/>
+      <c r="D56" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="81"/>
+      <c r="E56" s="82"/>
       <c r="F56" s="27"/>
-      <c r="G56" s="79" t="s">
+      <c r="G56" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="H56" s="80"/>
-      <c r="I56" s="81"/>
+      <c r="H56" s="81"/>
+      <c r="I56" s="82"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="76" t="s">
+      <c r="A57" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="77"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="77"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="77"/>
-      <c r="H57" s="77"/>
-      <c r="I57" s="78"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="78"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="78"/>
+      <c r="H57" s="78"/>
+      <c r="I57" s="79"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="29"/>
@@ -33328,6 +33364,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
     <mergeCell ref="A57:I57"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:E56"/>
@@ -33339,19 +33388,6 @@
     <mergeCell ref="G53:I53"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="G54:I54"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33364,8 +33400,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68:H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -33374,17 +33410,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -33393,11 +33429,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="81"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="82"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -33408,11 +33444,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="82"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -33423,11 +33459,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="82"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -33440,11 +33476,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="81"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="82"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -33458,10 +33494,10 @@
       <c r="C6" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="82"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -33481,17 +33517,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="79"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -33934,17 +33970,17 @@
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="76" t="s">
+      <c r="A49" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="77"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="78"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="78"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="78"/>
+      <c r="I49" s="79"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="24" t="s">
@@ -33971,20 +34007,20 @@
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="79" t="s">
+      <c r="B51" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="81"/>
-      <c r="D51" s="79" t="s">
+      <c r="C51" s="82"/>
+      <c r="D51" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="81"/>
+      <c r="E51" s="82"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="79"/>
-      <c r="H51" s="80"/>
-      <c r="I51" s="81"/>
+      <c r="G51" s="80"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="82"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="27">
@@ -33992,37 +34028,37 @@
       </c>
       <c r="B52" s="36"/>
       <c r="C52" s="37"/>
-      <c r="D52" s="79" t="s">
+      <c r="D52" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="81"/>
+      <c r="E52" s="82"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="79" t="s">
+      <c r="G52" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="80"/>
-      <c r="I52" s="81"/>
+      <c r="H52" s="81"/>
+      <c r="I52" s="82"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="27">
         <v>3</v>
       </c>
-      <c r="B53" s="79" t="s">
+      <c r="B53" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="C53" s="81"/>
-      <c r="D53" s="79" t="s">
+      <c r="C53" s="82"/>
+      <c r="D53" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="81"/>
+      <c r="E53" s="82"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="79" t="s">
+      <c r="G53" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="H53" s="80"/>
-      <c r="I53" s="81"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="82"/>
     </row>
     <row r="54" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="27">
@@ -34032,18 +34068,18 @@
         <v>155</v>
       </c>
       <c r="C54" s="37"/>
-      <c r="D54" s="79" t="s">
+      <c r="D54" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="E54" s="81"/>
+      <c r="E54" s="82"/>
       <c r="F54" s="27" t="s">
         <v>84</v>
       </c>
       <c r="G54" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="H54" s="80"/>
-      <c r="I54" s="81"/>
+      <c r="H54" s="81"/>
+      <c r="I54" s="82"/>
     </row>
     <row r="55" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="27">
@@ -34061,135 +34097,135 @@
       <c r="G55" s="86" t="s">
         <v>158</v>
       </c>
-      <c r="H55" s="80"/>
-      <c r="I55" s="81"/>
+      <c r="H55" s="81"/>
+      <c r="I55" s="82"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="27">
         <v>6</v>
       </c>
-      <c r="B56" s="79" t="s">
+      <c r="B56" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="C56" s="81"/>
-      <c r="D56" s="79" t="s">
+      <c r="C56" s="82"/>
+      <c r="D56" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="E56" s="81"/>
+      <c r="E56" s="82"/>
       <c r="F56" s="27"/>
-      <c r="G56" s="79" t="s">
+      <c r="G56" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="H56" s="80"/>
-      <c r="I56" s="81"/>
+      <c r="H56" s="81"/>
+      <c r="I56" s="82"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="27">
         <v>7</v>
       </c>
-      <c r="B57" s="79" t="s">
+      <c r="B57" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="81"/>
-      <c r="D57" s="79" t="s">
+      <c r="C57" s="82"/>
+      <c r="D57" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="E57" s="81"/>
+      <c r="E57" s="82"/>
       <c r="F57" s="27"/>
-      <c r="G57" s="79" t="s">
+      <c r="G57" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="H57" s="80"/>
-      <c r="I57" s="81"/>
+      <c r="H57" s="81"/>
+      <c r="I57" s="82"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="27">
         <v>8</v>
       </c>
-      <c r="B58" s="79" t="s">
+      <c r="B58" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="C58" s="81"/>
-      <c r="D58" s="79" t="s">
+      <c r="C58" s="82"/>
+      <c r="D58" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="E58" s="81"/>
+      <c r="E58" s="82"/>
       <c r="F58" s="27"/>
-      <c r="G58" s="79" t="s">
+      <c r="G58" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="H58" s="80"/>
-      <c r="I58" s="81"/>
+      <c r="H58" s="81"/>
+      <c r="I58" s="82"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="27">
         <v>9</v>
       </c>
-      <c r="B59" s="79" t="s">
+      <c r="B59" s="80" t="s">
         <v>165</v>
       </c>
-      <c r="C59" s="81"/>
-      <c r="D59" s="79" t="s">
+      <c r="C59" s="82"/>
+      <c r="D59" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="81"/>
+      <c r="E59" s="82"/>
       <c r="F59" s="27"/>
-      <c r="G59" s="79" t="s">
+      <c r="G59" s="80" t="s">
         <v>165</v>
       </c>
-      <c r="H59" s="80"/>
-      <c r="I59" s="81"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="82"/>
     </row>
     <row r="60" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="27">
         <v>10</v>
       </c>
-      <c r="B60" s="79" t="s">
-        <v>306</v>
-      </c>
-      <c r="C60" s="81"/>
-      <c r="D60" s="79" t="s">
+      <c r="B60" s="80" t="s">
+        <v>305</v>
+      </c>
+      <c r="C60" s="82"/>
+      <c r="D60" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="E60" s="81"/>
+      <c r="E60" s="82"/>
       <c r="F60" s="27"/>
       <c r="G60" s="86" t="s">
-        <v>307</v>
-      </c>
-      <c r="H60" s="80"/>
-      <c r="I60" s="81"/>
+        <v>306</v>
+      </c>
+      <c r="H60" s="81"/>
+      <c r="I60" s="82"/>
     </row>
     <row r="61" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="27">
         <v>11</v>
       </c>
-      <c r="B61" s="79" t="s">
+      <c r="B61" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="C61" s="81"/>
-      <c r="D61" s="79" t="s">
+      <c r="C61" s="82"/>
+      <c r="D61" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="E61" s="81"/>
+      <c r="E61" s="82"/>
       <c r="F61" s="27"/>
       <c r="G61" s="86" t="s">
         <v>167</v>
       </c>
-      <c r="H61" s="80"/>
-      <c r="I61" s="81"/>
+      <c r="H61" s="81"/>
+      <c r="I61" s="82"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="77"/>
-      <c r="C62" s="77"/>
-      <c r="D62" s="77"/>
-      <c r="E62" s="77"/>
-      <c r="F62" s="77"/>
-      <c r="G62" s="77"/>
-      <c r="H62" s="77"/>
-      <c r="I62" s="78"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="78"/>
+      <c r="E62" s="78"/>
+      <c r="F62" s="78"/>
+      <c r="G62" s="78"/>
+      <c r="H62" s="78"/>
+      <c r="I62" s="79"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="29"/>
@@ -34282,7 +34318,7 @@
         <v>164</v>
       </c>
       <c r="H68" s="50" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I68" s="20"/>
     </row>
@@ -34334,7 +34370,7 @@
         <v>264</v>
       </c>
       <c r="H70" s="39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I70" s="20"/>
     </row>
@@ -34410,26 +34446,12 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="G54:I54"/>
     <mergeCell ref="A8:I8"/>
@@ -34444,12 +34466,26 @@
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="G53:I53"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34517,10 +34553,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -34530,17 +34566,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -34549,13 +34585,13 @@
       <c r="B2" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="80" t="s">
         <v>217</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="82"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -34566,13 +34602,13 @@
       <c r="B3" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="80" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="82"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -34583,11 +34619,11 @@
       <c r="B4" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="82"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -34598,13 +34634,13 @@
       <c r="B5" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="80" t="s">
         <v>219</v>
       </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="82"/>
       <c r="H5" s="5" t="s">
         <v>224</v>
       </c>
@@ -34625,32 +34661,32 @@
       <c r="D7" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="76" t="s">
         <v>222</v>
       </c>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>266</v>
+        <v>339</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E8" s="74" t="s">
+      <c r="E8" s="75" t="s">
         <v>223</v>
       </c>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
       <c r="K8" t="str">
         <f>B8&amp;"="</f>
         <v>password.expiry=</v>
@@ -34661,19 +34697,19 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="75" t="s">
         <v>226</v>
       </c>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
       <c r="K9" t="str">
         <f>B9&amp;"="</f>
         <v>display00001=</v>
@@ -34684,19 +34720,19 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E10" s="74" t="s">
+      <c r="E10" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
       <c r="K10" t="str">
         <f>B10&amp;"="</f>
         <v>display00002=</v>
@@ -34707,19 +34743,19 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E11" s="74" t="s">
+      <c r="E11" s="75" t="s">
         <v>228</v>
       </c>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
       <c r="K11" t="str">
         <f t="shared" ref="K11:K39" si="0">B11&amp;"="</f>
         <v>display00003=</v>
@@ -34730,19 +34766,19 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E12" s="74" t="s">
+      <c r="E12" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
         <v>display00004=</v>
@@ -34753,19 +34789,19 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E13" s="74" t="s">
+      <c r="E13" s="75" t="s">
         <v>230</v>
       </c>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
         <v>display00101=</v>
@@ -34776,19 +34812,19 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E14" s="74" t="s">
+      <c r="E14" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
         <v>display00102=</v>
@@ -34799,19 +34835,19 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="74" t="s">
+      <c r="E15" s="75" t="s">
         <v>232</v>
       </c>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
         <v>display00201=</v>
@@ -34822,19 +34858,19 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E16" s="74" t="s">
+      <c r="E16" s="75" t="s">
         <v>233</v>
       </c>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
         <v>display00202=</v>
@@ -34845,19 +34881,19 @@
         <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E17" s="74" t="s">
+      <c r="E17" s="75" t="s">
         <v>234</v>
       </c>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
         <v>display00301=</v>
@@ -34868,19 +34904,19 @@
         <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E18" s="74" t="s">
+      <c r="E18" s="75" t="s">
         <v>235</v>
       </c>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
         <v>display00302=</v>
@@ -34891,19 +34927,19 @@
         <v>12</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E19" s="74" t="s">
+      <c r="E19" s="75" t="s">
         <v>236</v>
       </c>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
         <v>display00401=</v>
@@ -34914,19 +34950,19 @@
         <v>13</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E20" s="74" t="s">
+      <c r="E20" s="75" t="s">
         <v>237</v>
       </c>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
         <v>display00402=</v>
@@ -34937,19 +34973,19 @@
         <v>14</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E21" s="74" t="s">
+      <c r="E21" s="75" t="s">
         <v>238</v>
       </c>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
         <v>display00501=</v>
@@ -34960,19 +34996,19 @@
         <v>15</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E22" s="74" t="s">
+      <c r="E22" s="75" t="s">
         <v>239</v>
       </c>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
         <v>display00502=</v>
@@ -34983,19 +35019,19 @@
         <v>16</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E23" s="74" t="s">
+      <c r="E23" s="75" t="s">
         <v>240</v>
       </c>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
         <v>display00503=</v>
@@ -35006,19 +35042,19 @@
         <v>17</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E24" s="74" t="s">
+      <c r="E24" s="75" t="s">
         <v>241</v>
       </c>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
         <v>display00601=</v>
@@ -35029,19 +35065,19 @@
         <v>18</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E25" s="74" t="s">
+      <c r="E25" s="75" t="s">
         <v>242</v>
       </c>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
         <v>display00602=</v>
@@ -35052,19 +35088,19 @@
         <v>19</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E26" s="74" t="s">
+      <c r="E26" s="75" t="s">
         <v>243</v>
       </c>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
         <v>display00603=</v>
@@ -35075,19 +35111,19 @@
         <v>20</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E27" s="74" t="s">
+      <c r="E27" s="75" t="s">
         <v>244</v>
       </c>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
       <c r="K27" t="str">
         <f t="shared" si="0"/>
         <v>display00701=</v>
@@ -35098,19 +35134,19 @@
         <v>21</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E28" s="74" t="s">
+      <c r="E28" s="75" t="s">
         <v>245</v>
       </c>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
       <c r="K28" t="str">
         <f t="shared" si="0"/>
         <v>display00801=</v>
@@ -35121,19 +35157,19 @@
         <v>22</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E29" s="74" t="s">
+      <c r="E29" s="75" t="s">
         <v>246</v>
       </c>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
       <c r="K29" t="str">
         <f t="shared" si="0"/>
         <v>display00802=</v>
@@ -35144,19 +35180,19 @@
         <v>23</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E30" s="74" t="s">
+      <c r="E30" s="75" t="s">
         <v>247</v>
       </c>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
         <v>display00803=</v>
@@ -35167,19 +35203,19 @@
         <v>24</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E31" s="74" t="s">
+      <c r="E31" s="75" t="s">
         <v>248</v>
       </c>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="75"/>
       <c r="K31" t="str">
         <f t="shared" si="0"/>
         <v>display00804=</v>
@@ -35190,19 +35226,19 @@
         <v>25</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E32" s="74" t="s">
+      <c r="E32" s="75" t="s">
         <v>249</v>
       </c>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
       <c r="K32" t="str">
         <f t="shared" si="0"/>
         <v>display00901=</v>
@@ -35213,19 +35249,19 @@
         <v>26</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E33" s="74" t="s">
+      <c r="E33" s="75" t="s">
         <v>250</v>
       </c>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
       <c r="K33" t="str">
         <f t="shared" si="0"/>
         <v>display00902=</v>
@@ -35236,19 +35272,19 @@
         <v>27</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E34" s="74" t="s">
+      <c r="E34" s="75" t="s">
         <v>251</v>
       </c>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
       <c r="K34" t="str">
         <f t="shared" si="0"/>
         <v>display00903=</v>
@@ -35259,21 +35295,19 @@
         <v>28</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>211</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E35" s="82" t="s">
+      <c r="E35" s="74" t="s">
         <v>252</v>
       </c>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
       <c r="K35" t="str">
         <f t="shared" si="0"/>
         <v>password.policy=</v>
@@ -35284,7 +35318,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>211</v>
@@ -35292,13 +35326,13 @@
       <c r="D36" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E36" s="82" t="s">
+      <c r="E36" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
       <c r="K36" t="str">
         <f t="shared" si="0"/>
         <v>judge.class=</v>
@@ -35309,21 +35343,19 @@
         <v>30</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>211</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E37" s="82" t="s">
+      <c r="E37" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="74"/>
       <c r="K37" t="str">
         <f t="shared" si="0"/>
         <v>force.pass.change=</v>
@@ -35334,7 +35366,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>211</v>
@@ -35342,13 +35374,13 @@
       <c r="D38" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E38" s="82" t="s">
+      <c r="E38" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
       <c r="K38" t="str">
         <f t="shared" si="0"/>
         <v>judge.result.table.name=</v>
@@ -35359,7 +35391,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>211</v>
@@ -35367,13 +35399,13 @@
       <c r="D39" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E39" s="74" t="s">
+      <c r="E39" s="75" t="s">
         <v>263</v>
       </c>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
       <c r="K39" t="str">
         <f t="shared" si="0"/>
         <v>pwd.hash.salt=</v>
@@ -35384,7 +35416,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>211</v>
@@ -35392,13 +35424,13 @@
       <c r="D40" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E40" s="74" t="s">
-        <v>303</v>
-      </c>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74"/>
+      <c r="E40" s="75" t="s">
+        <v>302</v>
+      </c>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
       <c r="K40" t="str">
         <f t="shared" ref="K40" si="1">B40&amp;"="</f>
         <v>upload.directory=</v>
@@ -35409,7 +35441,7 @@
         <v>34</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>211</v>
@@ -35417,44 +35449,44 @@
       <c r="D41" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E41" s="74" t="s">
-        <v>305</v>
-      </c>
-      <c r="F41" s="74"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="74"/>
+      <c r="E41" s="75" t="s">
+        <v>304</v>
+      </c>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
       <c r="K41" t="str">
         <f t="shared" ref="K41" si="2">B41&amp;"="</f>
         <v>result.directory=</v>
       </c>
     </row>
+    <row r="42" spans="1:11" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>35</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E42" s="96" t="s">
+        <v>340</v>
+      </c>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="75"/>
+      <c r="K42" t="str">
+        <f t="shared" ref="K42" si="3">B42&amp;"="</f>
+        <v>pwd.lock.limit=</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
+  <mergeCells count="41">
+    <mergeCell ref="E42:I42"/>
     <mergeCell ref="E41:I41"/>
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="A1:I1"/>
@@ -35471,6 +35503,30 @@
     <mergeCell ref="E13:I13"/>
     <mergeCell ref="E14:I14"/>
     <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E37:I37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35511,17 +35567,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -35530,11 +35586,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="81"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="82"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -35545,11 +35601,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="82"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -35560,11 +35616,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="82"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -35577,11 +35633,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="81"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="82"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -35592,11 +35648,11 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="81"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="82"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -35616,17 +35672,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="79"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -35904,17 +35960,17 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="76" t="s">
+      <c r="A34" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="78"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="79"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
@@ -35941,90 +35997,90 @@
       <c r="A36" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="79" t="s">
+      <c r="B36" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="81"/>
-      <c r="D36" s="79" t="s">
+      <c r="C36" s="82"/>
+      <c r="D36" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="81"/>
+      <c r="E36" s="82"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="79"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="81"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="82"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="81"/>
-      <c r="D37" s="79" t="s">
+      <c r="C37" s="82"/>
+      <c r="D37" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="81"/>
+      <c r="E37" s="82"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="79"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="81"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="82"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="79" t="s">
+      <c r="B38" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="81"/>
-      <c r="D38" s="79" t="s">
+      <c r="C38" s="82"/>
+      <c r="D38" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="81"/>
+      <c r="E38" s="82"/>
       <c r="F38" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="79"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="81"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="82"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="81"/>
-      <c r="D39" s="79" t="s">
+      <c r="C39" s="82"/>
+      <c r="D39" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="81"/>
+      <c r="E39" s="82"/>
       <c r="F39" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="79"/>
-      <c r="H39" s="80"/>
-      <c r="I39" s="81"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="82"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="76" t="s">
+      <c r="A40" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="77"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="78"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="79"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="29"/>
@@ -36336,6 +36392,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
     <mergeCell ref="A40:I40"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
@@ -36346,19 +36415,6 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="G38:I38"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36380,17 +36436,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -36399,11 +36455,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="81"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="82"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -36414,11 +36470,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="82"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -36429,11 +36485,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="82"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -36446,11 +36502,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="81"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="82"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -36461,11 +36517,11 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="81"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="82"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -36485,17 +36541,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="79"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -36773,17 +36829,17 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="76" t="s">
+      <c r="A34" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="78"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="79"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
@@ -36810,68 +36866,68 @@
       <c r="A36" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="79" t="s">
+      <c r="B36" s="80" t="s">
+        <v>312</v>
+      </c>
+      <c r="C36" s="82"/>
+      <c r="D36" s="80" t="s">
         <v>313</v>
       </c>
-      <c r="C36" s="81"/>
-      <c r="D36" s="79" t="s">
-        <v>314</v>
-      </c>
-      <c r="E36" s="81"/>
+      <c r="E36" s="82"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="79" t="s">
-        <v>315</v>
-      </c>
-      <c r="H36" s="80"/>
-      <c r="I36" s="81"/>
+      <c r="G36" s="80" t="s">
+        <v>314</v>
+      </c>
+      <c r="H36" s="81"/>
+      <c r="I36" s="82"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="81"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="82"/>
       <c r="F37" s="27"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="81"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="82"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="81"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="82"/>
       <c r="F38" s="27"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="81"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="82"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="28"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="81"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="82"/>
       <c r="F39" s="27"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="80"/>
-      <c r="I39" s="81"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="82"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="76" t="s">
+      <c r="A40" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="77"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="78"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="79"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="29"/>
@@ -36886,7 +36942,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -36910,7 +36966,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
@@ -36923,7 +36979,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
@@ -36936,7 +36992,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -36949,7 +37005,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -37193,19 +37249,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="G39:I39"/>
@@ -37216,6 +37259,19 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="G38:I38"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37239,17 +37295,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -37258,11 +37314,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="81"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="82"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -37273,11 +37329,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="82"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -37288,11 +37344,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="82"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -37305,11 +37361,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="81"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="82"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -37323,10 +37379,10 @@
       <c r="C6" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="82"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -37346,17 +37402,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="79"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -37634,17 +37690,17 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="76" t="s">
+      <c r="A34" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="78"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="79"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
@@ -37671,20 +37727,20 @@
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="79" t="s">
+      <c r="B36" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="81"/>
-      <c r="D36" s="79" t="s">
+      <c r="C36" s="82"/>
+      <c r="D36" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="81"/>
+      <c r="E36" s="82"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="79"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="81"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="82"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="27">
@@ -37694,16 +37750,16 @@
         <v>36</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="79" t="s">
+      <c r="D37" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="81"/>
+      <c r="E37" s="82"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="79"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="81"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="82"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="27">
@@ -37713,16 +37769,16 @@
         <v>37</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="79" t="s">
+      <c r="D38" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="81"/>
+      <c r="E38" s="82"/>
       <c r="F38" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="79"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="81"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="82"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
@@ -37785,33 +37841,33 @@
       <c r="A42" s="27">
         <v>7</v>
       </c>
-      <c r="B42" s="79"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="79" t="s">
+      <c r="B42" s="80"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="81"/>
+      <c r="E42" s="82"/>
       <c r="F42" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="79" t="s">
+      <c r="G42" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="H42" s="80"/>
-      <c r="I42" s="81"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="82"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="76" t="s">
+      <c r="A43" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="78"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="79"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="29"/>
@@ -38123,6 +38179,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="G42:I42"/>
@@ -38131,19 +38200,6 @@
     <mergeCell ref="G37:I37"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="G38:I38"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38166,17 +38222,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -38185,11 +38241,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="81"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="82"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -38200,11 +38256,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="82"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -38215,11 +38271,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="82"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -38232,11 +38288,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="81"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="82"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -38250,10 +38306,10 @@
       <c r="C6" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="82"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -38273,17 +38329,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="79"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -38561,17 +38617,17 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="76" t="s">
+      <c r="A34" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="78"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="79"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
@@ -38598,20 +38654,20 @@
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="79" t="s">
+      <c r="B36" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="81"/>
-      <c r="D36" s="79" t="s">
+      <c r="C36" s="82"/>
+      <c r="D36" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="81"/>
+      <c r="E36" s="82"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="79"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="81"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="82"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="27">
@@ -38619,39 +38675,39 @@
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="31"/>
-      <c r="D37" s="79" t="s">
+      <c r="D37" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="81"/>
+      <c r="E37" s="82"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="79" t="s">
+      <c r="G37" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="80"/>
-      <c r="I37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="82"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="27">
         <v>3</v>
       </c>
-      <c r="B38" s="79" t="s">
+      <c r="B38" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="81"/>
-      <c r="D38" s="79" t="s">
+      <c r="C38" s="82"/>
+      <c r="D38" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="81"/>
+      <c r="E38" s="82"/>
       <c r="F38" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="79" t="s">
+      <c r="G38" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="80"/>
-      <c r="I38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="82"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
@@ -38661,16 +38717,16 @@
         <v>45</v>
       </c>
       <c r="C39" s="31"/>
-      <c r="D39" s="79" t="s">
+      <c r="D39" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="81"/>
+      <c r="E39" s="82"/>
       <c r="F39" s="27"/>
-      <c r="G39" s="79" t="s">
+      <c r="G39" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="H39" s="80"/>
-      <c r="I39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="82"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="27">
@@ -38693,20 +38749,20 @@
       <c r="A41" s="27">
         <v>6</v>
       </c>
-      <c r="B41" s="79" t="s">
+      <c r="B41" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="81"/>
-      <c r="D41" s="79" t="s">
+      <c r="C41" s="82"/>
+      <c r="D41" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="81"/>
+      <c r="E41" s="82"/>
       <c r="F41" s="27"/>
-      <c r="G41" s="79" t="s">
+      <c r="G41" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="H41" s="80"/>
-      <c r="I41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="82"/>
     </row>
     <row r="42" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="27">
@@ -38724,40 +38780,40 @@
       <c r="G42" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="H42" s="80"/>
-      <c r="I42" s="81"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="82"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="27">
         <v>8</v>
       </c>
-      <c r="B43" s="79"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="79" t="s">
+      <c r="B43" s="80"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="81"/>
+      <c r="E43" s="82"/>
       <c r="F43" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="79" t="s">
+      <c r="G43" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="H43" s="80"/>
-      <c r="I43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="82"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="76" t="s">
+      <c r="A44" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="78"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="79"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="29"/>
@@ -39077,6 +39133,25 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="G39:I39"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="G43:I43"/>
@@ -39086,25 +39161,6 @@
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="G41:I41"/>
     <mergeCell ref="G42:I42"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39127,17 +39183,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -39146,11 +39202,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="81"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="82"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -39161,11 +39217,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="82"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -39176,11 +39232,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="82"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -39193,11 +39249,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="81"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="82"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -39211,10 +39267,10 @@
       <c r="C6" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="82"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -39234,17 +39290,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="79"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -39676,17 +39732,17 @@
       <c r="I47" s="23"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="76" t="s">
+      <c r="A48" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="77"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="77"/>
-      <c r="I48" s="78"/>
+      <c r="B48" s="78"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="79"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
@@ -39713,20 +39769,20 @@
       <c r="A50" s="27">
         <v>1</v>
       </c>
-      <c r="B50" s="79" t="s">
+      <c r="B50" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="81"/>
-      <c r="D50" s="79" t="s">
+      <c r="C50" s="82"/>
+      <c r="D50" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="81"/>
+      <c r="E50" s="82"/>
       <c r="F50" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G50" s="79"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="81"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="81"/>
+      <c r="I50" s="82"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="27">
@@ -39734,69 +39790,69 @@
       </c>
       <c r="B51" s="30"/>
       <c r="C51" s="31"/>
-      <c r="D51" s="79" t="s">
+      <c r="D51" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="81"/>
+      <c r="E51" s="82"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="79" t="s">
+      <c r="G51" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="H51" s="80"/>
-      <c r="I51" s="81"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="82"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="27">
         <v>3</v>
       </c>
-      <c r="B52" s="79"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="79" t="s">
+      <c r="B52" s="80"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="81"/>
+      <c r="E52" s="82"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="79" t="s">
+      <c r="G52" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="H52" s="80"/>
-      <c r="I52" s="81"/>
+      <c r="H52" s="81"/>
+      <c r="I52" s="82"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="27">
         <v>4</v>
       </c>
-      <c r="B53" s="79" t="s">
+      <c r="B53" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="81"/>
-      <c r="D53" s="79" t="s">
+      <c r="C53" s="82"/>
+      <c r="D53" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="81"/>
+      <c r="E53" s="82"/>
       <c r="F53" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G53" s="79" t="s">
+      <c r="G53" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="H53" s="80"/>
-      <c r="I53" s="81"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="82"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="27">
         <v>5</v>
       </c>
-      <c r="B54" s="79"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="79" t="s">
+      <c r="B54" s="80"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="81"/>
+      <c r="E54" s="82"/>
       <c r="F54" s="27" t="s">
         <v>22</v>
       </c>
@@ -39810,14 +39866,14 @@
       <c r="A55" s="27">
         <v>6</v>
       </c>
-      <c r="B55" s="79" t="s">
+      <c r="B55" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="81"/>
-      <c r="D55" s="79" t="s">
+      <c r="C55" s="82"/>
+      <c r="D55" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E55" s="81"/>
+      <c r="E55" s="82"/>
       <c r="F55" s="27" t="s">
         <v>22</v>
       </c>
@@ -39831,14 +39887,14 @@
       <c r="A56" s="27">
         <v>7</v>
       </c>
-      <c r="B56" s="79" t="s">
+      <c r="B56" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="81"/>
-      <c r="D56" s="79" t="s">
+      <c r="C56" s="82"/>
+      <c r="D56" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E56" s="81"/>
+      <c r="E56" s="82"/>
       <c r="F56" s="27" t="s">
         <v>22</v>
       </c>
@@ -39852,14 +39908,14 @@
       <c r="A57" s="27">
         <v>8</v>
       </c>
-      <c r="B57" s="79" t="s">
+      <c r="B57" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="81"/>
-      <c r="D57" s="79" t="s">
+      <c r="C57" s="82"/>
+      <c r="D57" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="81"/>
+      <c r="E57" s="82"/>
       <c r="F57" s="27" t="s">
         <v>22</v>
       </c>
@@ -39873,14 +39929,14 @@
       <c r="A58" s="27">
         <v>9</v>
       </c>
-      <c r="B58" s="79" t="s">
+      <c r="B58" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="81"/>
-      <c r="D58" s="79" t="s">
+      <c r="C58" s="82"/>
+      <c r="D58" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="81"/>
+      <c r="E58" s="82"/>
       <c r="F58" s="27" t="s">
         <v>22</v>
       </c>
@@ -39894,14 +39950,14 @@
       <c r="A59" s="27">
         <v>10</v>
       </c>
-      <c r="B59" s="79" t="s">
+      <c r="B59" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="81"/>
-      <c r="D59" s="79" t="s">
+      <c r="C59" s="82"/>
+      <c r="D59" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E59" s="81"/>
+      <c r="E59" s="82"/>
       <c r="F59" s="27" t="s">
         <v>22</v>
       </c>
@@ -39915,40 +39971,40 @@
       <c r="A60" s="27">
         <v>11</v>
       </c>
-      <c r="B60" s="79"/>
-      <c r="C60" s="81"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="82"/>
       <c r="D60" s="30"/>
       <c r="E60" s="31"/>
       <c r="F60" s="27"/>
       <c r="G60" s="86"/>
-      <c r="H60" s="80"/>
-      <c r="I60" s="81"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="82"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="27">
         <v>12</v>
       </c>
-      <c r="B61" s="79"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="79"/>
-      <c r="E61" s="81"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="80"/>
+      <c r="E61" s="82"/>
       <c r="F61" s="27"/>
-      <c r="G61" s="79"/>
-      <c r="H61" s="80"/>
-      <c r="I61" s="81"/>
+      <c r="G61" s="80"/>
+      <c r="H61" s="81"/>
+      <c r="I61" s="82"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="77"/>
-      <c r="C62" s="77"/>
-      <c r="D62" s="77"/>
-      <c r="E62" s="77"/>
-      <c r="F62" s="77"/>
-      <c r="G62" s="77"/>
-      <c r="H62" s="77"/>
-      <c r="I62" s="78"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="78"/>
+      <c r="E62" s="78"/>
+      <c r="F62" s="78"/>
+      <c r="G62" s="78"/>
+      <c r="H62" s="78"/>
+      <c r="I62" s="79"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="29"/>
@@ -40278,6 +40334,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
     <mergeCell ref="A62:I62"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B54:C54"/>
@@ -40294,33 +40377,6 @@
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="G57:I57"/>
     <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40342,17 +40398,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -40361,11 +40417,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="81"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="82"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -40376,11 +40432,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="82"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -40391,11 +40447,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="82"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -40408,11 +40464,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="81"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="82"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -40426,10 +40482,10 @@
       <c r="C6" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="82"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -40449,17 +40505,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="79"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -40737,17 +40793,17 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="76" t="s">
+      <c r="A34" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="78"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="79"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
@@ -40774,20 +40830,20 @@
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="79" t="s">
+      <c r="B36" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="81"/>
-      <c r="D36" s="79" t="s">
+      <c r="C36" s="82"/>
+      <c r="D36" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="81"/>
+      <c r="E36" s="82"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="79"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="81"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="82"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="27">
@@ -40795,16 +40851,16 @@
       </c>
       <c r="B37" s="57"/>
       <c r="C37" s="59"/>
-      <c r="D37" s="79" t="s">
+      <c r="D37" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="81"/>
+      <c r="E37" s="82"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="79"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="81"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="82"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="27">
@@ -40814,36 +40870,36 @@
         <v>82</v>
       </c>
       <c r="C38" s="59"/>
-      <c r="D38" s="79" t="s">
+      <c r="D38" s="80" t="s">
+        <v>320</v>
+      </c>
+      <c r="E38" s="82"/>
+      <c r="F38" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="E38" s="81"/>
-      <c r="F38" s="27" t="s">
+      <c r="G38" s="80" t="s">
         <v>322</v>
       </c>
-      <c r="G38" s="79" t="s">
-        <v>323</v>
-      </c>
-      <c r="H38" s="80"/>
-      <c r="I38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="82"/>
     </row>
     <row r="39" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
         <v>4</v>
       </c>
       <c r="B39" s="57" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C39" s="59"/>
       <c r="D39" s="57" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E39" s="59"/>
       <c r="F39" s="27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G39" s="89" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H39" s="90"/>
       <c r="I39" s="91"/>
@@ -40853,16 +40909,16 @@
         <v>5</v>
       </c>
       <c r="B40" s="57" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C40" s="59"/>
       <c r="D40" s="57" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E40" s="59"/>
       <c r="F40" s="27"/>
       <c r="G40" s="57" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H40" s="58"/>
       <c r="I40" s="59"/>
@@ -40881,7 +40937,7 @@
       <c r="E41" s="59"/>
       <c r="F41" s="27"/>
       <c r="G41" s="92" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H41" s="93"/>
       <c r="I41" s="94"/>
@@ -40891,16 +40947,16 @@
         <v>7</v>
       </c>
       <c r="B42" s="57" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C42" s="59"/>
       <c r="D42" s="57" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E42" s="59"/>
       <c r="F42" s="27"/>
       <c r="G42" s="89" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H42" s="93"/>
       <c r="I42" s="94"/>
@@ -40910,7 +40966,7 @@
         <v>8</v>
       </c>
       <c r="B43" s="57" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C43" s="59"/>
       <c r="D43" s="57" t="s">
@@ -40919,7 +40975,7 @@
       <c r="E43" s="59"/>
       <c r="F43" s="27"/>
       <c r="G43" s="89" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H43" s="93"/>
       <c r="I43" s="94"/>
@@ -40929,7 +40985,7 @@
         <v>9</v>
       </c>
       <c r="B44" s="57" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C44" s="59"/>
       <c r="D44" s="57" t="s">
@@ -40938,7 +40994,7 @@
       <c r="E44" s="59"/>
       <c r="F44" s="27"/>
       <c r="G44" s="60" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H44" s="61"/>
       <c r="I44" s="62"/>
@@ -40947,33 +41003,33 @@
       <c r="A45" s="27">
         <v>10</v>
       </c>
-      <c r="B45" s="79" t="s">
-        <v>334</v>
-      </c>
-      <c r="C45" s="81"/>
-      <c r="D45" s="79" t="s">
+      <c r="B45" s="80" t="s">
+        <v>333</v>
+      </c>
+      <c r="C45" s="82"/>
+      <c r="D45" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="E45" s="81"/>
+      <c r="E45" s="82"/>
       <c r="F45" s="27"/>
-      <c r="G45" s="79" t="s">
-        <v>336</v>
-      </c>
-      <c r="H45" s="80"/>
-      <c r="I45" s="81"/>
+      <c r="G45" s="80" t="s">
+        <v>335</v>
+      </c>
+      <c r="H45" s="81"/>
+      <c r="I45" s="82"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="76" t="s">
+      <c r="A46" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="77"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="77"/>
-      <c r="I46" s="78"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="78"/>
+      <c r="H46" s="78"/>
+      <c r="I46" s="79"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="29"/>
@@ -41285,12 +41341,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:I45"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="B35:C35"/>
@@ -41298,18 +41360,12 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="G36:I36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/設計書もどき.xlsx
+++ b/設計書/設計書もどき.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="機能一覧" sheetId="16" r:id="rId1"/>
@@ -21,15 +21,16 @@
     <sheet name="課題作成画面" sheetId="6" r:id="rId12"/>
     <sheet name="ユーザー検索" sheetId="8" r:id="rId13"/>
     <sheet name="ユーザー登録" sheetId="10" r:id="rId14"/>
-    <sheet name="履歴情報" sheetId="17" r:id="rId15"/>
-    <sheet name="カスタマイズ" sheetId="13" r:id="rId16"/>
+    <sheet name="ソースコード表示画面" sheetId="18" r:id="rId15"/>
+    <sheet name="履歴情報" sheetId="17" r:id="rId16"/>
+    <sheet name="カスタマイズ" sheetId="13" r:id="rId17"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="382">
   <si>
     <t>画面レイアウト定義</t>
     <rPh sb="0" eb="2">
@@ -4186,6 +4187,70 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ソースコード表示画面</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動作ログ表示画面</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生名</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象課題</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラム本体</t>
+    <rPh sb="5" eb="7">
+      <t>ホンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル出力</t>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソースコードの表示画面</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -4239,7 +4304,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4279,6 +4344,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4464,7 +4535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4598,6 +4669,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4678,6 +4758,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -7421,6 +7505,498 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1104900" cy="571499"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="テキスト ボックス 50"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7858125" y="1419226"/>
+          <a:ext cx="1104900" cy="571499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ソース画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="カギ線コネクタ 51"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="51" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7153275" y="1000125"/>
+          <a:ext cx="457201" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="角丸四角形吹き出し 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9458325" y="1352550"/>
+          <a:ext cx="1466850" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -87067"/>
+            <a:gd name="adj2" fmla="val -1136"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>自分が提出したコードを見れる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="カギ線コネクタ 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="0"/>
+          <a:endCxn id="23" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="8334375" y="1323976"/>
+          <a:ext cx="171451" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1104900" cy="571499"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="テキスト ボックス 59"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6315075" y="4695825"/>
+          <a:ext cx="1104900" cy="571499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ソース画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>55246</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="カギ線コネクタ 60"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="135" idx="0"/>
+          <a:endCxn id="60" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="6814184" y="5316855"/>
+          <a:ext cx="102872" cy="3810"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295273</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="角丸四角形吹き出し 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7839073" y="4781550"/>
+          <a:ext cx="2457451" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -71563"/>
+            <a:gd name="adj2" fmla="val 15143"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザーが提出したコードを見れる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>81915</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>3811</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1104900" cy="571499"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="テキスト ボックス 61"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4882515" y="7547611"/>
+          <a:ext cx="1104900" cy="571499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログ表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>287655</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>81915</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>118111</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="カギ線コネクタ 63"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="86" idx="3"/>
+          <a:endCxn id="62" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3716655" y="2625091"/>
+          <a:ext cx="1165860" cy="5208270"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12907,6 +13483,993 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>⑪</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="2257425"/>
+          <a:ext cx="6410325" cy="3086100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6353175" y="2457450"/>
+          <a:ext cx="1057275" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847850" y="3524250"/>
+          <a:ext cx="771525" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1190775" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3857625" y="2409825"/>
+          <a:ext cx="1190775" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ソースコード表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="線吹き出し 1 (枠付き) 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7448550" y="2076450"/>
+          <a:ext cx="323850" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 169643"/>
+            <a:gd name="adj4" fmla="val -103039"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2152649" y="3133725"/>
+          <a:ext cx="5095875" cy="1952625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2943225" y="3257550"/>
+          <a:ext cx="2914650" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>public</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> class Main{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>    aaaaaa</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="線吹き出し 1 (枠付き) 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895975" y="1905000"/>
+          <a:ext cx="323850" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 104464"/>
+            <a:gd name="adj2" fmla="val 38726"/>
+            <a:gd name="adj3" fmla="val 241071"/>
+            <a:gd name="adj4" fmla="val 32255"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5553075" y="2486025"/>
+          <a:ext cx="748923" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>麻生花子</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="線吹き出し 1 (枠付き) 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="3333750"/>
+          <a:ext cx="323850" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 104464"/>
+            <a:gd name="adj2" fmla="val 38726"/>
+            <a:gd name="adj3" fmla="val 166071"/>
+            <a:gd name="adj4" fmla="val 120491"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>⑥</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="線吹き出し 1 (枠付き) 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4781550" y="1809750"/>
+          <a:ext cx="323850" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 104464"/>
+            <a:gd name="adj2" fmla="val 38726"/>
+            <a:gd name="adj3" fmla="val 241071"/>
+            <a:gd name="adj4" fmla="val -29510"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="線吹き出し 1 (枠付き) 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3343275" y="2419350"/>
+          <a:ext cx="323850" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 104464"/>
+            <a:gd name="adj2" fmla="val 38726"/>
+            <a:gd name="adj3" fmla="val 155357"/>
+            <a:gd name="adj4" fmla="val 164607"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>④</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="角丸四角形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5981700" y="4772025"/>
+          <a:ext cx="1057275" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ファイル出力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1322478" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="テキスト ボックス 40"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="2686050"/>
+          <a:ext cx="1322478" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>学生名：ＸＸＸＸＸＸＸ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1463542" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="テキスト ボックス 41"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3705225" y="2924175"/>
+          <a:ext cx="1463542" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>対象課題：ＸＸＸＸＸＸＸ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="線吹き出し 1 (枠付き) 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2914650" y="2733675"/>
+          <a:ext cx="323850" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 104464"/>
+            <a:gd name="adj2" fmla="val 38726"/>
+            <a:gd name="adj3" fmla="val 155357"/>
+            <a:gd name="adj4" fmla="val 164607"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>⑤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="線吹き出し 1 (枠付き) 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="4210050"/>
+          <a:ext cx="323850" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 104464"/>
+            <a:gd name="adj2" fmla="val 38726"/>
+            <a:gd name="adj3" fmla="val 230357"/>
+            <a:gd name="adj4" fmla="val 8726"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>⑦</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -29254,10 +30817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F24"/>
+  <dimension ref="A2:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -29266,17 +30829,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="72" t="s">
         <v>342</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="69"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="63" t="s">
         <v>124</v>
       </c>
@@ -29570,6 +31133,35 @@
       </c>
       <c r="D24" s="68" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="B25" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="D25" s="68" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="106" t="s">
+        <v>376</v>
+      </c>
+      <c r="B26" s="107"/>
+      <c r="C26" s="107" t="s">
+        <v>211</v>
+      </c>
+      <c r="D26" s="107" t="s">
+        <v>211</v>
+      </c>
+      <c r="E26" s="67" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -29597,17 +31189,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="85"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="88"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -29616,11 +31208,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="91"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -29631,11 +31223,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -29646,11 +31238,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -29663,11 +31255,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="91"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -29678,13 +31270,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="91"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -29704,17 +31296,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -29992,26 +31584,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="83" t="s">
+      <c r="A34" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="85"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="88"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="90" t="s">
+      <c r="B35" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="91"/>
+      <c r="C35" s="94"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -30019,30 +31611,30 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="90" t="s">
+      <c r="G35" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="92"/>
-      <c r="I35" s="91"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="94"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="86" t="s">
+      <c r="B36" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="88"/>
-      <c r="D36" s="86" t="s">
+      <c r="C36" s="91"/>
+      <c r="D36" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="88"/>
+      <c r="E36" s="91"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="86"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="88"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="91"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="27">
@@ -30050,16 +31642,16 @@
       </c>
       <c r="B37" s="57"/>
       <c r="C37" s="59"/>
-      <c r="D37" s="86" t="s">
+      <c r="D37" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="88"/>
+      <c r="E37" s="91"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="86"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="88"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="91"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="27">
@@ -30069,18 +31661,18 @@
         <v>82</v>
       </c>
       <c r="C38" s="59"/>
-      <c r="D38" s="86" t="s">
+      <c r="D38" s="89" t="s">
         <v>320</v>
       </c>
-      <c r="E38" s="88"/>
+      <c r="E38" s="91"/>
       <c r="F38" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="G38" s="86" t="s">
+      <c r="G38" s="89" t="s">
         <v>322</v>
       </c>
-      <c r="H38" s="87"/>
-      <c r="I38" s="88"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="91"/>
     </row>
     <row r="39" spans="1:9" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="27">
@@ -30097,11 +31689,11 @@
       <c r="F39" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="G39" s="96" t="s">
+      <c r="G39" s="99" t="s">
         <v>325</v>
       </c>
-      <c r="H39" s="97"/>
-      <c r="I39" s="98"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="101"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="27">
@@ -30135,11 +31727,11 @@
       </c>
       <c r="E41" s="59"/>
       <c r="F41" s="27"/>
-      <c r="G41" s="99" t="s">
+      <c r="G41" s="102" t="s">
         <v>329</v>
       </c>
-      <c r="H41" s="100"/>
-      <c r="I41" s="101"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="104"/>
     </row>
     <row r="42" spans="1:9" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="27">
@@ -30154,11 +31746,11 @@
       </c>
       <c r="E42" s="59"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="96" t="s">
+      <c r="G42" s="99" t="s">
         <v>331</v>
       </c>
-      <c r="H42" s="100"/>
-      <c r="I42" s="101"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="104"/>
     </row>
     <row r="43" spans="1:9" ht="47.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="27">
@@ -30173,11 +31765,11 @@
       </c>
       <c r="E43" s="59"/>
       <c r="F43" s="27"/>
-      <c r="G43" s="96" t="s">
+      <c r="G43" s="99" t="s">
         <v>338</v>
       </c>
-      <c r="H43" s="100"/>
-      <c r="I43" s="101"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="104"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="27">
@@ -30202,33 +31794,33 @@
       <c r="A45" s="27">
         <v>10</v>
       </c>
-      <c r="B45" s="86" t="s">
+      <c r="B45" s="89" t="s">
         <v>333</v>
       </c>
-      <c r="C45" s="88"/>
-      <c r="D45" s="86" t="s">
+      <c r="C45" s="91"/>
+      <c r="D45" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="E45" s="88"/>
+      <c r="E45" s="91"/>
       <c r="F45" s="27"/>
-      <c r="G45" s="86" t="s">
+      <c r="G45" s="89" t="s">
         <v>335</v>
       </c>
-      <c r="H45" s="87"/>
-      <c r="I45" s="88"/>
+      <c r="H45" s="90"/>
+      <c r="I45" s="91"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="83" t="s">
+      <c r="A46" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="84"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="85"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="87"/>
+      <c r="G46" s="87"/>
+      <c r="H46" s="87"/>
+      <c r="I46" s="88"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="29"/>
@@ -30587,17 +32179,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="85"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="88"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -30606,11 +32198,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="91"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -30621,11 +32213,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -30636,11 +32228,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -30653,11 +32245,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="91"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -30668,13 +32260,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="91"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -30694,17 +32286,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -30982,26 +32574,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="83" t="s">
+      <c r="A34" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="85"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="88"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="90" t="s">
+      <c r="B35" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="91"/>
+      <c r="C35" s="94"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -31009,30 +32601,30 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="90" t="s">
+      <c r="G35" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="92"/>
-      <c r="I35" s="91"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="94"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="86" t="s">
+      <c r="B36" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="88"/>
-      <c r="D36" s="86" t="s">
+      <c r="C36" s="91"/>
+      <c r="D36" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="88"/>
+      <c r="E36" s="91"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="86"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="88"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="91"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="27">
@@ -31059,16 +32651,16 @@
       </c>
       <c r="B38" s="36"/>
       <c r="C38" s="37"/>
-      <c r="D38" s="86" t="s">
+      <c r="D38" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="88"/>
+      <c r="E38" s="91"/>
       <c r="F38" s="27"/>
-      <c r="G38" s="86" t="s">
+      <c r="G38" s="89" t="s">
         <v>106</v>
       </c>
-      <c r="H38" s="87"/>
-      <c r="I38" s="88"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="91"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="27">
@@ -31131,20 +32723,20 @@
       <c r="A42" s="27">
         <v>7</v>
       </c>
-      <c r="B42" s="86" t="s">
+      <c r="B42" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="88"/>
-      <c r="D42" s="86" t="s">
+      <c r="C42" s="91"/>
+      <c r="D42" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="88"/>
+      <c r="E42" s="91"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="86" t="s">
+      <c r="G42" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="H42" s="87"/>
-      <c r="I42" s="88"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="91"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="27">
@@ -31188,52 +32780,52 @@
       <c r="A45" s="27">
         <v>10</v>
       </c>
-      <c r="B45" s="86" t="s">
+      <c r="B45" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="88"/>
-      <c r="D45" s="86" t="s">
+      <c r="C45" s="91"/>
+      <c r="D45" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="88"/>
+      <c r="E45" s="91"/>
       <c r="F45" s="27"/>
-      <c r="G45" s="86" t="s">
+      <c r="G45" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="H45" s="87"/>
-      <c r="I45" s="88"/>
+      <c r="H45" s="90"/>
+      <c r="I45" s="91"/>
     </row>
     <row r="46" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="27">
         <v>11</v>
       </c>
-      <c r="B46" s="86" t="s">
+      <c r="B46" s="89" t="s">
         <v>151</v>
       </c>
-      <c r="C46" s="88"/>
-      <c r="D46" s="86" t="s">
+      <c r="C46" s="91"/>
+      <c r="D46" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="88"/>
+      <c r="E46" s="91"/>
       <c r="F46" s="27"/>
-      <c r="G46" s="93" t="s">
+      <c r="G46" s="96" t="s">
         <v>371</v>
       </c>
-      <c r="H46" s="87"/>
-      <c r="I46" s="88"/>
+      <c r="H46" s="90"/>
+      <c r="I46" s="91"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="83" t="s">
+      <c r="A47" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="84"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="85"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="87"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="88"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="29"/>
@@ -31291,10 +32883,10 @@
       <c r="A52" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="B52" s="102" t="s">
+      <c r="B52" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="C52" s="102"/>
+      <c r="C52" s="105"/>
       <c r="D52" s="18"/>
       <c r="E52" s="42" t="s">
         <v>130</v>
@@ -31310,10 +32902,10 @@
       <c r="A53" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B53" s="81" t="s">
+      <c r="B53" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="C53" s="81"/>
+      <c r="C53" s="84"/>
       <c r="D53" s="18"/>
       <c r="E53" s="43" t="s">
         <v>131</v>
@@ -31329,10 +32921,10 @@
       <c r="A54" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B54" s="81" t="s">
+      <c r="B54" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="81"/>
+      <c r="C54" s="84"/>
       <c r="D54" s="18"/>
       <c r="E54" s="43" t="s">
         <v>133</v>
@@ -31348,10 +32940,10 @@
       <c r="A55" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B55" s="81" t="s">
+      <c r="B55" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="C55" s="81"/>
+      <c r="C55" s="84"/>
       <c r="D55" s="18"/>
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
@@ -31646,17 +33238,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="85"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="88"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -31665,11 +33257,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="91"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -31680,11 +33272,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -31695,11 +33287,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -31712,11 +33304,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="91"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -31727,13 +33319,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="91"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -31753,17 +33345,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -32261,26 +33853,26 @@
       <c r="I53" s="23"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="83" t="s">
+      <c r="A54" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="84"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="84"/>
-      <c r="H54" s="84"/>
-      <c r="I54" s="85"/>
+      <c r="B54" s="87"/>
+      <c r="C54" s="87"/>
+      <c r="D54" s="87"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="87"/>
+      <c r="H54" s="87"/>
+      <c r="I54" s="88"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="90" t="s">
+      <c r="B55" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="91"/>
+      <c r="C55" s="94"/>
       <c r="D55" s="25" t="s">
         <v>18</v>
       </c>
@@ -32288,30 +33880,30 @@
       <c r="F55" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="90" t="s">
+      <c r="G55" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="H55" s="92"/>
-      <c r="I55" s="91"/>
+      <c r="H55" s="95"/>
+      <c r="I55" s="94"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="27">
         <v>1</v>
       </c>
-      <c r="B56" s="86" t="s">
+      <c r="B56" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="88"/>
-      <c r="D56" s="86" t="s">
+      <c r="C56" s="91"/>
+      <c r="D56" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="88"/>
+      <c r="E56" s="91"/>
       <c r="F56" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G56" s="86"/>
-      <c r="H56" s="87"/>
-      <c r="I56" s="88"/>
+      <c r="G56" s="89"/>
+      <c r="H56" s="90"/>
+      <c r="I56" s="91"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="27">
@@ -32319,37 +33911,37 @@
       </c>
       <c r="B57" s="33"/>
       <c r="C57" s="35"/>
-      <c r="D57" s="86" t="s">
+      <c r="D57" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="88"/>
+      <c r="E57" s="91"/>
       <c r="F57" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G57" s="86" t="s">
+      <c r="G57" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="H57" s="87"/>
-      <c r="I57" s="88"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="91"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="27">
         <v>3</v>
       </c>
-      <c r="B58" s="86" t="s">
+      <c r="B58" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="88"/>
-      <c r="D58" s="86" t="s">
+      <c r="C58" s="91"/>
+      <c r="D58" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="88"/>
+      <c r="E58" s="91"/>
       <c r="F58" s="27"/>
-      <c r="G58" s="86" t="s">
+      <c r="G58" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="H58" s="87"/>
-      <c r="I58" s="88"/>
+      <c r="H58" s="90"/>
+      <c r="I58" s="91"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="27">
@@ -32359,18 +33951,18 @@
         <v>82</v>
       </c>
       <c r="C59" s="35"/>
-      <c r="D59" s="86" t="s">
+      <c r="D59" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="88"/>
+      <c r="E59" s="91"/>
       <c r="F59" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G59" s="86" t="s">
+      <c r="G59" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="H59" s="87"/>
-      <c r="I59" s="88"/>
+      <c r="H59" s="90"/>
+      <c r="I59" s="91"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="27">
@@ -32395,20 +33987,20 @@
       <c r="A61" s="27">
         <v>6</v>
       </c>
-      <c r="B61" s="86" t="s">
+      <c r="B61" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="C61" s="88"/>
-      <c r="D61" s="86" t="s">
+      <c r="C61" s="91"/>
+      <c r="D61" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="E61" s="88"/>
+      <c r="E61" s="91"/>
       <c r="F61" s="27"/>
-      <c r="G61" s="86" t="s">
+      <c r="G61" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="H61" s="87"/>
-      <c r="I61" s="88"/>
+      <c r="H61" s="90"/>
+      <c r="I61" s="91"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="27">
@@ -32423,113 +34015,113 @@
       </c>
       <c r="E62" s="35"/>
       <c r="F62" s="27"/>
-      <c r="G62" s="93" t="s">
+      <c r="G62" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="H62" s="87"/>
-      <c r="I62" s="88"/>
+      <c r="H62" s="90"/>
+      <c r="I62" s="91"/>
     </row>
     <row r="63" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="27">
         <v>8</v>
       </c>
-      <c r="B63" s="86" t="s">
+      <c r="B63" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="C63" s="88"/>
+      <c r="C63" s="91"/>
       <c r="D63" s="33" t="s">
         <v>83</v>
       </c>
       <c r="E63" s="35"/>
       <c r="F63" s="27"/>
-      <c r="G63" s="93" t="s">
+      <c r="G63" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="H63" s="87"/>
-      <c r="I63" s="88"/>
+      <c r="H63" s="90"/>
+      <c r="I63" s="91"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="27">
         <v>9</v>
       </c>
-      <c r="B64" s="86" t="s">
+      <c r="B64" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="88"/>
-      <c r="D64" s="86"/>
-      <c r="E64" s="88"/>
+      <c r="C64" s="91"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="91"/>
       <c r="F64" s="27"/>
-      <c r="G64" s="86" t="s">
+      <c r="G64" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="H64" s="87"/>
-      <c r="I64" s="88"/>
+      <c r="H64" s="90"/>
+      <c r="I64" s="91"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="27">
         <v>10</v>
       </c>
-      <c r="B65" s="86" t="s">
+      <c r="B65" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="88"/>
-      <c r="D65" s="86" t="s">
+      <c r="C65" s="91"/>
+      <c r="D65" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="E65" s="88"/>
+      <c r="E65" s="91"/>
       <c r="F65" s="27"/>
-      <c r="G65" s="86" t="s">
+      <c r="G65" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="H65" s="87"/>
-      <c r="I65" s="88"/>
+      <c r="H65" s="90"/>
+      <c r="I65" s="91"/>
     </row>
     <row r="66" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="27">
         <v>11</v>
       </c>
-      <c r="B66" s="86" t="s">
+      <c r="B66" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="C66" s="88"/>
-      <c r="D66" s="86" t="s">
+      <c r="C66" s="91"/>
+      <c r="D66" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="E66" s="88"/>
+      <c r="E66" s="91"/>
       <c r="F66" s="27"/>
-      <c r="G66" s="93" t="s">
+      <c r="G66" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="H66" s="87"/>
-      <c r="I66" s="88"/>
+      <c r="H66" s="90"/>
+      <c r="I66" s="91"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="27">
         <v>12</v>
       </c>
-      <c r="B67" s="86" t="s">
+      <c r="B67" s="89" t="s">
         <v>143</v>
       </c>
-      <c r="C67" s="88"/>
-      <c r="D67" s="86"/>
-      <c r="E67" s="88"/>
+      <c r="C67" s="91"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="91"/>
       <c r="F67" s="27"/>
-      <c r="G67" s="86"/>
-      <c r="H67" s="87"/>
-      <c r="I67" s="88"/>
+      <c r="G67" s="89"/>
+      <c r="H67" s="90"/>
+      <c r="I67" s="91"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="83" t="s">
+      <c r="A68" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B68" s="84"/>
-      <c r="C68" s="84"/>
-      <c r="D68" s="84"/>
-      <c r="E68" s="84"/>
-      <c r="F68" s="84"/>
-      <c r="G68" s="84"/>
-      <c r="H68" s="84"/>
-      <c r="I68" s="85"/>
+      <c r="B68" s="87"/>
+      <c r="C68" s="87"/>
+      <c r="D68" s="87"/>
+      <c r="E68" s="87"/>
+      <c r="F68" s="87"/>
+      <c r="G68" s="87"/>
+      <c r="H68" s="87"/>
+      <c r="I68" s="88"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="29"/>
@@ -32769,12 +34361,12 @@
       <c r="B90" s="40">
         <v>1</v>
       </c>
-      <c r="C90" s="80" t="s">
+      <c r="C90" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="D90" s="80"/>
-      <c r="E90" s="80"/>
-      <c r="F90" s="80"/>
+      <c r="D90" s="83"/>
+      <c r="E90" s="83"/>
+      <c r="F90" s="83"/>
       <c r="G90" s="18"/>
       <c r="H90" s="18"/>
       <c r="I90" s="20"/>
@@ -32784,12 +34376,12 @@
       <c r="B91" s="40">
         <v>2</v>
       </c>
-      <c r="C91" s="80" t="s">
+      <c r="C91" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="D91" s="80"/>
-      <c r="E91" s="80"/>
-      <c r="F91" s="80"/>
+      <c r="D91" s="83"/>
+      <c r="E91" s="83"/>
+      <c r="F91" s="83"/>
       <c r="G91" s="18"/>
       <c r="H91" s="18"/>
       <c r="I91" s="20"/>
@@ -32799,12 +34391,12 @@
       <c r="B92" s="40">
         <v>3</v>
       </c>
-      <c r="C92" s="80" t="s">
+      <c r="C92" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="D92" s="80"/>
-      <c r="E92" s="80"/>
-      <c r="F92" s="80"/>
+      <c r="D92" s="83"/>
+      <c r="E92" s="83"/>
+      <c r="F92" s="83"/>
       <c r="G92" s="18"/>
       <c r="H92" s="18"/>
       <c r="I92" s="20"/>
@@ -32814,12 +34406,12 @@
       <c r="B93" s="40">
         <v>4</v>
       </c>
-      <c r="C93" s="80" t="s">
+      <c r="C93" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="D93" s="80"/>
-      <c r="E93" s="80"/>
-      <c r="F93" s="80"/>
+      <c r="D93" s="83"/>
+      <c r="E93" s="83"/>
+      <c r="F93" s="83"/>
       <c r="G93" s="18"/>
       <c r="H93" s="18"/>
       <c r="I93" s="20"/>
@@ -32924,17 +34516,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="85"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="88"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -32943,11 +34535,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="91"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -32958,11 +34550,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -32973,11 +34565,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -32990,11 +34582,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="91"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -33005,13 +34597,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="91"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -33031,17 +34623,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -33484,26 +35076,26 @@
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="83" t="s">
+      <c r="A49" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="84"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="84"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="85"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="87"/>
+      <c r="H49" s="87"/>
+      <c r="I49" s="88"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="90" t="s">
+      <c r="B50" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="91"/>
+      <c r="C50" s="94"/>
       <c r="D50" s="25" t="s">
         <v>18</v>
       </c>
@@ -33511,30 +35103,30 @@
       <c r="F50" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="90" t="s">
+      <c r="G50" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="92"/>
-      <c r="I50" s="91"/>
+      <c r="H50" s="95"/>
+      <c r="I50" s="94"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="86" t="s">
+      <c r="B51" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="88"/>
-      <c r="D51" s="86" t="s">
+      <c r="C51" s="91"/>
+      <c r="D51" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="88"/>
+      <c r="E51" s="91"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="86"/>
-      <c r="H51" s="87"/>
-      <c r="I51" s="88"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="91"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="27">
@@ -33542,37 +35134,37 @@
       </c>
       <c r="B52" s="36"/>
       <c r="C52" s="37"/>
-      <c r="D52" s="86" t="s">
+      <c r="D52" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="88"/>
+      <c r="E52" s="91"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="86" t="s">
+      <c r="G52" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="87"/>
-      <c r="I52" s="88"/>
+      <c r="H52" s="90"/>
+      <c r="I52" s="91"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
         <v>3</v>
       </c>
-      <c r="B53" s="86" t="s">
+      <c r="B53" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="88"/>
-      <c r="D53" s="86" t="s">
+      <c r="C53" s="91"/>
+      <c r="D53" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="88"/>
+      <c r="E53" s="91"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="86" t="s">
+      <c r="G53" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="H53" s="87"/>
-      <c r="I53" s="88"/>
+      <c r="H53" s="90"/>
+      <c r="I53" s="91"/>
     </row>
     <row r="54" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="27">
@@ -33582,18 +35174,18 @@
         <v>147</v>
       </c>
       <c r="C54" s="37"/>
-      <c r="D54" s="86" t="s">
+      <c r="D54" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="E54" s="88"/>
+      <c r="E54" s="91"/>
       <c r="F54" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="93" t="s">
+      <c r="G54" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="H54" s="87"/>
-      <c r="I54" s="88"/>
+      <c r="H54" s="90"/>
+      <c r="I54" s="91"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="27">
@@ -33616,33 +35208,33 @@
       <c r="A56" s="27">
         <v>6</v>
       </c>
-      <c r="B56" s="86" t="s">
+      <c r="B56" s="89" t="s">
         <v>151</v>
       </c>
-      <c r="C56" s="88"/>
-      <c r="D56" s="86" t="s">
+      <c r="C56" s="91"/>
+      <c r="D56" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="88"/>
+      <c r="E56" s="91"/>
       <c r="F56" s="27"/>
-      <c r="G56" s="86" t="s">
+      <c r="G56" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="H56" s="87"/>
-      <c r="I56" s="88"/>
+      <c r="H56" s="90"/>
+      <c r="I56" s="91"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="83" t="s">
+      <c r="A57" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="84"/>
-      <c r="C57" s="84"/>
-      <c r="D57" s="84"/>
-      <c r="E57" s="84"/>
-      <c r="F57" s="84"/>
-      <c r="G57" s="84"/>
-      <c r="H57" s="84"/>
-      <c r="I57" s="85"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="87"/>
+      <c r="E57" s="87"/>
+      <c r="F57" s="87"/>
+      <c r="G57" s="87"/>
+      <c r="H57" s="87"/>
+      <c r="I57" s="88"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="29"/>
@@ -33836,7 +35428,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B68" sqref="B68:H68"/>
     </sheetView>
   </sheetViews>
@@ -33846,17 +35438,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="85"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="88"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -33865,11 +35457,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="91"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -33880,11 +35472,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -33895,11 +35487,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -33912,11 +35504,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="91"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -33927,13 +35519,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="96" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="91"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -33953,17 +35545,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -34406,26 +35998,26 @@
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="83" t="s">
+      <c r="A49" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="84"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="84"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="85"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="87"/>
+      <c r="H49" s="87"/>
+      <c r="I49" s="88"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="90" t="s">
+      <c r="B50" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="91"/>
+      <c r="C50" s="94"/>
       <c r="D50" s="25" t="s">
         <v>18</v>
       </c>
@@ -34433,30 +36025,30 @@
       <c r="F50" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="90" t="s">
+      <c r="G50" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="92"/>
-      <c r="I50" s="91"/>
+      <c r="H50" s="95"/>
+      <c r="I50" s="94"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="86" t="s">
+      <c r="B51" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="88"/>
-      <c r="D51" s="86" t="s">
+      <c r="C51" s="91"/>
+      <c r="D51" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="88"/>
+      <c r="E51" s="91"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="86"/>
-      <c r="H51" s="87"/>
-      <c r="I51" s="88"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="91"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="27">
@@ -34464,37 +36056,37 @@
       </c>
       <c r="B52" s="36"/>
       <c r="C52" s="37"/>
-      <c r="D52" s="86" t="s">
+      <c r="D52" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="88"/>
+      <c r="E52" s="91"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="86" t="s">
+      <c r="G52" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="87"/>
-      <c r="I52" s="88"/>
+      <c r="H52" s="90"/>
+      <c r="I52" s="91"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
         <v>3</v>
       </c>
-      <c r="B53" s="86" t="s">
+      <c r="B53" s="89" t="s">
         <v>154</v>
       </c>
-      <c r="C53" s="88"/>
-      <c r="D53" s="86" t="s">
+      <c r="C53" s="91"/>
+      <c r="D53" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="88"/>
+      <c r="E53" s="91"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="86" t="s">
+      <c r="G53" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="H53" s="87"/>
-      <c r="I53" s="88"/>
+      <c r="H53" s="90"/>
+      <c r="I53" s="91"/>
     </row>
     <row r="54" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="27">
@@ -34504,18 +36096,18 @@
         <v>155</v>
       </c>
       <c r="C54" s="37"/>
-      <c r="D54" s="86" t="s">
+      <c r="D54" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="E54" s="88"/>
+      <c r="E54" s="91"/>
       <c r="F54" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="93" t="s">
+      <c r="G54" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="H54" s="87"/>
-      <c r="I54" s="88"/>
+      <c r="H54" s="90"/>
+      <c r="I54" s="91"/>
     </row>
     <row r="55" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="27">
@@ -34530,138 +36122,138 @@
       </c>
       <c r="E55" s="37"/>
       <c r="F55" s="27"/>
-      <c r="G55" s="93" t="s">
+      <c r="G55" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="H55" s="87"/>
-      <c r="I55" s="88"/>
+      <c r="H55" s="90"/>
+      <c r="I55" s="91"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="27">
         <v>6</v>
       </c>
-      <c r="B56" s="86" t="s">
+      <c r="B56" s="89" t="s">
         <v>161</v>
       </c>
-      <c r="C56" s="88"/>
-      <c r="D56" s="86" t="s">
+      <c r="C56" s="91"/>
+      <c r="D56" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="E56" s="88"/>
+      <c r="E56" s="91"/>
       <c r="F56" s="27"/>
-      <c r="G56" s="86" t="s">
+      <c r="G56" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="H56" s="87"/>
-      <c r="I56" s="88"/>
+      <c r="H56" s="90"/>
+      <c r="I56" s="91"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="27">
         <v>7</v>
       </c>
-      <c r="B57" s="86" t="s">
+      <c r="B57" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="88"/>
-      <c r="D57" s="86" t="s">
+      <c r="C57" s="91"/>
+      <c r="D57" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="E57" s="88"/>
+      <c r="E57" s="91"/>
       <c r="F57" s="27"/>
-      <c r="G57" s="86" t="s">
+      <c r="G57" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="H57" s="87"/>
-      <c r="I57" s="88"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="91"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="27">
         <v>8</v>
       </c>
-      <c r="B58" s="86" t="s">
+      <c r="B58" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="C58" s="88"/>
-      <c r="D58" s="86" t="s">
+      <c r="C58" s="91"/>
+      <c r="D58" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="E58" s="88"/>
+      <c r="E58" s="91"/>
       <c r="F58" s="27"/>
-      <c r="G58" s="86" t="s">
+      <c r="G58" s="89" t="s">
         <v>163</v>
       </c>
-      <c r="H58" s="87"/>
-      <c r="I58" s="88"/>
+      <c r="H58" s="90"/>
+      <c r="I58" s="91"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="27">
         <v>9</v>
       </c>
-      <c r="B59" s="86" t="s">
+      <c r="B59" s="89" t="s">
         <v>165</v>
       </c>
-      <c r="C59" s="88"/>
-      <c r="D59" s="86" t="s">
+      <c r="C59" s="91"/>
+      <c r="D59" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="88"/>
+      <c r="E59" s="91"/>
       <c r="F59" s="27"/>
-      <c r="G59" s="86" t="s">
+      <c r="G59" s="89" t="s">
         <v>165</v>
       </c>
-      <c r="H59" s="87"/>
-      <c r="I59" s="88"/>
+      <c r="H59" s="90"/>
+      <c r="I59" s="91"/>
     </row>
     <row r="60" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="27">
         <v>10</v>
       </c>
-      <c r="B60" s="86" t="s">
+      <c r="B60" s="89" t="s">
         <v>305</v>
       </c>
-      <c r="C60" s="88"/>
-      <c r="D60" s="86" t="s">
+      <c r="C60" s="91"/>
+      <c r="D60" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="E60" s="88"/>
+      <c r="E60" s="91"/>
       <c r="F60" s="27"/>
-      <c r="G60" s="93" t="s">
+      <c r="G60" s="96" t="s">
         <v>306</v>
       </c>
-      <c r="H60" s="87"/>
-      <c r="I60" s="88"/>
+      <c r="H60" s="90"/>
+      <c r="I60" s="91"/>
     </row>
     <row r="61" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="27">
         <v>11</v>
       </c>
-      <c r="B61" s="86" t="s">
+      <c r="B61" s="89" t="s">
         <v>166</v>
       </c>
-      <c r="C61" s="88"/>
-      <c r="D61" s="86" t="s">
+      <c r="C61" s="91"/>
+      <c r="D61" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="E61" s="88"/>
+      <c r="E61" s="91"/>
       <c r="F61" s="27"/>
-      <c r="G61" s="93" t="s">
+      <c r="G61" s="96" t="s">
         <v>167</v>
       </c>
-      <c r="H61" s="87"/>
-      <c r="I61" s="88"/>
+      <c r="H61" s="90"/>
+      <c r="I61" s="91"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="84"/>
-      <c r="C62" s="84"/>
-      <c r="D62" s="84"/>
-      <c r="E62" s="84"/>
-      <c r="F62" s="84"/>
-      <c r="G62" s="84"/>
-      <c r="H62" s="84"/>
-      <c r="I62" s="85"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="87"/>
+      <c r="D62" s="87"/>
+      <c r="E62" s="87"/>
+      <c r="F62" s="87"/>
+      <c r="G62" s="87"/>
+      <c r="H62" s="87"/>
+      <c r="I62" s="88"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="29"/>
@@ -34931,6 +36523,766 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="9" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="88"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="89"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="7"/>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="10"/>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="96" t="s">
+        <v>381</v>
+      </c>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="20"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="20"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="20"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="20"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="20"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="20"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="20"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="20"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="23"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="88"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="94"/>
+      <c r="D35" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="26"/>
+      <c r="F35" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="95"/>
+      <c r="I35" s="94"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" s="27">
+        <v>1</v>
+      </c>
+      <c r="B36" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="91"/>
+      <c r="D36" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="91"/>
+      <c r="F36" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="89"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="91"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="27">
+        <v>2</v>
+      </c>
+      <c r="B37" s="69"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="71"/>
+      <c r="F37" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" s="70"/>
+      <c r="I37" s="71"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="27">
+        <v>3</v>
+      </c>
+      <c r="B38" s="69"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="91"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="H38" s="90"/>
+      <c r="I38" s="91"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="27">
+        <v>4</v>
+      </c>
+      <c r="B39" s="69" t="s">
+        <v>377</v>
+      </c>
+      <c r="C39" s="71"/>
+      <c r="D39" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="71"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="71"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="27">
+        <v>5</v>
+      </c>
+      <c r="B40" s="69" t="s">
+        <v>378</v>
+      </c>
+      <c r="C40" s="71"/>
+      <c r="D40" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="71"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="71"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" s="27">
+        <v>6</v>
+      </c>
+      <c r="B41" s="69" t="s">
+        <v>379</v>
+      </c>
+      <c r="C41" s="71"/>
+      <c r="D41" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="71"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="71"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" s="27">
+        <v>7</v>
+      </c>
+      <c r="B42" s="89" t="s">
+        <v>380</v>
+      </c>
+      <c r="C42" s="91"/>
+      <c r="D42" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="91"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="91"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="87"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="88"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="29"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="20"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" s="17"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="20"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="17"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="20"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" s="17"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="20"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48" s="17"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="20"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A49" s="17"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="20"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50" s="17"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="20"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51" s="17"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="20"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52" s="17"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="20"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53" s="17"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="20"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" s="17"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="20"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55" s="17"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="20"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56" s="17"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="20"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57" s="21"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -35115,7 +37467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:B6"/>
@@ -35177,7 +37529,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
@@ -35189,25 +37541,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="78" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="69" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69" t="s">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72" t="s">
         <v>271</v>
       </c>
-      <c r="H2" s="69" t="s">
+      <c r="H2" s="72" t="s">
         <v>272</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="72" t="s">
         <v>272</v>
       </c>
     </row>
@@ -35218,7 +37570,7 @@
       <c r="B3" s="52" t="s">
         <v>270</v>
       </c>
-      <c r="C3" s="69"/>
+      <c r="C3" s="72"/>
       <c r="D3" s="51" t="s">
         <v>124</v>
       </c>
@@ -35228,12 +37580,12 @@
       <c r="F3" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="77">
+      <c r="A4" s="80">
         <v>0</v>
       </c>
       <c r="B4" s="53">
@@ -35269,7 +37621,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="78"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="53">
         <v>2</v>
       </c>
@@ -35301,7 +37653,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="78"/>
+      <c r="A6" s="81"/>
       <c r="B6" s="53">
         <v>3</v>
       </c>
@@ -35333,7 +37685,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="79"/>
+      <c r="A7" s="82"/>
       <c r="B7" s="53">
         <v>4</v>
       </c>
@@ -35363,7 +37715,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="73">
+      <c r="A8" s="76">
         <v>1</v>
       </c>
       <c r="B8" s="53">
@@ -35399,7 +37751,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="74"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="53">
         <v>2</v>
       </c>
@@ -35433,7 +37785,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="70">
+      <c r="A10" s="73">
         <v>2</v>
       </c>
       <c r="B10" s="53">
@@ -35469,7 +37821,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="72"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="53">
         <v>2</v>
       </c>
@@ -35503,7 +37855,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="70">
+      <c r="A12" s="73">
         <v>3</v>
       </c>
       <c r="B12" s="53">
@@ -35539,7 +37891,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="72"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="53">
         <v>2</v>
       </c>
@@ -35573,7 +37925,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="73">
+      <c r="A14" s="76">
         <v>4</v>
       </c>
       <c r="B14" s="53">
@@ -35609,7 +37961,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="74"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="53">
         <v>2</v>
       </c>
@@ -35643,7 +37995,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="70">
+      <c r="A16" s="73">
         <v>5</v>
       </c>
       <c r="B16" s="53">
@@ -35677,7 +38029,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="71"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="53">
         <v>2</v>
       </c>
@@ -35709,7 +38061,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="72"/>
+      <c r="A18" s="75"/>
       <c r="B18" s="53">
         <v>3</v>
       </c>
@@ -35741,7 +38093,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="70">
+      <c r="A19" s="73">
         <v>6</v>
       </c>
       <c r="B19" s="53">
@@ -35775,7 +38127,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="71"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="53">
         <v>2</v>
       </c>
@@ -35806,7 +38158,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="71"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="53">
         <v>3</v>
       </c>
@@ -35838,7 +38190,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="72"/>
+      <c r="A22" s="75"/>
       <c r="B22" s="53">
         <v>4</v>
       </c>
@@ -35904,7 +38256,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="70">
+      <c r="A24" s="73">
         <v>8</v>
       </c>
       <c r="B24" s="53">
@@ -35938,7 +38290,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="71"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="53">
         <v>2</v>
       </c>
@@ -35968,7 +38320,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="71"/>
+      <c r="A26" s="74"/>
       <c r="B26" s="53">
         <v>3</v>
       </c>
@@ -35998,7 +38350,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="72"/>
+      <c r="A27" s="75"/>
       <c r="B27" s="53">
         <v>4</v>
       </c>
@@ -36028,7 +38380,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="70">
+      <c r="A28" s="73">
         <v>9</v>
       </c>
       <c r="B28" s="53">
@@ -36062,7 +38414,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="71"/>
+      <c r="A29" s="74"/>
       <c r="B29" s="53">
         <v>2</v>
       </c>
@@ -36094,7 +38446,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="72"/>
+      <c r="A30" s="75"/>
       <c r="B30" s="53">
         <v>3</v>
       </c>
@@ -36158,7 +38510,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="70">
+      <c r="A32" s="73">
         <v>11</v>
       </c>
       <c r="B32" s="53">
@@ -36192,7 +38544,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="71"/>
+      <c r="A33" s="74"/>
       <c r="B33" s="53">
         <v>2</v>
       </c>
@@ -36224,7 +38576,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="72"/>
+      <c r="A34" s="75"/>
       <c r="B34" s="53">
         <v>3</v>
       </c>
@@ -36296,17 +38648,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="85"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="88"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -36315,13 +38667,13 @@
       <c r="B2" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="89" t="s">
         <v>217</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="91"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -36332,13 +38684,13 @@
       <c r="B3" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="89" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -36349,11 +38701,11 @@
       <c r="B4" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -36364,13 +38716,13 @@
       <c r="B5" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="89" t="s">
         <v>219</v>
       </c>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="91"/>
       <c r="H5" s="5" t="s">
         <v>224</v>
       </c>
@@ -36391,13 +38743,13 @@
       <c r="D7" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E7" s="82" t="s">
+      <c r="E7" s="85" t="s">
         <v>222</v>
       </c>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -36410,13 +38762,13 @@
       <c r="D8" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="84" t="s">
         <v>223</v>
       </c>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
       <c r="K8" t="str">
         <f>B8&amp;"="</f>
         <v>password.expiry=</v>
@@ -36433,13 +38785,13 @@
       <c r="D9" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="84" t="s">
         <v>226</v>
       </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
       <c r="K9" t="str">
         <f>B9&amp;"="</f>
         <v>display00001=</v>
@@ -36456,13 +38808,13 @@
       <c r="D10" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="84" t="s">
         <v>227</v>
       </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
       <c r="K10" t="str">
         <f>B10&amp;"="</f>
         <v>display00002=</v>
@@ -36479,13 +38831,13 @@
       <c r="D11" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="84" t="s">
         <v>228</v>
       </c>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
       <c r="K11" t="str">
         <f t="shared" ref="K11:K39" si="0">B11&amp;"="</f>
         <v>display00003=</v>
@@ -36502,13 +38854,13 @@
       <c r="D12" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E12" s="81" t="s">
+      <c r="E12" s="84" t="s">
         <v>229</v>
       </c>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
         <v>display00004=</v>
@@ -36525,13 +38877,13 @@
       <c r="D13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E13" s="81" t="s">
+      <c r="E13" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
         <v>display00101=</v>
@@ -36548,13 +38900,13 @@
       <c r="D14" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E14" s="81" t="s">
+      <c r="E14" s="84" t="s">
         <v>231</v>
       </c>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
         <v>display00102=</v>
@@ -36571,13 +38923,13 @@
       <c r="D15" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="81" t="s">
+      <c r="E15" s="84" t="s">
         <v>232</v>
       </c>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
         <v>display00201=</v>
@@ -36594,13 +38946,13 @@
       <c r="D16" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E16" s="81" t="s">
+      <c r="E16" s="84" t="s">
         <v>233</v>
       </c>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
         <v>display00202=</v>
@@ -36617,13 +38969,13 @@
       <c r="D17" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E17" s="81" t="s">
+      <c r="E17" s="84" t="s">
         <v>234</v>
       </c>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
         <v>display00301=</v>
@@ -36640,13 +38992,13 @@
       <c r="D18" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E18" s="81" t="s">
+      <c r="E18" s="84" t="s">
         <v>235</v>
       </c>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
         <v>display00302=</v>
@@ -36663,13 +39015,13 @@
       <c r="D19" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E19" s="81" t="s">
+      <c r="E19" s="84" t="s">
         <v>236</v>
       </c>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
         <v>display00401=</v>
@@ -36686,13 +39038,13 @@
       <c r="D20" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E20" s="81" t="s">
+      <c r="E20" s="84" t="s">
         <v>237</v>
       </c>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
         <v>display00402=</v>
@@ -36709,13 +39061,13 @@
       <c r="D21" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E21" s="81" t="s">
+      <c r="E21" s="84" t="s">
         <v>238</v>
       </c>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
         <v>display00501=</v>
@@ -36732,13 +39084,13 @@
       <c r="D22" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E22" s="81" t="s">
+      <c r="E22" s="84" t="s">
         <v>239</v>
       </c>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
         <v>display00502=</v>
@@ -36755,13 +39107,13 @@
       <c r="D23" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E23" s="81" t="s">
+      <c r="E23" s="84" t="s">
         <v>240</v>
       </c>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
         <v>display00503=</v>
@@ -36778,13 +39130,13 @@
       <c r="D24" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E24" s="81" t="s">
+      <c r="E24" s="84" t="s">
         <v>241</v>
       </c>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
         <v>display00601=</v>
@@ -36801,13 +39153,13 @@
       <c r="D25" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E25" s="81" t="s">
+      <c r="E25" s="84" t="s">
         <v>242</v>
       </c>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
         <v>display00602=</v>
@@ -36824,13 +39176,13 @@
       <c r="D26" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E26" s="81" t="s">
+      <c r="E26" s="84" t="s">
         <v>243</v>
       </c>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
         <v>display00603=</v>
@@ -36847,13 +39199,13 @@
       <c r="D27" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E27" s="81" t="s">
+      <c r="E27" s="84" t="s">
         <v>244</v>
       </c>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
       <c r="K27" t="str">
         <f t="shared" si="0"/>
         <v>display00701=</v>
@@ -36870,13 +39222,13 @@
       <c r="D28" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E28" s="81" t="s">
+      <c r="E28" s="84" t="s">
         <v>245</v>
       </c>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
       <c r="K28" t="str">
         <f t="shared" si="0"/>
         <v>display00801=</v>
@@ -36893,13 +39245,13 @@
       <c r="D29" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E29" s="81" t="s">
+      <c r="E29" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
       <c r="K29" t="str">
         <f t="shared" si="0"/>
         <v>display00802=</v>
@@ -36916,13 +39268,13 @@
       <c r="D30" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E30" s="81" t="s">
+      <c r="E30" s="84" t="s">
         <v>247</v>
       </c>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
         <v>display00803=</v>
@@ -36939,13 +39291,13 @@
       <c r="D31" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E31" s="81" t="s">
+      <c r="E31" s="84" t="s">
         <v>248</v>
       </c>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
       <c r="K31" t="str">
         <f t="shared" si="0"/>
         <v>display00804=</v>
@@ -36962,13 +39314,13 @@
       <c r="D32" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E32" s="81" t="s">
+      <c r="E32" s="84" t="s">
         <v>249</v>
       </c>
-      <c r="F32" s="81"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="81"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
       <c r="K32" t="str">
         <f t="shared" si="0"/>
         <v>display00901=</v>
@@ -36985,13 +39337,13 @@
       <c r="D33" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E33" s="81" t="s">
+      <c r="E33" s="84" t="s">
         <v>250</v>
       </c>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
       <c r="K33" t="str">
         <f t="shared" si="0"/>
         <v>display00902=</v>
@@ -37008,13 +39360,13 @@
       <c r="D34" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E34" s="81" t="s">
+      <c r="E34" s="84" t="s">
         <v>251</v>
       </c>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
       <c r="K34" t="str">
         <f t="shared" si="0"/>
         <v>display00903=</v>
@@ -37031,13 +39383,13 @@
       <c r="D35" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E35" s="89" t="s">
+      <c r="E35" s="92" t="s">
         <v>252</v>
       </c>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
       <c r="K35" t="str">
         <f t="shared" si="0"/>
         <v>password.policy=</v>
@@ -37056,13 +39408,13 @@
       <c r="D36" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E36" s="89" t="s">
+      <c r="E36" s="92" t="s">
         <v>253</v>
       </c>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="92"/>
       <c r="K36" t="str">
         <f t="shared" si="0"/>
         <v>judge.class=</v>
@@ -37079,13 +39431,13 @@
       <c r="D37" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E37" s="89" t="s">
+      <c r="E37" s="92" t="s">
         <v>254</v>
       </c>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="92"/>
       <c r="K37" t="str">
         <f t="shared" si="0"/>
         <v>force.pass.change=</v>
@@ -37104,13 +39456,13 @@
       <c r="D38" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E38" s="89" t="s">
+      <c r="E38" s="92" t="s">
         <v>255</v>
       </c>
-      <c r="F38" s="89"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="89"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="92"/>
       <c r="K38" t="str">
         <f t="shared" si="0"/>
         <v>judge.result.table.name=</v>
@@ -37129,13 +39481,13 @@
       <c r="D39" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E39" s="81" t="s">
+      <c r="E39" s="84" t="s">
         <v>263</v>
       </c>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
       <c r="K39" t="str">
         <f t="shared" si="0"/>
         <v>pwd.hash.salt=</v>
@@ -37154,13 +39506,13 @@
       <c r="D40" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E40" s="81" t="s">
+      <c r="E40" s="84" t="s">
         <v>302</v>
       </c>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="81"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="84"/>
       <c r="K40" t="str">
         <f t="shared" ref="K40" si="1">B40&amp;"="</f>
         <v>upload.directory=</v>
@@ -37179,13 +39531,13 @@
       <c r="D41" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E41" s="81" t="s">
+      <c r="E41" s="84" t="s">
         <v>304</v>
       </c>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="84"/>
       <c r="K41" t="str">
         <f t="shared" ref="K41" si="2">B41&amp;"="</f>
         <v>result.directory=</v>
@@ -37202,13 +39554,13 @@
       <c r="D42" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E42" s="80" t="s">
+      <c r="E42" s="83" t="s">
         <v>340</v>
       </c>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="81"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="84"/>
+      <c r="H42" s="84"/>
+      <c r="I42" s="84"/>
       <c r="K42" t="str">
         <f t="shared" ref="K42" si="3">B42&amp;"="</f>
         <v>pwd.lock.limit=</v>
@@ -37269,8 +39621,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -37297,17 +39649,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="85"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="88"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -37316,11 +39668,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="91"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -37331,11 +39683,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -37346,11 +39698,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -37363,11 +39715,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="91"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -37378,11 +39730,11 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="91"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -37402,17 +39754,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -37690,26 +40042,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="83" t="s">
+      <c r="A34" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="85"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="88"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="90" t="s">
+      <c r="B35" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="91"/>
+      <c r="C35" s="94"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -37717,100 +40069,100 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="90" t="s">
+      <c r="G35" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="92"/>
-      <c r="I35" s="91"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="94"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="86" t="s">
+      <c r="B36" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="88"/>
-      <c r="D36" s="86" t="s">
+      <c r="C36" s="91"/>
+      <c r="D36" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="88"/>
+      <c r="E36" s="91"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="86"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="88"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="91"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="86" t="s">
+      <c r="B37" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="88"/>
-      <c r="D37" s="86" t="s">
+      <c r="C37" s="91"/>
+      <c r="D37" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="88"/>
+      <c r="E37" s="91"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="86"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="88"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="91"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="86" t="s">
+      <c r="B38" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="88"/>
-      <c r="D38" s="86" t="s">
+      <c r="C38" s="91"/>
+      <c r="D38" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="88"/>
+      <c r="E38" s="91"/>
       <c r="F38" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="86"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="88"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="91"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="86" t="s">
+      <c r="B39" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="88"/>
-      <c r="D39" s="86" t="s">
+      <c r="C39" s="91"/>
+      <c r="D39" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="88"/>
+      <c r="E39" s="91"/>
       <c r="F39" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="86"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="88"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="91"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="83" t="s">
+      <c r="A40" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="85"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="88"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="29"/>
@@ -38166,17 +40518,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="85"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="88"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -38185,11 +40537,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="91"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -38200,11 +40552,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -38215,11 +40567,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -38232,11 +40584,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="91"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -38247,11 +40599,11 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="91"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -38271,17 +40623,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -38559,26 +40911,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="83" t="s">
+      <c r="A34" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="85"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="88"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="90" t="s">
+      <c r="B35" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="91"/>
+      <c r="C35" s="94"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -38586,78 +40938,78 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="90" t="s">
+      <c r="G35" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="92"/>
-      <c r="I35" s="91"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="94"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="86" t="s">
+      <c r="B36" s="89" t="s">
         <v>312</v>
       </c>
-      <c r="C36" s="88"/>
-      <c r="D36" s="86" t="s">
+      <c r="C36" s="91"/>
+      <c r="D36" s="89" t="s">
         <v>313</v>
       </c>
-      <c r="E36" s="88"/>
+      <c r="E36" s="91"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="86" t="s">
+      <c r="G36" s="89" t="s">
         <v>314</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="88"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="91"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="27"/>
-      <c r="B37" s="86"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="88"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="91"/>
       <c r="F37" s="27"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="88"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="91"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="27"/>
-      <c r="B38" s="86"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="88"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="91"/>
       <c r="F38" s="27"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="88"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="91"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="28"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="88"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="88"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="91"/>
       <c r="F39" s="27"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="88"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="91"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="83" t="s">
+      <c r="A40" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="85"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="88"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="29"/>
@@ -39025,17 +41377,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="85"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="88"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -39044,11 +41396,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="91"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -39059,11 +41411,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -39074,11 +41426,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -39091,11 +41443,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="91"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -39106,13 +41458,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="91"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -39132,17 +41484,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -39420,26 +41772,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="83" t="s">
+      <c r="A34" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="85"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="88"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="90" t="s">
+      <c r="B35" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="91"/>
+      <c r="C35" s="94"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -39447,30 +41799,30 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="90" t="s">
+      <c r="G35" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="92"/>
-      <c r="I35" s="91"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="94"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="86" t="s">
+      <c r="B36" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="88"/>
-      <c r="D36" s="86" t="s">
+      <c r="C36" s="91"/>
+      <c r="D36" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="88"/>
+      <c r="E36" s="91"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="86"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="88"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="91"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="27">
@@ -39480,16 +41832,16 @@
         <v>36</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="86" t="s">
+      <c r="D37" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="88"/>
+      <c r="E37" s="91"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="86"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="88"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="91"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="27">
@@ -39499,16 +41851,16 @@
         <v>37</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="86" t="s">
+      <c r="D38" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="88"/>
+      <c r="E38" s="91"/>
       <c r="F38" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="86"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="88"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="91"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="27">
@@ -39571,33 +41923,33 @@
       <c r="A42" s="27">
         <v>7</v>
       </c>
-      <c r="B42" s="86"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="86" t="s">
+      <c r="B42" s="89"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="88"/>
+      <c r="E42" s="91"/>
       <c r="F42" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="86" t="s">
+      <c r="G42" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="H42" s="87"/>
-      <c r="I42" s="88"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="91"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="83" t="s">
+      <c r="A43" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="84"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="84"/>
-      <c r="I43" s="85"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="88"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="29"/>
@@ -39942,7 +42294,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D37" sqref="D37:E37"/>
     </sheetView>
   </sheetViews>
@@ -39952,17 +42304,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="85"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="88"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -39971,11 +42323,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="91"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -39986,11 +42338,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -40001,11 +42353,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -40018,11 +42370,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="91"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -40033,13 +42385,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="91"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -40059,17 +42411,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -40347,26 +42699,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="83" t="s">
+      <c r="A34" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="85"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="88"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="90" t="s">
+      <c r="B35" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="91"/>
+      <c r="C35" s="94"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -40374,30 +42726,30 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="90" t="s">
+      <c r="G35" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="92"/>
-      <c r="I35" s="91"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="94"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="86" t="s">
+      <c r="B36" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="88"/>
-      <c r="D36" s="86" t="s">
+      <c r="C36" s="91"/>
+      <c r="D36" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="88"/>
+      <c r="E36" s="91"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="86"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="88"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="91"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="27">
@@ -40405,39 +42757,39 @@
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="31"/>
-      <c r="D37" s="86" t="s">
+      <c r="D37" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="88"/>
+      <c r="E37" s="91"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="86" t="s">
+      <c r="G37" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="88"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="91"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="27">
         <v>3</v>
       </c>
-      <c r="B38" s="86" t="s">
+      <c r="B38" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="88"/>
-      <c r="D38" s="86" t="s">
+      <c r="C38" s="91"/>
+      <c r="D38" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="88"/>
+      <c r="E38" s="91"/>
       <c r="F38" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="86" t="s">
+      <c r="G38" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="87"/>
-      <c r="I38" s="88"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="91"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="27">
@@ -40447,16 +42799,16 @@
         <v>45</v>
       </c>
       <c r="C39" s="31"/>
-      <c r="D39" s="86" t="s">
+      <c r="D39" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="88"/>
+      <c r="E39" s="91"/>
       <c r="F39" s="27"/>
-      <c r="G39" s="86" t="s">
+      <c r="G39" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="H39" s="87"/>
-      <c r="I39" s="88"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="91"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="27">
@@ -40479,20 +42831,20 @@
       <c r="A41" s="27">
         <v>6</v>
       </c>
-      <c r="B41" s="86" t="s">
+      <c r="B41" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="88"/>
-      <c r="D41" s="86" t="s">
+      <c r="C41" s="91"/>
+      <c r="D41" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="88"/>
+      <c r="E41" s="91"/>
       <c r="F41" s="27"/>
-      <c r="G41" s="86" t="s">
+      <c r="G41" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="H41" s="87"/>
-      <c r="I41" s="88"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="91"/>
     </row>
     <row r="42" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="27">
@@ -40507,43 +42859,43 @@
       </c>
       <c r="E42" s="31"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="93" t="s">
+      <c r="G42" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="H42" s="87"/>
-      <c r="I42" s="88"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="91"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="27">
         <v>8</v>
       </c>
-      <c r="B43" s="86"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="86" t="s">
+      <c r="B43" s="89"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="88"/>
+      <c r="E43" s="91"/>
       <c r="F43" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="86" t="s">
+      <c r="G43" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="H43" s="87"/>
-      <c r="I43" s="88"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="91"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="83" t="s">
+      <c r="A44" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="85"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="88"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="29"/>
@@ -40913,17 +43265,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="85"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="88"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -40932,11 +43284,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="91"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -40947,11 +43299,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -40962,11 +43314,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -40979,11 +43331,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="91"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -40994,13 +43346,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="91"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -41020,17 +43372,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -41462,26 +43814,26 @@
       <c r="I47" s="23"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="84"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="84"/>
-      <c r="E48" s="84"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="84"/>
-      <c r="H48" s="84"/>
-      <c r="I48" s="85"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="87"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="87"/>
+      <c r="I48" s="88"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="90" t="s">
+      <c r="B49" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="91"/>
+      <c r="C49" s="94"/>
       <c r="D49" s="25" t="s">
         <v>18</v>
       </c>
@@ -41489,30 +43841,30 @@
       <c r="F49" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="90" t="s">
+      <c r="G49" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="H49" s="92"/>
-      <c r="I49" s="91"/>
+      <c r="H49" s="95"/>
+      <c r="I49" s="94"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="27">
         <v>1</v>
       </c>
-      <c r="B50" s="86" t="s">
+      <c r="B50" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="88"/>
-      <c r="D50" s="86" t="s">
+      <c r="C50" s="91"/>
+      <c r="D50" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="88"/>
+      <c r="E50" s="91"/>
       <c r="F50" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G50" s="86"/>
-      <c r="H50" s="87"/>
-      <c r="I50" s="88"/>
+      <c r="G50" s="89"/>
+      <c r="H50" s="90"/>
+      <c r="I50" s="91"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="27">
@@ -41520,69 +43872,69 @@
       </c>
       <c r="B51" s="30"/>
       <c r="C51" s="31"/>
-      <c r="D51" s="86" t="s">
+      <c r="D51" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="88"/>
+      <c r="E51" s="91"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="86" t="s">
+      <c r="G51" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="H51" s="87"/>
-      <c r="I51" s="88"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="91"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="27">
         <v>3</v>
       </c>
-      <c r="B52" s="86"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="86" t="s">
+      <c r="B52" s="89"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="88"/>
+      <c r="E52" s="91"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="86" t="s">
+      <c r="G52" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="H52" s="87"/>
-      <c r="I52" s="88"/>
+      <c r="H52" s="90"/>
+      <c r="I52" s="91"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
         <v>4</v>
       </c>
-      <c r="B53" s="86" t="s">
+      <c r="B53" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="88"/>
-      <c r="D53" s="86" t="s">
+      <c r="C53" s="91"/>
+      <c r="D53" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="88"/>
+      <c r="E53" s="91"/>
       <c r="F53" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G53" s="86" t="s">
+      <c r="G53" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="H53" s="87"/>
-      <c r="I53" s="88"/>
+      <c r="H53" s="90"/>
+      <c r="I53" s="91"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="27">
         <v>5</v>
       </c>
-      <c r="B54" s="86"/>
-      <c r="C54" s="88"/>
-      <c r="D54" s="86" t="s">
+      <c r="B54" s="89"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="88"/>
+      <c r="E54" s="91"/>
       <c r="F54" s="27" t="s">
         <v>22</v>
       </c>
@@ -41596,14 +43948,14 @@
       <c r="A55" s="27">
         <v>6</v>
       </c>
-      <c r="B55" s="86" t="s">
+      <c r="B55" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="88"/>
-      <c r="D55" s="86" t="s">
+      <c r="C55" s="91"/>
+      <c r="D55" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="E55" s="88"/>
+      <c r="E55" s="91"/>
       <c r="F55" s="27" t="s">
         <v>22</v>
       </c>
@@ -41617,124 +43969,124 @@
       <c r="A56" s="27">
         <v>7</v>
       </c>
-      <c r="B56" s="86" t="s">
+      <c r="B56" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="88"/>
-      <c r="D56" s="86" t="s">
+      <c r="C56" s="91"/>
+      <c r="D56" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="E56" s="88"/>
+      <c r="E56" s="91"/>
       <c r="F56" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G56" s="93" t="s">
+      <c r="G56" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="H56" s="94"/>
-      <c r="I56" s="95"/>
+      <c r="H56" s="97"/>
+      <c r="I56" s="98"/>
     </row>
     <row r="57" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="27">
         <v>8</v>
       </c>
-      <c r="B57" s="86" t="s">
+      <c r="B57" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="88"/>
-      <c r="D57" s="86" t="s">
+      <c r="C57" s="91"/>
+      <c r="D57" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="88"/>
+      <c r="E57" s="91"/>
       <c r="F57" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G57" s="93" t="s">
+      <c r="G57" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="H57" s="94"/>
-      <c r="I57" s="95"/>
+      <c r="H57" s="97"/>
+      <c r="I57" s="98"/>
     </row>
     <row r="58" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="27">
         <v>9</v>
       </c>
-      <c r="B58" s="86" t="s">
+      <c r="B58" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="88"/>
-      <c r="D58" s="86" t="s">
+      <c r="C58" s="91"/>
+      <c r="D58" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="88"/>
+      <c r="E58" s="91"/>
       <c r="F58" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G58" s="93" t="s">
+      <c r="G58" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="H58" s="94"/>
-      <c r="I58" s="95"/>
+      <c r="H58" s="97"/>
+      <c r="I58" s="98"/>
     </row>
     <row r="59" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="27">
         <v>10</v>
       </c>
-      <c r="B59" s="86" t="s">
+      <c r="B59" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="88"/>
-      <c r="D59" s="86" t="s">
+      <c r="C59" s="91"/>
+      <c r="D59" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="E59" s="88"/>
+      <c r="E59" s="91"/>
       <c r="F59" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G59" s="93" t="s">
+      <c r="G59" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="H59" s="94"/>
-      <c r="I59" s="95"/>
+      <c r="H59" s="97"/>
+      <c r="I59" s="98"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="27">
         <v>11</v>
       </c>
-      <c r="B60" s="86"/>
-      <c r="C60" s="88"/>
+      <c r="B60" s="89"/>
+      <c r="C60" s="91"/>
       <c r="D60" s="30"/>
       <c r="E60" s="31"/>
       <c r="F60" s="27"/>
-      <c r="G60" s="93"/>
-      <c r="H60" s="87"/>
-      <c r="I60" s="88"/>
+      <c r="G60" s="96"/>
+      <c r="H60" s="90"/>
+      <c r="I60" s="91"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="27">
         <v>12</v>
       </c>
-      <c r="B61" s="86"/>
-      <c r="C61" s="88"/>
-      <c r="D61" s="86"/>
-      <c r="E61" s="88"/>
+      <c r="B61" s="89"/>
+      <c r="C61" s="91"/>
+      <c r="D61" s="89"/>
+      <c r="E61" s="91"/>
       <c r="F61" s="27"/>
-      <c r="G61" s="86"/>
-      <c r="H61" s="87"/>
-      <c r="I61" s="88"/>
+      <c r="G61" s="89"/>
+      <c r="H61" s="90"/>
+      <c r="I61" s="91"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="84"/>
-      <c r="C62" s="84"/>
-      <c r="D62" s="84"/>
-      <c r="E62" s="84"/>
-      <c r="F62" s="84"/>
-      <c r="G62" s="84"/>
-      <c r="H62" s="84"/>
-      <c r="I62" s="85"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="87"/>
+      <c r="D62" s="87"/>
+      <c r="E62" s="87"/>
+      <c r="F62" s="87"/>
+      <c r="G62" s="87"/>
+      <c r="H62" s="87"/>
+      <c r="I62" s="88"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="29"/>

--- a/設計書/設計書もどき.xlsx
+++ b/設計書/設計書もどき.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="機能一覧" sheetId="16" r:id="rId1"/>
@@ -22,15 +22,17 @@
     <sheet name="ユーザー検索" sheetId="8" r:id="rId13"/>
     <sheet name="ユーザー登録" sheetId="10" r:id="rId14"/>
     <sheet name="解答表示画面" sheetId="18" r:id="rId15"/>
-    <sheet name="履歴情報" sheetId="17" r:id="rId16"/>
-    <sheet name="カスタマイズ" sheetId="13" r:id="rId17"/>
+    <sheet name="アバター設定" sheetId="20" r:id="rId16"/>
+    <sheet name="履歴情報" sheetId="17" r:id="rId17"/>
+    <sheet name="カスタマイズ" sheetId="13" r:id="rId18"/>
+    <sheet name="更新履歴" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="407">
   <si>
     <t>画面レイアウト定義</t>
     <rPh sb="0" eb="2">
@@ -3417,10 +3419,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>result.directory</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>判定結果ファイルの出力ディレクトリ</t>
     <rPh sb="0" eb="2">
       <t>ハンテイ</t>
@@ -4291,6 +4289,224 @@
     <rPh sb="0" eb="2">
       <t>カイトウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正点</t>
+    <rPh sb="0" eb="3">
+      <t>シュウセイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アバター機能追加</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正箇所</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面一覧、機能一覧、画面設計</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アバター設定画面</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アバター設定画面</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アバター設定</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アバター完成図</t>
+    <rPh sb="4" eb="6">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在のアバターを表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アバターパーツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タブでパーツを切り替え。
+・前髪、後ろ髪、体、耳、目、輪郭、まゆ、口、鼻、アクセサリー１、アクセサリー２
+の１１個
+パーツを選択すると左のアバターに反映される。</t>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マエガミ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ガミ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カラダ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ミミ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>リンカク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在表示しているアバターで決定する</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンセル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在のアバターを保存せず、前の画面に戻る</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アバター登録</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result.directory</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4577,7 +4793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4724,8 +4940,21 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -4743,11 +4972,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4767,6 +4995,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4804,13 +5033,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -8046,6 +8269,123 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1104900" cy="571499"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="テキスト ボックス 64"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4328160" y="8138160"/>
+          <a:ext cx="1104900" cy="571499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アバター</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>設定画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>440055</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="カギ線コネクタ 65"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="86" idx="3"/>
+          <a:endCxn id="65" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3488055" y="2575561"/>
+          <a:ext cx="840105" cy="5848349"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14520,6 +14860,1511 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>⑦</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1072515" y="2207894"/>
+          <a:ext cx="6440805" cy="5431155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5758815" y="2404110"/>
+          <a:ext cx="958215" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1748790" y="2964180"/>
+          <a:ext cx="672465" cy="268605"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="978153" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3689985" y="2375535"/>
+          <a:ext cx="978153" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アバター設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="線吹き出し 1 (枠付き) 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6755130" y="2030730"/>
+          <a:ext cx="323850" cy="262890"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 169643"/>
+            <a:gd name="adj4" fmla="val -103039"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>163829</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>146686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>668654</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1946909" y="2828926"/>
+          <a:ext cx="4962525" cy="3968114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="線吹き出し 1 (枠付き) 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5749290" y="1781175"/>
+          <a:ext cx="323850" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 104464"/>
+            <a:gd name="adj2" fmla="val 38726"/>
+            <a:gd name="adj3" fmla="val 291071"/>
+            <a:gd name="adj4" fmla="val -82451"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="線吹き出し 1 (枠付き) 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3899535" y="1863090"/>
+          <a:ext cx="323850" cy="262890"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 104464"/>
+            <a:gd name="adj2" fmla="val 38726"/>
+            <a:gd name="adj3" fmla="val 241071"/>
+            <a:gd name="adj4" fmla="val 32255"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5057775" y="2432685"/>
+          <a:ext cx="748923" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>麻生花子</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>803910</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>478155</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="角丸四角形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5261610" y="6326505"/>
+          <a:ext cx="565785" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1796004" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2202180" y="3011805"/>
+          <a:ext cx="1796004" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>アバターを作成してください</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>415290</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>739140</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="線吹き出し 1 (枠付き) 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5764530" y="3368040"/>
+          <a:ext cx="323850" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 104464"/>
+            <a:gd name="adj2" fmla="val 38726"/>
+            <a:gd name="adj3" fmla="val 207878"/>
+            <a:gd name="adj4" fmla="val -114803"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>④</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>878205</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>310515</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="線吹き出し 1 (枠付き) 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4444365" y="6031230"/>
+          <a:ext cx="323850" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 61607"/>
+            <a:gd name="adj2" fmla="val 97549"/>
+            <a:gd name="adj3" fmla="val 149684"/>
+            <a:gd name="adj4" fmla="val 265197"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>⑥</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="線吹き出し 1 (枠付き) 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6869430" y="2878455"/>
+          <a:ext cx="262890" cy="262890"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 54464"/>
+            <a:gd name="adj2" fmla="val 3431"/>
+            <a:gd name="adj3" fmla="val 51785"/>
+            <a:gd name="adj4" fmla="val -76568"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>⑪</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3977640" y="3970020"/>
+          <a:ext cx="2377440" cy="1973580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>769620</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="台形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4335780" y="3718560"/>
+          <a:ext cx="388620" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="trapezoid">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>髪</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>792480</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="台形 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3970020" y="3741420"/>
+          <a:ext cx="388620" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="trapezoid">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>顔</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>670560</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="台形 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4739640" y="3695700"/>
+          <a:ext cx="388620" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="trapezoid">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>目</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="台形 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105400" y="3688080"/>
+          <a:ext cx="388620" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="trapezoid">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>鼻</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="正方形/長方形 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2255520" y="3695700"/>
+          <a:ext cx="1524000" cy="2316480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>746760</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="スマイル 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2506980" y="4244340"/>
+          <a:ext cx="914400" cy="853440"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>567690</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="角丸四角形 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5916930" y="6334125"/>
+          <a:ext cx="925830" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>キャンセル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>346710</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>670560</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="線吹き出し 1 (枠付き) 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6587490" y="5947410"/>
+          <a:ext cx="323850" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 73372"/>
+            <a:gd name="adj2" fmla="val 1078"/>
+            <a:gd name="adj3" fmla="val 161449"/>
+            <a:gd name="adj4" fmla="val -54803"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>⑦</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>765810</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>135255</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="線吹き出し 1 (枠付き) 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1657350" y="3396615"/>
+          <a:ext cx="323850" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 104464"/>
+            <a:gd name="adj2" fmla="val 38726"/>
+            <a:gd name="adj3" fmla="val 216702"/>
+            <a:gd name="adj4" fmla="val 212255"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>⑤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>670560</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="円/楕円 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4236720" y="4229100"/>
+          <a:ext cx="480060" cy="480060"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="五角形 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4853940" y="4198620"/>
+          <a:ext cx="548640" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="pentagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>716280</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="円/楕円 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5646420" y="4191000"/>
+          <a:ext cx="419100" cy="556260"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -31123,10 +32968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F26"/>
+  <dimension ref="A2:F27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A23"/>
+      <selection activeCell="A35" activeCellId="1" sqref="B29 A35:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -31135,17 +32980,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
-        <v>342</v>
-      </c>
-      <c r="B2" s="74" t="s">
+      <c r="A2" s="77" t="s">
+        <v>341</v>
+      </c>
+      <c r="B2" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="74"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="63" t="s">
         <v>124</v>
       </c>
@@ -31158,7 +33003,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>211</v>
@@ -31172,7 +33017,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="64" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>211</v>
@@ -31214,7 +33059,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="43" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>211</v>
@@ -31228,7 +33073,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="43" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>211</v>
@@ -31254,7 +33099,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="43" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="27" t="s">
@@ -31266,7 +33111,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="43" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="27" t="s">
@@ -31278,7 +33123,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="43" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B13" s="27" t="s">
         <v>211</v>
@@ -31292,7 +33137,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>211</v>
@@ -31306,7 +33151,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="43" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="27" t="s">
@@ -31318,7 +33163,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="43" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="27" t="s">
@@ -31330,7 +33175,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="65" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="66" t="s">
@@ -31340,13 +33185,13 @@
         <v>211</v>
       </c>
       <c r="E17" s="67" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
@@ -31357,7 +33202,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="65" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="66" t="s">
@@ -31367,13 +33212,13 @@
         <v>211</v>
       </c>
       <c r="E19" s="67" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="65" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B20" s="66"/>
       <c r="C20" s="66" t="s">
@@ -31383,13 +33228,13 @@
         <v>211</v>
       </c>
       <c r="E20" s="67" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="65" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B21" s="66"/>
       <c r="C21" s="66" t="s">
@@ -31399,13 +33244,13 @@
         <v>211</v>
       </c>
       <c r="E21" s="67" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="43" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B22" s="68"/>
       <c r="C22" s="68" t="s">
@@ -31418,7 +33263,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="43" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B23" s="68"/>
       <c r="C23" s="68" t="s">
@@ -31431,7 +33276,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="43" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B24" s="43"/>
       <c r="C24" s="68" t="s">
@@ -31443,7 +33288,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="43" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B25" s="68" t="s">
         <v>211</v>
@@ -31457,7 +33302,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="72" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B26" s="73"/>
       <c r="C26" s="73" t="s">
@@ -31467,7 +33312,21 @@
         <v>211</v>
       </c>
       <c r="E26" s="67" t="s">
-        <v>354</v>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="43" t="s">
+        <v>392</v>
+      </c>
+      <c r="B27" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="D27" s="68" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -31495,17 +33354,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="95"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -31514,11 +33373,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="98"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -31529,11 +33388,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -31544,11 +33403,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -31561,11 +33420,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="94"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="98"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -31576,13 +33435,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -31602,17 +33461,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="91"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="95"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -31890,26 +33749,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="89" t="s">
+      <c r="A34" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="91"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="95"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="95" t="s">
+      <c r="B35" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="96"/>
+      <c r="C35" s="101"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -31917,30 +33776,30 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="95" t="s">
+      <c r="G35" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="97"/>
-      <c r="I35" s="96"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="101"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="92" t="s">
+      <c r="B36" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="94"/>
-      <c r="D36" s="92" t="s">
+      <c r="C36" s="98"/>
+      <c r="D36" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="94"/>
+      <c r="E36" s="98"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="92"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="94"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="98"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="27">
@@ -31948,16 +33807,16 @@
       </c>
       <c r="B37" s="57"/>
       <c r="C37" s="59"/>
-      <c r="D37" s="92" t="s">
+      <c r="D37" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="94"/>
+      <c r="E37" s="98"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="92"/>
-      <c r="H37" s="93"/>
-      <c r="I37" s="94"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="98"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="27">
@@ -31967,55 +33826,55 @@
         <v>82</v>
       </c>
       <c r="C38" s="59"/>
-      <c r="D38" s="92" t="s">
+      <c r="D38" s="96" t="s">
+        <v>319</v>
+      </c>
+      <c r="E38" s="98"/>
+      <c r="F38" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="E38" s="94"/>
-      <c r="F38" s="27" t="s">
+      <c r="G38" s="96" t="s">
         <v>321</v>
       </c>
-      <c r="G38" s="92" t="s">
-        <v>322</v>
-      </c>
-      <c r="H38" s="93"/>
-      <c r="I38" s="94"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="98"/>
     </row>
     <row r="39" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
         <v>4</v>
       </c>
       <c r="B39" s="57" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C39" s="59"/>
       <c r="D39" s="57" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E39" s="59"/>
       <c r="F39" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="G39" s="101" t="s">
-        <v>325</v>
-      </c>
-      <c r="H39" s="102"/>
-      <c r="I39" s="103"/>
+        <v>320</v>
+      </c>
+      <c r="G39" s="106" t="s">
+        <v>324</v>
+      </c>
+      <c r="H39" s="107"/>
+      <c r="I39" s="108"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="27">
         <v>5</v>
       </c>
       <c r="B40" s="57" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C40" s="59"/>
       <c r="D40" s="57" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E40" s="59"/>
       <c r="F40" s="27"/>
       <c r="G40" s="57" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H40" s="58"/>
       <c r="I40" s="59"/>
@@ -32033,37 +33892,37 @@
       </c>
       <c r="E41" s="59"/>
       <c r="F41" s="27"/>
-      <c r="G41" s="104" t="s">
-        <v>329</v>
-      </c>
-      <c r="H41" s="105"/>
-      <c r="I41" s="106"/>
+      <c r="G41" s="109" t="s">
+        <v>328</v>
+      </c>
+      <c r="H41" s="110"/>
+      <c r="I41" s="111"/>
     </row>
     <row r="42" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="27">
         <v>7</v>
       </c>
       <c r="B42" s="57" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C42" s="59"/>
       <c r="D42" s="57" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E42" s="59"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="101" t="s">
-        <v>331</v>
-      </c>
-      <c r="H42" s="105"/>
-      <c r="I42" s="106"/>
+      <c r="G42" s="106" t="s">
+        <v>330</v>
+      </c>
+      <c r="H42" s="110"/>
+      <c r="I42" s="111"/>
     </row>
     <row r="43" spans="1:9" ht="47.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="27">
         <v>8</v>
       </c>
       <c r="B43" s="57" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C43" s="59"/>
       <c r="D43" s="57" t="s">
@@ -32071,18 +33930,18 @@
       </c>
       <c r="E43" s="59"/>
       <c r="F43" s="27"/>
-      <c r="G43" s="101" t="s">
-        <v>338</v>
-      </c>
-      <c r="H43" s="105"/>
-      <c r="I43" s="106"/>
+      <c r="G43" s="106" t="s">
+        <v>337</v>
+      </c>
+      <c r="H43" s="110"/>
+      <c r="I43" s="111"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="27">
         <v>9</v>
       </c>
       <c r="B44" s="57" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C44" s="59"/>
       <c r="D44" s="57" t="s">
@@ -32091,7 +33950,7 @@
       <c r="E44" s="59"/>
       <c r="F44" s="27"/>
       <c r="G44" s="60" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H44" s="61"/>
       <c r="I44" s="62"/>
@@ -32100,33 +33959,33 @@
       <c r="A45" s="27">
         <v>10</v>
       </c>
-      <c r="B45" s="92" t="s">
-        <v>333</v>
-      </c>
-      <c r="C45" s="94"/>
-      <c r="D45" s="92" t="s">
+      <c r="B45" s="96" t="s">
+        <v>332</v>
+      </c>
+      <c r="C45" s="98"/>
+      <c r="D45" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="E45" s="94"/>
+      <c r="E45" s="98"/>
       <c r="F45" s="27"/>
-      <c r="G45" s="92" t="s">
-        <v>335</v>
-      </c>
-      <c r="H45" s="93"/>
-      <c r="I45" s="94"/>
+      <c r="G45" s="96" t="s">
+        <v>334</v>
+      </c>
+      <c r="H45" s="97"/>
+      <c r="I45" s="98"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="89" t="s">
+      <c r="A46" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="90"/>
-      <c r="C46" s="90"/>
-      <c r="D46" s="90"/>
-      <c r="E46" s="90"/>
-      <c r="F46" s="90"/>
-      <c r="G46" s="90"/>
-      <c r="H46" s="90"/>
-      <c r="I46" s="91"/>
+      <c r="B46" s="94"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="94"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="94"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="95"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="29"/>
@@ -32438,11 +34297,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="G37:I37"/>
     <mergeCell ref="D38:E38"/>
@@ -32450,19 +34317,11 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32485,17 +34344,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="95"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -32504,11 +34363,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="98"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -32519,11 +34378,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -32534,11 +34393,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -32551,11 +34410,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="94"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="98"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -32566,13 +34425,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -32592,17 +34451,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="91"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="95"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -32880,26 +34739,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="89" t="s">
+      <c r="A34" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="91"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="95"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="95" t="s">
+      <c r="B35" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="96"/>
+      <c r="C35" s="101"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -32907,30 +34766,30 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="95" t="s">
+      <c r="G35" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="97"/>
-      <c r="I35" s="96"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="101"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="92" t="s">
+      <c r="B36" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="94"/>
-      <c r="D36" s="92" t="s">
+      <c r="C36" s="98"/>
+      <c r="D36" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="94"/>
+      <c r="E36" s="98"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="92"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="94"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="98"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="27">
@@ -32957,16 +34816,16 @@
       </c>
       <c r="B38" s="36"/>
       <c r="C38" s="37"/>
-      <c r="D38" s="92" t="s">
+      <c r="D38" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="94"/>
+      <c r="E38" s="98"/>
       <c r="F38" s="27"/>
-      <c r="G38" s="92" t="s">
+      <c r="G38" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="H38" s="93"/>
-      <c r="I38" s="94"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="98"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
@@ -33029,20 +34888,20 @@
       <c r="A42" s="27">
         <v>7</v>
       </c>
-      <c r="B42" s="92" t="s">
+      <c r="B42" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="94"/>
-      <c r="D42" s="92" t="s">
+      <c r="C42" s="98"/>
+      <c r="D42" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="94"/>
+      <c r="E42" s="98"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="92" t="s">
+      <c r="G42" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="H42" s="93"/>
-      <c r="I42" s="94"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="98"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="27">
@@ -33086,52 +34945,52 @@
       <c r="A45" s="27">
         <v>10</v>
       </c>
-      <c r="B45" s="92" t="s">
+      <c r="B45" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="94"/>
-      <c r="D45" s="92" t="s">
+      <c r="C45" s="98"/>
+      <c r="D45" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="94"/>
+      <c r="E45" s="98"/>
       <c r="F45" s="27"/>
-      <c r="G45" s="92" t="s">
+      <c r="G45" s="96" t="s">
         <v>119</v>
       </c>
-      <c r="H45" s="93"/>
-      <c r="I45" s="94"/>
+      <c r="H45" s="97"/>
+      <c r="I45" s="98"/>
     </row>
     <row r="46" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="27">
         <v>11</v>
       </c>
-      <c r="B46" s="92" t="s">
+      <c r="B46" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="C46" s="94"/>
-      <c r="D46" s="92" t="s">
+      <c r="C46" s="98"/>
+      <c r="D46" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="94"/>
+      <c r="E46" s="98"/>
       <c r="F46" s="27"/>
-      <c r="G46" s="98" t="s">
-        <v>371</v>
-      </c>
-      <c r="H46" s="93"/>
-      <c r="I46" s="94"/>
+      <c r="G46" s="103" t="s">
+        <v>370</v>
+      </c>
+      <c r="H46" s="97"/>
+      <c r="I46" s="98"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="89" t="s">
+      <c r="A47" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="90"/>
-      <c r="C47" s="90"/>
-      <c r="D47" s="90"/>
-      <c r="E47" s="90"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="90"/>
-      <c r="H47" s="90"/>
-      <c r="I47" s="91"/>
+      <c r="B47" s="94"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="95"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="29"/>
@@ -33189,10 +35048,10 @@
       <c r="A52" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="B52" s="107" t="s">
+      <c r="B52" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="C52" s="107"/>
+      <c r="C52" s="112"/>
       <c r="D52" s="18"/>
       <c r="E52" s="42" t="s">
         <v>130</v>
@@ -33208,10 +35067,10 @@
       <c r="A53" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B53" s="86" t="s">
+      <c r="B53" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="C53" s="86"/>
+      <c r="C53" s="91"/>
       <c r="D53" s="18"/>
       <c r="E53" s="43" t="s">
         <v>131</v>
@@ -33227,10 +35086,10 @@
       <c r="A54" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B54" s="86" t="s">
+      <c r="B54" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="86"/>
+      <c r="C54" s="91"/>
       <c r="D54" s="18"/>
       <c r="E54" s="43" t="s">
         <v>133</v>
@@ -33246,10 +35105,10 @@
       <c r="A55" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B55" s="86" t="s">
+      <c r="B55" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="C55" s="86"/>
+      <c r="C55" s="91"/>
       <c r="D55" s="18"/>
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
@@ -33493,24 +35352,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:I42"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -33522,6 +35363,24 @@
     <mergeCell ref="G46:I46"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33544,17 +35403,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="95"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -33563,11 +35422,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="98"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -33578,11 +35437,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -33593,11 +35452,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -33610,11 +35469,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="94"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="98"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -33625,13 +35484,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -33651,17 +35510,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="91"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="95"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -34159,26 +36018,26 @@
       <c r="I53" s="23"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="89" t="s">
+      <c r="A54" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="90"/>
-      <c r="C54" s="90"/>
-      <c r="D54" s="90"/>
-      <c r="E54" s="90"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="90"/>
-      <c r="H54" s="90"/>
-      <c r="I54" s="91"/>
+      <c r="B54" s="94"/>
+      <c r="C54" s="94"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="94"/>
+      <c r="F54" s="94"/>
+      <c r="G54" s="94"/>
+      <c r="H54" s="94"/>
+      <c r="I54" s="95"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="95" t="s">
+      <c r="B55" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="96"/>
+      <c r="C55" s="101"/>
       <c r="D55" s="25" t="s">
         <v>18</v>
       </c>
@@ -34186,30 +36045,30 @@
       <c r="F55" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="95" t="s">
+      <c r="G55" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="H55" s="97"/>
-      <c r="I55" s="96"/>
+      <c r="H55" s="102"/>
+      <c r="I55" s="101"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="27">
         <v>1</v>
       </c>
-      <c r="B56" s="92" t="s">
+      <c r="B56" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="94"/>
-      <c r="D56" s="92" t="s">
+      <c r="C56" s="98"/>
+      <c r="D56" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="94"/>
+      <c r="E56" s="98"/>
       <c r="F56" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G56" s="92"/>
-      <c r="H56" s="93"/>
-      <c r="I56" s="94"/>
+      <c r="G56" s="96"/>
+      <c r="H56" s="97"/>
+      <c r="I56" s="98"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="27">
@@ -34217,37 +36076,37 @@
       </c>
       <c r="B57" s="33"/>
       <c r="C57" s="35"/>
-      <c r="D57" s="92" t="s">
+      <c r="D57" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="94"/>
+      <c r="E57" s="98"/>
       <c r="F57" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G57" s="92" t="s">
+      <c r="G57" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H57" s="93"/>
-      <c r="I57" s="94"/>
+      <c r="H57" s="97"/>
+      <c r="I57" s="98"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="27">
         <v>3</v>
       </c>
-      <c r="B58" s="92" t="s">
+      <c r="B58" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="94"/>
-      <c r="D58" s="92" t="s">
+      <c r="C58" s="98"/>
+      <c r="D58" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="94"/>
+      <c r="E58" s="98"/>
       <c r="F58" s="27"/>
-      <c r="G58" s="92" t="s">
+      <c r="G58" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="H58" s="93"/>
-      <c r="I58" s="94"/>
+      <c r="H58" s="97"/>
+      <c r="I58" s="98"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="27">
@@ -34257,18 +36116,18 @@
         <v>82</v>
       </c>
       <c r="C59" s="35"/>
-      <c r="D59" s="92" t="s">
+      <c r="D59" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="94"/>
+      <c r="E59" s="98"/>
       <c r="F59" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G59" s="92" t="s">
+      <c r="G59" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="H59" s="93"/>
-      <c r="I59" s="94"/>
+      <c r="H59" s="97"/>
+      <c r="I59" s="98"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="27">
@@ -34293,20 +36152,20 @@
       <c r="A61" s="27">
         <v>6</v>
       </c>
-      <c r="B61" s="92" t="s">
+      <c r="B61" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="C61" s="94"/>
-      <c r="D61" s="92" t="s">
+      <c r="C61" s="98"/>
+      <c r="D61" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="E61" s="94"/>
+      <c r="E61" s="98"/>
       <c r="F61" s="27"/>
-      <c r="G61" s="92" t="s">
+      <c r="G61" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="H61" s="93"/>
-      <c r="I61" s="94"/>
+      <c r="H61" s="97"/>
+      <c r="I61" s="98"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="27">
@@ -34321,113 +36180,113 @@
       </c>
       <c r="E62" s="35"/>
       <c r="F62" s="27"/>
-      <c r="G62" s="98" t="s">
+      <c r="G62" s="103" t="s">
         <v>93</v>
       </c>
-      <c r="H62" s="93"/>
-      <c r="I62" s="94"/>
+      <c r="H62" s="97"/>
+      <c r="I62" s="98"/>
     </row>
     <row r="63" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="27">
         <v>8</v>
       </c>
-      <c r="B63" s="92" t="s">
+      <c r="B63" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="C63" s="94"/>
+      <c r="C63" s="98"/>
       <c r="D63" s="33" t="s">
         <v>83</v>
       </c>
       <c r="E63" s="35"/>
       <c r="F63" s="27"/>
-      <c r="G63" s="98" t="s">
+      <c r="G63" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="H63" s="93"/>
-      <c r="I63" s="94"/>
+      <c r="H63" s="97"/>
+      <c r="I63" s="98"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="27">
         <v>9</v>
       </c>
-      <c r="B64" s="92" t="s">
+      <c r="B64" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="94"/>
-      <c r="D64" s="92"/>
-      <c r="E64" s="94"/>
+      <c r="C64" s="98"/>
+      <c r="D64" s="96"/>
+      <c r="E64" s="98"/>
       <c r="F64" s="27"/>
-      <c r="G64" s="92" t="s">
+      <c r="G64" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="H64" s="93"/>
-      <c r="I64" s="94"/>
+      <c r="H64" s="97"/>
+      <c r="I64" s="98"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="27">
         <v>10</v>
       </c>
-      <c r="B65" s="92" t="s">
+      <c r="B65" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="94"/>
-      <c r="D65" s="92" t="s">
+      <c r="C65" s="98"/>
+      <c r="D65" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="E65" s="94"/>
+      <c r="E65" s="98"/>
       <c r="F65" s="27"/>
-      <c r="G65" s="92" t="s">
+      <c r="G65" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="H65" s="93"/>
-      <c r="I65" s="94"/>
+      <c r="H65" s="97"/>
+      <c r="I65" s="98"/>
     </row>
     <row r="66" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="27">
         <v>11</v>
       </c>
-      <c r="B66" s="92" t="s">
+      <c r="B66" s="96" t="s">
         <v>142</v>
       </c>
-      <c r="C66" s="94"/>
-      <c r="D66" s="92" t="s">
+      <c r="C66" s="98"/>
+      <c r="D66" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="E66" s="94"/>
+      <c r="E66" s="98"/>
       <c r="F66" s="27"/>
-      <c r="G66" s="98" t="s">
+      <c r="G66" s="103" t="s">
         <v>146</v>
       </c>
-      <c r="H66" s="93"/>
-      <c r="I66" s="94"/>
+      <c r="H66" s="97"/>
+      <c r="I66" s="98"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="27">
         <v>12</v>
       </c>
-      <c r="B67" s="92" t="s">
+      <c r="B67" s="96" t="s">
         <v>143</v>
       </c>
-      <c r="C67" s="94"/>
-      <c r="D67" s="92"/>
-      <c r="E67" s="94"/>
+      <c r="C67" s="98"/>
+      <c r="D67" s="96"/>
+      <c r="E67" s="98"/>
       <c r="F67" s="27"/>
-      <c r="G67" s="92"/>
-      <c r="H67" s="93"/>
-      <c r="I67" s="94"/>
+      <c r="G67" s="96"/>
+      <c r="H67" s="97"/>
+      <c r="I67" s="98"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="89" t="s">
+      <c r="A68" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="B68" s="90"/>
-      <c r="C68" s="90"/>
-      <c r="D68" s="90"/>
-      <c r="E68" s="90"/>
-      <c r="F68" s="90"/>
-      <c r="G68" s="90"/>
-      <c r="H68" s="90"/>
-      <c r="I68" s="91"/>
+      <c r="B68" s="94"/>
+      <c r="C68" s="94"/>
+      <c r="D68" s="94"/>
+      <c r="E68" s="94"/>
+      <c r="F68" s="94"/>
+      <c r="G68" s="94"/>
+      <c r="H68" s="94"/>
+      <c r="I68" s="95"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="29"/>
@@ -34667,12 +36526,12 @@
       <c r="B90" s="40">
         <v>1</v>
       </c>
-      <c r="C90" s="87" t="s">
+      <c r="C90" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="D90" s="87"/>
-      <c r="E90" s="87"/>
-      <c r="F90" s="87"/>
+      <c r="D90" s="90"/>
+      <c r="E90" s="90"/>
+      <c r="F90" s="90"/>
       <c r="G90" s="18"/>
       <c r="H90" s="18"/>
       <c r="I90" s="20"/>
@@ -34682,12 +36541,12 @@
       <c r="B91" s="40">
         <v>2</v>
       </c>
-      <c r="C91" s="87" t="s">
+      <c r="C91" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="D91" s="87"/>
-      <c r="E91" s="87"/>
-      <c r="F91" s="87"/>
+      <c r="D91" s="90"/>
+      <c r="E91" s="90"/>
+      <c r="F91" s="90"/>
       <c r="G91" s="18"/>
       <c r="H91" s="18"/>
       <c r="I91" s="20"/>
@@ -34697,12 +36556,12 @@
       <c r="B92" s="40">
         <v>3</v>
       </c>
-      <c r="C92" s="87" t="s">
+      <c r="C92" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="D92" s="87"/>
-      <c r="E92" s="87"/>
-      <c r="F92" s="87"/>
+      <c r="D92" s="90"/>
+      <c r="E92" s="90"/>
+      <c r="F92" s="90"/>
       <c r="G92" s="18"/>
       <c r="H92" s="18"/>
       <c r="I92" s="20"/>
@@ -34712,12 +36571,12 @@
       <c r="B93" s="40">
         <v>4</v>
       </c>
-      <c r="C93" s="87" t="s">
+      <c r="C93" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="D93" s="87"/>
-      <c r="E93" s="87"/>
-      <c r="F93" s="87"/>
+      <c r="D93" s="90"/>
+      <c r="E93" s="90"/>
+      <c r="F93" s="90"/>
       <c r="G93" s="18"/>
       <c r="H93" s="18"/>
       <c r="I93" s="20"/>
@@ -34757,33 +36616,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="C90:F90"/>
-    <mergeCell ref="C91:F91"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="D67:E67"/>
@@ -34800,6 +36632,33 @@
     <mergeCell ref="A54:I54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="G55:I55"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="C90:F90"/>
+    <mergeCell ref="C91:F91"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34822,17 +36681,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="95"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -34841,11 +36700,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="98"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -34856,11 +36715,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -34871,11 +36730,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -34888,11 +36747,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="94"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="98"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -34903,13 +36762,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -34929,17 +36788,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="91"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="95"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -35382,26 +37241,26 @@
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="89" t="s">
+      <c r="A49" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="90"/>
-      <c r="C49" s="90"/>
-      <c r="D49" s="90"/>
-      <c r="E49" s="90"/>
-      <c r="F49" s="90"/>
-      <c r="G49" s="90"/>
-      <c r="H49" s="90"/>
-      <c r="I49" s="91"/>
+      <c r="B49" s="94"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="94"/>
+      <c r="E49" s="94"/>
+      <c r="F49" s="94"/>
+      <c r="G49" s="94"/>
+      <c r="H49" s="94"/>
+      <c r="I49" s="95"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="95" t="s">
+      <c r="B50" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="96"/>
+      <c r="C50" s="101"/>
       <c r="D50" s="25" t="s">
         <v>18</v>
       </c>
@@ -35409,30 +37268,30 @@
       <c r="F50" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="95" t="s">
+      <c r="G50" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="97"/>
-      <c r="I50" s="96"/>
+      <c r="H50" s="102"/>
+      <c r="I50" s="101"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="92" t="s">
+      <c r="B51" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="94"/>
-      <c r="D51" s="92" t="s">
+      <c r="C51" s="98"/>
+      <c r="D51" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="94"/>
+      <c r="E51" s="98"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="92"/>
-      <c r="H51" s="93"/>
-      <c r="I51" s="94"/>
+      <c r="G51" s="96"/>
+      <c r="H51" s="97"/>
+      <c r="I51" s="98"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="27">
@@ -35440,37 +37299,37 @@
       </c>
       <c r="B52" s="36"/>
       <c r="C52" s="37"/>
-      <c r="D52" s="92" t="s">
+      <c r="D52" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="94"/>
+      <c r="E52" s="98"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="92" t="s">
+      <c r="G52" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="93"/>
-      <c r="I52" s="94"/>
+      <c r="H52" s="97"/>
+      <c r="I52" s="98"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="27">
         <v>3</v>
       </c>
-      <c r="B53" s="92" t="s">
+      <c r="B53" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="94"/>
-      <c r="D53" s="92" t="s">
+      <c r="C53" s="98"/>
+      <c r="D53" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="94"/>
+      <c r="E53" s="98"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="92" t="s">
+      <c r="G53" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="H53" s="93"/>
-      <c r="I53" s="94"/>
+      <c r="H53" s="97"/>
+      <c r="I53" s="98"/>
     </row>
     <row r="54" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="27">
@@ -35480,18 +37339,18 @@
         <v>147</v>
       </c>
       <c r="C54" s="37"/>
-      <c r="D54" s="92" t="s">
+      <c r="D54" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="E54" s="94"/>
+      <c r="E54" s="98"/>
       <c r="F54" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="98" t="s">
+      <c r="G54" s="103" t="s">
         <v>148</v>
       </c>
-      <c r="H54" s="93"/>
-      <c r="I54" s="94"/>
+      <c r="H54" s="97"/>
+      <c r="I54" s="98"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="27">
@@ -35514,33 +37373,33 @@
       <c r="A56" s="27">
         <v>6</v>
       </c>
-      <c r="B56" s="92" t="s">
+      <c r="B56" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="C56" s="94"/>
-      <c r="D56" s="92" t="s">
+      <c r="C56" s="98"/>
+      <c r="D56" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="94"/>
+      <c r="E56" s="98"/>
       <c r="F56" s="27"/>
-      <c r="G56" s="92" t="s">
+      <c r="G56" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="H56" s="93"/>
-      <c r="I56" s="94"/>
+      <c r="H56" s="97"/>
+      <c r="I56" s="98"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="89" t="s">
+      <c r="A57" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="90"/>
-      <c r="C57" s="90"/>
-      <c r="D57" s="90"/>
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="90"/>
-      <c r="I57" s="91"/>
+      <c r="B57" s="94"/>
+      <c r="C57" s="94"/>
+      <c r="D57" s="94"/>
+      <c r="E57" s="94"/>
+      <c r="F57" s="94"/>
+      <c r="G57" s="94"/>
+      <c r="H57" s="94"/>
+      <c r="I57" s="95"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="29"/>
@@ -35698,19 +37557,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
     <mergeCell ref="A57:I57"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:E56"/>
@@ -35722,6 +37568,19 @@
     <mergeCell ref="G53:I53"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="G54:I54"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35744,17 +37603,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="95"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -35763,11 +37622,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="98"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -35778,11 +37637,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -35793,11 +37652,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -35810,11 +37669,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="94"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="98"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -35825,13 +37684,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="103" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -35851,17 +37710,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="91"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="95"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -36304,26 +38163,26 @@
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="89" t="s">
+      <c r="A49" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="90"/>
-      <c r="C49" s="90"/>
-      <c r="D49" s="90"/>
-      <c r="E49" s="90"/>
-      <c r="F49" s="90"/>
-      <c r="G49" s="90"/>
-      <c r="H49" s="90"/>
-      <c r="I49" s="91"/>
+      <c r="B49" s="94"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="94"/>
+      <c r="E49" s="94"/>
+      <c r="F49" s="94"/>
+      <c r="G49" s="94"/>
+      <c r="H49" s="94"/>
+      <c r="I49" s="95"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="95" t="s">
+      <c r="B50" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="96"/>
+      <c r="C50" s="101"/>
       <c r="D50" s="25" t="s">
         <v>18</v>
       </c>
@@ -36331,30 +38190,30 @@
       <c r="F50" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="95" t="s">
+      <c r="G50" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="97"/>
-      <c r="I50" s="96"/>
+      <c r="H50" s="102"/>
+      <c r="I50" s="101"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="92" t="s">
+      <c r="B51" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="94"/>
-      <c r="D51" s="92" t="s">
+      <c r="C51" s="98"/>
+      <c r="D51" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="94"/>
+      <c r="E51" s="98"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="92"/>
-      <c r="H51" s="93"/>
-      <c r="I51" s="94"/>
+      <c r="G51" s="96"/>
+      <c r="H51" s="97"/>
+      <c r="I51" s="98"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="27">
@@ -36362,37 +38221,37 @@
       </c>
       <c r="B52" s="36"/>
       <c r="C52" s="37"/>
-      <c r="D52" s="92" t="s">
+      <c r="D52" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="94"/>
+      <c r="E52" s="98"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="92" t="s">
+      <c r="G52" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="93"/>
-      <c r="I52" s="94"/>
+      <c r="H52" s="97"/>
+      <c r="I52" s="98"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="27">
         <v>3</v>
       </c>
-      <c r="B53" s="92" t="s">
+      <c r="B53" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="C53" s="94"/>
-      <c r="D53" s="92" t="s">
+      <c r="C53" s="98"/>
+      <c r="D53" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="94"/>
+      <c r="E53" s="98"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="92" t="s">
+      <c r="G53" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="H53" s="93"/>
-      <c r="I53" s="94"/>
+      <c r="H53" s="97"/>
+      <c r="I53" s="98"/>
     </row>
     <row r="54" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="27">
@@ -36402,18 +38261,18 @@
         <v>155</v>
       </c>
       <c r="C54" s="37"/>
-      <c r="D54" s="92" t="s">
+      <c r="D54" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="E54" s="94"/>
+      <c r="E54" s="98"/>
       <c r="F54" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="98" t="s">
+      <c r="G54" s="103" t="s">
         <v>156</v>
       </c>
-      <c r="H54" s="93"/>
-      <c r="I54" s="94"/>
+      <c r="H54" s="97"/>
+      <c r="I54" s="98"/>
     </row>
     <row r="55" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="27">
@@ -36428,138 +38287,138 @@
       </c>
       <c r="E55" s="37"/>
       <c r="F55" s="27"/>
-      <c r="G55" s="98" t="s">
+      <c r="G55" s="103" t="s">
         <v>158</v>
       </c>
-      <c r="H55" s="93"/>
-      <c r="I55" s="94"/>
+      <c r="H55" s="97"/>
+      <c r="I55" s="98"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="27">
         <v>6</v>
       </c>
-      <c r="B56" s="92" t="s">
+      <c r="B56" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="C56" s="94"/>
-      <c r="D56" s="92" t="s">
+      <c r="C56" s="98"/>
+      <c r="D56" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="E56" s="94"/>
+      <c r="E56" s="98"/>
       <c r="F56" s="27"/>
-      <c r="G56" s="92" t="s">
+      <c r="G56" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="H56" s="93"/>
-      <c r="I56" s="94"/>
+      <c r="H56" s="97"/>
+      <c r="I56" s="98"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="27">
         <v>7</v>
       </c>
-      <c r="B57" s="92" t="s">
+      <c r="B57" s="96" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="94"/>
-      <c r="D57" s="92" t="s">
+      <c r="C57" s="98"/>
+      <c r="D57" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="E57" s="94"/>
+      <c r="E57" s="98"/>
       <c r="F57" s="27"/>
-      <c r="G57" s="92" t="s">
+      <c r="G57" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="H57" s="93"/>
-      <c r="I57" s="94"/>
+      <c r="H57" s="97"/>
+      <c r="I57" s="98"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="27">
         <v>8</v>
       </c>
-      <c r="B58" s="92" t="s">
+      <c r="B58" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="C58" s="94"/>
-      <c r="D58" s="92" t="s">
+      <c r="C58" s="98"/>
+      <c r="D58" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="E58" s="94"/>
+      <c r="E58" s="98"/>
       <c r="F58" s="27"/>
-      <c r="G58" s="92" t="s">
+      <c r="G58" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="H58" s="93"/>
-      <c r="I58" s="94"/>
+      <c r="H58" s="97"/>
+      <c r="I58" s="98"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="27">
         <v>9</v>
       </c>
-      <c r="B59" s="92" t="s">
+      <c r="B59" s="96" t="s">
         <v>165</v>
       </c>
-      <c r="C59" s="94"/>
-      <c r="D59" s="92" t="s">
+      <c r="C59" s="98"/>
+      <c r="D59" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="94"/>
+      <c r="E59" s="98"/>
       <c r="F59" s="27"/>
-      <c r="G59" s="92" t="s">
+      <c r="G59" s="96" t="s">
         <v>165</v>
       </c>
-      <c r="H59" s="93"/>
-      <c r="I59" s="94"/>
+      <c r="H59" s="97"/>
+      <c r="I59" s="98"/>
     </row>
     <row r="60" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="27">
         <v>10</v>
       </c>
-      <c r="B60" s="92" t="s">
+      <c r="B60" s="96" t="s">
+        <v>304</v>
+      </c>
+      <c r="C60" s="98"/>
+      <c r="D60" s="96" t="s">
+        <v>83</v>
+      </c>
+      <c r="E60" s="98"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="103" t="s">
         <v>305</v>
       </c>
-      <c r="C60" s="94"/>
-      <c r="D60" s="92" t="s">
-        <v>83</v>
-      </c>
-      <c r="E60" s="94"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="98" t="s">
-        <v>306</v>
-      </c>
-      <c r="H60" s="93"/>
-      <c r="I60" s="94"/>
+      <c r="H60" s="97"/>
+      <c r="I60" s="98"/>
     </row>
     <row r="61" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="27">
         <v>11</v>
       </c>
-      <c r="B61" s="92" t="s">
+      <c r="B61" s="96" t="s">
         <v>166</v>
       </c>
-      <c r="C61" s="94"/>
-      <c r="D61" s="92" t="s">
+      <c r="C61" s="98"/>
+      <c r="D61" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="E61" s="94"/>
+      <c r="E61" s="98"/>
       <c r="F61" s="27"/>
-      <c r="G61" s="98" t="s">
+      <c r="G61" s="103" t="s">
         <v>167</v>
       </c>
-      <c r="H61" s="93"/>
-      <c r="I61" s="94"/>
+      <c r="H61" s="97"/>
+      <c r="I61" s="98"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="89" t="s">
+      <c r="A62" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="90"/>
-      <c r="C62" s="90"/>
-      <c r="D62" s="90"/>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
-      <c r="G62" s="90"/>
-      <c r="H62" s="90"/>
-      <c r="I62" s="91"/>
+      <c r="B62" s="94"/>
+      <c r="C62" s="94"/>
+      <c r="D62" s="94"/>
+      <c r="E62" s="94"/>
+      <c r="F62" s="94"/>
+      <c r="G62" s="94"/>
+      <c r="H62" s="94"/>
+      <c r="I62" s="95"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="29"/>
@@ -36652,7 +38511,7 @@
         <v>164</v>
       </c>
       <c r="H68" s="50" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I68" s="20"/>
     </row>
@@ -36704,7 +38563,7 @@
         <v>264</v>
       </c>
       <c r="H70" s="39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I70" s="20"/>
     </row>
@@ -36780,12 +38639,26 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="G57:I57"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="G54:I54"/>
     <mergeCell ref="A8:I8"/>
@@ -36800,26 +38673,12 @@
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="G53:I53"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36841,17 +38700,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="95"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -36860,11 +38719,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="98"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -36875,11 +38734,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -36890,11 +38749,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -36907,11 +38766,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="94"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="98"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -36922,13 +38781,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="98" t="s">
-        <v>382</v>
-      </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="C6" s="103" t="s">
+        <v>381</v>
+      </c>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -36948,17 +38807,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="91"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="95"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -37236,26 +39095,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="89" t="s">
+      <c r="A34" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="91"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="95"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="95" t="s">
+      <c r="B35" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="96"/>
+      <c r="C35" s="101"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -37263,30 +39122,30 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="95" t="s">
+      <c r="G35" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="97"/>
-      <c r="I35" s="96"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="101"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="92" t="s">
+      <c r="B36" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="94"/>
-      <c r="D36" s="92" t="s">
+      <c r="C36" s="98"/>
+      <c r="D36" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="94"/>
+      <c r="E36" s="98"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="92"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="94"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="98"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="27">
@@ -37313,23 +39172,23 @@
       </c>
       <c r="B38" s="69"/>
       <c r="C38" s="71"/>
-      <c r="D38" s="92" t="s">
+      <c r="D38" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="94"/>
+      <c r="E38" s="98"/>
       <c r="F38" s="27"/>
-      <c r="G38" s="92" t="s">
+      <c r="G38" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="H38" s="93"/>
-      <c r="I38" s="94"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="98"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
         <v>4</v>
       </c>
       <c r="B39" s="69" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C39" s="71"/>
       <c r="D39" s="69" t="s">
@@ -37346,7 +39205,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="69" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C40" s="71"/>
       <c r="D40" s="69" t="s">
@@ -37363,7 +39222,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="69" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C41" s="71"/>
       <c r="D41" s="69" t="s">
@@ -37379,31 +39238,31 @@
       <c r="A42" s="27">
         <v>7</v>
       </c>
-      <c r="B42" s="92" t="s">
-        <v>379</v>
-      </c>
-      <c r="C42" s="94"/>
-      <c r="D42" s="92" t="s">
+      <c r="B42" s="96" t="s">
+        <v>378</v>
+      </c>
+      <c r="C42" s="98"/>
+      <c r="D42" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="94"/>
+      <c r="E42" s="98"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="92"/>
-      <c r="H42" s="93"/>
-      <c r="I42" s="94"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="98"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="89" t="s">
+      <c r="A43" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="90"/>
-      <c r="C43" s="90"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="91"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="94"/>
+      <c r="G43" s="94"/>
+      <c r="H43" s="94"/>
+      <c r="I43" s="95"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="29"/>
@@ -37561,12 +39420,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:I42"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="B35:C35"/>
@@ -37574,12 +39433,12 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37588,6 +39447,832 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="9" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="95"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="96"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="96"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="103" t="s">
+        <v>405</v>
+      </c>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="95"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="20"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="20"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="20"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="20"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="20"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="20"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="20"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="20"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="20"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="20"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="20"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="20"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="20"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="20"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="20"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="20"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="17"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="20"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="17"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="20"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="17"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="20"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="17"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="20"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="17"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="20"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="17"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="20"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="17"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="20"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="23"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="94"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="94"/>
+      <c r="E49" s="94"/>
+      <c r="F49" s="94"/>
+      <c r="G49" s="94"/>
+      <c r="H49" s="94"/>
+      <c r="I49" s="95"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="101"/>
+      <c r="D50" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="26"/>
+      <c r="F50" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="102"/>
+      <c r="I50" s="101"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="27">
+        <v>1</v>
+      </c>
+      <c r="B51" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="98"/>
+      <c r="D51" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" s="98"/>
+      <c r="F51" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="96"/>
+      <c r="H51" s="97"/>
+      <c r="I51" s="98"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="27">
+        <v>2</v>
+      </c>
+      <c r="B52" s="74"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="98"/>
+      <c r="F52" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="H52" s="97"/>
+      <c r="I52" s="98"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="27">
+        <v>3</v>
+      </c>
+      <c r="B53" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" s="75"/>
+      <c r="D53" s="96" t="s">
+        <v>394</v>
+      </c>
+      <c r="E53" s="98"/>
+      <c r="F53" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G53" s="103" t="s">
+        <v>395</v>
+      </c>
+      <c r="H53" s="97"/>
+      <c r="I53" s="98"/>
+    </row>
+    <row r="54" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="27">
+        <v>4</v>
+      </c>
+      <c r="B54" s="74" t="s">
+        <v>398</v>
+      </c>
+      <c r="C54" s="75"/>
+      <c r="D54" s="96" t="s">
+        <v>399</v>
+      </c>
+      <c r="E54" s="98"/>
+      <c r="F54" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G54" s="103" t="s">
+        <v>400</v>
+      </c>
+      <c r="H54" s="97"/>
+      <c r="I54" s="98"/>
+    </row>
+    <row r="55" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="27">
+        <v>5</v>
+      </c>
+      <c r="B55" s="74" t="s">
+        <v>396</v>
+      </c>
+      <c r="C55" s="75"/>
+      <c r="D55" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" s="75"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="103" t="s">
+        <v>397</v>
+      </c>
+      <c r="H55" s="97"/>
+      <c r="I55" s="98"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="27">
+        <v>6</v>
+      </c>
+      <c r="B56" s="96" t="s">
+        <v>401</v>
+      </c>
+      <c r="C56" s="98"/>
+      <c r="D56" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" s="98"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="96" t="s">
+        <v>402</v>
+      </c>
+      <c r="H56" s="97"/>
+      <c r="I56" s="98"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="27">
+        <v>7</v>
+      </c>
+      <c r="B57" s="96" t="s">
+        <v>403</v>
+      </c>
+      <c r="C57" s="98"/>
+      <c r="D57" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="E57" s="98"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="96" t="s">
+        <v>404</v>
+      </c>
+      <c r="H57" s="97"/>
+      <c r="I57" s="98"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="94"/>
+      <c r="C58" s="94"/>
+      <c r="D58" s="94"/>
+      <c r="E58" s="94"/>
+      <c r="F58" s="94"/>
+      <c r="G58" s="94"/>
+      <c r="H58" s="94"/>
+      <c r="I58" s="95"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="29"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="20"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="17"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="20"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="21"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="A58:I58"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -37603,13 +40288,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -37617,10 +40302,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -37628,10 +40313,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -37639,7 +40324,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>82</v>
@@ -37661,7 +40346,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>82</v>
@@ -37672,10 +40357,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -37683,10 +40368,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -37694,10 +40379,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -37723,10 +40408,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -37734,10 +40419,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -37745,10 +40430,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -37773,7 +40458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:B6"/>
@@ -37830,13 +40515,57 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="94.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="113">
+        <v>42843</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>391</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:J38"/>
+  <dimension ref="A2:J39"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -37847,25 +40576,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="85" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="74" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74" t="s">
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77" t="s">
         <v>271</v>
       </c>
-      <c r="H2" s="74" t="s">
+      <c r="H2" s="77" t="s">
         <v>272</v>
       </c>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="77" t="s">
         <v>272</v>
       </c>
     </row>
@@ -37876,7 +40605,7 @@
       <c r="B3" s="52" t="s">
         <v>270</v>
       </c>
-      <c r="C3" s="74"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="51" t="s">
         <v>124</v>
       </c>
@@ -37886,12 +40615,12 @@
       <c r="F3" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="82">
+      <c r="A4" s="87">
         <v>0</v>
       </c>
       <c r="B4" s="53">
@@ -37927,7 +40656,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="83"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="53">
         <v>2</v>
       </c>
@@ -37959,7 +40688,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="83"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="53">
         <v>3</v>
       </c>
@@ -37991,7 +40720,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="84"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="53">
         <v>4</v>
       </c>
@@ -38021,7 +40750,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="78">
+      <c r="A8" s="83">
         <v>1</v>
       </c>
       <c r="B8" s="53">
@@ -38057,7 +40786,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="79"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="53">
         <v>2</v>
       </c>
@@ -38091,7 +40820,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="75">
+      <c r="A10" s="80">
         <v>2</v>
       </c>
       <c r="B10" s="53">
@@ -38127,7 +40856,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="77"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="53">
         <v>2</v>
       </c>
@@ -38161,7 +40890,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="75">
+      <c r="A12" s="80">
         <v>3</v>
       </c>
       <c r="B12" s="53">
@@ -38197,7 +40926,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="77"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="53">
         <v>2</v>
       </c>
@@ -38231,7 +40960,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="78">
+      <c r="A14" s="83">
         <v>4</v>
       </c>
       <c r="B14" s="53">
@@ -38267,7 +40996,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="79"/>
+      <c r="A15" s="84"/>
       <c r="B15" s="53">
         <v>2</v>
       </c>
@@ -38301,7 +41030,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="75">
+      <c r="A16" s="80">
         <v>5</v>
       </c>
       <c r="B16" s="53">
@@ -38335,7 +41064,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="76"/>
+      <c r="A17" s="81"/>
       <c r="B17" s="53">
         <v>2</v>
       </c>
@@ -38367,7 +41096,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="77"/>
+      <c r="A18" s="82"/>
       <c r="B18" s="53">
         <v>3</v>
       </c>
@@ -38399,7 +41128,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="75">
+      <c r="A19" s="80">
         <v>6</v>
       </c>
       <c r="B19" s="53">
@@ -38433,7 +41162,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="76"/>
+      <c r="A20" s="81"/>
       <c r="B20" s="53">
         <v>2</v>
       </c>
@@ -38452,7 +41181,7 @@
         <v>display00602</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I20" s="2" t="str">
         <f t="shared" si="1"/>
@@ -38464,7 +41193,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="76"/>
+      <c r="A21" s="81"/>
       <c r="B21" s="53">
         <v>3</v>
       </c>
@@ -38496,12 +41225,12 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="77"/>
+      <c r="A22" s="82"/>
       <c r="B22" s="53">
         <v>4</v>
       </c>
       <c r="C22" s="56" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="27" t="s">
@@ -38562,7 +41291,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="75">
+      <c r="A24" s="80">
         <v>8</v>
       </c>
       <c r="B24" s="53">
@@ -38596,7 +41325,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="76"/>
+      <c r="A25" s="81"/>
       <c r="B25" s="53">
         <v>2</v>
       </c>
@@ -38626,7 +41355,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="76"/>
+      <c r="A26" s="81"/>
       <c r="B26" s="53">
         <v>3</v>
       </c>
@@ -38656,7 +41385,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="77"/>
+      <c r="A27" s="82"/>
       <c r="B27" s="53">
         <v>4</v>
       </c>
@@ -38686,7 +41415,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="75">
+      <c r="A28" s="80">
         <v>9</v>
       </c>
       <c r="B28" s="53">
@@ -38720,7 +41449,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="76"/>
+      <c r="A29" s="81"/>
       <c r="B29" s="53">
         <v>2</v>
       </c>
@@ -38752,7 +41481,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="77"/>
+      <c r="A30" s="82"/>
       <c r="B30" s="53">
         <v>3</v>
       </c>
@@ -38791,7 +41520,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="56" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
@@ -38816,14 +41545,14 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="75">
+      <c r="A32" s="80">
         <v>11</v>
       </c>
       <c r="B32" s="53">
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D32" s="27"/>
       <c r="E32" s="27" t="s">
@@ -38850,12 +41579,12 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="76"/>
+      <c r="A33" s="81"/>
       <c r="B33" s="53">
         <v>2</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="27" t="s">
@@ -38882,12 +41611,12 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="77"/>
+      <c r="A34" s="82"/>
       <c r="B34" s="53">
         <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="27" t="s">
@@ -38914,14 +41643,14 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="109">
+      <c r="A35" s="78">
         <v>12</v>
       </c>
-      <c r="B35" s="108">
+      <c r="B35" s="76">
         <v>1</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="27" t="s">
@@ -38948,12 +41677,12 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="110"/>
-      <c r="B36" s="108">
+      <c r="A36" s="79"/>
+      <c r="B36" s="76">
         <v>2</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="27" t="s">
@@ -38983,11 +41712,11 @@
       <c r="A37" s="54">
         <v>13</v>
       </c>
-      <c r="B37" s="108">
+      <c r="B37" s="76">
         <v>1</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D37" s="27" t="s">
         <v>211</v>
@@ -39019,11 +41748,11 @@
       <c r="A38" s="54">
         <v>14</v>
       </c>
-      <c r="B38" s="108">
+      <c r="B38" s="76">
         <v>1</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="27" t="s">
@@ -39049,8 +41778,45 @@
         <v>display01401=1,2</v>
       </c>
     </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="54">
+        <v>15</v>
+      </c>
+      <c r="B39" s="76">
+        <v>1</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>393</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="G39" s="2" t="str">
+        <f>"display"&amp;TEXT($A$39,"000")&amp;TEXT(B39,"00")</f>
+        <v>display01501</v>
+      </c>
+      <c r="H39" s="2" t="str">
+        <f t="shared" ref="H39" si="18">IF(D39="○","0,","")&amp;IF(E39="○","1,","")&amp;IF(F39="○","2","")</f>
+        <v>0,1,2</v>
+      </c>
+      <c r="I39" s="2" t="str">
+        <f t="shared" ref="I39" si="19">IF(RIGHT(H39,1)=",",LEFT(H39,LEN(H39)-1),H39)</f>
+        <v>0,1,2</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" ref="J39" si="20">G39&amp;"="&amp;I39</f>
+        <v>display01501=0,1,2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A4:A7"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="I2:I3"/>
@@ -39067,7 +41833,6 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:A7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39080,8 +41845,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -39091,17 +41856,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="95"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -39110,13 +41875,13 @@
       <c r="B2" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="96" t="s">
         <v>217</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="98"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -39127,13 +41892,13 @@
       <c r="B3" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="96" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -39144,11 +41909,11 @@
       <c r="B4" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -39159,13 +41924,13 @@
       <c r="B5" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="96" t="s">
         <v>219</v>
       </c>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="94"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="98"/>
       <c r="H5" s="5" t="s">
         <v>224</v>
       </c>
@@ -39186,32 +41951,32 @@
       <c r="D7" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E7" s="88" t="s">
+      <c r="E7" s="92" t="s">
         <v>222</v>
       </c>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="91" t="s">
         <v>223</v>
       </c>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
       <c r="K8" t="str">
         <f>B8&amp;"="</f>
         <v>password.expiry=</v>
@@ -39228,13 +41993,13 @@
       <c r="D9" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E9" s="86" t="s">
+      <c r="E9" s="91" t="s">
         <v>226</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
       <c r="K9" t="str">
         <f>B9&amp;"="</f>
         <v>display00001=</v>
@@ -39251,13 +42016,13 @@
       <c r="D10" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E10" s="86" t="s">
+      <c r="E10" s="91" t="s">
         <v>227</v>
       </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
       <c r="K10" t="str">
         <f>B10&amp;"="</f>
         <v>display00002=</v>
@@ -39274,13 +42039,13 @@
       <c r="D11" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E11" s="86" t="s">
+      <c r="E11" s="91" t="s">
         <v>228</v>
       </c>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
       <c r="K11" t="str">
         <f t="shared" ref="K11:K39" si="0">B11&amp;"="</f>
         <v>display00003=</v>
@@ -39297,13 +42062,13 @@
       <c r="D12" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E12" s="86" t="s">
+      <c r="E12" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
         <v>display00004=</v>
@@ -39320,13 +42085,13 @@
       <c r="D13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E13" s="86" t="s">
+      <c r="E13" s="91" t="s">
         <v>230</v>
       </c>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
         <v>display00101=</v>
@@ -39343,13 +42108,13 @@
       <c r="D14" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E14" s="86" t="s">
+      <c r="E14" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
         <v>display00102=</v>
@@ -39366,13 +42131,13 @@
       <c r="D15" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="86" t="s">
+      <c r="E15" s="91" t="s">
         <v>232</v>
       </c>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
         <v>display00201=</v>
@@ -39389,13 +42154,13 @@
       <c r="D16" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E16" s="86" t="s">
+      <c r="E16" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
         <v>display00202=</v>
@@ -39412,13 +42177,13 @@
       <c r="D17" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E17" s="86" t="s">
+      <c r="E17" s="91" t="s">
         <v>234</v>
       </c>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
         <v>display00301=</v>
@@ -39435,13 +42200,13 @@
       <c r="D18" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E18" s="86" t="s">
+      <c r="E18" s="91" t="s">
         <v>235</v>
       </c>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
         <v>display00302=</v>
@@ -39458,13 +42223,13 @@
       <c r="D19" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E19" s="86" t="s">
+      <c r="E19" s="91" t="s">
         <v>236</v>
       </c>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
         <v>display00401=</v>
@@ -39481,13 +42246,13 @@
       <c r="D20" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E20" s="86" t="s">
+      <c r="E20" s="91" t="s">
         <v>237</v>
       </c>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
         <v>display00402=</v>
@@ -39504,13 +42269,13 @@
       <c r="D21" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E21" s="86" t="s">
+      <c r="E21" s="91" t="s">
         <v>238</v>
       </c>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
         <v>display00501=</v>
@@ -39527,13 +42292,13 @@
       <c r="D22" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E22" s="86" t="s">
+      <c r="E22" s="91" t="s">
         <v>239</v>
       </c>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
         <v>display00502=</v>
@@ -39550,13 +42315,13 @@
       <c r="D23" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E23" s="86" t="s">
+      <c r="E23" s="91" t="s">
         <v>240</v>
       </c>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
         <v>display00503=</v>
@@ -39573,13 +42338,13 @@
       <c r="D24" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E24" s="86" t="s">
+      <c r="E24" s="91" t="s">
         <v>241</v>
       </c>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
         <v>display00601=</v>
@@ -39596,13 +42361,13 @@
       <c r="D25" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E25" s="86" t="s">
+      <c r="E25" s="91" t="s">
         <v>242</v>
       </c>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91"/>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
         <v>display00602=</v>
@@ -39619,13 +42384,13 @@
       <c r="D26" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E26" s="86" t="s">
+      <c r="E26" s="91" t="s">
         <v>243</v>
       </c>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
         <v>display00603=</v>
@@ -39642,13 +42407,13 @@
       <c r="D27" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E27" s="86" t="s">
+      <c r="E27" s="91" t="s">
         <v>244</v>
       </c>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91"/>
       <c r="K27" t="str">
         <f t="shared" si="0"/>
         <v>display00701=</v>
@@ -39665,13 +42430,13 @@
       <c r="D28" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E28" s="86" t="s">
+      <c r="E28" s="91" t="s">
         <v>245</v>
       </c>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="91"/>
       <c r="K28" t="str">
         <f t="shared" si="0"/>
         <v>display00801=</v>
@@ -39688,13 +42453,13 @@
       <c r="D29" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E29" s="86" t="s">
+      <c r="E29" s="91" t="s">
         <v>246</v>
       </c>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
       <c r="K29" t="str">
         <f t="shared" si="0"/>
         <v>display00802=</v>
@@ -39711,13 +42476,13 @@
       <c r="D30" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E30" s="86" t="s">
+      <c r="E30" s="91" t="s">
         <v>247</v>
       </c>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="86"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="91"/>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
         <v>display00803=</v>
@@ -39734,13 +42499,13 @@
       <c r="D31" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E31" s="86" t="s">
+      <c r="E31" s="91" t="s">
         <v>248</v>
       </c>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="91"/>
       <c r="K31" t="str">
         <f t="shared" si="0"/>
         <v>display00804=</v>
@@ -39757,13 +42522,13 @@
       <c r="D32" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E32" s="86" t="s">
+      <c r="E32" s="91" t="s">
         <v>249</v>
       </c>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="86"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="91"/>
       <c r="K32" t="str">
         <f t="shared" si="0"/>
         <v>display00901=</v>
@@ -39780,13 +42545,13 @@
       <c r="D33" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E33" s="86" t="s">
+      <c r="E33" s="91" t="s">
         <v>250</v>
       </c>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="86"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="91"/>
       <c r="K33" t="str">
         <f t="shared" si="0"/>
         <v>display00902=</v>
@@ -39803,13 +42568,13 @@
       <c r="D34" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E34" s="86" t="s">
+      <c r="E34" s="91" t="s">
         <v>251</v>
       </c>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="91"/>
       <c r="K34" t="str">
         <f t="shared" si="0"/>
         <v>display00903=</v>
@@ -39826,13 +42591,13 @@
       <c r="D35" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E35" s="85" t="s">
+      <c r="E35" s="99" t="s">
         <v>252</v>
       </c>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
       <c r="K35" t="str">
         <f t="shared" si="0"/>
         <v>password.policy=</v>
@@ -39851,13 +42616,13 @@
       <c r="D36" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E36" s="85" t="s">
+      <c r="E36" s="99" t="s">
         <v>253</v>
       </c>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="85"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
       <c r="K36" t="str">
         <f t="shared" si="0"/>
         <v>judge.class=</v>
@@ -39874,13 +42639,13 @@
       <c r="D37" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E37" s="85" t="s">
+      <c r="E37" s="99" t="s">
         <v>254</v>
       </c>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="85"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="99"/>
       <c r="K37" t="str">
         <f t="shared" si="0"/>
         <v>force.pass.change=</v>
@@ -39899,13 +42664,13 @@
       <c r="D38" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E38" s="85" t="s">
+      <c r="E38" s="99" t="s">
         <v>255</v>
       </c>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
       <c r="K38" t="str">
         <f t="shared" si="0"/>
         <v>judge.result.table.name=</v>
@@ -39924,13 +42689,13 @@
       <c r="D39" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E39" s="86" t="s">
+      <c r="E39" s="91" t="s">
         <v>263</v>
       </c>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="86"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="91"/>
+      <c r="I39" s="91"/>
       <c r="K39" t="str">
         <f t="shared" si="0"/>
         <v>pwd.hash.salt=</v>
@@ -39949,13 +42714,13 @@
       <c r="D40" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E40" s="86" t="s">
+      <c r="E40" s="91" t="s">
         <v>302</v>
       </c>
-      <c r="F40" s="86"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="86"/>
+      <c r="F40" s="91"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="91"/>
+      <c r="I40" s="91"/>
       <c r="K40" t="str">
         <f t="shared" ref="K40" si="1">B40&amp;"="</f>
         <v>upload.directory=</v>
@@ -39966,7 +42731,7 @@
         <v>34</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>303</v>
+        <v>406</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>211</v>
@@ -39974,13 +42739,13 @@
       <c r="D41" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E41" s="86" t="s">
-        <v>304</v>
-      </c>
-      <c r="F41" s="86"/>
-      <c r="G41" s="86"/>
-      <c r="H41" s="86"/>
-      <c r="I41" s="86"/>
+      <c r="E41" s="91" t="s">
+        <v>303</v>
+      </c>
+      <c r="F41" s="91"/>
+      <c r="G41" s="91"/>
+      <c r="H41" s="91"/>
+      <c r="I41" s="91"/>
       <c r="K41" t="str">
         <f t="shared" ref="K41" si="2">B41&amp;"="</f>
         <v>result.directory=</v>
@@ -39991,19 +42756,19 @@
         <v>35</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E42" s="87" t="s">
-        <v>340</v>
-      </c>
-      <c r="F42" s="86"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="86"/>
+      <c r="E42" s="90" t="s">
+        <v>339</v>
+      </c>
+      <c r="F42" s="91"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="91"/>
       <c r="K42" t="str">
         <f t="shared" ref="K42" si="3">B42&amp;"="</f>
         <v>pwd.lock.limit=</v>
@@ -40011,6 +42776,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
     <mergeCell ref="E42:I42"/>
     <mergeCell ref="E41:I41"/>
     <mergeCell ref="E7:I7"/>
@@ -40027,31 +42817,6 @@
     <mergeCell ref="E12:I12"/>
     <mergeCell ref="E13:I13"/>
     <mergeCell ref="E14:I14"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E37:I37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40064,8 +42829,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -40092,17 +42857,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="95"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -40111,11 +42876,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="98"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -40126,11 +42891,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -40141,11 +42906,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -40158,11 +42923,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="94"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="98"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -40173,11 +42938,11 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -40197,17 +42962,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="91"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="95"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -40485,26 +43250,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="89" t="s">
+      <c r="A34" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="91"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="95"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="95" t="s">
+      <c r="B35" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="96"/>
+      <c r="C35" s="101"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -40512,100 +43277,100 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="95" t="s">
+      <c r="G35" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="97"/>
-      <c r="I35" s="96"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="101"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="92" t="s">
+      <c r="B36" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="94"/>
-      <c r="D36" s="92" t="s">
+      <c r="C36" s="98"/>
+      <c r="D36" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="94"/>
+      <c r="E36" s="98"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="92"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="94"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="98"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="92" t="s">
+      <c r="B37" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="94"/>
-      <c r="D37" s="92" t="s">
+      <c r="C37" s="98"/>
+      <c r="D37" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="94"/>
+      <c r="E37" s="98"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="92"/>
-      <c r="H37" s="93"/>
-      <c r="I37" s="94"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="98"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="92" t="s">
+      <c r="B38" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="94"/>
-      <c r="D38" s="92" t="s">
+      <c r="C38" s="98"/>
+      <c r="D38" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="94"/>
+      <c r="E38" s="98"/>
       <c r="F38" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="92"/>
-      <c r="H38" s="93"/>
-      <c r="I38" s="94"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="98"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="92" t="s">
+      <c r="B39" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="94"/>
-      <c r="D39" s="92" t="s">
+      <c r="C39" s="98"/>
+      <c r="D39" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="94"/>
+      <c r="E39" s="98"/>
       <c r="F39" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="92"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="94"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="97"/>
+      <c r="I39" s="98"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="89" t="s">
+      <c r="A40" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="90"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="91"/>
+      <c r="B40" s="94"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="94"/>
+      <c r="H40" s="94"/>
+      <c r="I40" s="95"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="29"/>
@@ -40917,19 +43682,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
     <mergeCell ref="A40:I40"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
@@ -40940,6 +43692,19 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="G38:I38"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40961,17 +43726,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="95"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -40980,11 +43745,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="98"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -40995,11 +43760,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -41010,11 +43775,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -41027,11 +43792,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="94"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="98"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -41042,11 +43807,11 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -41066,17 +43831,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="91"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="95"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -41354,26 +44119,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="89" t="s">
+      <c r="A34" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="91"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="95"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="95" t="s">
+      <c r="B35" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="96"/>
+      <c r="C35" s="101"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -41381,78 +44146,78 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="95" t="s">
+      <c r="G35" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="97"/>
-      <c r="I35" s="96"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="101"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="92" t="s">
+      <c r="B36" s="96" t="s">
+        <v>311</v>
+      </c>
+      <c r="C36" s="98"/>
+      <c r="D36" s="96" t="s">
         <v>312</v>
       </c>
-      <c r="C36" s="94"/>
-      <c r="D36" s="92" t="s">
-        <v>313</v>
-      </c>
-      <c r="E36" s="94"/>
+      <c r="E36" s="98"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="92" t="s">
-        <v>314</v>
-      </c>
-      <c r="H36" s="93"/>
-      <c r="I36" s="94"/>
+      <c r="G36" s="96" t="s">
+        <v>313</v>
+      </c>
+      <c r="H36" s="97"/>
+      <c r="I36" s="98"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="94"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="98"/>
       <c r="F37" s="27"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="93"/>
-      <c r="I37" s="94"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="98"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="94"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="94"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="98"/>
       <c r="F38" s="27"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="93"/>
-      <c r="I38" s="94"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="98"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="28"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="94"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="94"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="98"/>
       <c r="F39" s="27"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="94"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="97"/>
+      <c r="I39" s="98"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="89" t="s">
+      <c r="A40" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="90"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="91"/>
+      <c r="B40" s="94"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="94"/>
+      <c r="H40" s="94"/>
+      <c r="I40" s="95"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="29"/>
@@ -41467,7 +44232,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -41491,7 +44256,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
@@ -41504,7 +44269,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
@@ -41517,7 +44282,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -41530,7 +44295,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -41774,6 +44539,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="G39:I39"/>
@@ -41784,19 +44562,6 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="G38:I38"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41820,17 +44585,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="95"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -41839,11 +44604,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="98"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -41854,11 +44619,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -41869,11 +44634,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -41886,11 +44651,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="94"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="98"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -41901,13 +44666,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -41927,17 +44692,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="91"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="95"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -42215,26 +44980,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="89" t="s">
+      <c r="A34" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="91"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="95"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="95" t="s">
+      <c r="B35" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="96"/>
+      <c r="C35" s="101"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -42242,30 +45007,30 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="95" t="s">
+      <c r="G35" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="97"/>
-      <c r="I35" s="96"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="101"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="92" t="s">
+      <c r="B36" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="94"/>
-      <c r="D36" s="92" t="s">
+      <c r="C36" s="98"/>
+      <c r="D36" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="94"/>
+      <c r="E36" s="98"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="92"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="94"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="98"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="27">
@@ -42275,16 +45040,16 @@
         <v>36</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="92" t="s">
+      <c r="D37" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="94"/>
+      <c r="E37" s="98"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="92"/>
-      <c r="H37" s="93"/>
-      <c r="I37" s="94"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="98"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="27">
@@ -42294,16 +45059,16 @@
         <v>37</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="92" t="s">
+      <c r="D38" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="94"/>
+      <c r="E38" s="98"/>
       <c r="F38" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="92"/>
-      <c r="H38" s="93"/>
-      <c r="I38" s="94"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="98"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
@@ -42366,33 +45131,33 @@
       <c r="A42" s="27">
         <v>7</v>
       </c>
-      <c r="B42" s="92"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="92" t="s">
+      <c r="B42" s="96"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="94"/>
+      <c r="E42" s="98"/>
       <c r="F42" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="92" t="s">
+      <c r="G42" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="H42" s="93"/>
-      <c r="I42" s="94"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="98"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="89" t="s">
+      <c r="A43" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="90"/>
-      <c r="C43" s="90"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="91"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="94"/>
+      <c r="G43" s="94"/>
+      <c r="H43" s="94"/>
+      <c r="I43" s="95"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="29"/>
@@ -42704,6 +45469,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="G36:I36"/>
@@ -42712,19 +45490,6 @@
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="G35:I35"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:I38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42747,17 +45512,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="95"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -42766,11 +45531,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="98"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -42781,11 +45546,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -42796,11 +45561,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -42813,11 +45578,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="94"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="98"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -42828,13 +45593,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -42854,17 +45619,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="91"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="95"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -43142,26 +45907,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="89" t="s">
+      <c r="A34" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="91"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="95"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="95" t="s">
+      <c r="B35" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="96"/>
+      <c r="C35" s="101"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -43169,30 +45934,30 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="95" t="s">
+      <c r="G35" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="97"/>
-      <c r="I35" s="96"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="101"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="92" t="s">
+      <c r="B36" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="94"/>
-      <c r="D36" s="92" t="s">
+      <c r="C36" s="98"/>
+      <c r="D36" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="94"/>
+      <c r="E36" s="98"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="92"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="94"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="98"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="27">
@@ -43200,39 +45965,39 @@
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="31"/>
-      <c r="D37" s="92" t="s">
+      <c r="D37" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="94"/>
+      <c r="E37" s="98"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="92" t="s">
+      <c r="G37" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="93"/>
-      <c r="I37" s="94"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="98"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="27">
         <v>3</v>
       </c>
-      <c r="B38" s="92" t="s">
+      <c r="B38" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="94"/>
-      <c r="D38" s="92" t="s">
+      <c r="C38" s="98"/>
+      <c r="D38" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="94"/>
+      <c r="E38" s="98"/>
       <c r="F38" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="92" t="s">
+      <c r="G38" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="93"/>
-      <c r="I38" s="94"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="98"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
@@ -43242,16 +46007,16 @@
         <v>45</v>
       </c>
       <c r="C39" s="31"/>
-      <c r="D39" s="92" t="s">
+      <c r="D39" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="94"/>
+      <c r="E39" s="98"/>
       <c r="F39" s="27"/>
-      <c r="G39" s="92" t="s">
+      <c r="G39" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="H39" s="93"/>
-      <c r="I39" s="94"/>
+      <c r="H39" s="97"/>
+      <c r="I39" s="98"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="27">
@@ -43274,20 +46039,20 @@
       <c r="A41" s="27">
         <v>6</v>
       </c>
-      <c r="B41" s="92" t="s">
+      <c r="B41" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="94"/>
-      <c r="D41" s="92" t="s">
+      <c r="C41" s="98"/>
+      <c r="D41" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="94"/>
+      <c r="E41" s="98"/>
       <c r="F41" s="27"/>
-      <c r="G41" s="92" t="s">
+      <c r="G41" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="H41" s="93"/>
-      <c r="I41" s="94"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="98"/>
     </row>
     <row r="42" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="27">
@@ -43302,43 +46067,43 @@
       </c>
       <c r="E42" s="31"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="98" t="s">
+      <c r="G42" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="H42" s="93"/>
-      <c r="I42" s="94"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="98"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="27">
         <v>8</v>
       </c>
-      <c r="B43" s="92"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="92" t="s">
+      <c r="B43" s="96"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="94"/>
+      <c r="E43" s="98"/>
       <c r="F43" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="92" t="s">
+      <c r="G43" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="H43" s="93"/>
-      <c r="I43" s="94"/>
+      <c r="H43" s="97"/>
+      <c r="I43" s="98"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="89" t="s">
+      <c r="A44" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="90"/>
-      <c r="C44" s="90"/>
-      <c r="D44" s="90"/>
-      <c r="E44" s="90"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="90"/>
-      <c r="H44" s="90"/>
-      <c r="I44" s="91"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="94"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="94"/>
+      <c r="I44" s="95"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="29"/>
@@ -43658,25 +46423,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G39:I39"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="G43:I43"/>
@@ -43686,6 +46432,25 @@
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="G41:I41"/>
     <mergeCell ref="G42:I42"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43698,7 +46463,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="G63" sqref="G63:I63"/>
     </sheetView>
   </sheetViews>
@@ -43708,17 +46473,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="95"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -43727,11 +46492,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="98"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -43742,11 +46507,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -43757,11 +46522,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -43774,11 +46539,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="94"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="98"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -43789,13 +46554,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -43815,17 +46580,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="91"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="95"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -44257,26 +47022,26 @@
       <c r="I47" s="23"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="89" t="s">
+      <c r="A48" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="90"/>
-      <c r="C48" s="90"/>
-      <c r="D48" s="90"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="90"/>
-      <c r="H48" s="90"/>
-      <c r="I48" s="91"/>
+      <c r="B48" s="94"/>
+      <c r="C48" s="94"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="94"/>
+      <c r="H48" s="94"/>
+      <c r="I48" s="95"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="95" t="s">
+      <c r="B49" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="96"/>
+      <c r="C49" s="101"/>
       <c r="D49" s="25" t="s">
         <v>18</v>
       </c>
@@ -44284,30 +47049,30 @@
       <c r="F49" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="95" t="s">
+      <c r="G49" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="H49" s="97"/>
-      <c r="I49" s="96"/>
+      <c r="H49" s="102"/>
+      <c r="I49" s="101"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="27">
         <v>1</v>
       </c>
-      <c r="B50" s="92" t="s">
+      <c r="B50" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="94"/>
-      <c r="D50" s="92" t="s">
+      <c r="C50" s="98"/>
+      <c r="D50" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="94"/>
+      <c r="E50" s="98"/>
       <c r="F50" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G50" s="92"/>
-      <c r="H50" s="93"/>
-      <c r="I50" s="94"/>
+      <c r="G50" s="96"/>
+      <c r="H50" s="97"/>
+      <c r="I50" s="98"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="27">
@@ -44315,69 +47080,69 @@
       </c>
       <c r="B51" s="30"/>
       <c r="C51" s="31"/>
-      <c r="D51" s="92" t="s">
+      <c r="D51" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="94"/>
+      <c r="E51" s="98"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="92" t="s">
+      <c r="G51" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H51" s="93"/>
-      <c r="I51" s="94"/>
+      <c r="H51" s="97"/>
+      <c r="I51" s="98"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="27">
         <v>3</v>
       </c>
-      <c r="B52" s="92"/>
-      <c r="C52" s="94"/>
-      <c r="D52" s="92" t="s">
+      <c r="B52" s="96"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="94"/>
+      <c r="E52" s="98"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="92" t="s">
+      <c r="G52" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="H52" s="93"/>
-      <c r="I52" s="94"/>
+      <c r="H52" s="97"/>
+      <c r="I52" s="98"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="27">
         <v>4</v>
       </c>
-      <c r="B53" s="92" t="s">
+      <c r="B53" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="94"/>
-      <c r="D53" s="92" t="s">
+      <c r="C53" s="98"/>
+      <c r="D53" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="94"/>
+      <c r="E53" s="98"/>
       <c r="F53" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G53" s="92" t="s">
+      <c r="G53" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="H53" s="93"/>
-      <c r="I53" s="94"/>
+      <c r="H53" s="97"/>
+      <c r="I53" s="98"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="27">
         <v>5</v>
       </c>
-      <c r="B54" s="92"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="92" t="s">
+      <c r="B54" s="96"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="94"/>
+      <c r="E54" s="98"/>
       <c r="F54" s="27" t="s">
         <v>22</v>
       </c>
@@ -44391,14 +47156,14 @@
       <c r="A55" s="27">
         <v>6</v>
       </c>
-      <c r="B55" s="92" t="s">
+      <c r="B55" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="94"/>
-      <c r="D55" s="92" t="s">
+      <c r="C55" s="98"/>
+      <c r="D55" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="E55" s="94"/>
+      <c r="E55" s="98"/>
       <c r="F55" s="27" t="s">
         <v>22</v>
       </c>
@@ -44412,158 +47177,158 @@
       <c r="A56" s="27">
         <v>7</v>
       </c>
-      <c r="B56" s="92" t="s">
+      <c r="B56" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="94"/>
-      <c r="D56" s="92" t="s">
+      <c r="C56" s="98"/>
+      <c r="D56" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="E56" s="94"/>
+      <c r="E56" s="98"/>
       <c r="F56" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G56" s="98" t="s">
+      <c r="G56" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="H56" s="99"/>
-      <c r="I56" s="100"/>
+      <c r="H56" s="104"/>
+      <c r="I56" s="105"/>
     </row>
     <row r="57" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="27">
         <v>8</v>
       </c>
-      <c r="B57" s="92" t="s">
+      <c r="B57" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="94"/>
-      <c r="D57" s="92" t="s">
+      <c r="C57" s="98"/>
+      <c r="D57" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="94"/>
+      <c r="E57" s="98"/>
       <c r="F57" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G57" s="98" t="s">
+      <c r="G57" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="H57" s="99"/>
-      <c r="I57" s="100"/>
+      <c r="H57" s="104"/>
+      <c r="I57" s="105"/>
     </row>
     <row r="58" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="27">
         <v>9</v>
       </c>
-      <c r="B58" s="92" t="s">
+      <c r="B58" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="94"/>
-      <c r="D58" s="92" t="s">
+      <c r="C58" s="98"/>
+      <c r="D58" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="94"/>
+      <c r="E58" s="98"/>
       <c r="F58" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G58" s="98" t="s">
+      <c r="G58" s="103" t="s">
         <v>72</v>
       </c>
-      <c r="H58" s="99"/>
-      <c r="I58" s="100"/>
+      <c r="H58" s="104"/>
+      <c r="I58" s="105"/>
     </row>
     <row r="59" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="27">
         <v>10</v>
       </c>
-      <c r="B59" s="92" t="s">
+      <c r="B59" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="94"/>
-      <c r="D59" s="92" t="s">
+      <c r="C59" s="98"/>
+      <c r="D59" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="E59" s="94"/>
+      <c r="E59" s="98"/>
       <c r="F59" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G59" s="98" t="s">
+      <c r="G59" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="H59" s="99"/>
-      <c r="I59" s="100"/>
+      <c r="H59" s="104"/>
+      <c r="I59" s="105"/>
     </row>
     <row r="60" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="27">
         <v>11</v>
       </c>
-      <c r="B60" s="92"/>
-      <c r="C60" s="94"/>
-      <c r="D60" s="92"/>
-      <c r="E60" s="94"/>
+      <c r="B60" s="96"/>
+      <c r="C60" s="98"/>
+      <c r="D60" s="96"/>
+      <c r="E60" s="98"/>
       <c r="F60" s="27"/>
-      <c r="G60" s="92"/>
-      <c r="H60" s="93"/>
-      <c r="I60" s="94"/>
+      <c r="G60" s="96"/>
+      <c r="H60" s="97"/>
+      <c r="I60" s="98"/>
     </row>
     <row r="61" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="27">
         <v>12</v>
       </c>
-      <c r="B61" s="92"/>
-      <c r="C61" s="94"/>
-      <c r="D61" s="92"/>
-      <c r="E61" s="94"/>
+      <c r="B61" s="96"/>
+      <c r="C61" s="98"/>
+      <c r="D61" s="96"/>
+      <c r="E61" s="98"/>
       <c r="F61" s="27"/>
-      <c r="G61" s="92"/>
-      <c r="H61" s="93"/>
-      <c r="I61" s="94"/>
+      <c r="G61" s="96"/>
+      <c r="H61" s="97"/>
+      <c r="I61" s="98"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="27">
         <v>13</v>
       </c>
-      <c r="B62" s="92" t="s">
+      <c r="B62" s="96" t="s">
+        <v>383</v>
+      </c>
+      <c r="C62" s="98"/>
+      <c r="D62" s="96" t="s">
         <v>384</v>
       </c>
-      <c r="C62" s="94"/>
-      <c r="D62" s="92" t="s">
-        <v>385</v>
-      </c>
-      <c r="E62" s="94"/>
+      <c r="E62" s="98"/>
       <c r="F62" s="27"/>
-      <c r="G62" s="92"/>
-      <c r="H62" s="93"/>
-      <c r="I62" s="94"/>
+      <c r="G62" s="96"/>
+      <c r="H62" s="97"/>
+      <c r="I62" s="98"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="27">
         <v>14</v>
       </c>
-      <c r="B63" s="92" t="s">
-        <v>387</v>
-      </c>
-      <c r="C63" s="94"/>
-      <c r="D63" s="92" t="s">
+      <c r="B63" s="96" t="s">
         <v>386</v>
       </c>
-      <c r="E63" s="94"/>
+      <c r="C63" s="98"/>
+      <c r="D63" s="96" t="s">
+        <v>385</v>
+      </c>
+      <c r="E63" s="98"/>
       <c r="F63" s="27"/>
-      <c r="G63" s="92"/>
-      <c r="H63" s="93"/>
-      <c r="I63" s="94"/>
+      <c r="G63" s="96"/>
+      <c r="H63" s="97"/>
+      <c r="I63" s="98"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="89" t="s">
+      <c r="A64" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="90"/>
-      <c r="C64" s="90"/>
-      <c r="D64" s="90"/>
-      <c r="E64" s="90"/>
-      <c r="F64" s="90"/>
-      <c r="G64" s="90"/>
-      <c r="H64" s="90"/>
-      <c r="I64" s="91"/>
+      <c r="B64" s="94"/>
+      <c r="C64" s="94"/>
+      <c r="D64" s="94"/>
+      <c r="E64" s="94"/>
+      <c r="F64" s="94"/>
+      <c r="G64" s="94"/>
+      <c r="H64" s="94"/>
+      <c r="I64" s="95"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="29"/>
@@ -44893,24 +47658,22 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="A64:I64"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="D54:E54"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="G63:I63"/>
     <mergeCell ref="D51:E51"/>
@@ -44927,22 +47690,24 @@
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A64:I64"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="G60:I60"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/設計書もどき.xlsx
+++ b/設計書/設計書もどき.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="機能一覧" sheetId="16" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="407">
   <si>
     <t>画面レイアウト定義</t>
     <rPh sb="0" eb="2">
@@ -4947,9 +4947,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4969,13 +4973,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4995,7 +4997,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5033,7 +5034,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -32980,17 +32980,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>341</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="77"/>
+      <c r="A3" s="78"/>
       <c r="B3" s="63" t="s">
         <v>124</v>
       </c>
@@ -33354,17 +33354,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="97"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -33373,11 +33373,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="100"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -33388,11 +33388,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="100"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -33403,11 +33403,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="100"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -33420,11 +33420,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="100"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -33435,13 +33435,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="100"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -33461,17 +33461,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="95"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="97"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -33749,26 +33749,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="93" t="s">
+      <c r="A34" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="95"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="97"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="100" t="s">
+      <c r="B35" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="101"/>
+      <c r="C35" s="102"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -33776,30 +33776,30 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="100" t="s">
+      <c r="G35" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="102"/>
-      <c r="I35" s="101"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="102"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="96" t="s">
+      <c r="B36" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="98"/>
-      <c r="D36" s="96" t="s">
+      <c r="C36" s="100"/>
+      <c r="D36" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="98"/>
+      <c r="E36" s="100"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="96"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="98"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="100"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="27">
@@ -33807,16 +33807,16 @@
       </c>
       <c r="B37" s="57"/>
       <c r="C37" s="59"/>
-      <c r="D37" s="96" t="s">
+      <c r="D37" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="98"/>
+      <c r="E37" s="100"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="96"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="98"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="100"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="27">
@@ -33826,18 +33826,18 @@
         <v>82</v>
       </c>
       <c r="C38" s="59"/>
-      <c r="D38" s="96" t="s">
+      <c r="D38" s="98" t="s">
         <v>319</v>
       </c>
-      <c r="E38" s="98"/>
+      <c r="E38" s="100"/>
       <c r="F38" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="G38" s="96" t="s">
+      <c r="G38" s="98" t="s">
         <v>321</v>
       </c>
-      <c r="H38" s="97"/>
-      <c r="I38" s="98"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="100"/>
     </row>
     <row r="39" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
@@ -33854,11 +33854,11 @@
       <c r="F39" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="G39" s="106" t="s">
+      <c r="G39" s="107" t="s">
         <v>324</v>
       </c>
-      <c r="H39" s="107"/>
-      <c r="I39" s="108"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="109"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="27">
@@ -33892,11 +33892,11 @@
       </c>
       <c r="E41" s="59"/>
       <c r="F41" s="27"/>
-      <c r="G41" s="109" t="s">
+      <c r="G41" s="110" t="s">
         <v>328</v>
       </c>
-      <c r="H41" s="110"/>
-      <c r="I41" s="111"/>
+      <c r="H41" s="111"/>
+      <c r="I41" s="112"/>
     </row>
     <row r="42" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="27">
@@ -33911,11 +33911,11 @@
       </c>
       <c r="E42" s="59"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="106" t="s">
+      <c r="G42" s="107" t="s">
         <v>330</v>
       </c>
-      <c r="H42" s="110"/>
-      <c r="I42" s="111"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="112"/>
     </row>
     <row r="43" spans="1:9" ht="47.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="27">
@@ -33930,11 +33930,11 @@
       </c>
       <c r="E43" s="59"/>
       <c r="F43" s="27"/>
-      <c r="G43" s="106" t="s">
+      <c r="G43" s="107" t="s">
         <v>337</v>
       </c>
-      <c r="H43" s="110"/>
-      <c r="I43" s="111"/>
+      <c r="H43" s="111"/>
+      <c r="I43" s="112"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="27">
@@ -33959,33 +33959,33 @@
       <c r="A45" s="27">
         <v>10</v>
       </c>
-      <c r="B45" s="96" t="s">
+      <c r="B45" s="98" t="s">
         <v>332</v>
       </c>
-      <c r="C45" s="98"/>
-      <c r="D45" s="96" t="s">
+      <c r="C45" s="100"/>
+      <c r="D45" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="E45" s="98"/>
+      <c r="E45" s="100"/>
       <c r="F45" s="27"/>
-      <c r="G45" s="96" t="s">
+      <c r="G45" s="98" t="s">
         <v>334</v>
       </c>
-      <c r="H45" s="97"/>
-      <c r="I45" s="98"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="100"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="93" t="s">
+      <c r="A46" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="94"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="94"/>
-      <c r="F46" s="94"/>
-      <c r="G46" s="94"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="95"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="96"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="96"/>
+      <c r="I46" s="97"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="29"/>
@@ -34297,12 +34297,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:I45"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="B35:C35"/>
@@ -34310,18 +34316,12 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="G36:I36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34344,17 +34344,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="97"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -34363,11 +34363,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="100"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -34378,11 +34378,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="100"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -34393,11 +34393,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="100"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -34410,11 +34410,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="100"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -34425,13 +34425,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="100"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -34451,17 +34451,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="95"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="97"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -34739,26 +34739,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="93" t="s">
+      <c r="A34" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="95"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="97"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="100" t="s">
+      <c r="B35" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="101"/>
+      <c r="C35" s="102"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -34766,30 +34766,30 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="100" t="s">
+      <c r="G35" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="102"/>
-      <c r="I35" s="101"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="102"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="96" t="s">
+      <c r="B36" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="98"/>
-      <c r="D36" s="96" t="s">
+      <c r="C36" s="100"/>
+      <c r="D36" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="98"/>
+      <c r="E36" s="100"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="96"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="98"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="100"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="27">
@@ -34816,16 +34816,16 @@
       </c>
       <c r="B38" s="36"/>
       <c r="C38" s="37"/>
-      <c r="D38" s="96" t="s">
+      <c r="D38" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="98"/>
+      <c r="E38" s="100"/>
       <c r="F38" s="27"/>
-      <c r="G38" s="96" t="s">
+      <c r="G38" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="H38" s="97"/>
-      <c r="I38" s="98"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="100"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
@@ -34888,20 +34888,20 @@
       <c r="A42" s="27">
         <v>7</v>
       </c>
-      <c r="B42" s="96" t="s">
+      <c r="B42" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="98"/>
-      <c r="D42" s="96" t="s">
+      <c r="C42" s="100"/>
+      <c r="D42" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="98"/>
+      <c r="E42" s="100"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="96" t="s">
+      <c r="G42" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="H42" s="97"/>
-      <c r="I42" s="98"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="100"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="27">
@@ -34945,52 +34945,52 @@
       <c r="A45" s="27">
         <v>10</v>
       </c>
-      <c r="B45" s="96" t="s">
+      <c r="B45" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="98"/>
-      <c r="D45" s="96" t="s">
+      <c r="C45" s="100"/>
+      <c r="D45" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="98"/>
+      <c r="E45" s="100"/>
       <c r="F45" s="27"/>
-      <c r="G45" s="96" t="s">
+      <c r="G45" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="H45" s="97"/>
-      <c r="I45" s="98"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="100"/>
     </row>
     <row r="46" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="27">
         <v>11</v>
       </c>
-      <c r="B46" s="96" t="s">
+      <c r="B46" s="98" t="s">
         <v>151</v>
       </c>
-      <c r="C46" s="98"/>
-      <c r="D46" s="96" t="s">
+      <c r="C46" s="100"/>
+      <c r="D46" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="98"/>
+      <c r="E46" s="100"/>
       <c r="F46" s="27"/>
-      <c r="G46" s="103" t="s">
+      <c r="G46" s="104" t="s">
         <v>370</v>
       </c>
-      <c r="H46" s="97"/>
-      <c r="I46" s="98"/>
+      <c r="H46" s="99"/>
+      <c r="I46" s="100"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="93" t="s">
+      <c r="A47" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="94"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="94"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="94"/>
-      <c r="I47" s="95"/>
+      <c r="B47" s="96"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="97"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="29"/>
@@ -35048,10 +35048,10 @@
       <c r="A52" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="B52" s="112" t="s">
+      <c r="B52" s="113" t="s">
         <v>123</v>
       </c>
-      <c r="C52" s="112"/>
+      <c r="C52" s="113"/>
       <c r="D52" s="18"/>
       <c r="E52" s="42" t="s">
         <v>130</v>
@@ -35067,10 +35067,10 @@
       <c r="A53" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B53" s="91" t="s">
+      <c r="B53" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="C53" s="91"/>
+      <c r="C53" s="92"/>
       <c r="D53" s="18"/>
       <c r="E53" s="43" t="s">
         <v>131</v>
@@ -35086,10 +35086,10 @@
       <c r="A54" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B54" s="91" t="s">
+      <c r="B54" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="91"/>
+      <c r="C54" s="92"/>
       <c r="D54" s="18"/>
       <c r="E54" s="43" t="s">
         <v>133</v>
@@ -35105,10 +35105,10 @@
       <c r="A55" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B55" s="91" t="s">
+      <c r="B55" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="C55" s="91"/>
+      <c r="C55" s="92"/>
       <c r="D55" s="18"/>
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
@@ -35352,6 +35352,24 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:I42"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -35363,24 +35381,6 @@
     <mergeCell ref="G46:I46"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35403,17 +35403,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="97"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -35422,11 +35422,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="100"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -35437,11 +35437,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="100"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -35452,11 +35452,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="100"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -35469,11 +35469,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="100"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -35484,13 +35484,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="100"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -35510,17 +35510,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="95"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="97"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -36018,26 +36018,26 @@
       <c r="I53" s="23"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="93" t="s">
+      <c r="A54" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="94"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="94"/>
-      <c r="I54" s="95"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="96"/>
+      <c r="D54" s="96"/>
+      <c r="E54" s="96"/>
+      <c r="F54" s="96"/>
+      <c r="G54" s="96"/>
+      <c r="H54" s="96"/>
+      <c r="I54" s="97"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="100" t="s">
+      <c r="B55" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="101"/>
+      <c r="C55" s="102"/>
       <c r="D55" s="25" t="s">
         <v>18</v>
       </c>
@@ -36045,30 +36045,30 @@
       <c r="F55" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="100" t="s">
+      <c r="G55" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="H55" s="102"/>
-      <c r="I55" s="101"/>
+      <c r="H55" s="103"/>
+      <c r="I55" s="102"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="27">
         <v>1</v>
       </c>
-      <c r="B56" s="96" t="s">
+      <c r="B56" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="98"/>
-      <c r="D56" s="96" t="s">
+      <c r="C56" s="100"/>
+      <c r="D56" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="98"/>
+      <c r="E56" s="100"/>
       <c r="F56" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G56" s="96"/>
-      <c r="H56" s="97"/>
-      <c r="I56" s="98"/>
+      <c r="G56" s="98"/>
+      <c r="H56" s="99"/>
+      <c r="I56" s="100"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="27">
@@ -36076,37 +36076,37 @@
       </c>
       <c r="B57" s="33"/>
       <c r="C57" s="35"/>
-      <c r="D57" s="96" t="s">
+      <c r="D57" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="98"/>
+      <c r="E57" s="100"/>
       <c r="F57" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G57" s="96" t="s">
+      <c r="G57" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="H57" s="97"/>
-      <c r="I57" s="98"/>
+      <c r="H57" s="99"/>
+      <c r="I57" s="100"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="27">
         <v>3</v>
       </c>
-      <c r="B58" s="96" t="s">
+      <c r="B58" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="98"/>
-      <c r="D58" s="96" t="s">
+      <c r="C58" s="100"/>
+      <c r="D58" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="98"/>
+      <c r="E58" s="100"/>
       <c r="F58" s="27"/>
-      <c r="G58" s="96" t="s">
+      <c r="G58" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="H58" s="97"/>
-      <c r="I58" s="98"/>
+      <c r="H58" s="99"/>
+      <c r="I58" s="100"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="27">
@@ -36116,18 +36116,18 @@
         <v>82</v>
       </c>
       <c r="C59" s="35"/>
-      <c r="D59" s="96" t="s">
+      <c r="D59" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="98"/>
+      <c r="E59" s="100"/>
       <c r="F59" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G59" s="96" t="s">
+      <c r="G59" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="H59" s="97"/>
-      <c r="I59" s="98"/>
+      <c r="H59" s="99"/>
+      <c r="I59" s="100"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="27">
@@ -36152,20 +36152,20 @@
       <c r="A61" s="27">
         <v>6</v>
       </c>
-      <c r="B61" s="96" t="s">
+      <c r="B61" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="C61" s="98"/>
-      <c r="D61" s="96" t="s">
+      <c r="C61" s="100"/>
+      <c r="D61" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="E61" s="98"/>
+      <c r="E61" s="100"/>
       <c r="F61" s="27"/>
-      <c r="G61" s="96" t="s">
+      <c r="G61" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="H61" s="97"/>
-      <c r="I61" s="98"/>
+      <c r="H61" s="99"/>
+      <c r="I61" s="100"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="27">
@@ -36180,113 +36180,113 @@
       </c>
       <c r="E62" s="35"/>
       <c r="F62" s="27"/>
-      <c r="G62" s="103" t="s">
+      <c r="G62" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="H62" s="97"/>
-      <c r="I62" s="98"/>
+      <c r="H62" s="99"/>
+      <c r="I62" s="100"/>
     </row>
     <row r="63" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="27">
         <v>8</v>
       </c>
-      <c r="B63" s="96" t="s">
+      <c r="B63" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="C63" s="98"/>
+      <c r="C63" s="100"/>
       <c r="D63" s="33" t="s">
         <v>83</v>
       </c>
       <c r="E63" s="35"/>
       <c r="F63" s="27"/>
-      <c r="G63" s="103" t="s">
+      <c r="G63" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="H63" s="97"/>
-      <c r="I63" s="98"/>
+      <c r="H63" s="99"/>
+      <c r="I63" s="100"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="27">
         <v>9</v>
       </c>
-      <c r="B64" s="96" t="s">
+      <c r="B64" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="98"/>
-      <c r="D64" s="96"/>
-      <c r="E64" s="98"/>
+      <c r="C64" s="100"/>
+      <c r="D64" s="98"/>
+      <c r="E64" s="100"/>
       <c r="F64" s="27"/>
-      <c r="G64" s="96" t="s">
+      <c r="G64" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="H64" s="97"/>
-      <c r="I64" s="98"/>
+      <c r="H64" s="99"/>
+      <c r="I64" s="100"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="27">
         <v>10</v>
       </c>
-      <c r="B65" s="96" t="s">
+      <c r="B65" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="98"/>
-      <c r="D65" s="96" t="s">
+      <c r="C65" s="100"/>
+      <c r="D65" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="E65" s="98"/>
+      <c r="E65" s="100"/>
       <c r="F65" s="27"/>
-      <c r="G65" s="96" t="s">
+      <c r="G65" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="H65" s="97"/>
-      <c r="I65" s="98"/>
+      <c r="H65" s="99"/>
+      <c r="I65" s="100"/>
     </row>
     <row r="66" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="27">
         <v>11</v>
       </c>
-      <c r="B66" s="96" t="s">
+      <c r="B66" s="98" t="s">
         <v>142</v>
       </c>
-      <c r="C66" s="98"/>
-      <c r="D66" s="96" t="s">
+      <c r="C66" s="100"/>
+      <c r="D66" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="E66" s="98"/>
+      <c r="E66" s="100"/>
       <c r="F66" s="27"/>
-      <c r="G66" s="103" t="s">
+      <c r="G66" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="H66" s="97"/>
-      <c r="I66" s="98"/>
+      <c r="H66" s="99"/>
+      <c r="I66" s="100"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="27">
         <v>12</v>
       </c>
-      <c r="B67" s="96" t="s">
+      <c r="B67" s="98" t="s">
         <v>143</v>
       </c>
-      <c r="C67" s="98"/>
-      <c r="D67" s="96"/>
-      <c r="E67" s="98"/>
+      <c r="C67" s="100"/>
+      <c r="D67" s="98"/>
+      <c r="E67" s="100"/>
       <c r="F67" s="27"/>
-      <c r="G67" s="96"/>
-      <c r="H67" s="97"/>
-      <c r="I67" s="98"/>
+      <c r="G67" s="98"/>
+      <c r="H67" s="99"/>
+      <c r="I67" s="100"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="93" t="s">
+      <c r="A68" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="B68" s="94"/>
-      <c r="C68" s="94"/>
-      <c r="D68" s="94"/>
-      <c r="E68" s="94"/>
-      <c r="F68" s="94"/>
-      <c r="G68" s="94"/>
-      <c r="H68" s="94"/>
-      <c r="I68" s="95"/>
+      <c r="B68" s="96"/>
+      <c r="C68" s="96"/>
+      <c r="D68" s="96"/>
+      <c r="E68" s="96"/>
+      <c r="F68" s="96"/>
+      <c r="G68" s="96"/>
+      <c r="H68" s="96"/>
+      <c r="I68" s="97"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="29"/>
@@ -36526,12 +36526,12 @@
       <c r="B90" s="40">
         <v>1</v>
       </c>
-      <c r="C90" s="90" t="s">
+      <c r="C90" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="D90" s="90"/>
-      <c r="E90" s="90"/>
-      <c r="F90" s="90"/>
+      <c r="D90" s="93"/>
+      <c r="E90" s="93"/>
+      <c r="F90" s="93"/>
       <c r="G90" s="18"/>
       <c r="H90" s="18"/>
       <c r="I90" s="20"/>
@@ -36541,12 +36541,12 @@
       <c r="B91" s="40">
         <v>2</v>
       </c>
-      <c r="C91" s="90" t="s">
+      <c r="C91" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="D91" s="90"/>
-      <c r="E91" s="90"/>
-      <c r="F91" s="90"/>
+      <c r="D91" s="93"/>
+      <c r="E91" s="93"/>
+      <c r="F91" s="93"/>
       <c r="G91" s="18"/>
       <c r="H91" s="18"/>
       <c r="I91" s="20"/>
@@ -36556,12 +36556,12 @@
       <c r="B92" s="40">
         <v>3</v>
       </c>
-      <c r="C92" s="90" t="s">
+      <c r="C92" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="D92" s="90"/>
-      <c r="E92" s="90"/>
-      <c r="F92" s="90"/>
+      <c r="D92" s="93"/>
+      <c r="E92" s="93"/>
+      <c r="F92" s="93"/>
       <c r="G92" s="18"/>
       <c r="H92" s="18"/>
       <c r="I92" s="20"/>
@@ -36571,12 +36571,12 @@
       <c r="B93" s="40">
         <v>4</v>
       </c>
-      <c r="C93" s="90" t="s">
+      <c r="C93" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="D93" s="90"/>
-      <c r="E93" s="90"/>
-      <c r="F93" s="90"/>
+      <c r="D93" s="93"/>
+      <c r="E93" s="93"/>
+      <c r="F93" s="93"/>
       <c r="G93" s="18"/>
       <c r="H93" s="18"/>
       <c r="I93" s="20"/>
@@ -36616,6 +36616,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="C90:F90"/>
+    <mergeCell ref="C91:F91"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="D67:E67"/>
@@ -36632,33 +36659,6 @@
     <mergeCell ref="A54:I54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="G55:I55"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="C90:F90"/>
-    <mergeCell ref="C91:F91"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36681,17 +36681,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="97"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -36700,11 +36700,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="100"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -36715,11 +36715,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="100"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -36730,11 +36730,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="100"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -36747,11 +36747,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="100"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -36762,13 +36762,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="100"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -36788,17 +36788,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="95"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="97"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -37241,26 +37241,26 @@
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="93" t="s">
+      <c r="A49" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="94"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="94"/>
-      <c r="E49" s="94"/>
-      <c r="F49" s="94"/>
-      <c r="G49" s="94"/>
-      <c r="H49" s="94"/>
-      <c r="I49" s="95"/>
+      <c r="B49" s="96"/>
+      <c r="C49" s="96"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="96"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="97"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="100" t="s">
+      <c r="B50" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="101"/>
+      <c r="C50" s="102"/>
       <c r="D50" s="25" t="s">
         <v>18</v>
       </c>
@@ -37268,30 +37268,30 @@
       <c r="F50" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="100" t="s">
+      <c r="G50" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="102"/>
-      <c r="I50" s="101"/>
+      <c r="H50" s="103"/>
+      <c r="I50" s="102"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="96" t="s">
+      <c r="B51" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="98"/>
-      <c r="D51" s="96" t="s">
+      <c r="C51" s="100"/>
+      <c r="D51" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="98"/>
+      <c r="E51" s="100"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="96"/>
-      <c r="H51" s="97"/>
-      <c r="I51" s="98"/>
+      <c r="G51" s="98"/>
+      <c r="H51" s="99"/>
+      <c r="I51" s="100"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="27">
@@ -37299,37 +37299,37 @@
       </c>
       <c r="B52" s="36"/>
       <c r="C52" s="37"/>
-      <c r="D52" s="96" t="s">
+      <c r="D52" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="98"/>
+      <c r="E52" s="100"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="96" t="s">
+      <c r="G52" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="97"/>
-      <c r="I52" s="98"/>
+      <c r="H52" s="99"/>
+      <c r="I52" s="100"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="27">
         <v>3</v>
       </c>
-      <c r="B53" s="96" t="s">
+      <c r="B53" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="98"/>
-      <c r="D53" s="96" t="s">
+      <c r="C53" s="100"/>
+      <c r="D53" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="98"/>
+      <c r="E53" s="100"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="96" t="s">
+      <c r="G53" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="H53" s="97"/>
-      <c r="I53" s="98"/>
+      <c r="H53" s="99"/>
+      <c r="I53" s="100"/>
     </row>
     <row r="54" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="27">
@@ -37339,18 +37339,18 @@
         <v>147</v>
       </c>
       <c r="C54" s="37"/>
-      <c r="D54" s="96" t="s">
+      <c r="D54" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="E54" s="98"/>
+      <c r="E54" s="100"/>
       <c r="F54" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="103" t="s">
+      <c r="G54" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="H54" s="97"/>
-      <c r="I54" s="98"/>
+      <c r="H54" s="99"/>
+      <c r="I54" s="100"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="27">
@@ -37373,33 +37373,33 @@
       <c r="A56" s="27">
         <v>6</v>
       </c>
-      <c r="B56" s="96" t="s">
+      <c r="B56" s="98" t="s">
         <v>151</v>
       </c>
-      <c r="C56" s="98"/>
-      <c r="D56" s="96" t="s">
+      <c r="C56" s="100"/>
+      <c r="D56" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="98"/>
+      <c r="E56" s="100"/>
       <c r="F56" s="27"/>
-      <c r="G56" s="96" t="s">
+      <c r="G56" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="H56" s="97"/>
-      <c r="I56" s="98"/>
+      <c r="H56" s="99"/>
+      <c r="I56" s="100"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="93" t="s">
+      <c r="A57" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="94"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="94"/>
-      <c r="F57" s="94"/>
-      <c r="G57" s="94"/>
-      <c r="H57" s="94"/>
-      <c r="I57" s="95"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="97"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="29"/>
@@ -37557,6 +37557,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
     <mergeCell ref="A57:I57"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:E56"/>
@@ -37568,19 +37581,6 @@
     <mergeCell ref="G53:I53"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="G54:I54"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37603,17 +37603,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="97"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -37622,11 +37622,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="100"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -37637,11 +37637,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="100"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -37652,11 +37652,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="100"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -37669,11 +37669,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="100"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -37684,13 +37684,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="100"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -37710,17 +37710,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="95"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="97"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -38163,26 +38163,26 @@
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="93" t="s">
+      <c r="A49" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="94"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="94"/>
-      <c r="E49" s="94"/>
-      <c r="F49" s="94"/>
-      <c r="G49" s="94"/>
-      <c r="H49" s="94"/>
-      <c r="I49" s="95"/>
+      <c r="B49" s="96"/>
+      <c r="C49" s="96"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="96"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="97"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="100" t="s">
+      <c r="B50" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="101"/>
+      <c r="C50" s="102"/>
       <c r="D50" s="25" t="s">
         <v>18</v>
       </c>
@@ -38190,30 +38190,30 @@
       <c r="F50" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="100" t="s">
+      <c r="G50" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="102"/>
-      <c r="I50" s="101"/>
+      <c r="H50" s="103"/>
+      <c r="I50" s="102"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="96" t="s">
+      <c r="B51" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="98"/>
-      <c r="D51" s="96" t="s">
+      <c r="C51" s="100"/>
+      <c r="D51" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="98"/>
+      <c r="E51" s="100"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="96"/>
-      <c r="H51" s="97"/>
-      <c r="I51" s="98"/>
+      <c r="G51" s="98"/>
+      <c r="H51" s="99"/>
+      <c r="I51" s="100"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="27">
@@ -38221,37 +38221,37 @@
       </c>
       <c r="B52" s="36"/>
       <c r="C52" s="37"/>
-      <c r="D52" s="96" t="s">
+      <c r="D52" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="98"/>
+      <c r="E52" s="100"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="96" t="s">
+      <c r="G52" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="97"/>
-      <c r="I52" s="98"/>
+      <c r="H52" s="99"/>
+      <c r="I52" s="100"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="27">
         <v>3</v>
       </c>
-      <c r="B53" s="96" t="s">
+      <c r="B53" s="98" t="s">
         <v>154</v>
       </c>
-      <c r="C53" s="98"/>
-      <c r="D53" s="96" t="s">
+      <c r="C53" s="100"/>
+      <c r="D53" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="98"/>
+      <c r="E53" s="100"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="96" t="s">
+      <c r="G53" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="H53" s="97"/>
-      <c r="I53" s="98"/>
+      <c r="H53" s="99"/>
+      <c r="I53" s="100"/>
     </row>
     <row r="54" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="27">
@@ -38261,18 +38261,18 @@
         <v>155</v>
       </c>
       <c r="C54" s="37"/>
-      <c r="D54" s="96" t="s">
+      <c r="D54" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="E54" s="98"/>
+      <c r="E54" s="100"/>
       <c r="F54" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="103" t="s">
+      <c r="G54" s="104" t="s">
         <v>156</v>
       </c>
-      <c r="H54" s="97"/>
-      <c r="I54" s="98"/>
+      <c r="H54" s="99"/>
+      <c r="I54" s="100"/>
     </row>
     <row r="55" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="27">
@@ -38287,138 +38287,138 @@
       </c>
       <c r="E55" s="37"/>
       <c r="F55" s="27"/>
-      <c r="G55" s="103" t="s">
+      <c r="G55" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="H55" s="97"/>
-      <c r="I55" s="98"/>
+      <c r="H55" s="99"/>
+      <c r="I55" s="100"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="27">
         <v>6</v>
       </c>
-      <c r="B56" s="96" t="s">
+      <c r="B56" s="98" t="s">
         <v>161</v>
       </c>
-      <c r="C56" s="98"/>
-      <c r="D56" s="96" t="s">
+      <c r="C56" s="100"/>
+      <c r="D56" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="E56" s="98"/>
+      <c r="E56" s="100"/>
       <c r="F56" s="27"/>
-      <c r="G56" s="96" t="s">
+      <c r="G56" s="98" t="s">
         <v>162</v>
       </c>
-      <c r="H56" s="97"/>
-      <c r="I56" s="98"/>
+      <c r="H56" s="99"/>
+      <c r="I56" s="100"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="27">
         <v>7</v>
       </c>
-      <c r="B57" s="96" t="s">
+      <c r="B57" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="98"/>
-      <c r="D57" s="96" t="s">
+      <c r="C57" s="100"/>
+      <c r="D57" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="E57" s="98"/>
+      <c r="E57" s="100"/>
       <c r="F57" s="27"/>
-      <c r="G57" s="96" t="s">
+      <c r="G57" s="98" t="s">
         <v>159</v>
       </c>
-      <c r="H57" s="97"/>
-      <c r="I57" s="98"/>
+      <c r="H57" s="99"/>
+      <c r="I57" s="100"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="27">
         <v>8</v>
       </c>
-      <c r="B58" s="96" t="s">
+      <c r="B58" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="C58" s="98"/>
-      <c r="D58" s="96" t="s">
+      <c r="C58" s="100"/>
+      <c r="D58" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="E58" s="98"/>
+      <c r="E58" s="100"/>
       <c r="F58" s="27"/>
-      <c r="G58" s="96" t="s">
+      <c r="G58" s="98" t="s">
         <v>163</v>
       </c>
-      <c r="H58" s="97"/>
-      <c r="I58" s="98"/>
+      <c r="H58" s="99"/>
+      <c r="I58" s="100"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="27">
         <v>9</v>
       </c>
-      <c r="B59" s="96" t="s">
+      <c r="B59" s="98" t="s">
         <v>165</v>
       </c>
-      <c r="C59" s="98"/>
-      <c r="D59" s="96" t="s">
+      <c r="C59" s="100"/>
+      <c r="D59" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="98"/>
+      <c r="E59" s="100"/>
       <c r="F59" s="27"/>
-      <c r="G59" s="96" t="s">
+      <c r="G59" s="98" t="s">
         <v>165</v>
       </c>
-      <c r="H59" s="97"/>
-      <c r="I59" s="98"/>
+      <c r="H59" s="99"/>
+      <c r="I59" s="100"/>
     </row>
     <row r="60" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="27">
         <v>10</v>
       </c>
-      <c r="B60" s="96" t="s">
+      <c r="B60" s="98" t="s">
         <v>304</v>
       </c>
-      <c r="C60" s="98"/>
-      <c r="D60" s="96" t="s">
+      <c r="C60" s="100"/>
+      <c r="D60" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="E60" s="98"/>
+      <c r="E60" s="100"/>
       <c r="F60" s="27"/>
-      <c r="G60" s="103" t="s">
+      <c r="G60" s="104" t="s">
         <v>305</v>
       </c>
-      <c r="H60" s="97"/>
-      <c r="I60" s="98"/>
+      <c r="H60" s="99"/>
+      <c r="I60" s="100"/>
     </row>
     <row r="61" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="27">
         <v>11</v>
       </c>
-      <c r="B61" s="96" t="s">
+      <c r="B61" s="98" t="s">
         <v>166</v>
       </c>
-      <c r="C61" s="98"/>
-      <c r="D61" s="96" t="s">
+      <c r="C61" s="100"/>
+      <c r="D61" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E61" s="98"/>
+      <c r="E61" s="100"/>
       <c r="F61" s="27"/>
-      <c r="G61" s="103" t="s">
+      <c r="G61" s="104" t="s">
         <v>167</v>
       </c>
-      <c r="H61" s="97"/>
-      <c r="I61" s="98"/>
+      <c r="H61" s="99"/>
+      <c r="I61" s="100"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="93" t="s">
+      <c r="A62" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="94"/>
-      <c r="C62" s="94"/>
-      <c r="D62" s="94"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="94"/>
-      <c r="G62" s="94"/>
-      <c r="H62" s="94"/>
-      <c r="I62" s="95"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="96"/>
+      <c r="G62" s="96"/>
+      <c r="H62" s="96"/>
+      <c r="I62" s="97"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="29"/>
@@ -38639,26 +38639,12 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="G54:I54"/>
     <mergeCell ref="A8:I8"/>
@@ -38673,12 +38659,26 @@
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="G53:I53"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38700,17 +38700,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="97"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -38719,11 +38719,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="100"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -38734,11 +38734,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="100"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -38749,11 +38749,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="100"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -38766,11 +38766,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="100"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -38781,13 +38781,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="104" t="s">
         <v>381</v>
       </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="100"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -38807,17 +38807,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="95"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="97"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -39095,26 +39095,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="93" t="s">
+      <c r="A34" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="95"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="97"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="100" t="s">
+      <c r="B35" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="101"/>
+      <c r="C35" s="102"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -39122,30 +39122,30 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="100" t="s">
+      <c r="G35" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="102"/>
-      <c r="I35" s="101"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="102"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="96" t="s">
+      <c r="B36" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="98"/>
-      <c r="D36" s="96" t="s">
+      <c r="C36" s="100"/>
+      <c r="D36" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="98"/>
+      <c r="E36" s="100"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="96"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="98"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="100"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="27">
@@ -39172,16 +39172,16 @@
       </c>
       <c r="B38" s="69"/>
       <c r="C38" s="71"/>
-      <c r="D38" s="96" t="s">
+      <c r="D38" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="98"/>
+      <c r="E38" s="100"/>
       <c r="F38" s="27"/>
-      <c r="G38" s="96" t="s">
+      <c r="G38" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="H38" s="97"/>
-      <c r="I38" s="98"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="100"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
@@ -39238,31 +39238,31 @@
       <c r="A42" s="27">
         <v>7</v>
       </c>
-      <c r="B42" s="96" t="s">
+      <c r="B42" s="98" t="s">
         <v>378</v>
       </c>
-      <c r="C42" s="98"/>
-      <c r="D42" s="96" t="s">
+      <c r="C42" s="100"/>
+      <c r="D42" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="98"/>
+      <c r="E42" s="100"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="98"/>
+      <c r="G42" s="98"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="100"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="93" t="s">
+      <c r="A43" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="94"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="94"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="94"/>
-      <c r="I43" s="95"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="97"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="29"/>
@@ -39420,12 +39420,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="B35:C35"/>
@@ -39433,12 +39433,12 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="G36:I36"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:I42"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39460,17 +39460,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="97"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -39479,11 +39479,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="100"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -39494,11 +39494,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="100"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -39509,11 +39509,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="100"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -39526,11 +39526,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="100"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -39541,13 +39541,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="104" t="s">
         <v>405</v>
       </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="100"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -39567,17 +39567,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="95"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="97"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -40020,26 +40020,26 @@
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="93" t="s">
+      <c r="A49" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="94"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="94"/>
-      <c r="E49" s="94"/>
-      <c r="F49" s="94"/>
-      <c r="G49" s="94"/>
-      <c r="H49" s="94"/>
-      <c r="I49" s="95"/>
+      <c r="B49" s="96"/>
+      <c r="C49" s="96"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="96"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="97"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="100" t="s">
+      <c r="B50" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="101"/>
+      <c r="C50" s="102"/>
       <c r="D50" s="25" t="s">
         <v>18</v>
       </c>
@@ -40047,30 +40047,30 @@
       <c r="F50" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="100" t="s">
+      <c r="G50" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="102"/>
-      <c r="I50" s="101"/>
+      <c r="H50" s="103"/>
+      <c r="I50" s="102"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="96" t="s">
+      <c r="B51" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="98"/>
-      <c r="D51" s="96" t="s">
+      <c r="C51" s="100"/>
+      <c r="D51" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="98"/>
+      <c r="E51" s="100"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="96"/>
-      <c r="H51" s="97"/>
-      <c r="I51" s="98"/>
+      <c r="G51" s="98"/>
+      <c r="H51" s="99"/>
+      <c r="I51" s="100"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="27">
@@ -40078,18 +40078,18 @@
       </c>
       <c r="B52" s="74"/>
       <c r="C52" s="75"/>
-      <c r="D52" s="96" t="s">
+      <c r="D52" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="98"/>
+      <c r="E52" s="100"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="96" t="s">
+      <c r="G52" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="97"/>
-      <c r="I52" s="98"/>
+      <c r="H52" s="99"/>
+      <c r="I52" s="100"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="27">
@@ -40099,18 +40099,18 @@
         <v>81</v>
       </c>
       <c r="C53" s="75"/>
-      <c r="D53" s="96" t="s">
+      <c r="D53" s="98" t="s">
         <v>394</v>
       </c>
-      <c r="E53" s="98"/>
+      <c r="E53" s="100"/>
       <c r="F53" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G53" s="103" t="s">
+      <c r="G53" s="104" t="s">
         <v>395</v>
       </c>
-      <c r="H53" s="97"/>
-      <c r="I53" s="98"/>
+      <c r="H53" s="99"/>
+      <c r="I53" s="100"/>
     </row>
     <row r="54" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="27">
@@ -40120,18 +40120,18 @@
         <v>398</v>
       </c>
       <c r="C54" s="75"/>
-      <c r="D54" s="96" t="s">
+      <c r="D54" s="98" t="s">
         <v>399</v>
       </c>
-      <c r="E54" s="98"/>
+      <c r="E54" s="100"/>
       <c r="F54" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="103" t="s">
+      <c r="G54" s="104" t="s">
         <v>400</v>
       </c>
-      <c r="H54" s="97"/>
-      <c r="I54" s="98"/>
+      <c r="H54" s="99"/>
+      <c r="I54" s="100"/>
     </row>
     <row r="55" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="27">
@@ -40146,62 +40146,62 @@
       </c>
       <c r="E55" s="75"/>
       <c r="F55" s="27"/>
-      <c r="G55" s="103" t="s">
+      <c r="G55" s="104" t="s">
         <v>397</v>
       </c>
-      <c r="H55" s="97"/>
-      <c r="I55" s="98"/>
+      <c r="H55" s="99"/>
+      <c r="I55" s="100"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="27">
         <v>6</v>
       </c>
-      <c r="B56" s="96" t="s">
+      <c r="B56" s="98" t="s">
         <v>401</v>
       </c>
-      <c r="C56" s="98"/>
-      <c r="D56" s="96" t="s">
+      <c r="C56" s="100"/>
+      <c r="D56" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="98"/>
+      <c r="E56" s="100"/>
       <c r="F56" s="27"/>
-      <c r="G56" s="96" t="s">
+      <c r="G56" s="98" t="s">
         <v>402</v>
       </c>
-      <c r="H56" s="97"/>
-      <c r="I56" s="98"/>
+      <c r="H56" s="99"/>
+      <c r="I56" s="100"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="27">
         <v>7</v>
       </c>
-      <c r="B57" s="96" t="s">
+      <c r="B57" s="98" t="s">
         <v>403</v>
       </c>
-      <c r="C57" s="98"/>
-      <c r="D57" s="96" t="s">
+      <c r="C57" s="100"/>
+      <c r="D57" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E57" s="98"/>
+      <c r="E57" s="100"/>
       <c r="F57" s="27"/>
-      <c r="G57" s="96" t="s">
+      <c r="G57" s="98" t="s">
         <v>404</v>
       </c>
-      <c r="H57" s="97"/>
-      <c r="I57" s="98"/>
+      <c r="H57" s="99"/>
+      <c r="I57" s="100"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="93" t="s">
+      <c r="A58" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="94"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="94"/>
-      <c r="E58" s="94"/>
-      <c r="F58" s="94"/>
-      <c r="G58" s="94"/>
-      <c r="H58" s="94"/>
-      <c r="I58" s="95"/>
+      <c r="B58" s="96"/>
+      <c r="C58" s="96"/>
+      <c r="D58" s="96"/>
+      <c r="E58" s="96"/>
+      <c r="F58" s="96"/>
+      <c r="G58" s="96"/>
+      <c r="H58" s="96"/>
+      <c r="I58" s="97"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="29"/>
@@ -40238,6 +40238,25 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G54:I54"/>
     <mergeCell ref="A58:I58"/>
     <mergeCell ref="G55:I55"/>
     <mergeCell ref="B56:C56"/>
@@ -40246,25 +40265,6 @@
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="G57:I57"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40542,10 +40542,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="113">
+      <c r="A2" s="77">
         <v>42843</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="77" t="s">
         <v>391</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -40564,8 +40564,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -40576,25 +40576,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="89" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="77" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="78" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77" t="s">
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78" t="s">
         <v>271</v>
       </c>
-      <c r="H2" s="77" t="s">
+      <c r="H2" s="78" t="s">
         <v>272</v>
       </c>
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="78" t="s">
         <v>272</v>
       </c>
     </row>
@@ -40605,7 +40605,7 @@
       <c r="B3" s="52" t="s">
         <v>270</v>
       </c>
-      <c r="C3" s="77"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="51" t="s">
         <v>124</v>
       </c>
@@ -40615,12 +40615,12 @@
       <c r="F3" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="79">
         <v>0</v>
       </c>
       <c r="B4" s="53">
@@ -40656,7 +40656,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="88"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="53">
         <v>2</v>
       </c>
@@ -40688,7 +40688,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="88"/>
+      <c r="A6" s="80"/>
       <c r="B6" s="53">
         <v>3</v>
       </c>
@@ -40720,7 +40720,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="89"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="53">
         <v>4</v>
       </c>
@@ -40750,7 +40750,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="83">
+      <c r="A8" s="87">
         <v>1</v>
       </c>
       <c r="B8" s="53">
@@ -40786,7 +40786,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="84"/>
+      <c r="A9" s="88"/>
       <c r="B9" s="53">
         <v>2</v>
       </c>
@@ -40820,7 +40820,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="80">
+      <c r="A10" s="84">
         <v>2</v>
       </c>
       <c r="B10" s="53">
@@ -40856,7 +40856,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="82"/>
+      <c r="A11" s="86"/>
       <c r="B11" s="53">
         <v>2</v>
       </c>
@@ -40890,7 +40890,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="80">
+      <c r="A12" s="84">
         <v>3</v>
       </c>
       <c r="B12" s="53">
@@ -40926,7 +40926,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="82"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="53">
         <v>2</v>
       </c>
@@ -40960,7 +40960,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="83">
+      <c r="A14" s="87">
         <v>4</v>
       </c>
       <c r="B14" s="53">
@@ -40996,7 +40996,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="84"/>
+      <c r="A15" s="88"/>
       <c r="B15" s="53">
         <v>2</v>
       </c>
@@ -41030,7 +41030,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="80">
+      <c r="A16" s="84">
         <v>5</v>
       </c>
       <c r="B16" s="53">
@@ -41064,7 +41064,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="81"/>
+      <c r="A17" s="85"/>
       <c r="B17" s="53">
         <v>2</v>
       </c>
@@ -41096,7 +41096,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="82"/>
+      <c r="A18" s="86"/>
       <c r="B18" s="53">
         <v>3</v>
       </c>
@@ -41128,7 +41128,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="80">
+      <c r="A19" s="84">
         <v>6</v>
       </c>
       <c r="B19" s="53">
@@ -41162,7 +41162,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="81"/>
+      <c r="A20" s="85"/>
       <c r="B20" s="53">
         <v>2</v>
       </c>
@@ -41193,7 +41193,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="81"/>
+      <c r="A21" s="85"/>
       <c r="B21" s="53">
         <v>3</v>
       </c>
@@ -41225,7 +41225,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="82"/>
+      <c r="A22" s="86"/>
       <c r="B22" s="53">
         <v>4</v>
       </c>
@@ -41291,7 +41291,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="80">
+      <c r="A24" s="84">
         <v>8</v>
       </c>
       <c r="B24" s="53">
@@ -41325,7 +41325,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="81"/>
+      <c r="A25" s="85"/>
       <c r="B25" s="53">
         <v>2</v>
       </c>
@@ -41355,7 +41355,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="81"/>
+      <c r="A26" s="85"/>
       <c r="B26" s="53">
         <v>3</v>
       </c>
@@ -41385,7 +41385,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="82"/>
+      <c r="A27" s="86"/>
       <c r="B27" s="53">
         <v>4</v>
       </c>
@@ -41415,7 +41415,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="80">
+      <c r="A28" s="84">
         <v>9</v>
       </c>
       <c r="B28" s="53">
@@ -41424,7 +41424,9 @@
       <c r="C28" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D28" s="27"/>
+      <c r="D28" s="27" t="s">
+        <v>211</v>
+      </c>
       <c r="E28" s="27" t="s">
         <v>211</v>
       </c>
@@ -41437,19 +41439,19 @@
       </c>
       <c r="H28" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>1,2</v>
+        <v>0,1,2</v>
       </c>
       <c r="I28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>1,2</v>
+        <v>0,1,2</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" si="2"/>
-        <v>display00901=1,2</v>
+        <v>display00901=0,1,2</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="81"/>
+      <c r="A29" s="85"/>
       <c r="B29" s="53">
         <v>2</v>
       </c>
@@ -41481,7 +41483,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="82"/>
+      <c r="A30" s="86"/>
       <c r="B30" s="53">
         <v>3</v>
       </c>
@@ -41545,7 +41547,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="80">
+      <c r="A32" s="84">
         <v>11</v>
       </c>
       <c r="B32" s="53">
@@ -41579,7 +41581,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="81"/>
+      <c r="A33" s="85"/>
       <c r="B33" s="53">
         <v>2</v>
       </c>
@@ -41611,7 +41613,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="82"/>
+      <c r="A34" s="86"/>
       <c r="B34" s="53">
         <v>3</v>
       </c>
@@ -41643,7 +41645,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="78">
+      <c r="A35" s="82">
         <v>12</v>
       </c>
       <c r="B35" s="76">
@@ -41677,7 +41679,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="79"/>
+      <c r="A36" s="83"/>
       <c r="B36" s="76">
         <v>2</v>
       </c>
@@ -41816,6 +41818,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A32:A34"/>
@@ -41832,7 +41835,6 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41845,7 +41847,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
@@ -41856,17 +41858,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="97"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -41875,13 +41877,13 @@
       <c r="B2" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="98" t="s">
         <v>217</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="98"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="100"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -41892,13 +41894,13 @@
       <c r="B3" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="98" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="100"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -41909,11 +41911,11 @@
       <c r="B4" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="100"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -41924,13 +41926,13 @@
       <c r="B5" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="98" t="s">
         <v>219</v>
       </c>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="98"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="100"/>
       <c r="H5" s="5" t="s">
         <v>224</v>
       </c>
@@ -41951,13 +41953,13 @@
       <c r="D7" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="94" t="s">
         <v>222</v>
       </c>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -41970,13 +41972,13 @@
       <c r="D8" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E8" s="91" t="s">
+      <c r="E8" s="92" t="s">
         <v>223</v>
       </c>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
       <c r="K8" t="str">
         <f>B8&amp;"="</f>
         <v>password.expiry=</v>
@@ -41993,13 +41995,13 @@
       <c r="D9" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E9" s="91" t="s">
+      <c r="E9" s="92" t="s">
         <v>226</v>
       </c>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
       <c r="K9" t="str">
         <f>B9&amp;"="</f>
         <v>display00001=</v>
@@ -42016,13 +42018,13 @@
       <c r="D10" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E10" s="91" t="s">
+      <c r="E10" s="92" t="s">
         <v>227</v>
       </c>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
       <c r="K10" t="str">
         <f>B10&amp;"="</f>
         <v>display00002=</v>
@@ -42039,13 +42041,13 @@
       <c r="D11" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E11" s="91" t="s">
+      <c r="E11" s="92" t="s">
         <v>228</v>
       </c>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
       <c r="K11" t="str">
         <f t="shared" ref="K11:K39" si="0">B11&amp;"="</f>
         <v>display00003=</v>
@@ -42062,13 +42064,13 @@
       <c r="D12" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E12" s="91" t="s">
+      <c r="E12" s="92" t="s">
         <v>229</v>
       </c>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
         <v>display00004=</v>
@@ -42085,13 +42087,13 @@
       <c r="D13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E13" s="91" t="s">
+      <c r="E13" s="92" t="s">
         <v>230</v>
       </c>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
         <v>display00101=</v>
@@ -42108,13 +42110,13 @@
       <c r="D14" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E14" s="91" t="s">
+      <c r="E14" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
         <v>display00102=</v>
@@ -42131,13 +42133,13 @@
       <c r="D15" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="91" t="s">
+      <c r="E15" s="92" t="s">
         <v>232</v>
       </c>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
         <v>display00201=</v>
@@ -42154,13 +42156,13 @@
       <c r="D16" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E16" s="91" t="s">
+      <c r="E16" s="92" t="s">
         <v>233</v>
       </c>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
         <v>display00202=</v>
@@ -42177,13 +42179,13 @@
       <c r="D17" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E17" s="91" t="s">
+      <c r="E17" s="92" t="s">
         <v>234</v>
       </c>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
         <v>display00301=</v>
@@ -42200,13 +42202,13 @@
       <c r="D18" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E18" s="91" t="s">
+      <c r="E18" s="92" t="s">
         <v>235</v>
       </c>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
         <v>display00302=</v>
@@ -42223,13 +42225,13 @@
       <c r="D19" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E19" s="91" t="s">
+      <c r="E19" s="92" t="s">
         <v>236</v>
       </c>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="91"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
         <v>display00401=</v>
@@ -42246,13 +42248,13 @@
       <c r="D20" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E20" s="91" t="s">
+      <c r="E20" s="92" t="s">
         <v>237</v>
       </c>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
         <v>display00402=</v>
@@ -42269,13 +42271,13 @@
       <c r="D21" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E21" s="91" t="s">
+      <c r="E21" s="92" t="s">
         <v>238</v>
       </c>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
         <v>display00501=</v>
@@ -42292,13 +42294,13 @@
       <c r="D22" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E22" s="91" t="s">
+      <c r="E22" s="92" t="s">
         <v>239</v>
       </c>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
         <v>display00502=</v>
@@ -42315,13 +42317,13 @@
       <c r="D23" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E23" s="91" t="s">
+      <c r="E23" s="92" t="s">
         <v>240</v>
       </c>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
         <v>display00503=</v>
@@ -42338,13 +42340,13 @@
       <c r="D24" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E24" s="91" t="s">
+      <c r="E24" s="92" t="s">
         <v>241</v>
       </c>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="91"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
         <v>display00601=</v>
@@ -42361,13 +42363,13 @@
       <c r="D25" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E25" s="91" t="s">
+      <c r="E25" s="92" t="s">
         <v>242</v>
       </c>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
         <v>display00602=</v>
@@ -42384,13 +42386,13 @@
       <c r="D26" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E26" s="91" t="s">
+      <c r="E26" s="92" t="s">
         <v>243</v>
       </c>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="91"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
         <v>display00603=</v>
@@ -42407,13 +42409,13 @@
       <c r="D27" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E27" s="91" t="s">
+      <c r="E27" s="92" t="s">
         <v>244</v>
       </c>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
       <c r="K27" t="str">
         <f t="shared" si="0"/>
         <v>display00701=</v>
@@ -42430,13 +42432,13 @@
       <c r="D28" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E28" s="91" t="s">
+      <c r="E28" s="92" t="s">
         <v>245</v>
       </c>
-      <c r="F28" s="91"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="91"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
       <c r="K28" t="str">
         <f t="shared" si="0"/>
         <v>display00801=</v>
@@ -42453,13 +42455,13 @@
       <c r="D29" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E29" s="91" t="s">
+      <c r="E29" s="92" t="s">
         <v>246</v>
       </c>
-      <c r="F29" s="91"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="91"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
       <c r="K29" t="str">
         <f t="shared" si="0"/>
         <v>display00802=</v>
@@ -42476,13 +42478,13 @@
       <c r="D30" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E30" s="91" t="s">
+      <c r="E30" s="92" t="s">
         <v>247</v>
       </c>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="91"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
         <v>display00803=</v>
@@ -42499,13 +42501,13 @@
       <c r="D31" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E31" s="91" t="s">
+      <c r="E31" s="92" t="s">
         <v>248</v>
       </c>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="91"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
       <c r="K31" t="str">
         <f t="shared" si="0"/>
         <v>display00804=</v>
@@ -42522,13 +42524,13 @@
       <c r="D32" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E32" s="91" t="s">
+      <c r="E32" s="92" t="s">
         <v>249</v>
       </c>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="91"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
       <c r="K32" t="str">
         <f t="shared" si="0"/>
         <v>display00901=</v>
@@ -42545,13 +42547,13 @@
       <c r="D33" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E33" s="91" t="s">
+      <c r="E33" s="92" t="s">
         <v>250</v>
       </c>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="91"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
       <c r="K33" t="str">
         <f t="shared" si="0"/>
         <v>display00902=</v>
@@ -42568,13 +42570,13 @@
       <c r="D34" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E34" s="91" t="s">
+      <c r="E34" s="92" t="s">
         <v>251</v>
       </c>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
       <c r="K34" t="str">
         <f t="shared" si="0"/>
         <v>display00903=</v>
@@ -42591,13 +42593,13 @@
       <c r="D35" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E35" s="99" t="s">
+      <c r="E35" s="91" t="s">
         <v>252</v>
       </c>
-      <c r="F35" s="99"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="99"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91"/>
       <c r="K35" t="str">
         <f t="shared" si="0"/>
         <v>password.policy=</v>
@@ -42616,13 +42618,13 @@
       <c r="D36" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E36" s="99" t="s">
+      <c r="E36" s="91" t="s">
         <v>253</v>
       </c>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="99"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="91"/>
       <c r="K36" t="str">
         <f t="shared" si="0"/>
         <v>judge.class=</v>
@@ -42639,13 +42641,13 @@
       <c r="D37" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E37" s="99" t="s">
+      <c r="E37" s="91" t="s">
         <v>254</v>
       </c>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="99"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="91"/>
+      <c r="I37" s="91"/>
       <c r="K37" t="str">
         <f t="shared" si="0"/>
         <v>force.pass.change=</v>
@@ -42664,13 +42666,13 @@
       <c r="D38" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E38" s="99" t="s">
+      <c r="E38" s="91" t="s">
         <v>255</v>
       </c>
-      <c r="F38" s="99"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="99"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="91"/>
+      <c r="I38" s="91"/>
       <c r="K38" t="str">
         <f t="shared" si="0"/>
         <v>judge.result.table.name=</v>
@@ -42689,13 +42691,13 @@
       <c r="D39" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E39" s="91" t="s">
+      <c r="E39" s="92" t="s">
         <v>263</v>
       </c>
-      <c r="F39" s="91"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="91"/>
-      <c r="I39" s="91"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="92"/>
       <c r="K39" t="str">
         <f t="shared" si="0"/>
         <v>pwd.hash.salt=</v>
@@ -42714,13 +42716,13 @@
       <c r="D40" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E40" s="91" t="s">
+      <c r="E40" s="92" t="s">
         <v>302</v>
       </c>
-      <c r="F40" s="91"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="91"/>
-      <c r="I40" s="91"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="92"/>
       <c r="K40" t="str">
         <f t="shared" ref="K40" si="1">B40&amp;"="</f>
         <v>upload.directory=</v>
@@ -42739,13 +42741,13 @@
       <c r="D41" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E41" s="91" t="s">
+      <c r="E41" s="92" t="s">
         <v>303</v>
       </c>
-      <c r="F41" s="91"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="91"/>
-      <c r="I41" s="91"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="92"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="92"/>
       <c r="K41" t="str">
         <f t="shared" ref="K41" si="2">B41&amp;"="</f>
         <v>result.directory=</v>
@@ -42762,13 +42764,13 @@
       <c r="D42" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E42" s="90" t="s">
+      <c r="E42" s="93" t="s">
         <v>339</v>
       </c>
-      <c r="F42" s="91"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="91"/>
-      <c r="I42" s="91"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="92"/>
+      <c r="I42" s="92"/>
       <c r="K42" t="str">
         <f t="shared" ref="K42" si="3">B42&amp;"="</f>
         <v>pwd.lock.limit=</v>
@@ -42776,15 +42778,22 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E14:I14"/>
     <mergeCell ref="E15:I15"/>
     <mergeCell ref="E16:I16"/>
     <mergeCell ref="E17:I17"/>
@@ -42801,22 +42810,15 @@
     <mergeCell ref="E28:I28"/>
     <mergeCell ref="E29:I29"/>
     <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E37:I37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42857,17 +42859,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="97"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -42876,11 +42878,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="100"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -42891,11 +42893,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="100"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -42906,11 +42908,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="100"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -42923,11 +42925,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="100"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -42938,11 +42940,11 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="100"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -42962,17 +42964,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="95"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="97"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -43250,26 +43252,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="93" t="s">
+      <c r="A34" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="95"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="97"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="100" t="s">
+      <c r="B35" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="101"/>
+      <c r="C35" s="102"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -43277,100 +43279,100 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="100" t="s">
+      <c r="G35" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="102"/>
-      <c r="I35" s="101"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="102"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="96" t="s">
+      <c r="B36" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="98"/>
-      <c r="D36" s="96" t="s">
+      <c r="C36" s="100"/>
+      <c r="D36" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="98"/>
+      <c r="E36" s="100"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="96"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="98"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="100"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="96" t="s">
+      <c r="B37" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="98"/>
-      <c r="D37" s="96" t="s">
+      <c r="C37" s="100"/>
+      <c r="D37" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="98"/>
+      <c r="E37" s="100"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="96"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="98"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="100"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="96" t="s">
+      <c r="B38" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="98"/>
-      <c r="D38" s="96" t="s">
+      <c r="C38" s="100"/>
+      <c r="D38" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="98"/>
+      <c r="E38" s="100"/>
       <c r="F38" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="96"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="98"/>
+      <c r="G38" s="98"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="100"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="96" t="s">
+      <c r="B39" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="98"/>
-      <c r="D39" s="96" t="s">
+      <c r="C39" s="100"/>
+      <c r="D39" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="98"/>
+      <c r="E39" s="100"/>
       <c r="F39" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="96"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="98"/>
+      <c r="G39" s="98"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="100"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="93" t="s">
+      <c r="A40" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="94"/>
-      <c r="C40" s="94"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="94"/>
-      <c r="I40" s="95"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="97"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="29"/>
@@ -43682,6 +43684,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
     <mergeCell ref="A40:I40"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
@@ -43692,19 +43707,6 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="G38:I38"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43726,17 +43728,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="97"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -43745,11 +43747,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="100"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -43760,11 +43762,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="100"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -43775,11 +43777,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="100"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -43792,11 +43794,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="100"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -43807,11 +43809,11 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="100"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -43831,17 +43833,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="95"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="97"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -44119,26 +44121,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="93" t="s">
+      <c r="A34" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="95"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="97"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="100" t="s">
+      <c r="B35" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="101"/>
+      <c r="C35" s="102"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -44146,78 +44148,78 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="100" t="s">
+      <c r="G35" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="102"/>
-      <c r="I35" s="101"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="102"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="96" t="s">
+      <c r="B36" s="98" t="s">
         <v>311</v>
       </c>
-      <c r="C36" s="98"/>
-      <c r="D36" s="96" t="s">
+      <c r="C36" s="100"/>
+      <c r="D36" s="98" t="s">
         <v>312</v>
       </c>
-      <c r="E36" s="98"/>
+      <c r="E36" s="100"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="96" t="s">
+      <c r="G36" s="98" t="s">
         <v>313</v>
       </c>
-      <c r="H36" s="97"/>
-      <c r="I36" s="98"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="100"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="98"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="100"/>
       <c r="F37" s="27"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="98"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="100"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
-      <c r="B38" s="96"/>
-      <c r="C38" s="98"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="98"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="100"/>
       <c r="F38" s="27"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="98"/>
+      <c r="G38" s="98"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="100"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="28"/>
-      <c r="B39" s="96"/>
-      <c r="C39" s="98"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="98"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="100"/>
       <c r="F39" s="27"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="98"/>
+      <c r="G39" s="98"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="100"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="93" t="s">
+      <c r="A40" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="94"/>
-      <c r="C40" s="94"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="94"/>
-      <c r="I40" s="95"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="97"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="29"/>
@@ -44539,19 +44541,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="G39:I39"/>
@@ -44562,6 +44551,19 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="G38:I38"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44585,17 +44587,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="97"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -44604,11 +44606,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="100"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -44619,11 +44621,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="100"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -44634,11 +44636,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="100"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -44651,11 +44653,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="100"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -44666,13 +44668,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="100"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -44692,17 +44694,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="95"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="97"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -44980,26 +44982,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="93" t="s">
+      <c r="A34" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="95"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="97"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="100" t="s">
+      <c r="B35" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="101"/>
+      <c r="C35" s="102"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -45007,30 +45009,30 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="100" t="s">
+      <c r="G35" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="102"/>
-      <c r="I35" s="101"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="102"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="96" t="s">
+      <c r="B36" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="98"/>
-      <c r="D36" s="96" t="s">
+      <c r="C36" s="100"/>
+      <c r="D36" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="98"/>
+      <c r="E36" s="100"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="96"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="98"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="100"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="27">
@@ -45040,16 +45042,16 @@
         <v>36</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="96" t="s">
+      <c r="D37" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="98"/>
+      <c r="E37" s="100"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="96"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="98"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="100"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="27">
@@ -45059,16 +45061,16 @@
         <v>37</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="96" t="s">
+      <c r="D38" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="98"/>
+      <c r="E38" s="100"/>
       <c r="F38" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="96"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="98"/>
+      <c r="G38" s="98"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="100"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
@@ -45131,33 +45133,33 @@
       <c r="A42" s="27">
         <v>7</v>
       </c>
-      <c r="B42" s="96"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="96" t="s">
+      <c r="B42" s="98"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="98"/>
+      <c r="E42" s="100"/>
       <c r="F42" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="96" t="s">
+      <c r="G42" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="H42" s="97"/>
-      <c r="I42" s="98"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="100"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="93" t="s">
+      <c r="A43" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="94"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="94"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="94"/>
-      <c r="I43" s="95"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="97"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="29"/>
@@ -45469,6 +45471,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="G42:I42"/>
@@ -45477,19 +45492,6 @@
     <mergeCell ref="G37:I37"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="G38:I38"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45512,17 +45514,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="97"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -45531,11 +45533,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="100"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -45546,11 +45548,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="100"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -45561,11 +45563,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="100"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -45578,11 +45580,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="100"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -45593,13 +45595,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="100"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -45619,17 +45621,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="95"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="97"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -45907,26 +45909,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="93" t="s">
+      <c r="A34" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="95"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="97"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="100" t="s">
+      <c r="B35" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="101"/>
+      <c r="C35" s="102"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -45934,30 +45936,30 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="100" t="s">
+      <c r="G35" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="102"/>
-      <c r="I35" s="101"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="102"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="96" t="s">
+      <c r="B36" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="98"/>
-      <c r="D36" s="96" t="s">
+      <c r="C36" s="100"/>
+      <c r="D36" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="98"/>
+      <c r="E36" s="100"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="96"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="98"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="100"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="27">
@@ -45965,39 +45967,39 @@
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="31"/>
-      <c r="D37" s="96" t="s">
+      <c r="D37" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="98"/>
+      <c r="E37" s="100"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="96" t="s">
+      <c r="G37" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="97"/>
-      <c r="I37" s="98"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="100"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="27">
         <v>3</v>
       </c>
-      <c r="B38" s="96" t="s">
+      <c r="B38" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="98"/>
-      <c r="D38" s="96" t="s">
+      <c r="C38" s="100"/>
+      <c r="D38" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="98"/>
+      <c r="E38" s="100"/>
       <c r="F38" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="96" t="s">
+      <c r="G38" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="97"/>
-      <c r="I38" s="98"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="100"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
@@ -46007,16 +46009,16 @@
         <v>45</v>
       </c>
       <c r="C39" s="31"/>
-      <c r="D39" s="96" t="s">
+      <c r="D39" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="98"/>
+      <c r="E39" s="100"/>
       <c r="F39" s="27"/>
-      <c r="G39" s="96" t="s">
+      <c r="G39" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="H39" s="97"/>
-      <c r="I39" s="98"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="100"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="27">
@@ -46039,20 +46041,20 @@
       <c r="A41" s="27">
         <v>6</v>
       </c>
-      <c r="B41" s="96" t="s">
+      <c r="B41" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="98"/>
-      <c r="D41" s="96" t="s">
+      <c r="C41" s="100"/>
+      <c r="D41" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="98"/>
+      <c r="E41" s="100"/>
       <c r="F41" s="27"/>
-      <c r="G41" s="96" t="s">
+      <c r="G41" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="H41" s="97"/>
-      <c r="I41" s="98"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="100"/>
     </row>
     <row r="42" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="27">
@@ -46067,43 +46069,43 @@
       </c>
       <c r="E42" s="31"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="103" t="s">
+      <c r="G42" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="H42" s="97"/>
-      <c r="I42" s="98"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="100"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="27">
         <v>8</v>
       </c>
-      <c r="B43" s="96"/>
-      <c r="C43" s="98"/>
-      <c r="D43" s="96" t="s">
+      <c r="B43" s="98"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="98"/>
+      <c r="E43" s="100"/>
       <c r="F43" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="96" t="s">
+      <c r="G43" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="H43" s="97"/>
-      <c r="I43" s="98"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="100"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="93" t="s">
+      <c r="A44" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="94"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="94"/>
-      <c r="G44" s="94"/>
-      <c r="H44" s="94"/>
-      <c r="I44" s="95"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="97"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="29"/>
@@ -46423,6 +46425,25 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="G39:I39"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="G43:I43"/>
@@ -46432,25 +46453,6 @@
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="G41:I41"/>
     <mergeCell ref="G42:I42"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46473,17 +46475,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="97"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -46492,11 +46494,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="100"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -46507,11 +46509,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="100"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -46522,11 +46524,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="100"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -46539,11 +46541,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="100"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -46554,13 +46556,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="100"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -46580,17 +46582,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="95"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="97"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -47022,26 +47024,26 @@
       <c r="I47" s="23"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="93" t="s">
+      <c r="A48" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="94"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="94"/>
-      <c r="F48" s="94"/>
-      <c r="G48" s="94"/>
-      <c r="H48" s="94"/>
-      <c r="I48" s="95"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="96"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="96"/>
+      <c r="I48" s="97"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="100" t="s">
+      <c r="B49" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="101"/>
+      <c r="C49" s="102"/>
       <c r="D49" s="25" t="s">
         <v>18</v>
       </c>
@@ -47049,30 +47051,30 @@
       <c r="F49" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="100" t="s">
+      <c r="G49" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="H49" s="102"/>
-      <c r="I49" s="101"/>
+      <c r="H49" s="103"/>
+      <c r="I49" s="102"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="27">
         <v>1</v>
       </c>
-      <c r="B50" s="96" t="s">
+      <c r="B50" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="98"/>
-      <c r="D50" s="96" t="s">
+      <c r="C50" s="100"/>
+      <c r="D50" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="98"/>
+      <c r="E50" s="100"/>
       <c r="F50" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G50" s="96"/>
-      <c r="H50" s="97"/>
-      <c r="I50" s="98"/>
+      <c r="G50" s="98"/>
+      <c r="H50" s="99"/>
+      <c r="I50" s="100"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="27">
@@ -47080,69 +47082,69 @@
       </c>
       <c r="B51" s="30"/>
       <c r="C51" s="31"/>
-      <c r="D51" s="96" t="s">
+      <c r="D51" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="98"/>
+      <c r="E51" s="100"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="96" t="s">
+      <c r="G51" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="H51" s="97"/>
-      <c r="I51" s="98"/>
+      <c r="H51" s="99"/>
+      <c r="I51" s="100"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="27">
         <v>3</v>
       </c>
-      <c r="B52" s="96"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="96" t="s">
+      <c r="B52" s="98"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="98"/>
+      <c r="E52" s="100"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="96" t="s">
+      <c r="G52" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="H52" s="97"/>
-      <c r="I52" s="98"/>
+      <c r="H52" s="99"/>
+      <c r="I52" s="100"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="27">
         <v>4</v>
       </c>
-      <c r="B53" s="96" t="s">
+      <c r="B53" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="98"/>
-      <c r="D53" s="96" t="s">
+      <c r="C53" s="100"/>
+      <c r="D53" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="98"/>
+      <c r="E53" s="100"/>
       <c r="F53" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G53" s="96" t="s">
+      <c r="G53" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="H53" s="97"/>
-      <c r="I53" s="98"/>
+      <c r="H53" s="99"/>
+      <c r="I53" s="100"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="27">
         <v>5</v>
       </c>
-      <c r="B54" s="96"/>
-      <c r="C54" s="98"/>
-      <c r="D54" s="96" t="s">
+      <c r="B54" s="98"/>
+      <c r="C54" s="100"/>
+      <c r="D54" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="98"/>
+      <c r="E54" s="100"/>
       <c r="F54" s="27" t="s">
         <v>22</v>
       </c>
@@ -47156,14 +47158,14 @@
       <c r="A55" s="27">
         <v>6</v>
       </c>
-      <c r="B55" s="96" t="s">
+      <c r="B55" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="98"/>
-      <c r="D55" s="96" t="s">
+      <c r="C55" s="100"/>
+      <c r="D55" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="E55" s="98"/>
+      <c r="E55" s="100"/>
       <c r="F55" s="27" t="s">
         <v>22</v>
       </c>
@@ -47177,158 +47179,158 @@
       <c r="A56" s="27">
         <v>7</v>
       </c>
-      <c r="B56" s="96" t="s">
+      <c r="B56" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="98"/>
-      <c r="D56" s="96" t="s">
+      <c r="C56" s="100"/>
+      <c r="D56" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="E56" s="98"/>
+      <c r="E56" s="100"/>
       <c r="F56" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G56" s="103" t="s">
+      <c r="G56" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="H56" s="104"/>
-      <c r="I56" s="105"/>
+      <c r="H56" s="105"/>
+      <c r="I56" s="106"/>
     </row>
     <row r="57" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="27">
         <v>8</v>
       </c>
-      <c r="B57" s="96" t="s">
+      <c r="B57" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="98"/>
-      <c r="D57" s="96" t="s">
+      <c r="C57" s="100"/>
+      <c r="D57" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="98"/>
+      <c r="E57" s="100"/>
       <c r="F57" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G57" s="103" t="s">
+      <c r="G57" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="H57" s="104"/>
-      <c r="I57" s="105"/>
+      <c r="H57" s="105"/>
+      <c r="I57" s="106"/>
     </row>
     <row r="58" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="27">
         <v>9</v>
       </c>
-      <c r="B58" s="96" t="s">
+      <c r="B58" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="98"/>
-      <c r="D58" s="96" t="s">
+      <c r="C58" s="100"/>
+      <c r="D58" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="98"/>
+      <c r="E58" s="100"/>
       <c r="F58" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G58" s="103" t="s">
+      <c r="G58" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="H58" s="104"/>
-      <c r="I58" s="105"/>
+      <c r="H58" s="105"/>
+      <c r="I58" s="106"/>
     </row>
     <row r="59" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="27">
         <v>10</v>
       </c>
-      <c r="B59" s="96" t="s">
+      <c r="B59" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="98"/>
-      <c r="D59" s="96" t="s">
+      <c r="C59" s="100"/>
+      <c r="D59" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="E59" s="98"/>
+      <c r="E59" s="100"/>
       <c r="F59" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G59" s="103" t="s">
+      <c r="G59" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="H59" s="104"/>
-      <c r="I59" s="105"/>
+      <c r="H59" s="105"/>
+      <c r="I59" s="106"/>
     </row>
     <row r="60" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="27">
         <v>11</v>
       </c>
-      <c r="B60" s="96"/>
-      <c r="C60" s="98"/>
-      <c r="D60" s="96"/>
-      <c r="E60" s="98"/>
+      <c r="B60" s="98"/>
+      <c r="C60" s="100"/>
+      <c r="D60" s="98"/>
+      <c r="E60" s="100"/>
       <c r="F60" s="27"/>
-      <c r="G60" s="96"/>
-      <c r="H60" s="97"/>
-      <c r="I60" s="98"/>
+      <c r="G60" s="98"/>
+      <c r="H60" s="99"/>
+      <c r="I60" s="100"/>
     </row>
     <row r="61" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="27">
         <v>12</v>
       </c>
-      <c r="B61" s="96"/>
-      <c r="C61" s="98"/>
-      <c r="D61" s="96"/>
-      <c r="E61" s="98"/>
+      <c r="B61" s="98"/>
+      <c r="C61" s="100"/>
+      <c r="D61" s="98"/>
+      <c r="E61" s="100"/>
       <c r="F61" s="27"/>
-      <c r="G61" s="96"/>
-      <c r="H61" s="97"/>
-      <c r="I61" s="98"/>
+      <c r="G61" s="98"/>
+      <c r="H61" s="99"/>
+      <c r="I61" s="100"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="27">
         <v>13</v>
       </c>
-      <c r="B62" s="96" t="s">
+      <c r="B62" s="98" t="s">
         <v>383</v>
       </c>
-      <c r="C62" s="98"/>
-      <c r="D62" s="96" t="s">
+      <c r="C62" s="100"/>
+      <c r="D62" s="98" t="s">
         <v>384</v>
       </c>
-      <c r="E62" s="98"/>
+      <c r="E62" s="100"/>
       <c r="F62" s="27"/>
-      <c r="G62" s="96"/>
-      <c r="H62" s="97"/>
-      <c r="I62" s="98"/>
+      <c r="G62" s="98"/>
+      <c r="H62" s="99"/>
+      <c r="I62" s="100"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="27">
         <v>14</v>
       </c>
-      <c r="B63" s="96" t="s">
+      <c r="B63" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="C63" s="98"/>
-      <c r="D63" s="96" t="s">
+      <c r="C63" s="100"/>
+      <c r="D63" s="98" t="s">
         <v>385</v>
       </c>
-      <c r="E63" s="98"/>
+      <c r="E63" s="100"/>
       <c r="F63" s="27"/>
-      <c r="G63" s="96"/>
-      <c r="H63" s="97"/>
-      <c r="I63" s="98"/>
+      <c r="G63" s="98"/>
+      <c r="H63" s="99"/>
+      <c r="I63" s="100"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="93" t="s">
+      <c r="A64" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="94"/>
-      <c r="C64" s="94"/>
-      <c r="D64" s="94"/>
-      <c r="E64" s="94"/>
-      <c r="F64" s="94"/>
-      <c r="G64" s="94"/>
-      <c r="H64" s="94"/>
-      <c r="I64" s="95"/>
+      <c r="B64" s="96"/>
+      <c r="C64" s="96"/>
+      <c r="D64" s="96"/>
+      <c r="E64" s="96"/>
+      <c r="F64" s="96"/>
+      <c r="G64" s="96"/>
+      <c r="H64" s="96"/>
+      <c r="I64" s="97"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="29"/>
@@ -47658,6 +47660,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="B61:C61"/>
     <mergeCell ref="A64:I64"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B54:C54"/>
@@ -47674,40 +47710,6 @@
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="G57:I57"/>
     <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="G60:I60"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/設計書もどき.xlsx
+++ b/設計書/設計書もどき.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="10" activeTab="17"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="機能一覧" sheetId="16" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="433">
   <si>
     <t>画面レイアウト定義</t>
     <rPh sb="0" eb="2">
@@ -4819,6 +4819,45 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ検索画面</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ登録画面</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ更新画面</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5106,7 +5145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5279,8 +5318,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5295,20 +5346,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5328,6 +5369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5370,6 +5412,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -39295,10 +39340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F27"/>
+  <dimension ref="A2:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A35" activeCellId="1" sqref="B29 A35:A36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -39307,17 +39352,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="85" t="s">
         <v>341</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="85" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="84"/>
+      <c r="A3" s="85"/>
       <c r="B3" s="63" t="s">
         <v>124</v>
       </c>
@@ -39653,6 +39698,42 @@
         <v>211</v>
       </c>
       <c r="D27" s="68" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="43" t="s">
+        <v>430</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="D28" s="68" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="43" t="s">
+        <v>431</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="D29" s="68" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="43" t="s">
+        <v>432</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="D30" s="68" t="s">
         <v>211</v>
       </c>
     </row>
@@ -39762,7 +39843,7 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="111" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="105"/>
@@ -40092,10 +40173,10 @@
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="107" t="s">
+      <c r="B35" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="108"/>
+      <c r="C35" s="109"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -40103,11 +40184,11 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="107" t="s">
+      <c r="G35" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="109"/>
-      <c r="I35" s="108"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="109"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
@@ -40181,11 +40262,11 @@
       <c r="F39" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="G39" s="113" t="s">
+      <c r="G39" s="114" t="s">
         <v>324</v>
       </c>
-      <c r="H39" s="114"/>
-      <c r="I39" s="115"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="116"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="27">
@@ -40219,11 +40300,11 @@
       </c>
       <c r="E41" s="59"/>
       <c r="F41" s="27"/>
-      <c r="G41" s="116" t="s">
+      <c r="G41" s="117" t="s">
         <v>328</v>
       </c>
-      <c r="H41" s="117"/>
-      <c r="I41" s="118"/>
+      <c r="H41" s="118"/>
+      <c r="I41" s="119"/>
     </row>
     <row r="42" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="27">
@@ -40238,11 +40319,11 @@
       </c>
       <c r="E42" s="59"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="113" t="s">
+      <c r="G42" s="114" t="s">
         <v>330</v>
       </c>
-      <c r="H42" s="117"/>
-      <c r="I42" s="118"/>
+      <c r="H42" s="118"/>
+      <c r="I42" s="119"/>
     </row>
     <row r="43" spans="1:9" ht="47.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="27">
@@ -40257,11 +40338,11 @@
       </c>
       <c r="E43" s="59"/>
       <c r="F43" s="27"/>
-      <c r="G43" s="113" t="s">
+      <c r="G43" s="114" t="s">
         <v>337</v>
       </c>
-      <c r="H43" s="117"/>
-      <c r="I43" s="118"/>
+      <c r="H43" s="118"/>
+      <c r="I43" s="119"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="27">
@@ -40624,11 +40705,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="G37:I37"/>
     <mergeCell ref="D38:E38"/>
@@ -40636,19 +40725,11 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40752,7 +40833,7 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="111" t="s">
         <v>104</v>
       </c>
       <c r="D6" s="105"/>
@@ -41082,10 +41163,10 @@
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="107" t="s">
+      <c r="B35" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="108"/>
+      <c r="C35" s="109"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -41093,11 +41174,11 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="107" t="s">
+      <c r="G35" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="109"/>
-      <c r="I35" s="108"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="109"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
@@ -41300,7 +41381,7 @@
       </c>
       <c r="E46" s="106"/>
       <c r="F46" s="27"/>
-      <c r="G46" s="110" t="s">
+      <c r="G46" s="111" t="s">
         <v>370</v>
       </c>
       <c r="H46" s="105"/>
@@ -41375,10 +41456,10 @@
       <c r="A52" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="B52" s="119" t="s">
+      <c r="B52" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="C52" s="119"/>
+      <c r="C52" s="120"/>
       <c r="D52" s="18"/>
       <c r="E52" s="42" t="s">
         <v>130</v>
@@ -41394,10 +41475,10 @@
       <c r="A53" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B53" s="98" t="s">
+      <c r="B53" s="99" t="s">
         <v>127</v>
       </c>
-      <c r="C53" s="98"/>
+      <c r="C53" s="99"/>
       <c r="D53" s="18"/>
       <c r="E53" s="43" t="s">
         <v>131</v>
@@ -41413,10 +41494,10 @@
       <c r="A54" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B54" s="98" t="s">
+      <c r="B54" s="99" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="98"/>
+      <c r="C54" s="99"/>
       <c r="D54" s="18"/>
       <c r="E54" s="43" t="s">
         <v>133</v>
@@ -41432,10 +41513,10 @@
       <c r="A55" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B55" s="98" t="s">
+      <c r="B55" s="99" t="s">
         <v>127</v>
       </c>
-      <c r="C55" s="98"/>
+      <c r="C55" s="99"/>
       <c r="D55" s="18"/>
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
@@ -41679,24 +41760,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:I42"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -41708,6 +41771,24 @@
     <mergeCell ref="G46:I46"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41811,7 +41892,7 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="111" t="s">
         <v>79</v>
       </c>
       <c r="D6" s="105"/>
@@ -42361,10 +42442,10 @@
       <c r="A55" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="107" t="s">
+      <c r="B55" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="108"/>
+      <c r="C55" s="109"/>
       <c r="D55" s="25" t="s">
         <v>18</v>
       </c>
@@ -42372,11 +42453,11 @@
       <c r="F55" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="107" t="s">
+      <c r="G55" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="H55" s="109"/>
-      <c r="I55" s="108"/>
+      <c r="H55" s="110"/>
+      <c r="I55" s="109"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="27">
@@ -42507,7 +42588,7 @@
       </c>
       <c r="E62" s="35"/>
       <c r="F62" s="27"/>
-      <c r="G62" s="110" t="s">
+      <c r="G62" s="111" t="s">
         <v>93</v>
       </c>
       <c r="H62" s="105"/>
@@ -42526,7 +42607,7 @@
       </c>
       <c r="E63" s="35"/>
       <c r="F63" s="27"/>
-      <c r="G63" s="110" t="s">
+      <c r="G63" s="111" t="s">
         <v>95</v>
       </c>
       <c r="H63" s="105"/>
@@ -42581,7 +42662,7 @@
       </c>
       <c r="E66" s="106"/>
       <c r="F66" s="27"/>
-      <c r="G66" s="110" t="s">
+      <c r="G66" s="111" t="s">
         <v>146</v>
       </c>
       <c r="H66" s="105"/>
@@ -42853,12 +42934,12 @@
       <c r="B90" s="40">
         <v>1</v>
       </c>
-      <c r="C90" s="99" t="s">
+      <c r="C90" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="D90" s="99"/>
-      <c r="E90" s="99"/>
-      <c r="F90" s="99"/>
+      <c r="D90" s="98"/>
+      <c r="E90" s="98"/>
+      <c r="F90" s="98"/>
       <c r="G90" s="18"/>
       <c r="H90" s="18"/>
       <c r="I90" s="20"/>
@@ -42868,12 +42949,12 @@
       <c r="B91" s="40">
         <v>2</v>
       </c>
-      <c r="C91" s="99" t="s">
+      <c r="C91" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="D91" s="99"/>
-      <c r="E91" s="99"/>
-      <c r="F91" s="99"/>
+      <c r="D91" s="98"/>
+      <c r="E91" s="98"/>
+      <c r="F91" s="98"/>
       <c r="G91" s="18"/>
       <c r="H91" s="18"/>
       <c r="I91" s="20"/>
@@ -42883,12 +42964,12 @@
       <c r="B92" s="40">
         <v>3</v>
       </c>
-      <c r="C92" s="99" t="s">
+      <c r="C92" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="D92" s="99"/>
-      <c r="E92" s="99"/>
-      <c r="F92" s="99"/>
+      <c r="D92" s="98"/>
+      <c r="E92" s="98"/>
+      <c r="F92" s="98"/>
       <c r="G92" s="18"/>
       <c r="H92" s="18"/>
       <c r="I92" s="20"/>
@@ -42898,12 +42979,12 @@
       <c r="B93" s="40">
         <v>4</v>
       </c>
-      <c r="C93" s="99" t="s">
+      <c r="C93" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="D93" s="99"/>
-      <c r="E93" s="99"/>
-      <c r="F93" s="99"/>
+      <c r="D93" s="98"/>
+      <c r="E93" s="98"/>
+      <c r="F93" s="98"/>
       <c r="G93" s="18"/>
       <c r="H93" s="18"/>
       <c r="I93" s="20"/>
@@ -42943,33 +43024,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="C90:F90"/>
-    <mergeCell ref="C91:F91"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="D67:E67"/>
@@ -42986,6 +43040,33 @@
     <mergeCell ref="A54:I54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="G55:I55"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="C90:F90"/>
+    <mergeCell ref="C91:F91"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43089,7 +43170,7 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="111" t="s">
         <v>79</v>
       </c>
       <c r="D6" s="105"/>
@@ -43584,10 +43665,10 @@
       <c r="A50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="107" t="s">
+      <c r="B50" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="108"/>
+      <c r="C50" s="109"/>
       <c r="D50" s="25" t="s">
         <v>18</v>
       </c>
@@ -43595,11 +43676,11 @@
       <c r="F50" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="107" t="s">
+      <c r="G50" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="109"/>
-      <c r="I50" s="108"/>
+      <c r="H50" s="110"/>
+      <c r="I50" s="109"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="27">
@@ -43673,7 +43754,7 @@
       <c r="F54" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="110" t="s">
+      <c r="G54" s="111" t="s">
         <v>148</v>
       </c>
       <c r="H54" s="105"/>
@@ -43884,19 +43965,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
     <mergeCell ref="A57:I57"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:E56"/>
@@ -43908,6 +43976,19 @@
     <mergeCell ref="G53:I53"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="G54:I54"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44011,7 +44092,7 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="111" t="s">
         <v>153</v>
       </c>
       <c r="D6" s="105"/>
@@ -44506,10 +44587,10 @@
       <c r="A50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="107" t="s">
+      <c r="B50" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="108"/>
+      <c r="C50" s="109"/>
       <c r="D50" s="25" t="s">
         <v>18</v>
       </c>
@@ -44517,11 +44598,11 @@
       <c r="F50" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="107" t="s">
+      <c r="G50" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="109"/>
-      <c r="I50" s="108"/>
+      <c r="H50" s="110"/>
+      <c r="I50" s="109"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="27">
@@ -44595,7 +44676,7 @@
       <c r="F54" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="110" t="s">
+      <c r="G54" s="111" t="s">
         <v>156</v>
       </c>
       <c r="H54" s="105"/>
@@ -44614,7 +44695,7 @@
       </c>
       <c r="E55" s="37"/>
       <c r="F55" s="27"/>
-      <c r="G55" s="110" t="s">
+      <c r="G55" s="111" t="s">
         <v>158</v>
       </c>
       <c r="H55" s="105"/>
@@ -44709,7 +44790,7 @@
       </c>
       <c r="E60" s="106"/>
       <c r="F60" s="27"/>
-      <c r="G60" s="110" t="s">
+      <c r="G60" s="111" t="s">
         <v>305</v>
       </c>
       <c r="H60" s="105"/>
@@ -44728,7 +44809,7 @@
       </c>
       <c r="E61" s="106"/>
       <c r="F61" s="27"/>
-      <c r="G61" s="110" t="s">
+      <c r="G61" s="111" t="s">
         <v>167</v>
       </c>
       <c r="H61" s="105"/>
@@ -44966,12 +45047,26 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="G57:I57"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="G54:I54"/>
     <mergeCell ref="A8:I8"/>
@@ -44986,26 +45081,12 @@
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="G53:I53"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45108,7 +45189,7 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="111" t="s">
         <v>381</v>
       </c>
       <c r="D6" s="105"/>
@@ -45438,10 +45519,10 @@
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="107" t="s">
+      <c r="B35" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="108"/>
+      <c r="C35" s="109"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -45449,11 +45530,11 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="107" t="s">
+      <c r="G35" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="109"/>
-      <c r="I35" s="108"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="109"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
@@ -45747,12 +45828,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:I42"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="B35:C35"/>
@@ -45760,12 +45841,12 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45868,7 +45949,7 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="111" t="s">
         <v>405</v>
       </c>
       <c r="D6" s="105"/>
@@ -46363,10 +46444,10 @@
       <c r="A50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="107" t="s">
+      <c r="B50" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="108"/>
+      <c r="C50" s="109"/>
       <c r="D50" s="25" t="s">
         <v>18</v>
       </c>
@@ -46374,11 +46455,11 @@
       <c r="F50" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="107" t="s">
+      <c r="G50" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="109"/>
-      <c r="I50" s="108"/>
+      <c r="H50" s="110"/>
+      <c r="I50" s="109"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="27">
@@ -46433,7 +46514,7 @@
       <c r="F53" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G53" s="110" t="s">
+      <c r="G53" s="111" t="s">
         <v>395</v>
       </c>
       <c r="H53" s="105"/>
@@ -46454,7 +46535,7 @@
       <c r="F54" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="110" t="s">
+      <c r="G54" s="111" t="s">
         <v>400</v>
       </c>
       <c r="H54" s="105"/>
@@ -46473,7 +46554,7 @@
       </c>
       <c r="E55" s="75"/>
       <c r="F55" s="27"/>
-      <c r="G55" s="110" t="s">
+      <c r="G55" s="111" t="s">
         <v>397</v>
       </c>
       <c r="H55" s="105"/>
@@ -46565,25 +46646,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G54:I54"/>
     <mergeCell ref="A58:I58"/>
     <mergeCell ref="G55:I55"/>
     <mergeCell ref="B56:C56"/>
@@ -46592,6 +46654,25 @@
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="G57:I57"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46789,7 +46870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
@@ -46880,7 +46961,7 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="111" t="s">
         <v>79</v>
       </c>
       <c r="D6" s="105"/>
@@ -47375,10 +47456,10 @@
       <c r="A50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="107" t="s">
+      <c r="B50" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="108"/>
+      <c r="C50" s="109"/>
       <c r="D50" s="25" t="s">
         <v>18</v>
       </c>
@@ -47386,11 +47467,11 @@
       <c r="F50" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="107" t="s">
+      <c r="G50" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="109"/>
-      <c r="I50" s="108"/>
+      <c r="H50" s="110"/>
+      <c r="I50" s="109"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="27">
@@ -47462,7 +47543,7 @@
       </c>
       <c r="E54" s="106"/>
       <c r="F54" s="27"/>
-      <c r="G54" s="110" t="s">
+      <c r="G54" s="111" t="s">
         <v>407</v>
       </c>
       <c r="H54" s="105"/>
@@ -47665,19 +47746,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="G56:I56"/>
@@ -47689,6 +47757,19 @@
     <mergeCell ref="G53:I53"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="G54:I54"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47792,7 +47873,7 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="111" t="s">
         <v>79</v>
       </c>
       <c r="D6" s="105"/>
@@ -48287,10 +48368,10 @@
       <c r="A50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="107" t="s">
+      <c r="B50" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="108"/>
+      <c r="C50" s="109"/>
       <c r="D50" s="25" t="s">
         <v>18</v>
       </c>
@@ -48298,11 +48379,11 @@
       <c r="F50" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="107" t="s">
+      <c r="G50" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="109"/>
-      <c r="I50" s="108"/>
+      <c r="H50" s="110"/>
+      <c r="I50" s="109"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="27">
@@ -48376,7 +48457,7 @@
       <c r="F54" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="110" t="s">
+      <c r="G54" s="111" t="s">
         <v>428</v>
       </c>
       <c r="H54" s="105"/>
@@ -48452,7 +48533,7 @@
       </c>
       <c r="E58" s="106"/>
       <c r="F58" s="27"/>
-      <c r="G58" s="110" t="s">
+      <c r="G58" s="111" t="s">
         <v>417</v>
       </c>
       <c r="H58" s="105"/>
@@ -48471,7 +48552,7 @@
       </c>
       <c r="E59" s="106"/>
       <c r="F59" s="27"/>
-      <c r="G59" s="110" t="s">
+      <c r="G59" s="111" t="s">
         <v>417</v>
       </c>
       <c r="H59" s="105"/>
@@ -48510,12 +48591,12 @@
       <c r="D62" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="E62" s="120" t="s">
+      <c r="E62" s="121" t="s">
         <v>421</v>
       </c>
-      <c r="F62" s="120"/>
-      <c r="G62" s="120"/>
-      <c r="H62" s="120"/>
+      <c r="F62" s="121"/>
+      <c r="G62" s="121"/>
+      <c r="H62" s="121"/>
       <c r="I62" s="20"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -48527,12 +48608,12 @@
       <c r="D63" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="E63" s="121" t="s">
+      <c r="E63" s="122" t="s">
         <v>424</v>
       </c>
-      <c r="F63" s="121"/>
-      <c r="G63" s="121"/>
-      <c r="H63" s="121"/>
+      <c r="F63" s="122"/>
+      <c r="G63" s="122"/>
+      <c r="H63" s="122"/>
       <c r="I63" s="20"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -48544,12 +48625,12 @@
       <c r="D64" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="E64" s="121" t="s">
+      <c r="E64" s="122" t="s">
         <v>425</v>
       </c>
-      <c r="F64" s="121"/>
-      <c r="G64" s="121"/>
-      <c r="H64" s="121"/>
+      <c r="F64" s="122"/>
+      <c r="G64" s="122"/>
+      <c r="H64" s="122"/>
       <c r="I64" s="20"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -48561,12 +48642,12 @@
       <c r="D65" s="43" t="s">
         <v>422</v>
       </c>
-      <c r="E65" s="121" t="s">
+      <c r="E65" s="122" t="s">
         <v>426</v>
       </c>
-      <c r="F65" s="121"/>
-      <c r="G65" s="121"/>
-      <c r="H65" s="121"/>
+      <c r="F65" s="122"/>
+      <c r="G65" s="122"/>
+      <c r="H65" s="122"/>
       <c r="I65" s="20"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -48578,12 +48659,12 @@
       <c r="D66" s="43" t="s">
         <v>423</v>
       </c>
-      <c r="E66" s="121" t="s">
+      <c r="E66" s="122" t="s">
         <v>427</v>
       </c>
-      <c r="F66" s="121"/>
-      <c r="G66" s="121"/>
-      <c r="H66" s="121"/>
+      <c r="F66" s="122"/>
+      <c r="G66" s="122"/>
+      <c r="H66" s="122"/>
       <c r="I66" s="20"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -48676,11 +48757,20 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="A60:I60"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="D59:E59"/>
@@ -48688,11 +48778,6 @@
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="G58:I58"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A49:I49"/>
     <mergeCell ref="B50:C50"/>
@@ -48702,15 +48787,11 @@
     <mergeCell ref="G51:I51"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="A60:I60"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E66:H66"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48722,10 +48803,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:J39"/>
+  <dimension ref="A2:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -48736,25 +48817,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="84" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="85" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="85" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85" t="s">
         <v>271</v>
       </c>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="85" t="s">
         <v>272</v>
       </c>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="85" t="s">
         <v>272</v>
       </c>
     </row>
@@ -48765,7 +48846,7 @@
       <c r="B3" s="52" t="s">
         <v>270</v>
       </c>
-      <c r="C3" s="84"/>
+      <c r="C3" s="85"/>
       <c r="D3" s="51" t="s">
         <v>124</v>
       </c>
@@ -48775,12 +48856,12 @@
       <c r="F3" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="93">
         <v>0</v>
       </c>
       <c r="B4" s="53">
@@ -48816,7 +48897,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="88"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="53">
         <v>2</v>
       </c>
@@ -48848,7 +48929,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="88"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="53">
         <v>3</v>
       </c>
@@ -48880,7 +48961,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="89"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="53">
         <v>4</v>
       </c>
@@ -48910,7 +48991,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="95">
+      <c r="A8" s="89">
         <v>1</v>
       </c>
       <c r="B8" s="53">
@@ -48946,7 +49027,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="96"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="53">
         <v>2</v>
       </c>
@@ -48980,7 +49061,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="92">
+      <c r="A10" s="86">
         <v>2</v>
       </c>
       <c r="B10" s="53">
@@ -49016,7 +49097,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="94"/>
+      <c r="A11" s="88"/>
       <c r="B11" s="53">
         <v>2</v>
       </c>
@@ -49050,7 +49131,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="92">
+      <c r="A12" s="86">
         <v>3</v>
       </c>
       <c r="B12" s="53">
@@ -49086,7 +49167,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="94"/>
+      <c r="A13" s="88"/>
       <c r="B13" s="53">
         <v>2</v>
       </c>
@@ -49120,7 +49201,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="95">
+      <c r="A14" s="89">
         <v>4</v>
       </c>
       <c r="B14" s="53">
@@ -49156,7 +49237,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="96"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="53">
         <v>2</v>
       </c>
@@ -49190,7 +49271,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="92">
+      <c r="A16" s="86">
         <v>5</v>
       </c>
       <c r="B16" s="53">
@@ -49224,7 +49305,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="93"/>
+      <c r="A17" s="87"/>
       <c r="B17" s="53">
         <v>2</v>
       </c>
@@ -49256,7 +49337,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="94"/>
+      <c r="A18" s="88"/>
       <c r="B18" s="53">
         <v>3</v>
       </c>
@@ -49288,7 +49369,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="92">
+      <c r="A19" s="86">
         <v>6</v>
       </c>
       <c r="B19" s="53">
@@ -49322,7 +49403,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="93"/>
+      <c r="A20" s="87"/>
       <c r="B20" s="53">
         <v>2</v>
       </c>
@@ -49353,7 +49434,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="93"/>
+      <c r="A21" s="87"/>
       <c r="B21" s="53">
         <v>3</v>
       </c>
@@ -49385,7 +49466,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="94"/>
+      <c r="A22" s="88"/>
       <c r="B22" s="53">
         <v>4</v>
       </c>
@@ -49451,7 +49532,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="92">
+      <c r="A24" s="86">
         <v>8</v>
       </c>
       <c r="B24" s="53">
@@ -49485,7 +49566,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="93"/>
+      <c r="A25" s="87"/>
       <c r="B25" s="53">
         <v>2</v>
       </c>
@@ -49515,7 +49596,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="93"/>
+      <c r="A26" s="87"/>
       <c r="B26" s="53">
         <v>3</v>
       </c>
@@ -49545,7 +49626,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="94"/>
+      <c r="A27" s="88"/>
       <c r="B27" s="53">
         <v>4</v>
       </c>
@@ -49575,7 +49656,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="92">
+      <c r="A28" s="86">
         <v>9</v>
       </c>
       <c r="B28" s="53">
@@ -49611,7 +49692,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="93"/>
+      <c r="A29" s="87"/>
       <c r="B29" s="53">
         <v>2</v>
       </c>
@@ -49643,7 +49724,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="94"/>
+      <c r="A30" s="88"/>
       <c r="B30" s="53">
         <v>3</v>
       </c>
@@ -49707,7 +49788,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="92">
+      <c r="A32" s="86">
         <v>11</v>
       </c>
       <c r="B32" s="53">
@@ -49741,7 +49822,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="93"/>
+      <c r="A33" s="87"/>
       <c r="B33" s="53">
         <v>2</v>
       </c>
@@ -49773,7 +49854,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="94"/>
+      <c r="A34" s="88"/>
       <c r="B34" s="53">
         <v>3</v>
       </c>
@@ -49805,7 +49886,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="90">
+      <c r="A35" s="96">
         <v>12</v>
       </c>
       <c r="B35" s="76">
@@ -49839,7 +49920,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="91"/>
+      <c r="A36" s="97"/>
       <c r="B36" s="76">
         <v>2</v>
       </c>
@@ -49972,12 +50053,113 @@
         <v>0,1,2</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" ref="J39" si="20">G39&amp;"="&amp;I39</f>
+        <f t="shared" ref="J39:J42" si="20">G39&amp;"="&amp;I39</f>
         <v>display01501=0,1,2</v>
       </c>
     </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="96">
+        <v>16</v>
+      </c>
+      <c r="B40" s="76">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84" t="s">
+        <v>211</v>
+      </c>
+      <c r="F40" s="84" t="s">
+        <v>211</v>
+      </c>
+      <c r="G40" s="2" t="str">
+        <f>"display"&amp;TEXT($A$40,"000")&amp;TEXT(B40,"00")</f>
+        <v>display01601</v>
+      </c>
+      <c r="H40" s="2" t="str">
+        <f t="shared" ref="H40:H42" si="21">IF(D40="○","0,","")&amp;IF(E40="○","1,","")&amp;IF(F40="○","2","")</f>
+        <v>1,2</v>
+      </c>
+      <c r="I40" s="2" t="str">
+        <f t="shared" ref="I40:I42" si="22">IF(RIGHT(H40,1)=",",LEFT(H40,LEN(H40)-1),H40)</f>
+        <v>1,2</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="20"/>
+        <v>display01601=1,2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="123"/>
+      <c r="B41" s="76">
+        <v>2</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D41" s="84"/>
+      <c r="E41" s="84" t="s">
+        <v>211</v>
+      </c>
+      <c r="F41" s="84" t="s">
+        <v>211</v>
+      </c>
+      <c r="G41" s="2" t="str">
+        <f t="shared" ref="G41:G42" si="23">"display"&amp;TEXT($A$40,"000")&amp;TEXT(B41,"00")</f>
+        <v>display01602</v>
+      </c>
+      <c r="H41" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>1,2</v>
+      </c>
+      <c r="I41" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>1,2</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="20"/>
+        <v>display01602=1,2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="97"/>
+      <c r="B42" s="76">
+        <v>3</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D42" s="84"/>
+      <c r="E42" s="84" t="s">
+        <v>211</v>
+      </c>
+      <c r="F42" s="84" t="s">
+        <v>211</v>
+      </c>
+      <c r="G42" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v>display01603</v>
+      </c>
+      <c r="H42" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>1,2</v>
+      </c>
+      <c r="I42" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>1,2</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="20"/>
+        <v>display01603=1,2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A40:A42"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A24:A27"/>
@@ -49993,8 +50175,6 @@
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A32:A34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -50233,13 +50413,13 @@
       <c r="D8" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="99" t="s">
         <v>223</v>
       </c>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
       <c r="K8" t="str">
         <f>B8&amp;"="</f>
         <v>password.expiry=</v>
@@ -50256,13 +50436,13 @@
       <c r="D9" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="99" t="s">
         <v>226</v>
       </c>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
       <c r="K9" t="str">
         <f>B9&amp;"="</f>
         <v>display00001=</v>
@@ -50279,13 +50459,13 @@
       <c r="D10" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="99" t="s">
         <v>227</v>
       </c>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
       <c r="K10" t="str">
         <f>B10&amp;"="</f>
         <v>display00002=</v>
@@ -50302,13 +50482,13 @@
       <c r="D11" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E11" s="98" t="s">
+      <c r="E11" s="99" t="s">
         <v>228</v>
       </c>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
       <c r="K11" t="str">
         <f t="shared" ref="K11:K39" si="0">B11&amp;"="</f>
         <v>display00003=</v>
@@ -50325,13 +50505,13 @@
       <c r="D12" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E12" s="98" t="s">
+      <c r="E12" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
         <v>display00004=</v>
@@ -50348,13 +50528,13 @@
       <c r="D13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E13" s="98" t="s">
+      <c r="E13" s="99" t="s">
         <v>230</v>
       </c>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
         <v>display00101=</v>
@@ -50371,13 +50551,13 @@
       <c r="D14" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E14" s="98" t="s">
+      <c r="E14" s="99" t="s">
         <v>231</v>
       </c>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
         <v>display00102=</v>
@@ -50394,13 +50574,13 @@
       <c r="D15" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="98" t="s">
+      <c r="E15" s="99" t="s">
         <v>232</v>
       </c>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
         <v>display00201=</v>
@@ -50417,13 +50597,13 @@
       <c r="D16" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E16" s="98" t="s">
+      <c r="E16" s="99" t="s">
         <v>233</v>
       </c>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
         <v>display00202=</v>
@@ -50440,13 +50620,13 @@
       <c r="D17" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E17" s="98" t="s">
+      <c r="E17" s="99" t="s">
         <v>234</v>
       </c>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
         <v>display00301=</v>
@@ -50463,13 +50643,13 @@
       <c r="D18" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E18" s="98" t="s">
+      <c r="E18" s="99" t="s">
         <v>235</v>
       </c>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
         <v>display00302=</v>
@@ -50486,13 +50666,13 @@
       <c r="D19" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E19" s="98" t="s">
+      <c r="E19" s="99" t="s">
         <v>236</v>
       </c>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
         <v>display00401=</v>
@@ -50509,13 +50689,13 @@
       <c r="D20" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E20" s="98" t="s">
+      <c r="E20" s="99" t="s">
         <v>237</v>
       </c>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="98"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
         <v>display00402=</v>
@@ -50532,13 +50712,13 @@
       <c r="D21" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E21" s="98" t="s">
+      <c r="E21" s="99" t="s">
         <v>238</v>
       </c>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
         <v>display00501=</v>
@@ -50555,13 +50735,13 @@
       <c r="D22" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E22" s="98" t="s">
+      <c r="E22" s="99" t="s">
         <v>239</v>
       </c>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="98"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
         <v>display00502=</v>
@@ -50578,13 +50758,13 @@
       <c r="D23" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E23" s="98" t="s">
+      <c r="E23" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
         <v>display00503=</v>
@@ -50601,13 +50781,13 @@
       <c r="D24" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E24" s="98" t="s">
+      <c r="E24" s="99" t="s">
         <v>241</v>
       </c>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
         <v>display00601=</v>
@@ -50624,13 +50804,13 @@
       <c r="D25" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E25" s="98" t="s">
+      <c r="E25" s="99" t="s">
         <v>242</v>
       </c>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="98"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="99"/>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
         <v>display00602=</v>
@@ -50647,13 +50827,13 @@
       <c r="D26" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E26" s="98" t="s">
+      <c r="E26" s="99" t="s">
         <v>243</v>
       </c>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="99"/>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
         <v>display00603=</v>
@@ -50670,13 +50850,13 @@
       <c r="D27" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E27" s="98" t="s">
+      <c r="E27" s="99" t="s">
         <v>244</v>
       </c>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="98"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
       <c r="K27" t="str">
         <f t="shared" si="0"/>
         <v>display00701=</v>
@@ -50693,13 +50873,13 @@
       <c r="D28" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E28" s="98" t="s">
+      <c r="E28" s="99" t="s">
         <v>245</v>
       </c>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="99"/>
       <c r="K28" t="str">
         <f t="shared" si="0"/>
         <v>display00801=</v>
@@ -50716,13 +50896,13 @@
       <c r="D29" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E29" s="98" t="s">
+      <c r="E29" s="99" t="s">
         <v>246</v>
       </c>
-      <c r="F29" s="98"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="98"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
       <c r="K29" t="str">
         <f t="shared" si="0"/>
         <v>display00802=</v>
@@ -50739,13 +50919,13 @@
       <c r="D30" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E30" s="98" t="s">
+      <c r="E30" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="99"/>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
         <v>display00803=</v>
@@ -50762,13 +50942,13 @@
       <c r="D31" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E31" s="98" t="s">
+      <c r="E31" s="99" t="s">
         <v>248</v>
       </c>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="98"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="99"/>
       <c r="K31" t="str">
         <f t="shared" si="0"/>
         <v>display00804=</v>
@@ -50785,13 +50965,13 @@
       <c r="D32" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E32" s="98" t="s">
+      <c r="E32" s="99" t="s">
         <v>249</v>
       </c>
-      <c r="F32" s="98"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="98"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="99"/>
       <c r="K32" t="str">
         <f t="shared" si="0"/>
         <v>display00901=</v>
@@ -50808,13 +50988,13 @@
       <c r="D33" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E33" s="98" t="s">
+      <c r="E33" s="99" t="s">
         <v>250</v>
       </c>
-      <c r="F33" s="98"/>
-      <c r="G33" s="98"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="98"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="99"/>
       <c r="K33" t="str">
         <f t="shared" si="0"/>
         <v>display00902=</v>
@@ -50831,13 +51011,13 @@
       <c r="D34" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E34" s="98" t="s">
+      <c r="E34" s="99" t="s">
         <v>251</v>
       </c>
-      <c r="F34" s="98"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="98"/>
-      <c r="I34" s="98"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="99"/>
       <c r="K34" t="str">
         <f t="shared" si="0"/>
         <v>display00903=</v>
@@ -50854,13 +51034,13 @@
       <c r="D35" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E35" s="97" t="s">
+      <c r="E35" s="107" t="s">
         <v>252</v>
       </c>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
-      <c r="I35" s="97"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="107"/>
+      <c r="I35" s="107"/>
       <c r="K35" t="str">
         <f t="shared" si="0"/>
         <v>password.policy=</v>
@@ -50879,13 +51059,13 @@
       <c r="D36" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E36" s="97" t="s">
+      <c r="E36" s="107" t="s">
         <v>253</v>
       </c>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="107"/>
       <c r="K36" t="str">
         <f t="shared" si="0"/>
         <v>judge.class=</v>
@@ -50902,13 +51082,13 @@
       <c r="D37" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E37" s="97" t="s">
+      <c r="E37" s="107" t="s">
         <v>254</v>
       </c>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="107"/>
       <c r="K37" t="str">
         <f t="shared" si="0"/>
         <v>force.pass.change=</v>
@@ -50927,13 +51107,13 @@
       <c r="D38" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E38" s="97" t="s">
+      <c r="E38" s="107" t="s">
         <v>255</v>
       </c>
-      <c r="F38" s="97"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="97"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="107"/>
       <c r="K38" t="str">
         <f t="shared" si="0"/>
         <v>judge.result.table.name=</v>
@@ -50952,13 +51132,13 @@
       <c r="D39" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E39" s="98" t="s">
+      <c r="E39" s="99" t="s">
         <v>263</v>
       </c>
-      <c r="F39" s="98"/>
-      <c r="G39" s="98"/>
-      <c r="H39" s="98"/>
-      <c r="I39" s="98"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="99"/>
       <c r="K39" t="str">
         <f t="shared" si="0"/>
         <v>pwd.hash.salt=</v>
@@ -50977,13 +51157,13 @@
       <c r="D40" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E40" s="98" t="s">
+      <c r="E40" s="99" t="s">
         <v>302</v>
       </c>
-      <c r="F40" s="98"/>
-      <c r="G40" s="98"/>
-      <c r="H40" s="98"/>
-      <c r="I40" s="98"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="99"/>
       <c r="K40" t="str">
         <f t="shared" ref="K40" si="1">B40&amp;"="</f>
         <v>upload.directory=</v>
@@ -51002,13 +51182,13 @@
       <c r="D41" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E41" s="98" t="s">
+      <c r="E41" s="99" t="s">
         <v>303</v>
       </c>
-      <c r="F41" s="98"/>
-      <c r="G41" s="98"/>
-      <c r="H41" s="98"/>
-      <c r="I41" s="98"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="99"/>
       <c r="K41" t="str">
         <f t="shared" ref="K41" si="2">B41&amp;"="</f>
         <v>result.directory=</v>
@@ -51025,13 +51205,13 @@
       <c r="D42" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E42" s="99" t="s">
+      <c r="E42" s="98" t="s">
         <v>339</v>
       </c>
-      <c r="F42" s="98"/>
-      <c r="G42" s="98"/>
-      <c r="H42" s="98"/>
-      <c r="I42" s="98"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="99"/>
       <c r="K42" t="str">
         <f t="shared" ref="K42" si="3">B42&amp;"="</f>
         <v>pwd.lock.limit=</v>
@@ -51039,6 +51219,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
     <mergeCell ref="E42:I42"/>
     <mergeCell ref="E41:I41"/>
     <mergeCell ref="E7:I7"/>
@@ -51055,31 +51260,6 @@
     <mergeCell ref="E12:I12"/>
     <mergeCell ref="E13:I13"/>
     <mergeCell ref="E14:I14"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E37:I37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51529,10 +51709,10 @@
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="107" t="s">
+      <c r="B35" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="108"/>
+      <c r="C35" s="109"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -51540,11 +51720,11 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="107" t="s">
+      <c r="G35" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="109"/>
-      <c r="I35" s="108"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="109"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27" t="s">
@@ -51945,19 +52125,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
     <mergeCell ref="A40:I40"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
@@ -51968,6 +52135,19 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="G38:I38"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -52398,10 +52578,10 @@
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="107" t="s">
+      <c r="B35" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="108"/>
+      <c r="C35" s="109"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -52409,11 +52589,11 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="107" t="s">
+      <c r="G35" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="109"/>
-      <c r="I35" s="108"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="109"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27" t="s">
@@ -52802,6 +52982,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="G39:I39"/>
@@ -52812,19 +53005,6 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="G38:I38"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -52929,7 +53109,7 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="111" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="105"/>
@@ -53259,10 +53439,10 @@
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="107" t="s">
+      <c r="B35" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="108"/>
+      <c r="C35" s="109"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -53270,11 +53450,11 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="107" t="s">
+      <c r="G35" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="109"/>
-      <c r="I35" s="108"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="109"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
@@ -53732,6 +53912,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="G36:I36"/>
@@ -53740,19 +53933,6 @@
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="G35:I35"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:I38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -53856,7 +54036,7 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="111" t="s">
         <v>59</v>
       </c>
       <c r="D6" s="105"/>
@@ -54186,10 +54366,10 @@
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="107" t="s">
+      <c r="B35" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="108"/>
+      <c r="C35" s="109"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -54197,11 +54377,11 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="107" t="s">
+      <c r="G35" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="109"/>
-      <c r="I35" s="108"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="109"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
@@ -54330,7 +54510,7 @@
       </c>
       <c r="E42" s="31"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="110" t="s">
+      <c r="G42" s="111" t="s">
         <v>52</v>
       </c>
       <c r="H42" s="105"/>
@@ -54686,25 +54866,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G39:I39"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="G43:I43"/>
@@ -54714,6 +54875,25 @@
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="G41:I41"/>
     <mergeCell ref="G42:I42"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -54817,7 +54997,7 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="111" t="s">
         <v>58</v>
       </c>
       <c r="D6" s="105"/>
@@ -55301,10 +55481,10 @@
       <c r="A49" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="107" t="s">
+      <c r="B49" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="108"/>
+      <c r="C49" s="109"/>
       <c r="D49" s="25" t="s">
         <v>18</v>
       </c>
@@ -55312,11 +55492,11 @@
       <c r="F49" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="107" t="s">
+      <c r="G49" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="H49" s="109"/>
-      <c r="I49" s="108"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="109"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="27">
@@ -55451,11 +55631,11 @@
       <c r="F56" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G56" s="110" t="s">
+      <c r="G56" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="H56" s="111"/>
-      <c r="I56" s="112"/>
+      <c r="H56" s="112"/>
+      <c r="I56" s="113"/>
     </row>
     <row r="57" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="27">
@@ -55472,11 +55652,11 @@
       <c r="F57" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G57" s="110" t="s">
+      <c r="G57" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="H57" s="111"/>
-      <c r="I57" s="112"/>
+      <c r="H57" s="112"/>
+      <c r="I57" s="113"/>
     </row>
     <row r="58" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="27">
@@ -55493,11 +55673,11 @@
       <c r="F58" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G58" s="110" t="s">
+      <c r="G58" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="H58" s="111"/>
-      <c r="I58" s="112"/>
+      <c r="H58" s="112"/>
+      <c r="I58" s="113"/>
     </row>
     <row r="59" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="27">
@@ -55514,11 +55694,11 @@
       <c r="F59" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G59" s="110" t="s">
+      <c r="G59" s="111" t="s">
         <v>73</v>
       </c>
-      <c r="H59" s="111"/>
-      <c r="I59" s="112"/>
+      <c r="H59" s="112"/>
+      <c r="I59" s="113"/>
     </row>
     <row r="60" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="27">
@@ -55921,24 +56101,22 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="A64:I64"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="D54:E54"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="G63:I63"/>
     <mergeCell ref="D51:E51"/>
@@ -55955,22 +56133,24 @@
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A64:I64"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="G60:I60"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/設計書もどき.xlsx
+++ b/設計書/設計書もどき.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="12" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="機能一覧" sheetId="16" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="438">
   <si>
     <t>画面レイアウト定義</t>
     <rPh sb="0" eb="2">
@@ -4283,10 +4283,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ラベル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>解答</t>
     <rPh sb="0" eb="2">
       <t>カイトウ</t>
@@ -4858,6 +4854,63 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>得点詳細画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメントを表示する</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エディット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメントを入力する　ロールが管理者又は先生の時のみ表示</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センセイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント表示、コメント入力機能を追加</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5145,7 +5198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5321,12 +5374,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -5340,16 +5405,11 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5369,7 +5429,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5412,9 +5471,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -26558,7 +26614,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -26841,7 +26897,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>53339</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -27122,13 +27178,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -29016,13 +29072,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -29083,7 +29139,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -29093,7 +29149,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2179320" y="6027420"/>
-          <a:ext cx="3718560" cy="975360"/>
+          <a:ext cx="3718560" cy="982980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -29323,6 +29379,291 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>⑭</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="正方形/長方形 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2141220" y="7239000"/>
+          <a:ext cx="3718560" cy="944880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>これではだめです。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>746760</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>179070</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="線吹き出し 1 (枠付き) 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="7520940"/>
+          <a:ext cx="323850" cy="262890"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 47993"/>
+            <a:gd name="adj2" fmla="val -686"/>
+            <a:gd name="adj3" fmla="val 56183"/>
+            <a:gd name="adj4" fmla="val -105393"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>⑮</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="正方形/長方形 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="8389620"/>
+          <a:ext cx="3718560" cy="944880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>これではだめです。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>459105</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="角丸四角形 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4884420" y="9366885"/>
+          <a:ext cx="923925" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コメント更新</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>678180</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>110490</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="線吹き出し 1 (枠付き) 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6027420" y="8481060"/>
+          <a:ext cx="323850" cy="262890"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 47993"/>
+            <a:gd name="adj2" fmla="val -686"/>
+            <a:gd name="adj3" fmla="val 56183"/>
+            <a:gd name="adj4" fmla="val -105393"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>⑯</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -39343,7 +39684,7 @@
   <dimension ref="A2:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:A30"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -39352,17 +39693,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>341</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="86" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="85"/>
+      <c r="A3" s="86"/>
       <c r="B3" s="63" t="s">
         <v>124</v>
       </c>
@@ -39689,7 +40030,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="43" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B27" s="68" t="s">
         <v>211</v>
@@ -39703,7 +40044,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="43" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="68" t="s">
@@ -39715,7 +40056,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="43" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="68" t="s">
@@ -39727,7 +40068,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="43" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="68" t="s">
@@ -39762,17 +40103,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -39781,11 +40122,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -39796,11 +40137,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -39811,11 +40152,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -39828,11 +40169,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -39843,13 +40184,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="109"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -39869,17 +40210,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="103"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="106"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -40157,26 +40498,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="101" t="s">
+      <c r="A34" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="102"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="103"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="106"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="108" t="s">
+      <c r="B35" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="109"/>
+      <c r="C35" s="111"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -40184,30 +40525,30 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="108" t="s">
+      <c r="G35" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="110"/>
-      <c r="I35" s="109"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="111"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="104" t="s">
+      <c r="B36" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="106"/>
-      <c r="D36" s="104" t="s">
+      <c r="C36" s="109"/>
+      <c r="D36" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="106"/>
+      <c r="E36" s="109"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="104"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="106"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="109"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="27">
@@ -40215,16 +40556,16 @@
       </c>
       <c r="B37" s="57"/>
       <c r="C37" s="59"/>
-      <c r="D37" s="104" t="s">
+      <c r="D37" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="106"/>
+      <c r="E37" s="109"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="104"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="106"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="109"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="27">
@@ -40234,18 +40575,18 @@
         <v>82</v>
       </c>
       <c r="C38" s="59"/>
-      <c r="D38" s="104" t="s">
+      <c r="D38" s="107" t="s">
         <v>319</v>
       </c>
-      <c r="E38" s="106"/>
+      <c r="E38" s="109"/>
       <c r="F38" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="G38" s="104" t="s">
+      <c r="G38" s="107" t="s">
         <v>321</v>
       </c>
-      <c r="H38" s="105"/>
-      <c r="I38" s="106"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="109"/>
     </row>
     <row r="39" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
@@ -40262,11 +40603,11 @@
       <c r="F39" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="G39" s="114" t="s">
+      <c r="G39" s="116" t="s">
         <v>324</v>
       </c>
-      <c r="H39" s="115"/>
-      <c r="I39" s="116"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="118"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="27">
@@ -40300,11 +40641,11 @@
       </c>
       <c r="E41" s="59"/>
       <c r="F41" s="27"/>
-      <c r="G41" s="117" t="s">
+      <c r="G41" s="119" t="s">
         <v>328</v>
       </c>
-      <c r="H41" s="118"/>
-      <c r="I41" s="119"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="121"/>
     </row>
     <row r="42" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="27">
@@ -40319,11 +40660,11 @@
       </c>
       <c r="E42" s="59"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="114" t="s">
+      <c r="G42" s="116" t="s">
         <v>330</v>
       </c>
-      <c r="H42" s="118"/>
-      <c r="I42" s="119"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="121"/>
     </row>
     <row r="43" spans="1:9" ht="47.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="27">
@@ -40338,11 +40679,11 @@
       </c>
       <c r="E43" s="59"/>
       <c r="F43" s="27"/>
-      <c r="G43" s="114" t="s">
+      <c r="G43" s="116" t="s">
         <v>337</v>
       </c>
-      <c r="H43" s="118"/>
-      <c r="I43" s="119"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="121"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="27">
@@ -40367,33 +40708,33 @@
       <c r="A45" s="27">
         <v>10</v>
       </c>
-      <c r="B45" s="104" t="s">
+      <c r="B45" s="107" t="s">
         <v>332</v>
       </c>
-      <c r="C45" s="106"/>
-      <c r="D45" s="104" t="s">
+      <c r="C45" s="109"/>
+      <c r="D45" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="E45" s="106"/>
+      <c r="E45" s="109"/>
       <c r="F45" s="27"/>
-      <c r="G45" s="104" t="s">
+      <c r="G45" s="107" t="s">
         <v>334</v>
       </c>
-      <c r="H45" s="105"/>
-      <c r="I45" s="106"/>
+      <c r="H45" s="108"/>
+      <c r="I45" s="109"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="101" t="s">
+      <c r="A46" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="102"/>
-      <c r="C46" s="102"/>
-      <c r="D46" s="102"/>
-      <c r="E46" s="102"/>
-      <c r="F46" s="102"/>
-      <c r="G46" s="102"/>
-      <c r="H46" s="102"/>
-      <c r="I46" s="103"/>
+      <c r="B46" s="105"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="106"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="29"/>
@@ -40705,12 +41046,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:I45"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="B35:C35"/>
@@ -40718,18 +41065,12 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="G36:I36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40752,17 +41093,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -40771,11 +41112,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -40786,11 +41127,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -40801,11 +41142,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -40818,11 +41159,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -40833,13 +41174,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="109"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -40859,17 +41200,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="103"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="106"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -41147,26 +41488,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="101" t="s">
+      <c r="A34" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="102"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="103"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="106"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="108" t="s">
+      <c r="B35" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="109"/>
+      <c r="C35" s="111"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -41174,30 +41515,30 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="108" t="s">
+      <c r="G35" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="110"/>
-      <c r="I35" s="109"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="111"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="104" t="s">
+      <c r="B36" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="106"/>
-      <c r="D36" s="104" t="s">
+      <c r="C36" s="109"/>
+      <c r="D36" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="106"/>
+      <c r="E36" s="109"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="104"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="106"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="109"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="27">
@@ -41224,16 +41565,16 @@
       </c>
       <c r="B38" s="36"/>
       <c r="C38" s="37"/>
-      <c r="D38" s="104" t="s">
+      <c r="D38" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="106"/>
+      <c r="E38" s="109"/>
       <c r="F38" s="27"/>
-      <c r="G38" s="104" t="s">
+      <c r="G38" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="H38" s="105"/>
-      <c r="I38" s="106"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="109"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
@@ -41296,20 +41637,20 @@
       <c r="A42" s="27">
         <v>7</v>
       </c>
-      <c r="B42" s="104" t="s">
+      <c r="B42" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="106"/>
-      <c r="D42" s="104" t="s">
+      <c r="C42" s="109"/>
+      <c r="D42" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="106"/>
+      <c r="E42" s="109"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="104" t="s">
+      <c r="G42" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="H42" s="105"/>
-      <c r="I42" s="106"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="109"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="27">
@@ -41353,52 +41694,52 @@
       <c r="A45" s="27">
         <v>10</v>
       </c>
-      <c r="B45" s="104" t="s">
+      <c r="B45" s="107" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="106"/>
-      <c r="D45" s="104" t="s">
+      <c r="C45" s="109"/>
+      <c r="D45" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="106"/>
+      <c r="E45" s="109"/>
       <c r="F45" s="27"/>
-      <c r="G45" s="104" t="s">
+      <c r="G45" s="107" t="s">
         <v>119</v>
       </c>
-      <c r="H45" s="105"/>
-      <c r="I45" s="106"/>
+      <c r="H45" s="108"/>
+      <c r="I45" s="109"/>
     </row>
     <row r="46" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="27">
         <v>11</v>
       </c>
-      <c r="B46" s="104" t="s">
+      <c r="B46" s="107" t="s">
         <v>151</v>
       </c>
-      <c r="C46" s="106"/>
-      <c r="D46" s="104" t="s">
+      <c r="C46" s="109"/>
+      <c r="D46" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="106"/>
+      <c r="E46" s="109"/>
       <c r="F46" s="27"/>
-      <c r="G46" s="111" t="s">
+      <c r="G46" s="113" t="s">
         <v>370</v>
       </c>
-      <c r="H46" s="105"/>
-      <c r="I46" s="106"/>
+      <c r="H46" s="108"/>
+      <c r="I46" s="109"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="101" t="s">
+      <c r="A47" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="102"/>
-      <c r="C47" s="102"/>
-      <c r="D47" s="102"/>
-      <c r="E47" s="102"/>
-      <c r="F47" s="102"/>
-      <c r="G47" s="102"/>
-      <c r="H47" s="102"/>
-      <c r="I47" s="103"/>
+      <c r="B47" s="105"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="105"/>
+      <c r="I47" s="106"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="29"/>
@@ -41456,10 +41797,10 @@
       <c r="A52" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="B52" s="120" t="s">
+      <c r="B52" s="122" t="s">
         <v>123</v>
       </c>
-      <c r="C52" s="120"/>
+      <c r="C52" s="122"/>
       <c r="D52" s="18"/>
       <c r="E52" s="42" t="s">
         <v>130</v>
@@ -41475,10 +41816,10 @@
       <c r="A53" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B53" s="99" t="s">
+      <c r="B53" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="C53" s="99"/>
+      <c r="C53" s="101"/>
       <c r="D53" s="18"/>
       <c r="E53" s="43" t="s">
         <v>131</v>
@@ -41494,10 +41835,10 @@
       <c r="A54" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B54" s="99" t="s">
+      <c r="B54" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="99"/>
+      <c r="C54" s="101"/>
       <c r="D54" s="18"/>
       <c r="E54" s="43" t="s">
         <v>133</v>
@@ -41513,10 +41854,10 @@
       <c r="A55" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B55" s="99" t="s">
+      <c r="B55" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="C55" s="99"/>
+      <c r="C55" s="101"/>
       <c r="D55" s="18"/>
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
@@ -41760,6 +42101,24 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:I42"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -41771,24 +42130,6 @@
     <mergeCell ref="G46:I46"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41811,17 +42152,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -41830,11 +42171,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -41845,11 +42186,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -41860,11 +42201,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -41877,11 +42218,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -41892,13 +42233,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="109"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -41918,17 +42259,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="103"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="106"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -42426,26 +42767,26 @@
       <c r="I53" s="23"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="101" t="s">
+      <c r="A54" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="102"/>
-      <c r="C54" s="102"/>
-      <c r="D54" s="102"/>
-      <c r="E54" s="102"/>
-      <c r="F54" s="102"/>
-      <c r="G54" s="102"/>
-      <c r="H54" s="102"/>
-      <c r="I54" s="103"/>
+      <c r="B54" s="105"/>
+      <c r="C54" s="105"/>
+      <c r="D54" s="105"/>
+      <c r="E54" s="105"/>
+      <c r="F54" s="105"/>
+      <c r="G54" s="105"/>
+      <c r="H54" s="105"/>
+      <c r="I54" s="106"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="108" t="s">
+      <c r="B55" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="109"/>
+      <c r="C55" s="111"/>
       <c r="D55" s="25" t="s">
         <v>18</v>
       </c>
@@ -42453,30 +42794,30 @@
       <c r="F55" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="108" t="s">
+      <c r="G55" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="H55" s="110"/>
-      <c r="I55" s="109"/>
+      <c r="H55" s="112"/>
+      <c r="I55" s="111"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="27">
         <v>1</v>
       </c>
-      <c r="B56" s="104" t="s">
+      <c r="B56" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="106"/>
-      <c r="D56" s="104" t="s">
+      <c r="C56" s="109"/>
+      <c r="D56" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="106"/>
+      <c r="E56" s="109"/>
       <c r="F56" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G56" s="104"/>
-      <c r="H56" s="105"/>
-      <c r="I56" s="106"/>
+      <c r="G56" s="107"/>
+      <c r="H56" s="108"/>
+      <c r="I56" s="109"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="27">
@@ -42484,37 +42825,37 @@
       </c>
       <c r="B57" s="33"/>
       <c r="C57" s="35"/>
-      <c r="D57" s="104" t="s">
+      <c r="D57" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="106"/>
+      <c r="E57" s="109"/>
       <c r="F57" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G57" s="104" t="s">
+      <c r="G57" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="H57" s="105"/>
-      <c r="I57" s="106"/>
+      <c r="H57" s="108"/>
+      <c r="I57" s="109"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="27">
         <v>3</v>
       </c>
-      <c r="B58" s="104" t="s">
+      <c r="B58" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="106"/>
-      <c r="D58" s="104" t="s">
+      <c r="C58" s="109"/>
+      <c r="D58" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="106"/>
+      <c r="E58" s="109"/>
       <c r="F58" s="27"/>
-      <c r="G58" s="104" t="s">
+      <c r="G58" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="H58" s="105"/>
-      <c r="I58" s="106"/>
+      <c r="H58" s="108"/>
+      <c r="I58" s="109"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="27">
@@ -42524,18 +42865,18 @@
         <v>82</v>
       </c>
       <c r="C59" s="35"/>
-      <c r="D59" s="104" t="s">
+      <c r="D59" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="106"/>
+      <c r="E59" s="109"/>
       <c r="F59" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G59" s="104" t="s">
+      <c r="G59" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="H59" s="105"/>
-      <c r="I59" s="106"/>
+      <c r="H59" s="108"/>
+      <c r="I59" s="109"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="27">
@@ -42560,20 +42901,20 @@
       <c r="A61" s="27">
         <v>6</v>
       </c>
-      <c r="B61" s="104" t="s">
+      <c r="B61" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="C61" s="106"/>
-      <c r="D61" s="104" t="s">
+      <c r="C61" s="109"/>
+      <c r="D61" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="E61" s="106"/>
+      <c r="E61" s="109"/>
       <c r="F61" s="27"/>
-      <c r="G61" s="104" t="s">
+      <c r="G61" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="H61" s="105"/>
-      <c r="I61" s="106"/>
+      <c r="H61" s="108"/>
+      <c r="I61" s="109"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="27">
@@ -42588,113 +42929,113 @@
       </c>
       <c r="E62" s="35"/>
       <c r="F62" s="27"/>
-      <c r="G62" s="111" t="s">
+      <c r="G62" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="H62" s="105"/>
-      <c r="I62" s="106"/>
+      <c r="H62" s="108"/>
+      <c r="I62" s="109"/>
     </row>
     <row r="63" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="27">
         <v>8</v>
       </c>
-      <c r="B63" s="104" t="s">
+      <c r="B63" s="107" t="s">
         <v>94</v>
       </c>
-      <c r="C63" s="106"/>
+      <c r="C63" s="109"/>
       <c r="D63" s="33" t="s">
         <v>83</v>
       </c>
       <c r="E63" s="35"/>
       <c r="F63" s="27"/>
-      <c r="G63" s="111" t="s">
+      <c r="G63" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="H63" s="105"/>
-      <c r="I63" s="106"/>
+      <c r="H63" s="108"/>
+      <c r="I63" s="109"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="27">
         <v>9</v>
       </c>
-      <c r="B64" s="104" t="s">
+      <c r="B64" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="106"/>
-      <c r="D64" s="104"/>
-      <c r="E64" s="106"/>
+      <c r="C64" s="109"/>
+      <c r="D64" s="107"/>
+      <c r="E64" s="109"/>
       <c r="F64" s="27"/>
-      <c r="G64" s="104" t="s">
+      <c r="G64" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="H64" s="105"/>
-      <c r="I64" s="106"/>
+      <c r="H64" s="108"/>
+      <c r="I64" s="109"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="27">
         <v>10</v>
       </c>
-      <c r="B65" s="104" t="s">
+      <c r="B65" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="106"/>
-      <c r="D65" s="104" t="s">
+      <c r="C65" s="109"/>
+      <c r="D65" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="E65" s="106"/>
+      <c r="E65" s="109"/>
       <c r="F65" s="27"/>
-      <c r="G65" s="104" t="s">
+      <c r="G65" s="107" t="s">
         <v>144</v>
       </c>
-      <c r="H65" s="105"/>
-      <c r="I65" s="106"/>
+      <c r="H65" s="108"/>
+      <c r="I65" s="109"/>
     </row>
     <row r="66" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="27">
         <v>11</v>
       </c>
-      <c r="B66" s="104" t="s">
+      <c r="B66" s="107" t="s">
         <v>142</v>
       </c>
-      <c r="C66" s="106"/>
-      <c r="D66" s="104" t="s">
+      <c r="C66" s="109"/>
+      <c r="D66" s="107" t="s">
         <v>145</v>
       </c>
-      <c r="E66" s="106"/>
+      <c r="E66" s="109"/>
       <c r="F66" s="27"/>
-      <c r="G66" s="111" t="s">
+      <c r="G66" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="H66" s="105"/>
-      <c r="I66" s="106"/>
+      <c r="H66" s="108"/>
+      <c r="I66" s="109"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="27">
         <v>12</v>
       </c>
-      <c r="B67" s="104" t="s">
+      <c r="B67" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="C67" s="106"/>
-      <c r="D67" s="104"/>
-      <c r="E67" s="106"/>
+      <c r="C67" s="109"/>
+      <c r="D67" s="107"/>
+      <c r="E67" s="109"/>
       <c r="F67" s="27"/>
-      <c r="G67" s="104"/>
-      <c r="H67" s="105"/>
-      <c r="I67" s="106"/>
+      <c r="G67" s="107"/>
+      <c r="H67" s="108"/>
+      <c r="I67" s="109"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="101" t="s">
+      <c r="A68" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="B68" s="102"/>
-      <c r="C68" s="102"/>
-      <c r="D68" s="102"/>
-      <c r="E68" s="102"/>
-      <c r="F68" s="102"/>
-      <c r="G68" s="102"/>
-      <c r="H68" s="102"/>
-      <c r="I68" s="103"/>
+      <c r="B68" s="105"/>
+      <c r="C68" s="105"/>
+      <c r="D68" s="105"/>
+      <c r="E68" s="105"/>
+      <c r="F68" s="105"/>
+      <c r="G68" s="105"/>
+      <c r="H68" s="105"/>
+      <c r="I68" s="106"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="29"/>
@@ -42934,12 +43275,12 @@
       <c r="B90" s="40">
         <v>1</v>
       </c>
-      <c r="C90" s="98" t="s">
+      <c r="C90" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="D90" s="98"/>
-      <c r="E90" s="98"/>
-      <c r="F90" s="98"/>
+      <c r="D90" s="102"/>
+      <c r="E90" s="102"/>
+      <c r="F90" s="102"/>
       <c r="G90" s="18"/>
       <c r="H90" s="18"/>
       <c r="I90" s="20"/>
@@ -42949,12 +43290,12 @@
       <c r="B91" s="40">
         <v>2</v>
       </c>
-      <c r="C91" s="98" t="s">
+      <c r="C91" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="D91" s="98"/>
-      <c r="E91" s="98"/>
-      <c r="F91" s="98"/>
+      <c r="D91" s="102"/>
+      <c r="E91" s="102"/>
+      <c r="F91" s="102"/>
       <c r="G91" s="18"/>
       <c r="H91" s="18"/>
       <c r="I91" s="20"/>
@@ -42964,12 +43305,12 @@
       <c r="B92" s="40">
         <v>3</v>
       </c>
-      <c r="C92" s="98" t="s">
+      <c r="C92" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="D92" s="98"/>
-      <c r="E92" s="98"/>
-      <c r="F92" s="98"/>
+      <c r="D92" s="102"/>
+      <c r="E92" s="102"/>
+      <c r="F92" s="102"/>
       <c r="G92" s="18"/>
       <c r="H92" s="18"/>
       <c r="I92" s="20"/>
@@ -42979,12 +43320,12 @@
       <c r="B93" s="40">
         <v>4</v>
       </c>
-      <c r="C93" s="98" t="s">
+      <c r="C93" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="D93" s="98"/>
-      <c r="E93" s="98"/>
-      <c r="F93" s="98"/>
+      <c r="D93" s="102"/>
+      <c r="E93" s="102"/>
+      <c r="F93" s="102"/>
       <c r="G93" s="18"/>
       <c r="H93" s="18"/>
       <c r="I93" s="20"/>
@@ -43024,6 +43365,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="C90:F90"/>
+    <mergeCell ref="C91:F91"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="D67:E67"/>
@@ -43040,33 +43408,6 @@
     <mergeCell ref="A54:I54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="G55:I55"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="C90:F90"/>
-    <mergeCell ref="C91:F91"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43089,17 +43430,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -43108,11 +43449,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -43123,11 +43464,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -43138,11 +43479,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -43155,11 +43496,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -43170,13 +43511,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="109"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -43196,17 +43537,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="103"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="106"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -43649,26 +43990,26 @@
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="101" t="s">
+      <c r="A49" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="102"/>
-      <c r="C49" s="102"/>
-      <c r="D49" s="102"/>
-      <c r="E49" s="102"/>
-      <c r="F49" s="102"/>
-      <c r="G49" s="102"/>
-      <c r="H49" s="102"/>
-      <c r="I49" s="103"/>
+      <c r="B49" s="105"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="105"/>
+      <c r="I49" s="106"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="108" t="s">
+      <c r="B50" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="109"/>
+      <c r="C50" s="111"/>
       <c r="D50" s="25" t="s">
         <v>18</v>
       </c>
@@ -43676,30 +44017,30 @@
       <c r="F50" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="108" t="s">
+      <c r="G50" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="110"/>
-      <c r="I50" s="109"/>
+      <c r="H50" s="112"/>
+      <c r="I50" s="111"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="104" t="s">
+      <c r="B51" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="106"/>
-      <c r="D51" s="104" t="s">
+      <c r="C51" s="109"/>
+      <c r="D51" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="106"/>
+      <c r="E51" s="109"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="104"/>
-      <c r="H51" s="105"/>
-      <c r="I51" s="106"/>
+      <c r="G51" s="107"/>
+      <c r="H51" s="108"/>
+      <c r="I51" s="109"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="27">
@@ -43707,37 +44048,37 @@
       </c>
       <c r="B52" s="36"/>
       <c r="C52" s="37"/>
-      <c r="D52" s="104" t="s">
+      <c r="D52" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="106"/>
+      <c r="E52" s="109"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="104" t="s">
+      <c r="G52" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="105"/>
-      <c r="I52" s="106"/>
+      <c r="H52" s="108"/>
+      <c r="I52" s="109"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="27">
         <v>3</v>
       </c>
-      <c r="B53" s="104" t="s">
+      <c r="B53" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="106"/>
-      <c r="D53" s="104" t="s">
+      <c r="C53" s="109"/>
+      <c r="D53" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="106"/>
+      <c r="E53" s="109"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="104" t="s">
+      <c r="G53" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="H53" s="105"/>
-      <c r="I53" s="106"/>
+      <c r="H53" s="108"/>
+      <c r="I53" s="109"/>
     </row>
     <row r="54" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="27">
@@ -43747,18 +44088,18 @@
         <v>147</v>
       </c>
       <c r="C54" s="37"/>
-      <c r="D54" s="104" t="s">
+      <c r="D54" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="E54" s="106"/>
+      <c r="E54" s="109"/>
       <c r="F54" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="111" t="s">
+      <c r="G54" s="113" t="s">
         <v>148</v>
       </c>
-      <c r="H54" s="105"/>
-      <c r="I54" s="106"/>
+      <c r="H54" s="108"/>
+      <c r="I54" s="109"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="27">
@@ -43781,33 +44122,33 @@
       <c r="A56" s="27">
         <v>6</v>
       </c>
-      <c r="B56" s="104" t="s">
+      <c r="B56" s="107" t="s">
         <v>151</v>
       </c>
-      <c r="C56" s="106"/>
-      <c r="D56" s="104" t="s">
+      <c r="C56" s="109"/>
+      <c r="D56" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="106"/>
+      <c r="E56" s="109"/>
       <c r="F56" s="27"/>
-      <c r="G56" s="104" t="s">
+      <c r="G56" s="107" t="s">
         <v>152</v>
       </c>
-      <c r="H56" s="105"/>
-      <c r="I56" s="106"/>
+      <c r="H56" s="108"/>
+      <c r="I56" s="109"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="101" t="s">
+      <c r="A57" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="102"/>
-      <c r="C57" s="102"/>
-      <c r="D57" s="102"/>
-      <c r="E57" s="102"/>
-      <c r="F57" s="102"/>
-      <c r="G57" s="102"/>
-      <c r="H57" s="102"/>
-      <c r="I57" s="103"/>
+      <c r="B57" s="105"/>
+      <c r="C57" s="105"/>
+      <c r="D57" s="105"/>
+      <c r="E57" s="105"/>
+      <c r="F57" s="105"/>
+      <c r="G57" s="105"/>
+      <c r="H57" s="105"/>
+      <c r="I57" s="106"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="29"/>
@@ -43965,6 +44306,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
     <mergeCell ref="A57:I57"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:E56"/>
@@ -43976,19 +44330,6 @@
     <mergeCell ref="G53:I53"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="G54:I54"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44011,17 +44352,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -44030,11 +44371,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -44045,11 +44386,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -44060,11 +44401,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -44077,11 +44418,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -44092,13 +44433,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="109"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -44118,17 +44459,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="103"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="106"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -44571,26 +44912,26 @@
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="101" t="s">
+      <c r="A49" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="102"/>
-      <c r="C49" s="102"/>
-      <c r="D49" s="102"/>
-      <c r="E49" s="102"/>
-      <c r="F49" s="102"/>
-      <c r="G49" s="102"/>
-      <c r="H49" s="102"/>
-      <c r="I49" s="103"/>
+      <c r="B49" s="105"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="105"/>
+      <c r="I49" s="106"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="108" t="s">
+      <c r="B50" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="109"/>
+      <c r="C50" s="111"/>
       <c r="D50" s="25" t="s">
         <v>18</v>
       </c>
@@ -44598,30 +44939,30 @@
       <c r="F50" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="108" t="s">
+      <c r="G50" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="110"/>
-      <c r="I50" s="109"/>
+      <c r="H50" s="112"/>
+      <c r="I50" s="111"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="104" t="s">
+      <c r="B51" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="106"/>
-      <c r="D51" s="104" t="s">
+      <c r="C51" s="109"/>
+      <c r="D51" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="106"/>
+      <c r="E51" s="109"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="104"/>
-      <c r="H51" s="105"/>
-      <c r="I51" s="106"/>
+      <c r="G51" s="107"/>
+      <c r="H51" s="108"/>
+      <c r="I51" s="109"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="27">
@@ -44629,37 +44970,37 @@
       </c>
       <c r="B52" s="36"/>
       <c r="C52" s="37"/>
-      <c r="D52" s="104" t="s">
+      <c r="D52" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="106"/>
+      <c r="E52" s="109"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="104" t="s">
+      <c r="G52" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="105"/>
-      <c r="I52" s="106"/>
+      <c r="H52" s="108"/>
+      <c r="I52" s="109"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="27">
         <v>3</v>
       </c>
-      <c r="B53" s="104" t="s">
+      <c r="B53" s="107" t="s">
         <v>154</v>
       </c>
-      <c r="C53" s="106"/>
-      <c r="D53" s="104" t="s">
+      <c r="C53" s="109"/>
+      <c r="D53" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="106"/>
+      <c r="E53" s="109"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="104" t="s">
+      <c r="G53" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="H53" s="105"/>
-      <c r="I53" s="106"/>
+      <c r="H53" s="108"/>
+      <c r="I53" s="109"/>
     </row>
     <row r="54" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="27">
@@ -44669,18 +45010,18 @@
         <v>155</v>
       </c>
       <c r="C54" s="37"/>
-      <c r="D54" s="104" t="s">
+      <c r="D54" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="E54" s="106"/>
+      <c r="E54" s="109"/>
       <c r="F54" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="111" t="s">
+      <c r="G54" s="113" t="s">
         <v>156</v>
       </c>
-      <c r="H54" s="105"/>
-      <c r="I54" s="106"/>
+      <c r="H54" s="108"/>
+      <c r="I54" s="109"/>
     </row>
     <row r="55" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="27">
@@ -44695,138 +45036,138 @@
       </c>
       <c r="E55" s="37"/>
       <c r="F55" s="27"/>
-      <c r="G55" s="111" t="s">
+      <c r="G55" s="113" t="s">
         <v>158</v>
       </c>
-      <c r="H55" s="105"/>
-      <c r="I55" s="106"/>
+      <c r="H55" s="108"/>
+      <c r="I55" s="109"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="27">
         <v>6</v>
       </c>
-      <c r="B56" s="104" t="s">
+      <c r="B56" s="107" t="s">
         <v>161</v>
       </c>
-      <c r="C56" s="106"/>
-      <c r="D56" s="104" t="s">
+      <c r="C56" s="109"/>
+      <c r="D56" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="E56" s="106"/>
+      <c r="E56" s="109"/>
       <c r="F56" s="27"/>
-      <c r="G56" s="104" t="s">
+      <c r="G56" s="107" t="s">
         <v>162</v>
       </c>
-      <c r="H56" s="105"/>
-      <c r="I56" s="106"/>
+      <c r="H56" s="108"/>
+      <c r="I56" s="109"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="27">
         <v>7</v>
       </c>
-      <c r="B57" s="104" t="s">
+      <c r="B57" s="107" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="106"/>
-      <c r="D57" s="104" t="s">
+      <c r="C57" s="109"/>
+      <c r="D57" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="E57" s="106"/>
+      <c r="E57" s="109"/>
       <c r="F57" s="27"/>
-      <c r="G57" s="104" t="s">
+      <c r="G57" s="107" t="s">
         <v>159</v>
       </c>
-      <c r="H57" s="105"/>
-      <c r="I57" s="106"/>
+      <c r="H57" s="108"/>
+      <c r="I57" s="109"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="27">
         <v>8</v>
       </c>
-      <c r="B58" s="104" t="s">
+      <c r="B58" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="C58" s="106"/>
-      <c r="D58" s="104" t="s">
+      <c r="C58" s="109"/>
+      <c r="D58" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="E58" s="106"/>
+      <c r="E58" s="109"/>
       <c r="F58" s="27"/>
-      <c r="G58" s="104" t="s">
+      <c r="G58" s="107" t="s">
         <v>163</v>
       </c>
-      <c r="H58" s="105"/>
-      <c r="I58" s="106"/>
+      <c r="H58" s="108"/>
+      <c r="I58" s="109"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="27">
         <v>9</v>
       </c>
-      <c r="B59" s="104" t="s">
+      <c r="B59" s="107" t="s">
         <v>165</v>
       </c>
-      <c r="C59" s="106"/>
-      <c r="D59" s="104" t="s">
+      <c r="C59" s="109"/>
+      <c r="D59" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="106"/>
+      <c r="E59" s="109"/>
       <c r="F59" s="27"/>
-      <c r="G59" s="104" t="s">
+      <c r="G59" s="107" t="s">
         <v>165</v>
       </c>
-      <c r="H59" s="105"/>
-      <c r="I59" s="106"/>
+      <c r="H59" s="108"/>
+      <c r="I59" s="109"/>
     </row>
     <row r="60" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="27">
         <v>10</v>
       </c>
-      <c r="B60" s="104" t="s">
+      <c r="B60" s="107" t="s">
         <v>304</v>
       </c>
-      <c r="C60" s="106"/>
-      <c r="D60" s="104" t="s">
+      <c r="C60" s="109"/>
+      <c r="D60" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="E60" s="106"/>
+      <c r="E60" s="109"/>
       <c r="F60" s="27"/>
-      <c r="G60" s="111" t="s">
+      <c r="G60" s="113" t="s">
         <v>305</v>
       </c>
-      <c r="H60" s="105"/>
-      <c r="I60" s="106"/>
+      <c r="H60" s="108"/>
+      <c r="I60" s="109"/>
     </row>
     <row r="61" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="27">
         <v>11</v>
       </c>
-      <c r="B61" s="104" t="s">
+      <c r="B61" s="107" t="s">
         <v>166</v>
       </c>
-      <c r="C61" s="106"/>
-      <c r="D61" s="104" t="s">
+      <c r="C61" s="109"/>
+      <c r="D61" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="E61" s="106"/>
+      <c r="E61" s="109"/>
       <c r="F61" s="27"/>
-      <c r="G61" s="111" t="s">
+      <c r="G61" s="113" t="s">
         <v>167</v>
       </c>
-      <c r="H61" s="105"/>
-      <c r="I61" s="106"/>
+      <c r="H61" s="108"/>
+      <c r="I61" s="109"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="101" t="s">
+      <c r="A62" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="102"/>
-      <c r="C62" s="102"/>
-      <c r="D62" s="102"/>
-      <c r="E62" s="102"/>
-      <c r="F62" s="102"/>
-      <c r="G62" s="102"/>
-      <c r="H62" s="102"/>
-      <c r="I62" s="103"/>
+      <c r="B62" s="105"/>
+      <c r="C62" s="105"/>
+      <c r="D62" s="105"/>
+      <c r="E62" s="105"/>
+      <c r="F62" s="105"/>
+      <c r="G62" s="105"/>
+      <c r="H62" s="105"/>
+      <c r="I62" s="106"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="29"/>
@@ -45047,26 +45388,12 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="G54:I54"/>
     <mergeCell ref="A8:I8"/>
@@ -45081,12 +45408,26 @@
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="G53:I53"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45108,17 +45449,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -45127,11 +45468,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -45142,11 +45483,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -45157,11 +45498,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -45174,11 +45515,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -45189,13 +45530,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="113" t="s">
         <v>381</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="109"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -45215,17 +45556,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="103"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="106"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -45503,26 +45844,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="101" t="s">
+      <c r="A34" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="102"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="103"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="106"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="108" t="s">
+      <c r="B35" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="109"/>
+      <c r="C35" s="111"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -45530,30 +45871,30 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="108" t="s">
+      <c r="G35" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="110"/>
-      <c r="I35" s="109"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="111"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="104" t="s">
+      <c r="B36" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="106"/>
-      <c r="D36" s="104" t="s">
+      <c r="C36" s="109"/>
+      <c r="D36" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="106"/>
+      <c r="E36" s="109"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="104"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="106"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="109"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="27">
@@ -45580,16 +45921,16 @@
       </c>
       <c r="B38" s="69"/>
       <c r="C38" s="71"/>
-      <c r="D38" s="104" t="s">
+      <c r="D38" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="106"/>
+      <c r="E38" s="109"/>
       <c r="F38" s="27"/>
-      <c r="G38" s="104" t="s">
+      <c r="G38" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="H38" s="105"/>
-      <c r="I38" s="106"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="109"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
@@ -45646,31 +45987,31 @@
       <c r="A42" s="27">
         <v>7</v>
       </c>
-      <c r="B42" s="104" t="s">
+      <c r="B42" s="107" t="s">
         <v>378</v>
       </c>
-      <c r="C42" s="106"/>
-      <c r="D42" s="104" t="s">
+      <c r="C42" s="109"/>
+      <c r="D42" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="106"/>
+      <c r="E42" s="109"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="105"/>
-      <c r="I42" s="106"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="109"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="101" t="s">
+      <c r="A43" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="102"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="102"/>
-      <c r="H43" s="102"/>
-      <c r="I43" s="103"/>
+      <c r="B43" s="105"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="105"/>
+      <c r="I43" s="106"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="29"/>
@@ -45828,12 +46169,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="B35:C35"/>
@@ -45841,12 +46182,12 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="G36:I36"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:I42"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45868,17 +46209,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -45887,11 +46228,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -45902,11 +46243,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -45917,11 +46258,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -45934,11 +46275,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -45949,13 +46290,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="111" t="s">
-        <v>405</v>
-      </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
+      <c r="C6" s="113" t="s">
+        <v>404</v>
+      </c>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="109"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -45975,17 +46316,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="103"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="106"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -46428,26 +46769,26 @@
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="101" t="s">
+      <c r="A49" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="102"/>
-      <c r="C49" s="102"/>
-      <c r="D49" s="102"/>
-      <c r="E49" s="102"/>
-      <c r="F49" s="102"/>
-      <c r="G49" s="102"/>
-      <c r="H49" s="102"/>
-      <c r="I49" s="103"/>
+      <c r="B49" s="105"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="105"/>
+      <c r="I49" s="106"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="108" t="s">
+      <c r="B50" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="109"/>
+      <c r="C50" s="111"/>
       <c r="D50" s="25" t="s">
         <v>18</v>
       </c>
@@ -46455,30 +46796,30 @@
       <c r="F50" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="108" t="s">
+      <c r="G50" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="110"/>
-      <c r="I50" s="109"/>
+      <c r="H50" s="112"/>
+      <c r="I50" s="111"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="104" t="s">
+      <c r="B51" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="106"/>
-      <c r="D51" s="104" t="s">
+      <c r="C51" s="109"/>
+      <c r="D51" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="106"/>
+      <c r="E51" s="109"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="104"/>
-      <c r="H51" s="105"/>
-      <c r="I51" s="106"/>
+      <c r="G51" s="107"/>
+      <c r="H51" s="108"/>
+      <c r="I51" s="109"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="27">
@@ -46486,18 +46827,18 @@
       </c>
       <c r="B52" s="74"/>
       <c r="C52" s="75"/>
-      <c r="D52" s="104" t="s">
+      <c r="D52" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="106"/>
+      <c r="E52" s="109"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="104" t="s">
+      <c r="G52" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="105"/>
-      <c r="I52" s="106"/>
+      <c r="H52" s="108"/>
+      <c r="I52" s="109"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="27">
@@ -46507,46 +46848,46 @@
         <v>81</v>
       </c>
       <c r="C53" s="75"/>
-      <c r="D53" s="104" t="s">
-        <v>394</v>
-      </c>
-      <c r="E53" s="106"/>
+      <c r="D53" s="107" t="s">
+        <v>393</v>
+      </c>
+      <c r="E53" s="109"/>
       <c r="F53" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G53" s="111" t="s">
-        <v>395</v>
-      </c>
-      <c r="H53" s="105"/>
-      <c r="I53" s="106"/>
+      <c r="G53" s="113" t="s">
+        <v>394</v>
+      </c>
+      <c r="H53" s="108"/>
+      <c r="I53" s="109"/>
     </row>
     <row r="54" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="27">
         <v>4</v>
       </c>
       <c r="B54" s="74" t="s">
+        <v>397</v>
+      </c>
+      <c r="C54" s="75"/>
+      <c r="D54" s="107" t="s">
         <v>398</v>
       </c>
-      <c r="C54" s="75"/>
-      <c r="D54" s="104" t="s">
-        <v>399</v>
-      </c>
-      <c r="E54" s="106"/>
+      <c r="E54" s="109"/>
       <c r="F54" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="111" t="s">
-        <v>400</v>
-      </c>
-      <c r="H54" s="105"/>
-      <c r="I54" s="106"/>
+      <c r="G54" s="113" t="s">
+        <v>399</v>
+      </c>
+      <c r="H54" s="108"/>
+      <c r="I54" s="109"/>
     </row>
     <row r="55" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="27">
         <v>5</v>
       </c>
       <c r="B55" s="74" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C55" s="75"/>
       <c r="D55" s="74" t="s">
@@ -46554,62 +46895,62 @@
       </c>
       <c r="E55" s="75"/>
       <c r="F55" s="27"/>
-      <c r="G55" s="111" t="s">
-        <v>397</v>
-      </c>
-      <c r="H55" s="105"/>
-      <c r="I55" s="106"/>
+      <c r="G55" s="113" t="s">
+        <v>396</v>
+      </c>
+      <c r="H55" s="108"/>
+      <c r="I55" s="109"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="27">
         <v>6</v>
       </c>
-      <c r="B56" s="104" t="s">
+      <c r="B56" s="107" t="s">
+        <v>400</v>
+      </c>
+      <c r="C56" s="109"/>
+      <c r="D56" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" s="109"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="107" t="s">
         <v>401</v>
       </c>
-      <c r="C56" s="106"/>
-      <c r="D56" s="104" t="s">
-        <v>35</v>
-      </c>
-      <c r="E56" s="106"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="104" t="s">
-        <v>402</v>
-      </c>
-      <c r="H56" s="105"/>
-      <c r="I56" s="106"/>
+      <c r="H56" s="108"/>
+      <c r="I56" s="109"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="27">
         <v>7</v>
       </c>
-      <c r="B57" s="104" t="s">
+      <c r="B57" s="107" t="s">
+        <v>402</v>
+      </c>
+      <c r="C57" s="109"/>
+      <c r="D57" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="E57" s="109"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="107" t="s">
         <v>403</v>
       </c>
-      <c r="C57" s="106"/>
-      <c r="D57" s="104" t="s">
-        <v>35</v>
-      </c>
-      <c r="E57" s="106"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="104" t="s">
-        <v>404</v>
-      </c>
-      <c r="H57" s="105"/>
-      <c r="I57" s="106"/>
+      <c r="H57" s="108"/>
+      <c r="I57" s="109"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="101" t="s">
+      <c r="A58" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="102"/>
-      <c r="C58" s="102"/>
-      <c r="D58" s="102"/>
-      <c r="E58" s="102"/>
-      <c r="F58" s="102"/>
-      <c r="G58" s="102"/>
-      <c r="H58" s="102"/>
-      <c r="I58" s="103"/>
+      <c r="B58" s="105"/>
+      <c r="C58" s="105"/>
+      <c r="D58" s="105"/>
+      <c r="E58" s="105"/>
+      <c r="F58" s="105"/>
+      <c r="G58" s="105"/>
+      <c r="H58" s="105"/>
+      <c r="I58" s="106"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="29"/>
@@ -46646,6 +46987,25 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G54:I54"/>
     <mergeCell ref="A58:I58"/>
     <mergeCell ref="G55:I55"/>
     <mergeCell ref="B56:C56"/>
@@ -46654,25 +47014,6 @@
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="G57:I57"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46880,17 +47221,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -46899,11 +47240,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -46914,11 +47255,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -46929,11 +47270,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -46946,11 +47287,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -46961,13 +47302,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="109"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -46987,17 +47328,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="103"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="106"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -47440,26 +47781,26 @@
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="101" t="s">
+      <c r="A49" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="102"/>
-      <c r="C49" s="102"/>
-      <c r="D49" s="102"/>
-      <c r="E49" s="102"/>
-      <c r="F49" s="102"/>
-      <c r="G49" s="102"/>
-      <c r="H49" s="102"/>
-      <c r="I49" s="103"/>
+      <c r="B49" s="105"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="105"/>
+      <c r="I49" s="106"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="108" t="s">
+      <c r="B50" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="109"/>
+      <c r="C50" s="111"/>
       <c r="D50" s="25" t="s">
         <v>18</v>
       </c>
@@ -47467,30 +47808,30 @@
       <c r="F50" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="108" t="s">
+      <c r="G50" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="110"/>
-      <c r="I50" s="109"/>
+      <c r="H50" s="112"/>
+      <c r="I50" s="111"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="104" t="s">
+      <c r="B51" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="106"/>
-      <c r="D51" s="104" t="s">
+      <c r="C51" s="109"/>
+      <c r="D51" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="106"/>
+      <c r="E51" s="109"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="104"/>
-      <c r="H51" s="105"/>
-      <c r="I51" s="106"/>
+      <c r="G51" s="107"/>
+      <c r="H51" s="108"/>
+      <c r="I51" s="109"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="27">
@@ -47498,37 +47839,37 @@
       </c>
       <c r="B52" s="78"/>
       <c r="C52" s="80"/>
-      <c r="D52" s="104" t="s">
+      <c r="D52" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="106"/>
+      <c r="E52" s="109"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="104" t="s">
+      <c r="G52" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="105"/>
-      <c r="I52" s="106"/>
+      <c r="H52" s="108"/>
+      <c r="I52" s="109"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="27">
         <v>3</v>
       </c>
-      <c r="B53" s="104" t="s">
+      <c r="B53" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="106"/>
-      <c r="D53" s="104" t="s">
+      <c r="C53" s="109"/>
+      <c r="D53" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="106"/>
+      <c r="E53" s="109"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="104" t="s">
+      <c r="G53" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="H53" s="105"/>
-      <c r="I53" s="106"/>
+      <c r="H53" s="108"/>
+      <c r="I53" s="109"/>
     </row>
     <row r="54" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="27">
@@ -47538,16 +47879,16 @@
         <v>147</v>
       </c>
       <c r="C54" s="80"/>
-      <c r="D54" s="104" t="s">
+      <c r="D54" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="E54" s="106"/>
+      <c r="E54" s="109"/>
       <c r="F54" s="27"/>
-      <c r="G54" s="111" t="s">
-        <v>407</v>
-      </c>
-      <c r="H54" s="105"/>
-      <c r="I54" s="106"/>
+      <c r="G54" s="113" t="s">
+        <v>406</v>
+      </c>
+      <c r="H54" s="108"/>
+      <c r="I54" s="109"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="27">
@@ -47568,27 +47909,27 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
-      <c r="B56" s="104"/>
-      <c r="C56" s="106"/>
-      <c r="D56" s="104"/>
-      <c r="E56" s="106"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="109"/>
+      <c r="D56" s="107"/>
+      <c r="E56" s="109"/>
       <c r="F56" s="27"/>
-      <c r="G56" s="104"/>
-      <c r="H56" s="105"/>
-      <c r="I56" s="106"/>
+      <c r="G56" s="107"/>
+      <c r="H56" s="108"/>
+      <c r="I56" s="109"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="101" t="s">
+      <c r="A57" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="102"/>
-      <c r="C57" s="102"/>
-      <c r="D57" s="102"/>
-      <c r="E57" s="102"/>
-      <c r="F57" s="102"/>
-      <c r="G57" s="102"/>
-      <c r="H57" s="102"/>
-      <c r="I57" s="103"/>
+      <c r="B57" s="105"/>
+      <c r="C57" s="105"/>
+      <c r="D57" s="105"/>
+      <c r="E57" s="105"/>
+      <c r="F57" s="105"/>
+      <c r="G57" s="105"/>
+      <c r="H57" s="105"/>
+      <c r="I57" s="106"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="29"/>
@@ -47746,6 +48087,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="G56:I56"/>
@@ -47757,19 +48111,6 @@
     <mergeCell ref="G53:I53"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="G54:I54"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47782,8 +48123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -47792,17 +48133,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -47811,11 +48152,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -47826,11 +48167,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -47841,11 +48182,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -47858,11 +48199,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -47873,13 +48214,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="109"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -47899,17 +48240,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="103"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="106"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -48352,26 +48693,26 @@
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="101" t="s">
+      <c r="A49" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="102"/>
-      <c r="C49" s="102"/>
-      <c r="D49" s="102"/>
-      <c r="E49" s="102"/>
-      <c r="F49" s="102"/>
-      <c r="G49" s="102"/>
-      <c r="H49" s="102"/>
-      <c r="I49" s="103"/>
+      <c r="B49" s="105"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="105"/>
+      <c r="I49" s="106"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="108" t="s">
+      <c r="B50" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="109"/>
+      <c r="C50" s="111"/>
       <c r="D50" s="25" t="s">
         <v>18</v>
       </c>
@@ -48379,30 +48720,30 @@
       <c r="F50" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="108" t="s">
+      <c r="G50" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="110"/>
-      <c r="I50" s="109"/>
+      <c r="H50" s="112"/>
+      <c r="I50" s="111"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="104" t="s">
+      <c r="B51" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="106"/>
-      <c r="D51" s="104" t="s">
+      <c r="C51" s="109"/>
+      <c r="D51" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="106"/>
+      <c r="E51" s="109"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="104"/>
-      <c r="H51" s="105"/>
-      <c r="I51" s="106"/>
+      <c r="G51" s="107"/>
+      <c r="H51" s="108"/>
+      <c r="I51" s="109"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="27">
@@ -48410,37 +48751,37 @@
       </c>
       <c r="B52" s="78"/>
       <c r="C52" s="80"/>
-      <c r="D52" s="104" t="s">
+      <c r="D52" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="106"/>
+      <c r="E52" s="109"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="104" t="s">
+      <c r="G52" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="105"/>
-      <c r="I52" s="106"/>
+      <c r="H52" s="108"/>
+      <c r="I52" s="109"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="27">
         <v>3</v>
       </c>
-      <c r="B53" s="104" t="s">
+      <c r="B53" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="106"/>
-      <c r="D53" s="104" t="s">
+      <c r="C53" s="109"/>
+      <c r="D53" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="106"/>
+      <c r="E53" s="109"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="104" t="s">
+      <c r="G53" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="H53" s="105"/>
-      <c r="I53" s="106"/>
+      <c r="H53" s="108"/>
+      <c r="I53" s="109"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="27">
@@ -48450,34 +48791,34 @@
         <v>81</v>
       </c>
       <c r="C54" s="80"/>
-      <c r="D54" s="104" t="s">
+      <c r="D54" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="E54" s="106"/>
+      <c r="E54" s="109"/>
       <c r="F54" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="111" t="s">
-        <v>428</v>
-      </c>
-      <c r="H54" s="105"/>
-      <c r="I54" s="106"/>
+      <c r="G54" s="113" t="s">
+        <v>427</v>
+      </c>
+      <c r="H54" s="108"/>
+      <c r="I54" s="109"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="27">
         <v>5</v>
       </c>
       <c r="B55" s="78" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C55" s="80"/>
       <c r="D55" s="78" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E55" s="80"/>
       <c r="F55" s="27"/>
       <c r="G55" s="78" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H55" s="79"/>
       <c r="I55" s="80"/>
@@ -48486,36 +48827,36 @@
       <c r="A56" s="27">
         <v>6</v>
       </c>
-      <c r="B56" s="104" t="s">
+      <c r="B56" s="107" t="s">
+        <v>409</v>
+      </c>
+      <c r="C56" s="109"/>
+      <c r="D56" s="107" t="s">
         <v>410</v>
       </c>
-      <c r="C56" s="106"/>
-      <c r="D56" s="104" t="s">
+      <c r="E56" s="109"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="107" t="s">
         <v>411</v>
       </c>
-      <c r="E56" s="106"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="104" t="s">
-        <v>412</v>
-      </c>
-      <c r="H56" s="105"/>
-      <c r="I56" s="106"/>
+      <c r="H56" s="108"/>
+      <c r="I56" s="109"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="27">
         <v>7</v>
       </c>
       <c r="B57" s="81" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C57" s="83"/>
       <c r="D57" s="81" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E57" s="83"/>
       <c r="F57" s="27"/>
       <c r="G57" s="81" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H57" s="82"/>
       <c r="I57" s="83"/>
@@ -48524,52 +48865,52 @@
       <c r="A58" s="27">
         <v>8</v>
       </c>
-      <c r="B58" s="104" t="s">
+      <c r="B58" s="107" t="s">
+        <v>415</v>
+      </c>
+      <c r="C58" s="109"/>
+      <c r="D58" s="107" t="s">
+        <v>408</v>
+      </c>
+      <c r="E58" s="109"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="113" t="s">
         <v>416</v>
       </c>
-      <c r="C58" s="106"/>
-      <c r="D58" s="104" t="s">
-        <v>409</v>
-      </c>
-      <c r="E58" s="106"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="111" t="s">
-        <v>417</v>
-      </c>
-      <c r="H58" s="105"/>
-      <c r="I58" s="106"/>
+      <c r="H58" s="108"/>
+      <c r="I58" s="109"/>
     </row>
     <row r="59" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="27">
         <v>9</v>
       </c>
-      <c r="B59" s="104" t="s">
-        <v>418</v>
-      </c>
-      <c r="C59" s="106"/>
-      <c r="D59" s="104" t="s">
-        <v>409</v>
-      </c>
-      <c r="E59" s="106"/>
+      <c r="B59" s="107" t="s">
+        <v>417</v>
+      </c>
+      <c r="C59" s="109"/>
+      <c r="D59" s="107" t="s">
+        <v>408</v>
+      </c>
+      <c r="E59" s="109"/>
       <c r="F59" s="27"/>
-      <c r="G59" s="111" t="s">
-        <v>417</v>
-      </c>
-      <c r="H59" s="105"/>
-      <c r="I59" s="106"/>
+      <c r="G59" s="113" t="s">
+        <v>416</v>
+      </c>
+      <c r="H59" s="108"/>
+      <c r="I59" s="109"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="101" t="s">
+      <c r="A60" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="102"/>
-      <c r="C60" s="102"/>
-      <c r="D60" s="102"/>
-      <c r="E60" s="102"/>
-      <c r="F60" s="102"/>
-      <c r="G60" s="102"/>
-      <c r="H60" s="102"/>
-      <c r="I60" s="103"/>
+      <c r="B60" s="105"/>
+      <c r="C60" s="105"/>
+      <c r="D60" s="105"/>
+      <c r="E60" s="105"/>
+      <c r="F60" s="105"/>
+      <c r="G60" s="105"/>
+      <c r="H60" s="105"/>
+      <c r="I60" s="106"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="29"/>
@@ -48586,85 +48927,85 @@
       <c r="A62" s="17"/>
       <c r="B62" s="18"/>
       <c r="C62" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="E62" s="123" t="s">
         <v>420</v>
       </c>
-      <c r="E62" s="121" t="s">
-        <v>421</v>
-      </c>
-      <c r="F62" s="121"/>
-      <c r="G62" s="121"/>
-      <c r="H62" s="121"/>
+      <c r="F62" s="123"/>
+      <c r="G62" s="123"/>
+      <c r="H62" s="123"/>
       <c r="I62" s="20"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="17"/>
       <c r="B63" s="18"/>
       <c r="C63" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="E63" s="122" t="s">
-        <v>424</v>
-      </c>
-      <c r="F63" s="122"/>
-      <c r="G63" s="122"/>
-      <c r="H63" s="122"/>
+        <v>421</v>
+      </c>
+      <c r="E63" s="124" t="s">
+        <v>423</v>
+      </c>
+      <c r="F63" s="124"/>
+      <c r="G63" s="124"/>
+      <c r="H63" s="124"/>
       <c r="I63" s="20"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="17"/>
       <c r="B64" s="18"/>
       <c r="C64" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="E64" s="122" t="s">
-        <v>425</v>
-      </c>
-      <c r="F64" s="122"/>
-      <c r="G64" s="122"/>
-      <c r="H64" s="122"/>
+      <c r="E64" s="124" t="s">
+        <v>424</v>
+      </c>
+      <c r="F64" s="124"/>
+      <c r="G64" s="124"/>
+      <c r="H64" s="124"/>
       <c r="I64" s="20"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="17"/>
       <c r="B65" s="18"/>
       <c r="C65" s="43" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D65" s="43" t="s">
-        <v>422</v>
-      </c>
-      <c r="E65" s="122" t="s">
-        <v>426</v>
-      </c>
-      <c r="F65" s="122"/>
-      <c r="G65" s="122"/>
-      <c r="H65" s="122"/>
+        <v>421</v>
+      </c>
+      <c r="E65" s="124" t="s">
+        <v>425</v>
+      </c>
+      <c r="F65" s="124"/>
+      <c r="G65" s="124"/>
+      <c r="H65" s="124"/>
       <c r="I65" s="20"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="17"/>
       <c r="B66" s="18"/>
       <c r="C66" s="43" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D66" s="43" t="s">
-        <v>423</v>
-      </c>
-      <c r="E66" s="122" t="s">
-        <v>427</v>
-      </c>
-      <c r="F66" s="122"/>
-      <c r="G66" s="122"/>
-      <c r="H66" s="122"/>
+        <v>422</v>
+      </c>
+      <c r="E66" s="124" t="s">
+        <v>426</v>
+      </c>
+      <c r="F66" s="124"/>
+      <c r="G66" s="124"/>
+      <c r="H66" s="124"/>
       <c r="I66" s="20"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -48757,20 +49098,11 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="A60:I60"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E66:H66"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="D59:E59"/>
@@ -48787,11 +49119,20 @@
     <mergeCell ref="G51:I51"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:E56"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="A60:I60"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G54:I54"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48805,7 +49146,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -48817,25 +49158,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="95" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="85" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="86" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="86" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85" t="s">
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86" t="s">
         <v>271</v>
       </c>
-      <c r="H2" s="85" t="s">
+      <c r="H2" s="86" t="s">
         <v>272</v>
       </c>
-      <c r="I2" s="85" t="s">
+      <c r="I2" s="86" t="s">
         <v>272</v>
       </c>
     </row>
@@ -48846,7 +49187,7 @@
       <c r="B3" s="52" t="s">
         <v>270</v>
       </c>
-      <c r="C3" s="85"/>
+      <c r="C3" s="86"/>
       <c r="D3" s="51" t="s">
         <v>124</v>
       </c>
@@ -48856,12 +49197,12 @@
       <c r="F3" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="93">
+      <c r="A4" s="97">
         <v>0</v>
       </c>
       <c r="B4" s="53">
@@ -48897,7 +49238,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="94"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="53">
         <v>2</v>
       </c>
@@ -48929,7 +49270,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="94"/>
+      <c r="A6" s="98"/>
       <c r="B6" s="53">
         <v>3</v>
       </c>
@@ -48961,7 +49302,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="95"/>
+      <c r="A7" s="99"/>
       <c r="B7" s="53">
         <v>4</v>
       </c>
@@ -48991,7 +49332,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="89">
+      <c r="A8" s="93">
         <v>1</v>
       </c>
       <c r="B8" s="53">
@@ -49027,7 +49368,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="53">
         <v>2</v>
       </c>
@@ -49061,7 +49402,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="86">
+      <c r="A10" s="89">
         <v>2</v>
       </c>
       <c r="B10" s="53">
@@ -49097,7 +49438,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="88"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="53">
         <v>2</v>
       </c>
@@ -49131,7 +49472,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="86">
+      <c r="A12" s="89">
         <v>3</v>
       </c>
       <c r="B12" s="53">
@@ -49167,7 +49508,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="88"/>
+      <c r="A13" s="91"/>
       <c r="B13" s="53">
         <v>2</v>
       </c>
@@ -49201,7 +49542,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="89">
+      <c r="A14" s="93">
         <v>4</v>
       </c>
       <c r="B14" s="53">
@@ -49237,7 +49578,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="90"/>
+      <c r="A15" s="94"/>
       <c r="B15" s="53">
         <v>2</v>
       </c>
@@ -49271,7 +49612,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="86">
+      <c r="A16" s="89">
         <v>5</v>
       </c>
       <c r="B16" s="53">
@@ -49305,7 +49646,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="87"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="53">
         <v>2</v>
       </c>
@@ -49337,7 +49678,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="88"/>
+      <c r="A18" s="91"/>
       <c r="B18" s="53">
         <v>3</v>
       </c>
@@ -49369,7 +49710,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="86">
+      <c r="A19" s="89">
         <v>6</v>
       </c>
       <c r="B19" s="53">
@@ -49403,7 +49744,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="87"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="53">
         <v>2</v>
       </c>
@@ -49434,7 +49775,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="87"/>
+      <c r="A21" s="90"/>
       <c r="B21" s="53">
         <v>3</v>
       </c>
@@ -49466,7 +49807,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="88"/>
+      <c r="A22" s="91"/>
       <c r="B22" s="53">
         <v>4</v>
       </c>
@@ -49532,7 +49873,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="86">
+      <c r="A24" s="89">
         <v>8</v>
       </c>
       <c r="B24" s="53">
@@ -49566,7 +49907,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="87"/>
+      <c r="A25" s="90"/>
       <c r="B25" s="53">
         <v>2</v>
       </c>
@@ -49596,7 +49937,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="87"/>
+      <c r="A26" s="90"/>
       <c r="B26" s="53">
         <v>3</v>
       </c>
@@ -49626,7 +49967,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="88"/>
+      <c r="A27" s="91"/>
       <c r="B27" s="53">
         <v>4</v>
       </c>
@@ -49656,7 +49997,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="86">
+      <c r="A28" s="89">
         <v>9</v>
       </c>
       <c r="B28" s="53">
@@ -49692,7 +50033,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="87"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="53">
         <v>2</v>
       </c>
@@ -49724,7 +50065,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="88"/>
+      <c r="A30" s="91"/>
       <c r="B30" s="53">
         <v>3</v>
       </c>
@@ -49788,7 +50129,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="86">
+      <c r="A32" s="89">
         <v>11</v>
       </c>
       <c r="B32" s="53">
@@ -49822,7 +50163,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="87"/>
+      <c r="A33" s="90"/>
       <c r="B33" s="53">
         <v>2</v>
       </c>
@@ -49854,7 +50195,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="88"/>
+      <c r="A34" s="91"/>
       <c r="B34" s="53">
         <v>3</v>
       </c>
@@ -49886,7 +50227,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="96">
+      <c r="A35" s="87">
         <v>12</v>
       </c>
       <c r="B35" s="76">
@@ -49920,7 +50261,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="97"/>
+      <c r="A36" s="88"/>
       <c r="B36" s="76">
         <v>2</v>
       </c>
@@ -50029,7 +50370,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D39" s="27" t="s">
         <v>211</v>
@@ -50058,14 +50399,14 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="96">
+      <c r="A40" s="87">
         <v>16</v>
       </c>
       <c r="B40" s="76">
         <v>1</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D40" s="84"/>
       <c r="E40" s="84" t="s">
@@ -50092,12 +50433,12 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="123"/>
+      <c r="A41" s="92"/>
       <c r="B41" s="76">
         <v>2</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D41" s="84"/>
       <c r="E41" s="84" t="s">
@@ -50124,12 +50465,12 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="97"/>
+      <c r="A42" s="88"/>
       <c r="B42" s="76">
         <v>3</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D42" s="84"/>
       <c r="E42" s="84" t="s">
@@ -50157,6 +50498,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:A7"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A40:A42"/>
@@ -50173,8 +50516,6 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:A7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -50241,28 +50582,28 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="47.77734375" customWidth="1"/>
     <col min="3" max="3" width="94.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -50270,10 +50611,21 @@
         <v>42843</v>
       </c>
       <c r="B2" s="77" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="77">
+        <v>42918</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -50288,7 +50640,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
@@ -50299,17 +50651,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="104" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -50318,13 +50670,13 @@
       <c r="B2" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="107" t="s">
         <v>217</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -50335,13 +50687,13 @@
       <c r="B3" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="107" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -50352,11 +50704,11 @@
       <c r="B4" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -50367,13 +50719,13 @@
       <c r="B5" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="107" t="s">
         <v>219</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
       <c r="H5" s="5" t="s">
         <v>224</v>
       </c>
@@ -50394,13 +50746,13 @@
       <c r="D7" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E7" s="100" t="s">
+      <c r="E7" s="103" t="s">
         <v>222</v>
       </c>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -50413,13 +50765,13 @@
       <c r="D8" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E8" s="99" t="s">
+      <c r="E8" s="101" t="s">
         <v>223</v>
       </c>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
       <c r="K8" t="str">
         <f>B8&amp;"="</f>
         <v>password.expiry=</v>
@@ -50436,13 +50788,13 @@
       <c r="D9" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="101" t="s">
         <v>226</v>
       </c>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
       <c r="K9" t="str">
         <f>B9&amp;"="</f>
         <v>display00001=</v>
@@ -50459,13 +50811,13 @@
       <c r="D10" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E10" s="99" t="s">
+      <c r="E10" s="101" t="s">
         <v>227</v>
       </c>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
       <c r="K10" t="str">
         <f>B10&amp;"="</f>
         <v>display00002=</v>
@@ -50482,13 +50834,13 @@
       <c r="D11" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E11" s="99" t="s">
+      <c r="E11" s="101" t="s">
         <v>228</v>
       </c>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
       <c r="K11" t="str">
         <f t="shared" ref="K11:K39" si="0">B11&amp;"="</f>
         <v>display00003=</v>
@@ -50505,13 +50857,13 @@
       <c r="D12" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E12" s="99" t="s">
+      <c r="E12" s="101" t="s">
         <v>229</v>
       </c>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
         <v>display00004=</v>
@@ -50528,13 +50880,13 @@
       <c r="D13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E13" s="99" t="s">
+      <c r="E13" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
         <v>display00101=</v>
@@ -50551,13 +50903,13 @@
       <c r="D14" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E14" s="99" t="s">
+      <c r="E14" s="101" t="s">
         <v>231</v>
       </c>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
         <v>display00102=</v>
@@ -50574,13 +50926,13 @@
       <c r="D15" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="99" t="s">
+      <c r="E15" s="101" t="s">
         <v>232</v>
       </c>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
         <v>display00201=</v>
@@ -50597,13 +50949,13 @@
       <c r="D16" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E16" s="99" t="s">
+      <c r="E16" s="101" t="s">
         <v>233</v>
       </c>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
         <v>display00202=</v>
@@ -50620,13 +50972,13 @@
       <c r="D17" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E17" s="99" t="s">
+      <c r="E17" s="101" t="s">
         <v>234</v>
       </c>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
         <v>display00301=</v>
@@ -50643,13 +50995,13 @@
       <c r="D18" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E18" s="99" t="s">
+      <c r="E18" s="101" t="s">
         <v>235</v>
       </c>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
         <v>display00302=</v>
@@ -50666,13 +51018,13 @@
       <c r="D19" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E19" s="99" t="s">
+      <c r="E19" s="101" t="s">
         <v>236</v>
       </c>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
         <v>display00401=</v>
@@ -50689,13 +51041,13 @@
       <c r="D20" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E20" s="99" t="s">
+      <c r="E20" s="101" t="s">
         <v>237</v>
       </c>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
         <v>display00402=</v>
@@ -50712,13 +51064,13 @@
       <c r="D21" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E21" s="99" t="s">
+      <c r="E21" s="101" t="s">
         <v>238</v>
       </c>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
         <v>display00501=</v>
@@ -50735,13 +51087,13 @@
       <c r="D22" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E22" s="99" t="s">
+      <c r="E22" s="101" t="s">
         <v>239</v>
       </c>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
         <v>display00502=</v>
@@ -50758,13 +51110,13 @@
       <c r="D23" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E23" s="99" t="s">
+      <c r="E23" s="101" t="s">
         <v>240</v>
       </c>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
         <v>display00503=</v>
@@ -50781,13 +51133,13 @@
       <c r="D24" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E24" s="99" t="s">
+      <c r="E24" s="101" t="s">
         <v>241</v>
       </c>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
         <v>display00601=</v>
@@ -50804,13 +51156,13 @@
       <c r="D25" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E25" s="99" t="s">
+      <c r="E25" s="101" t="s">
         <v>242</v>
       </c>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
         <v>display00602=</v>
@@ -50827,13 +51179,13 @@
       <c r="D26" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E26" s="99" t="s">
+      <c r="E26" s="101" t="s">
         <v>243</v>
       </c>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
         <v>display00603=</v>
@@ -50850,13 +51202,13 @@
       <c r="D27" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E27" s="99" t="s">
+      <c r="E27" s="101" t="s">
         <v>244</v>
       </c>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="101"/>
       <c r="K27" t="str">
         <f t="shared" si="0"/>
         <v>display00701=</v>
@@ -50873,13 +51225,13 @@
       <c r="D28" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E28" s="99" t="s">
+      <c r="E28" s="101" t="s">
         <v>245</v>
       </c>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="99"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
       <c r="K28" t="str">
         <f t="shared" si="0"/>
         <v>display00801=</v>
@@ -50896,13 +51248,13 @@
       <c r="D29" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E29" s="99" t="s">
+      <c r="E29" s="101" t="s">
         <v>246</v>
       </c>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="101"/>
       <c r="K29" t="str">
         <f t="shared" si="0"/>
         <v>display00802=</v>
@@ -50919,13 +51271,13 @@
       <c r="D30" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E30" s="99" t="s">
+      <c r="E30" s="101" t="s">
         <v>247</v>
       </c>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="99"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="101"/>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
         <v>display00803=</v>
@@ -50942,13 +51294,13 @@
       <c r="D31" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E31" s="99" t="s">
+      <c r="E31" s="101" t="s">
         <v>248</v>
       </c>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="101"/>
       <c r="K31" t="str">
         <f t="shared" si="0"/>
         <v>display00804=</v>
@@ -50965,13 +51317,13 @@
       <c r="D32" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E32" s="99" t="s">
+      <c r="E32" s="101" t="s">
         <v>249</v>
       </c>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="101"/>
       <c r="K32" t="str">
         <f t="shared" si="0"/>
         <v>display00901=</v>
@@ -50988,13 +51340,13 @@
       <c r="D33" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E33" s="99" t="s">
+      <c r="E33" s="101" t="s">
         <v>250</v>
       </c>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="101"/>
       <c r="K33" t="str">
         <f t="shared" si="0"/>
         <v>display00902=</v>
@@ -51011,13 +51363,13 @@
       <c r="D34" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E34" s="99" t="s">
+      <c r="E34" s="101" t="s">
         <v>251</v>
       </c>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="101"/>
       <c r="K34" t="str">
         <f t="shared" si="0"/>
         <v>display00903=</v>
@@ -51034,13 +51386,13 @@
       <c r="D35" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E35" s="107" t="s">
+      <c r="E35" s="100" t="s">
         <v>252</v>
       </c>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="107"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="100"/>
       <c r="K35" t="str">
         <f t="shared" si="0"/>
         <v>password.policy=</v>
@@ -51059,13 +51411,13 @@
       <c r="D36" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E36" s="107" t="s">
+      <c r="E36" s="100" t="s">
         <v>253</v>
       </c>
-      <c r="F36" s="107"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="107"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="100"/>
       <c r="K36" t="str">
         <f t="shared" si="0"/>
         <v>judge.class=</v>
@@ -51082,13 +51434,13 @@
       <c r="D37" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E37" s="107" t="s">
+      <c r="E37" s="100" t="s">
         <v>254</v>
       </c>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="107"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="100"/>
       <c r="K37" t="str">
         <f t="shared" si="0"/>
         <v>force.pass.change=</v>
@@ -51107,13 +51459,13 @@
       <c r="D38" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E38" s="107" t="s">
+      <c r="E38" s="100" t="s">
         <v>255</v>
       </c>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="107"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="100"/>
       <c r="K38" t="str">
         <f t="shared" si="0"/>
         <v>judge.result.table.name=</v>
@@ -51132,13 +51484,13 @@
       <c r="D39" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E39" s="99" t="s">
+      <c r="E39" s="101" t="s">
         <v>263</v>
       </c>
-      <c r="F39" s="99"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="99"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="101"/>
+      <c r="H39" s="101"/>
+      <c r="I39" s="101"/>
       <c r="K39" t="str">
         <f t="shared" si="0"/>
         <v>pwd.hash.salt=</v>
@@ -51157,13 +51509,13 @@
       <c r="D40" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E40" s="99" t="s">
+      <c r="E40" s="101" t="s">
         <v>302</v>
       </c>
-      <c r="F40" s="99"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="101"/>
       <c r="K40" t="str">
         <f t="shared" ref="K40" si="1">B40&amp;"="</f>
         <v>upload.directory=</v>
@@ -51174,7 +51526,7 @@
         <v>34</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>211</v>
@@ -51182,13 +51534,13 @@
       <c r="D41" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E41" s="99" t="s">
+      <c r="E41" s="101" t="s">
         <v>303</v>
       </c>
-      <c r="F41" s="99"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="99"/>
-      <c r="I41" s="99"/>
+      <c r="F41" s="101"/>
+      <c r="G41" s="101"/>
+      <c r="H41" s="101"/>
+      <c r="I41" s="101"/>
       <c r="K41" t="str">
         <f t="shared" ref="K41" si="2">B41&amp;"="</f>
         <v>result.directory=</v>
@@ -51205,13 +51557,13 @@
       <c r="D42" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E42" s="98" t="s">
+      <c r="E42" s="102" t="s">
         <v>339</v>
       </c>
-      <c r="F42" s="99"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="99"/>
-      <c r="I42" s="99"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="101"/>
       <c r="K42" t="str">
         <f t="shared" ref="K42" si="3">B42&amp;"="</f>
         <v>pwd.lock.limit=</v>
@@ -51219,15 +51571,22 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E14:I14"/>
     <mergeCell ref="E15:I15"/>
     <mergeCell ref="E16:I16"/>
     <mergeCell ref="E17:I17"/>
@@ -51244,22 +51603,15 @@
     <mergeCell ref="E28:I28"/>
     <mergeCell ref="E29:I29"/>
     <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E37:I37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51272,7 +51624,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
@@ -51300,17 +51652,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -51319,11 +51671,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -51334,11 +51686,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -51349,11 +51701,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -51366,11 +51718,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -51381,11 +51733,11 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="104"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="109"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -51405,17 +51757,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="103"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="106"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -51693,26 +52045,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="101" t="s">
+      <c r="A34" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="102"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="103"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="106"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="108" t="s">
+      <c r="B35" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="109"/>
+      <c r="C35" s="111"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -51720,100 +52072,100 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="108" t="s">
+      <c r="G35" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="110"/>
-      <c r="I35" s="109"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="111"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="104" t="s">
+      <c r="B36" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="106"/>
-      <c r="D36" s="104" t="s">
+      <c r="C36" s="109"/>
+      <c r="D36" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="106"/>
+      <c r="E36" s="109"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="104"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="106"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="109"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="104" t="s">
+      <c r="B37" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="106"/>
-      <c r="D37" s="104" t="s">
+      <c r="C37" s="109"/>
+      <c r="D37" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="106"/>
+      <c r="E37" s="109"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="104"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="106"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="109"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="104" t="s">
+      <c r="B38" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="106"/>
-      <c r="D38" s="104" t="s">
+      <c r="C38" s="109"/>
+      <c r="D38" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="106"/>
+      <c r="E38" s="109"/>
       <c r="F38" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="104"/>
-      <c r="H38" s="105"/>
-      <c r="I38" s="106"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="109"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="104" t="s">
+      <c r="B39" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="106"/>
-      <c r="D39" s="104" t="s">
+      <c r="C39" s="109"/>
+      <c r="D39" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="106"/>
+      <c r="E39" s="109"/>
       <c r="F39" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="104"/>
-      <c r="H39" s="105"/>
-      <c r="I39" s="106"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="109"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="101" t="s">
+      <c r="A40" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="102"/>
-      <c r="C40" s="102"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="102"/>
-      <c r="I40" s="103"/>
+      <c r="B40" s="105"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="106"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="29"/>
@@ -52125,6 +52477,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
     <mergeCell ref="A40:I40"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
@@ -52135,19 +52500,6 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="G38:I38"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -52169,17 +52521,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -52188,11 +52540,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -52203,11 +52555,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -52218,11 +52570,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -52235,11 +52587,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -52250,11 +52602,11 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="104"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="109"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -52274,17 +52626,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="103"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="106"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -52562,26 +52914,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="101" t="s">
+      <c r="A34" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="102"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="103"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="106"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="108" t="s">
+      <c r="B35" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="109"/>
+      <c r="C35" s="111"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -52589,78 +52941,78 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="108" t="s">
+      <c r="G35" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="110"/>
-      <c r="I35" s="109"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="111"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="104" t="s">
+      <c r="B36" s="107" t="s">
         <v>311</v>
       </c>
-      <c r="C36" s="106"/>
-      <c r="D36" s="104" t="s">
+      <c r="C36" s="109"/>
+      <c r="D36" s="107" t="s">
         <v>312</v>
       </c>
-      <c r="E36" s="106"/>
+      <c r="E36" s="109"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="104" t="s">
+      <c r="G36" s="107" t="s">
         <v>313</v>
       </c>
-      <c r="H36" s="105"/>
-      <c r="I36" s="106"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="109"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
-      <c r="B37" s="104"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="106"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="109"/>
       <c r="F37" s="27"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="106"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="109"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
-      <c r="B38" s="104"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="106"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="109"/>
       <c r="F38" s="27"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="105"/>
-      <c r="I38" s="106"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="109"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="28"/>
-      <c r="B39" s="104"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="106"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="109"/>
       <c r="F39" s="27"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="105"/>
-      <c r="I39" s="106"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="109"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="101" t="s">
+      <c r="A40" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="102"/>
-      <c r="C40" s="102"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="102"/>
-      <c r="I40" s="103"/>
+      <c r="B40" s="105"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="106"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="29"/>
@@ -52982,19 +53334,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="G39:I39"/>
@@ -53005,6 +53344,19 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="G38:I38"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -53028,17 +53380,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -53047,11 +53399,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -53062,11 +53414,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -53077,11 +53429,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -53094,11 +53446,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -53109,13 +53461,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="109"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -53135,17 +53487,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="103"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="106"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -53423,26 +53775,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="101" t="s">
+      <c r="A34" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="102"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="103"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="106"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="108" t="s">
+      <c r="B35" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="109"/>
+      <c r="C35" s="111"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -53450,30 +53802,30 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="108" t="s">
+      <c r="G35" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="110"/>
-      <c r="I35" s="109"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="111"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="104" t="s">
+      <c r="B36" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="106"/>
-      <c r="D36" s="104" t="s">
+      <c r="C36" s="109"/>
+      <c r="D36" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="106"/>
+      <c r="E36" s="109"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="104"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="106"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="109"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="27">
@@ -53483,16 +53835,16 @@
         <v>36</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="104" t="s">
+      <c r="D37" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="106"/>
+      <c r="E37" s="109"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="104"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="106"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="109"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="27">
@@ -53502,16 +53854,16 @@
         <v>37</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="104" t="s">
+      <c r="D38" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="106"/>
+      <c r="E38" s="109"/>
       <c r="F38" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="104"/>
-      <c r="H38" s="105"/>
-      <c r="I38" s="106"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="109"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
@@ -53574,33 +53926,33 @@
       <c r="A42" s="27">
         <v>7</v>
       </c>
-      <c r="B42" s="104"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="104" t="s">
+      <c r="B42" s="107"/>
+      <c r="C42" s="109"/>
+      <c r="D42" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="106"/>
+      <c r="E42" s="109"/>
       <c r="F42" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="104" t="s">
+      <c r="G42" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="H42" s="105"/>
-      <c r="I42" s="106"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="109"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="101" t="s">
+      <c r="A43" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="102"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="102"/>
-      <c r="H43" s="102"/>
-      <c r="I43" s="103"/>
+      <c r="B43" s="105"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="105"/>
+      <c r="I43" s="106"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="29"/>
@@ -53912,6 +54264,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="G42:I42"/>
@@ -53920,19 +54285,6 @@
     <mergeCell ref="G37:I37"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="G38:I38"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -53955,17 +54307,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -53974,11 +54326,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -53989,11 +54341,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -54004,11 +54356,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -54021,11 +54373,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -54036,13 +54388,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="109"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -54062,17 +54414,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="103"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="106"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -54350,26 +54702,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="101" t="s">
+      <c r="A34" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="102"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="103"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="106"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="108" t="s">
+      <c r="B35" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="109"/>
+      <c r="C35" s="111"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -54377,30 +54729,30 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="108" t="s">
+      <c r="G35" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="110"/>
-      <c r="I35" s="109"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="111"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="104" t="s">
+      <c r="B36" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="106"/>
-      <c r="D36" s="104" t="s">
+      <c r="C36" s="109"/>
+      <c r="D36" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="106"/>
+      <c r="E36" s="109"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="104"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="106"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="109"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="27">
@@ -54408,39 +54760,39 @@
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="31"/>
-      <c r="D37" s="104" t="s">
+      <c r="D37" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="106"/>
+      <c r="E37" s="109"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="104" t="s">
+      <c r="G37" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="105"/>
-      <c r="I37" s="106"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="109"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="27">
         <v>3</v>
       </c>
-      <c r="B38" s="104" t="s">
+      <c r="B38" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="106"/>
-      <c r="D38" s="104" t="s">
+      <c r="C38" s="109"/>
+      <c r="D38" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="106"/>
+      <c r="E38" s="109"/>
       <c r="F38" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="104" t="s">
+      <c r="G38" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="105"/>
-      <c r="I38" s="106"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="109"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
@@ -54450,16 +54802,16 @@
         <v>45</v>
       </c>
       <c r="C39" s="31"/>
-      <c r="D39" s="104" t="s">
+      <c r="D39" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="106"/>
+      <c r="E39" s="109"/>
       <c r="F39" s="27"/>
-      <c r="G39" s="104" t="s">
+      <c r="G39" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="H39" s="105"/>
-      <c r="I39" s="106"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="109"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="27">
@@ -54482,20 +54834,20 @@
       <c r="A41" s="27">
         <v>6</v>
       </c>
-      <c r="B41" s="104" t="s">
+      <c r="B41" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="106"/>
-      <c r="D41" s="104" t="s">
+      <c r="C41" s="109"/>
+      <c r="D41" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="106"/>
+      <c r="E41" s="109"/>
       <c r="F41" s="27"/>
-      <c r="G41" s="104" t="s">
+      <c r="G41" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="H41" s="105"/>
-      <c r="I41" s="106"/>
+      <c r="H41" s="108"/>
+      <c r="I41" s="109"/>
     </row>
     <row r="42" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="27">
@@ -54510,43 +54862,43 @@
       </c>
       <c r="E42" s="31"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="111" t="s">
+      <c r="G42" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="H42" s="105"/>
-      <c r="I42" s="106"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="109"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="27">
         <v>8</v>
       </c>
-      <c r="B43" s="104"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="104" t="s">
+      <c r="B43" s="107"/>
+      <c r="C43" s="109"/>
+      <c r="D43" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="106"/>
+      <c r="E43" s="109"/>
       <c r="F43" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="104" t="s">
+      <c r="G43" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="H43" s="105"/>
-      <c r="I43" s="106"/>
+      <c r="H43" s="108"/>
+      <c r="I43" s="109"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="101" t="s">
+      <c r="A44" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="102"/>
-      <c r="C44" s="102"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="102"/>
-      <c r="H44" s="102"/>
-      <c r="I44" s="103"/>
+      <c r="B44" s="105"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="106"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="29"/>
@@ -54866,6 +55218,25 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="G39:I39"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="G43:I43"/>
@@ -54875,25 +55246,6 @@
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="G41:I41"/>
     <mergeCell ref="G42:I42"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -54904,10 +55256,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63:I63"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -54916,17 +55268,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -54935,11 +55287,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -54950,11 +55302,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -54965,11 +55317,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -54982,11 +55334,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -54997,13 +55349,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="109"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -55023,17 +55375,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="103"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="106"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -55454,554 +55806,552 @@
       <c r="I46" s="20"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="23"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="20"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="101" t="s">
+      <c r="A48" s="17"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="20"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="17"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="20"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="17"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="20"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="17"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="20"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="17"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="20"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="17"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="20"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="17"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="20"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="17"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="20"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="17"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="20"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="17"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="20"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="17"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="20"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="17"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="20"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="17"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="20"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="17"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="20"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="17"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="20"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="17"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="20"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="21"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="23"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="102"/>
-      <c r="C48" s="102"/>
-      <c r="D48" s="102"/>
-      <c r="E48" s="102"/>
-      <c r="F48" s="102"/>
-      <c r="G48" s="102"/>
-      <c r="H48" s="102"/>
-      <c r="I48" s="103"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="24" t="s">
+      <c r="B65" s="105"/>
+      <c r="C65" s="105"/>
+      <c r="D65" s="105"/>
+      <c r="E65" s="105"/>
+      <c r="F65" s="105"/>
+      <c r="G65" s="105"/>
+      <c r="H65" s="105"/>
+      <c r="I65" s="106"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="108" t="s">
+      <c r="B66" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="109"/>
-      <c r="D49" s="25" t="s">
+      <c r="C66" s="111"/>
+      <c r="D66" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="26"/>
-      <c r="F49" s="24" t="s">
+      <c r="E66" s="26"/>
+      <c r="F66" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="108" t="s">
+      <c r="G66" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="H49" s="110"/>
-      <c r="I49" s="109"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="27">
+      <c r="H66" s="112"/>
+      <c r="I66" s="111"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="27">
         <v>1</v>
       </c>
-      <c r="B50" s="104" t="s">
+      <c r="B67" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="106"/>
-      <c r="D50" s="104" t="s">
+      <c r="C67" s="109"/>
+      <c r="D67" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="106"/>
-      <c r="F50" s="27" t="s">
+      <c r="E67" s="109"/>
+      <c r="F67" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G50" s="104"/>
-      <c r="H50" s="105"/>
-      <c r="I50" s="106"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="27">
+      <c r="G67" s="107"/>
+      <c r="H67" s="108"/>
+      <c r="I67" s="109"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="27">
         <v>2</v>
       </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="104" t="s">
+      <c r="B68" s="30"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="106"/>
-      <c r="F51" s="27" t="s">
+      <c r="E68" s="109"/>
+      <c r="F68" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="104" t="s">
+      <c r="G68" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="H51" s="105"/>
-      <c r="I51" s="106"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="27">
+      <c r="H68" s="108"/>
+      <c r="I68" s="109"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="27">
         <v>3</v>
       </c>
-      <c r="B52" s="104"/>
-      <c r="C52" s="106"/>
-      <c r="D52" s="104" t="s">
+      <c r="B69" s="107"/>
+      <c r="C69" s="109"/>
+      <c r="D69" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="106"/>
-      <c r="F52" s="27" t="s">
+      <c r="E69" s="109"/>
+      <c r="F69" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="104" t="s">
+      <c r="G69" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="H52" s="105"/>
-      <c r="I52" s="106"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="27">
+      <c r="H69" s="108"/>
+      <c r="I69" s="109"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="27">
         <v>4</v>
       </c>
-      <c r="B53" s="104" t="s">
+      <c r="B70" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="106"/>
-      <c r="D53" s="104" t="s">
+      <c r="C70" s="109"/>
+      <c r="D70" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="106"/>
-      <c r="F53" s="27" t="s">
+      <c r="E70" s="109"/>
+      <c r="F70" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G53" s="104" t="s">
+      <c r="G70" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="H53" s="105"/>
-      <c r="I53" s="106"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="27">
+      <c r="H70" s="108"/>
+      <c r="I70" s="109"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="27">
         <v>5</v>
       </c>
-      <c r="B54" s="104"/>
-      <c r="C54" s="106"/>
-      <c r="D54" s="104" t="s">
+      <c r="B71" s="107"/>
+      <c r="C71" s="109"/>
+      <c r="D71" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="106"/>
-      <c r="F54" s="27" t="s">
+      <c r="E71" s="109"/>
+      <c r="F71" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G54" s="30" t="s">
+      <c r="G71" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H54" s="32"/>
-      <c r="I54" s="31"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="27">
+      <c r="H71" s="32"/>
+      <c r="I71" s="31"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="27">
         <v>6</v>
       </c>
-      <c r="B55" s="104" t="s">
+      <c r="B72" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="106"/>
-      <c r="D55" s="104" t="s">
+      <c r="C72" s="109"/>
+      <c r="D72" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="E55" s="106"/>
-      <c r="F55" s="27" t="s">
+      <c r="E72" s="109"/>
+      <c r="F72" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G55" s="30" t="s">
+      <c r="G72" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="H55" s="32"/>
-      <c r="I55" s="31"/>
-    </row>
-    <row r="56" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="27">
+      <c r="H72" s="32"/>
+      <c r="I72" s="31"/>
+    </row>
+    <row r="73" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="27">
         <v>7</v>
       </c>
-      <c r="B56" s="104" t="s">
+      <c r="B73" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="106"/>
-      <c r="D56" s="104" t="s">
+      <c r="C73" s="109"/>
+      <c r="D73" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="E56" s="106"/>
-      <c r="F56" s="27" t="s">
+      <c r="E73" s="109"/>
+      <c r="F73" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G56" s="111" t="s">
+      <c r="G73" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="H56" s="112"/>
-      <c r="I56" s="113"/>
-    </row>
-    <row r="57" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="27">
+      <c r="H73" s="114"/>
+      <c r="I73" s="115"/>
+    </row>
+    <row r="74" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="27">
         <v>8</v>
       </c>
-      <c r="B57" s="104" t="s">
+      <c r="B74" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="106"/>
-      <c r="D57" s="104" t="s">
+      <c r="C74" s="109"/>
+      <c r="D74" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="106"/>
-      <c r="F57" s="27" t="s">
+      <c r="E74" s="109"/>
+      <c r="F74" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G57" s="111" t="s">
+      <c r="G74" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="H57" s="112"/>
-      <c r="I57" s="113"/>
-    </row>
-    <row r="58" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="27">
+      <c r="H74" s="114"/>
+      <c r="I74" s="115"/>
+    </row>
+    <row r="75" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="27">
         <v>9</v>
       </c>
-      <c r="B58" s="104" t="s">
+      <c r="B75" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="106"/>
-      <c r="D58" s="104" t="s">
+      <c r="C75" s="109"/>
+      <c r="D75" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="106"/>
-      <c r="F58" s="27" t="s">
+      <c r="E75" s="109"/>
+      <c r="F75" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G58" s="111" t="s">
+      <c r="G75" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="H58" s="112"/>
-      <c r="I58" s="113"/>
-    </row>
-    <row r="59" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="27">
+      <c r="H75" s="114"/>
+      <c r="I75" s="115"/>
+    </row>
+    <row r="76" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="27">
         <v>10</v>
       </c>
-      <c r="B59" s="104" t="s">
+      <c r="B76" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="106"/>
-      <c r="D59" s="104" t="s">
+      <c r="C76" s="109"/>
+      <c r="D76" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="E59" s="106"/>
-      <c r="F59" s="27" t="s">
+      <c r="E76" s="109"/>
+      <c r="F76" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G59" s="111" t="s">
+      <c r="G76" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="H59" s="112"/>
-      <c r="I59" s="113"/>
-    </row>
-    <row r="60" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="27">
+      <c r="H76" s="114"/>
+      <c r="I76" s="115"/>
+    </row>
+    <row r="77" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="27">
         <v>11</v>
       </c>
-      <c r="B60" s="104"/>
-      <c r="C60" s="106"/>
-      <c r="D60" s="104"/>
-      <c r="E60" s="106"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="104"/>
-      <c r="H60" s="105"/>
-      <c r="I60" s="106"/>
-    </row>
-    <row r="61" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="27">
+      <c r="B77" s="107"/>
+      <c r="C77" s="109"/>
+      <c r="D77" s="107"/>
+      <c r="E77" s="109"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="107"/>
+      <c r="H77" s="108"/>
+      <c r="I77" s="109"/>
+    </row>
+    <row r="78" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="27">
         <v>12</v>
       </c>
-      <c r="B61" s="104"/>
-      <c r="C61" s="106"/>
-      <c r="D61" s="104"/>
-      <c r="E61" s="106"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="104"/>
-      <c r="H61" s="105"/>
-      <c r="I61" s="106"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="27">
+      <c r="B78" s="107"/>
+      <c r="C78" s="109"/>
+      <c r="D78" s="107"/>
+      <c r="E78" s="109"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="107"/>
+      <c r="H78" s="108"/>
+      <c r="I78" s="109"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="27">
         <v>13</v>
       </c>
-      <c r="B62" s="104" t="s">
+      <c r="B79" s="107" t="s">
         <v>383</v>
       </c>
-      <c r="C62" s="106"/>
-      <c r="D62" s="104" t="s">
+      <c r="C79" s="109"/>
+      <c r="D79" s="107" t="s">
         <v>384</v>
       </c>
-      <c r="E62" s="106"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="104"/>
-      <c r="H62" s="105"/>
-      <c r="I62" s="106"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="27">
+      <c r="E79" s="109"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="107"/>
+      <c r="H79" s="108"/>
+      <c r="I79" s="109"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="85">
         <v>14</v>
       </c>
-      <c r="B63" s="104" t="s">
-        <v>386</v>
-      </c>
-      <c r="C63" s="106"/>
-      <c r="D63" s="104" t="s">
+      <c r="B80" s="107" t="s">
         <v>385</v>
       </c>
-      <c r="E63" s="106"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="104"/>
-      <c r="H63" s="105"/>
-      <c r="I63" s="106"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="101" t="s">
+      <c r="C80" s="109"/>
+      <c r="D80" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="E80" s="109"/>
+      <c r="F80" s="85"/>
+      <c r="G80" s="107"/>
+      <c r="H80" s="108"/>
+      <c r="I80" s="109"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="85">
+        <v>15</v>
+      </c>
+      <c r="B81" s="107" t="s">
+        <v>433</v>
+      </c>
+      <c r="C81" s="109"/>
+      <c r="D81" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="E81" s="109"/>
+      <c r="F81" s="85"/>
+      <c r="G81" s="107" t="s">
+        <v>434</v>
+      </c>
+      <c r="H81" s="108"/>
+      <c r="I81" s="109"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="27">
+        <v>16</v>
+      </c>
+      <c r="B82" s="107" t="s">
+        <v>433</v>
+      </c>
+      <c r="C82" s="109"/>
+      <c r="D82" s="107" t="s">
+        <v>435</v>
+      </c>
+      <c r="E82" s="109"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="107" t="s">
+        <v>436</v>
+      </c>
+      <c r="H82" s="108"/>
+      <c r="I82" s="109"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="102"/>
-      <c r="C64" s="102"/>
-      <c r="D64" s="102"/>
-      <c r="E64" s="102"/>
-      <c r="F64" s="102"/>
-      <c r="G64" s="102"/>
-      <c r="H64" s="102"/>
-      <c r="I64" s="103"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="29"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="20"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="20"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="17"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="20"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="20"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="20"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="20"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="20"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="17"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="20"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="17"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="20"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="17"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="20"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="17"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="20"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="17"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="20"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="17"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="20"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="17"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="20"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="17"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="20"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="17"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="20"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="17"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="20"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="17"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="20"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="17"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="20"/>
+      <c r="B83" s="105"/>
+      <c r="C83" s="105"/>
+      <c r="D83" s="105"/>
+      <c r="E83" s="105"/>
+      <c r="F83" s="105"/>
+      <c r="G83" s="105"/>
+      <c r="H83" s="105"/>
+      <c r="I83" s="106"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="17"/>
+      <c r="A84" s="29"/>
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
       <c r="D84" s="18"/>
@@ -56012,7 +56362,9 @@
       <c r="I84" s="20"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="17"/>
+      <c r="A85" s="17" t="s">
+        <v>74</v>
+      </c>
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
       <c r="D85" s="18"/>
@@ -56034,8 +56386,12 @@
       <c r="I86" s="20"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="17"/>
-      <c r="B87" s="18"/>
+      <c r="A87" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="C87" s="18"/>
       <c r="D87" s="18"/>
       <c r="E87" s="18"/>
@@ -56045,8 +56401,12 @@
       <c r="I87" s="20"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="17"/>
-      <c r="B88" s="18"/>
+      <c r="A88" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>76</v>
+      </c>
       <c r="C88" s="18"/>
       <c r="D88" s="18"/>
       <c r="E88" s="18"/>
@@ -56056,8 +56416,12 @@
       <c r="I88" s="20"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="17"/>
-      <c r="B89" s="18"/>
+      <c r="A89" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>77</v>
+      </c>
       <c r="C89" s="18"/>
       <c r="D89" s="18"/>
       <c r="E89" s="18"/>
@@ -56067,8 +56431,12 @@
       <c r="I89" s="20"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="17"/>
-      <c r="B90" s="18"/>
+      <c r="A90" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>78</v>
+      </c>
       <c r="C90" s="18"/>
       <c r="D90" s="18"/>
       <c r="E90" s="18"/>
@@ -56089,68 +56457,283 @@
       <c r="I91" s="20"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="21"/>
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="23"/>
+      <c r="A92" s="17"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="20"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="17"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="20"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="17"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="20"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="17"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="20"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="17"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="20"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="17"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="20"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="17"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="20"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="17"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="20"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="17"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="20"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="17"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="20"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="17"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="20"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="17"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="20"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="17"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="20"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="17"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="20"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="17"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="20"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="17"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="20"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="17"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="20"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="17"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
+      <c r="I109" s="20"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="17"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="20"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="21"/>
+      <c r="B111" s="22"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="22"/>
+      <c r="H111" s="22"/>
+      <c r="I111" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="A64:I64"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
+  <mergeCells count="56">
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="G77:I77"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A65:I65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="A83:I83"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="D71:E71"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/設計書もどき.xlsx
+++ b/設計書/設計書もどき.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="機能一覧" sheetId="16" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="454">
   <si>
     <t>画面レイアウト定義</t>
     <rPh sb="0" eb="2">
@@ -4873,10 +4873,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エディット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コメントを入力する　ロールが管理者又は先生の時のみ表示</t>
     <rPh sb="5" eb="7">
       <t>ニュウリョク</t>
@@ -5056,6 +5052,27 @@
     </rPh>
     <rPh sb="45" eb="47">
       <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンボボックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示するファイルを選択する</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5343,7 +5360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5525,8 +5542,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5541,22 +5570,14 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5576,7 +5597,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -30958,6 +30978,177 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>⑯</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>819151</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="正方形/長方形 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2381250" y="5895975"/>
+          <a:ext cx="1409701" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>xxxxxx.java</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552452</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="正方形/長方形 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3524252" y="5905501"/>
+          <a:ext cx="257173" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>▼</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>821055</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>13335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="線吹き出し 1 (枠付き) 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1811655" y="6185535"/>
+          <a:ext cx="312420" cy="270510"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 5740"/>
+            <a:gd name="adj2" fmla="val 89404"/>
+            <a:gd name="adj3" fmla="val -52971"/>
+            <a:gd name="adj4" fmla="val 193387"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>⑰</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -41323,17 +41514,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="88" t="s">
         <v>341</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="88" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="87"/>
+      <c r="A3" s="88"/>
       <c r="B3" s="63" t="s">
         <v>124</v>
       </c>
@@ -41723,7 +41914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
@@ -41733,17 +41924,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -41752,11 +41943,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -41767,11 +41958,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="111"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -41782,11 +41973,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="111"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -41799,11 +41990,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="111"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -41814,13 +42005,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="109"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="111"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -41840,17 +42031,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="106"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="108"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -42128,26 +42319,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="104" t="s">
+      <c r="A34" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="106"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="108"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="111" t="s">
+      <c r="B35" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="112"/>
+      <c r="C35" s="113"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -42155,30 +42346,30 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="111" t="s">
+      <c r="G35" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="113"/>
-      <c r="I35" s="112"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="113"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="107" t="s">
+      <c r="B36" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="109"/>
-      <c r="D36" s="107" t="s">
+      <c r="C36" s="111"/>
+      <c r="D36" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="109"/>
+      <c r="E36" s="111"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="107"/>
-      <c r="H36" s="108"/>
-      <c r="I36" s="109"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="110"/>
+      <c r="I36" s="111"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="27">
@@ -42186,16 +42377,16 @@
       </c>
       <c r="B37" s="57"/>
       <c r="C37" s="59"/>
-      <c r="D37" s="107" t="s">
+      <c r="D37" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="109"/>
+      <c r="E37" s="111"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="107"/>
-      <c r="H37" s="108"/>
-      <c r="I37" s="109"/>
+      <c r="G37" s="109"/>
+      <c r="H37" s="110"/>
+      <c r="I37" s="111"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="27">
@@ -42205,18 +42396,18 @@
         <v>82</v>
       </c>
       <c r="C38" s="59"/>
-      <c r="D38" s="107" t="s">
+      <c r="D38" s="109" t="s">
         <v>319</v>
       </c>
-      <c r="E38" s="109"/>
+      <c r="E38" s="111"/>
       <c r="F38" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="G38" s="107" t="s">
+      <c r="G38" s="109" t="s">
         <v>321</v>
       </c>
-      <c r="H38" s="108"/>
-      <c r="I38" s="109"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="111"/>
     </row>
     <row r="39" spans="1:9" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="27">
@@ -42233,11 +42424,11 @@
       <c r="F39" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="G39" s="117" t="s">
+      <c r="G39" s="118" t="s">
         <v>324</v>
       </c>
-      <c r="H39" s="118"/>
-      <c r="I39" s="119"/>
+      <c r="H39" s="119"/>
+      <c r="I39" s="120"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="27">
@@ -42271,11 +42462,11 @@
       </c>
       <c r="E41" s="59"/>
       <c r="F41" s="27"/>
-      <c r="G41" s="120" t="s">
+      <c r="G41" s="121" t="s">
         <v>328</v>
       </c>
-      <c r="H41" s="121"/>
-      <c r="I41" s="122"/>
+      <c r="H41" s="122"/>
+      <c r="I41" s="123"/>
     </row>
     <row r="42" spans="1:9" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="27">
@@ -42290,11 +42481,11 @@
       </c>
       <c r="E42" s="59"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="117" t="s">
+      <c r="G42" s="118" t="s">
         <v>330</v>
       </c>
-      <c r="H42" s="121"/>
-      <c r="I42" s="122"/>
+      <c r="H42" s="122"/>
+      <c r="I42" s="123"/>
     </row>
     <row r="43" spans="1:9" ht="47.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="27">
@@ -42309,11 +42500,11 @@
       </c>
       <c r="E43" s="59"/>
       <c r="F43" s="27"/>
-      <c r="G43" s="117" t="s">
+      <c r="G43" s="118" t="s">
         <v>337</v>
       </c>
-      <c r="H43" s="121"/>
-      <c r="I43" s="122"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="123"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="27">
@@ -42338,33 +42529,33 @@
       <c r="A45" s="27">
         <v>10</v>
       </c>
-      <c r="B45" s="107" t="s">
+      <c r="B45" s="109" t="s">
         <v>332</v>
       </c>
-      <c r="C45" s="109"/>
-      <c r="D45" s="107" t="s">
+      <c r="C45" s="111"/>
+      <c r="D45" s="109" t="s">
         <v>105</v>
       </c>
-      <c r="E45" s="109"/>
+      <c r="E45" s="111"/>
       <c r="F45" s="27"/>
-      <c r="G45" s="107" t="s">
+      <c r="G45" s="109" t="s">
         <v>334</v>
       </c>
-      <c r="H45" s="108"/>
-      <c r="I45" s="109"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="111"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="104" t="s">
+      <c r="A46" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="105"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="105"/>
-      <c r="F46" s="105"/>
-      <c r="G46" s="105"/>
-      <c r="H46" s="105"/>
-      <c r="I46" s="106"/>
+      <c r="B46" s="107"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="107"/>
+      <c r="E46" s="107"/>
+      <c r="F46" s="107"/>
+      <c r="G46" s="107"/>
+      <c r="H46" s="107"/>
+      <c r="I46" s="108"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="29"/>
@@ -42676,12 +42867,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:I45"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="B35:C35"/>
@@ -42689,18 +42886,12 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="G36:I36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42723,17 +42914,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -42742,11 +42933,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -42757,11 +42948,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="111"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -42772,11 +42963,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="111"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -42789,11 +42980,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="111"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -42804,13 +42995,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="109"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="111"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -42830,17 +43021,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="106"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="108"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -43118,26 +43309,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="104" t="s">
+      <c r="A34" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="106"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="108"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="111" t="s">
+      <c r="B35" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="112"/>
+      <c r="C35" s="113"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -43145,30 +43336,30 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="111" t="s">
+      <c r="G35" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="113"/>
-      <c r="I35" s="112"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="113"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="107" t="s">
+      <c r="B36" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="109"/>
-      <c r="D36" s="107" t="s">
+      <c r="C36" s="111"/>
+      <c r="D36" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="109"/>
+      <c r="E36" s="111"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="107"/>
-      <c r="H36" s="108"/>
-      <c r="I36" s="109"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="110"/>
+      <c r="I36" s="111"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="27">
@@ -43195,16 +43386,16 @@
       </c>
       <c r="B38" s="36"/>
       <c r="C38" s="37"/>
-      <c r="D38" s="107" t="s">
+      <c r="D38" s="109" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="109"/>
+      <c r="E38" s="111"/>
       <c r="F38" s="27"/>
-      <c r="G38" s="107" t="s">
+      <c r="G38" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="H38" s="108"/>
-      <c r="I38" s="109"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="111"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="27">
@@ -43267,20 +43458,20 @@
       <c r="A42" s="27">
         <v>7</v>
       </c>
-      <c r="B42" s="107" t="s">
+      <c r="B42" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="109"/>
-      <c r="D42" s="107" t="s">
+      <c r="C42" s="111"/>
+      <c r="D42" s="109" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="109"/>
+      <c r="E42" s="111"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="107" t="s">
+      <c r="G42" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="H42" s="108"/>
-      <c r="I42" s="109"/>
+      <c r="H42" s="110"/>
+      <c r="I42" s="111"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="27">
@@ -43324,71 +43515,71 @@
       <c r="A45" s="27">
         <v>10</v>
       </c>
-      <c r="B45" s="107" t="s">
+      <c r="B45" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="109"/>
-      <c r="D45" s="107" t="s">
+      <c r="C45" s="111"/>
+      <c r="D45" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="109"/>
+      <c r="E45" s="111"/>
       <c r="F45" s="27"/>
-      <c r="G45" s="107" t="s">
+      <c r="G45" s="109" t="s">
         <v>119</v>
       </c>
-      <c r="H45" s="108"/>
-      <c r="I45" s="109"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="111"/>
     </row>
     <row r="46" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="86">
         <v>11</v>
       </c>
-      <c r="B46" s="107" t="s">
+      <c r="B46" s="109" t="s">
         <v>151</v>
       </c>
-      <c r="C46" s="109"/>
-      <c r="D46" s="107" t="s">
+      <c r="C46" s="111"/>
+      <c r="D46" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="109"/>
+      <c r="E46" s="111"/>
       <c r="F46" s="86"/>
-      <c r="G46" s="114" t="s">
+      <c r="G46" s="115" t="s">
         <v>370</v>
       </c>
-      <c r="H46" s="108"/>
-      <c r="I46" s="109"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="111"/>
     </row>
     <row r="47" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="27">
         <v>12</v>
       </c>
-      <c r="B47" s="107" t="s">
+      <c r="B47" s="109" t="s">
+        <v>437</v>
+      </c>
+      <c r="C47" s="111"/>
+      <c r="D47" s="109" t="s">
         <v>438</v>
       </c>
-      <c r="C47" s="109"/>
-      <c r="D47" s="107" t="s">
+      <c r="E47" s="111"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="115" t="s">
         <v>439</v>
       </c>
-      <c r="E47" s="109"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="114" t="s">
-        <v>440</v>
-      </c>
-      <c r="H47" s="108"/>
-      <c r="I47" s="109"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="111"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="104" t="s">
+      <c r="A48" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="105"/>
-      <c r="C48" s="105"/>
-      <c r="D48" s="105"/>
-      <c r="E48" s="105"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="105"/>
-      <c r="I48" s="106"/>
+      <c r="B48" s="107"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="107"/>
+      <c r="E48" s="107"/>
+      <c r="F48" s="107"/>
+      <c r="G48" s="107"/>
+      <c r="H48" s="107"/>
+      <c r="I48" s="108"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="29"/>
@@ -43446,10 +43637,10 @@
       <c r="A53" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="B53" s="123" t="s">
+      <c r="B53" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="C53" s="123"/>
+      <c r="C53" s="124"/>
       <c r="D53" s="18"/>
       <c r="E53" s="42" t="s">
         <v>130</v>
@@ -43465,10 +43656,10 @@
       <c r="A54" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B54" s="102" t="s">
+      <c r="B54" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="102"/>
+      <c r="C54" s="103"/>
       <c r="D54" s="18"/>
       <c r="E54" s="43" t="s">
         <v>131</v>
@@ -43484,10 +43675,10 @@
       <c r="A55" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B55" s="102" t="s">
+      <c r="B55" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="C55" s="102"/>
+      <c r="C55" s="103"/>
       <c r="D55" s="18"/>
       <c r="E55" s="43" t="s">
         <v>133</v>
@@ -43503,10 +43694,10 @@
       <c r="A56" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B56" s="102" t="s">
+      <c r="B56" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="103"/>
       <c r="D56" s="18"/>
       <c r="E56" s="18"/>
       <c r="F56" s="18"/>
@@ -43622,7 +43813,7 @@
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
       <c r="E65" s="41" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
@@ -43635,7 +43826,7 @@
       <c r="C66" s="18"/>
       <c r="D66" s="18"/>
       <c r="E66" s="41" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
@@ -43648,7 +43839,7 @@
       <c r="C67" s="18"/>
       <c r="D67" s="18"/>
       <c r="E67" s="41" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
@@ -43756,6 +43947,24 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:I42"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -43770,24 +43979,6 @@
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="G46:I46"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43810,17 +44001,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -43829,11 +44020,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -43844,11 +44035,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="111"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -43859,11 +44050,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="111"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -43876,11 +44067,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="111"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -43891,13 +44082,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="109"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="111"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -43917,17 +44108,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="106"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="108"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -44425,26 +44616,26 @@
       <c r="I53" s="23"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="104" t="s">
+      <c r="A54" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="105"/>
-      <c r="C54" s="105"/>
-      <c r="D54" s="105"/>
-      <c r="E54" s="105"/>
-      <c r="F54" s="105"/>
-      <c r="G54" s="105"/>
-      <c r="H54" s="105"/>
-      <c r="I54" s="106"/>
+      <c r="B54" s="107"/>
+      <c r="C54" s="107"/>
+      <c r="D54" s="107"/>
+      <c r="E54" s="107"/>
+      <c r="F54" s="107"/>
+      <c r="G54" s="107"/>
+      <c r="H54" s="107"/>
+      <c r="I54" s="108"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="111" t="s">
+      <c r="B55" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="112"/>
+      <c r="C55" s="113"/>
       <c r="D55" s="25" t="s">
         <v>18</v>
       </c>
@@ -44452,30 +44643,30 @@
       <c r="F55" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="111" t="s">
+      <c r="G55" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="H55" s="113"/>
-      <c r="I55" s="112"/>
+      <c r="H55" s="114"/>
+      <c r="I55" s="113"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="27">
         <v>1</v>
       </c>
-      <c r="B56" s="107" t="s">
+      <c r="B56" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="109"/>
-      <c r="D56" s="107" t="s">
+      <c r="C56" s="111"/>
+      <c r="D56" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="109"/>
+      <c r="E56" s="111"/>
       <c r="F56" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G56" s="107"/>
-      <c r="H56" s="108"/>
-      <c r="I56" s="109"/>
+      <c r="G56" s="109"/>
+      <c r="H56" s="110"/>
+      <c r="I56" s="111"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="27">
@@ -44483,37 +44674,37 @@
       </c>
       <c r="B57" s="33"/>
       <c r="C57" s="35"/>
-      <c r="D57" s="107" t="s">
+      <c r="D57" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="109"/>
+      <c r="E57" s="111"/>
       <c r="F57" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G57" s="107" t="s">
+      <c r="G57" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="H57" s="108"/>
-      <c r="I57" s="109"/>
+      <c r="H57" s="110"/>
+      <c r="I57" s="111"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="27">
         <v>3</v>
       </c>
-      <c r="B58" s="107" t="s">
+      <c r="B58" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="109"/>
-      <c r="D58" s="107" t="s">
+      <c r="C58" s="111"/>
+      <c r="D58" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="109"/>
+      <c r="E58" s="111"/>
       <c r="F58" s="27"/>
-      <c r="G58" s="107" t="s">
+      <c r="G58" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="H58" s="108"/>
-      <c r="I58" s="109"/>
+      <c r="H58" s="110"/>
+      <c r="I58" s="111"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="27">
@@ -44523,18 +44714,18 @@
         <v>82</v>
       </c>
       <c r="C59" s="35"/>
-      <c r="D59" s="107" t="s">
+      <c r="D59" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="109"/>
+      <c r="E59" s="111"/>
       <c r="F59" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G59" s="107" t="s">
+      <c r="G59" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="H59" s="108"/>
-      <c r="I59" s="109"/>
+      <c r="H59" s="110"/>
+      <c r="I59" s="111"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="27">
@@ -44559,20 +44750,20 @@
       <c r="A61" s="27">
         <v>6</v>
       </c>
-      <c r="B61" s="107" t="s">
+      <c r="B61" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="C61" s="109"/>
-      <c r="D61" s="107" t="s">
+      <c r="C61" s="111"/>
+      <c r="D61" s="109" t="s">
         <v>90</v>
       </c>
-      <c r="E61" s="109"/>
+      <c r="E61" s="111"/>
       <c r="F61" s="27"/>
-      <c r="G61" s="107" t="s">
+      <c r="G61" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="H61" s="108"/>
-      <c r="I61" s="109"/>
+      <c r="H61" s="110"/>
+      <c r="I61" s="111"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="27">
@@ -44587,132 +44778,132 @@
       </c>
       <c r="E62" s="35"/>
       <c r="F62" s="27"/>
-      <c r="G62" s="114" t="s">
+      <c r="G62" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="H62" s="108"/>
-      <c r="I62" s="109"/>
+      <c r="H62" s="110"/>
+      <c r="I62" s="111"/>
     </row>
     <row r="63" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="27">
         <v>8</v>
       </c>
-      <c r="B63" s="107" t="s">
+      <c r="B63" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="C63" s="109"/>
+      <c r="C63" s="111"/>
       <c r="D63" s="33" t="s">
         <v>83</v>
       </c>
       <c r="E63" s="35"/>
       <c r="F63" s="27"/>
-      <c r="G63" s="114" t="s">
+      <c r="G63" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="H63" s="108"/>
-      <c r="I63" s="109"/>
+      <c r="H63" s="110"/>
+      <c r="I63" s="111"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="27">
         <v>9</v>
       </c>
-      <c r="B64" s="107" t="s">
+      <c r="B64" s="109" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="109"/>
-      <c r="D64" s="107"/>
-      <c r="E64" s="109"/>
+      <c r="C64" s="111"/>
+      <c r="D64" s="109"/>
+      <c r="E64" s="111"/>
       <c r="F64" s="27"/>
-      <c r="G64" s="107" t="s">
+      <c r="G64" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="H64" s="108"/>
-      <c r="I64" s="109"/>
+      <c r="H64" s="110"/>
+      <c r="I64" s="111"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="27">
         <v>10</v>
       </c>
-      <c r="B65" s="107" t="s">
+      <c r="B65" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="109"/>
-      <c r="D65" s="107" t="s">
+      <c r="C65" s="111"/>
+      <c r="D65" s="109" t="s">
         <v>90</v>
       </c>
-      <c r="E65" s="109"/>
+      <c r="E65" s="111"/>
       <c r="F65" s="27"/>
-      <c r="G65" s="107" t="s">
+      <c r="G65" s="109" t="s">
         <v>144</v>
       </c>
-      <c r="H65" s="108"/>
-      <c r="I65" s="109"/>
+      <c r="H65" s="110"/>
+      <c r="I65" s="111"/>
     </row>
     <row r="66" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="27">
         <v>11</v>
       </c>
-      <c r="B66" s="107" t="s">
+      <c r="B66" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="C66" s="109"/>
-      <c r="D66" s="107" t="s">
+      <c r="C66" s="111"/>
+      <c r="D66" s="109" t="s">
         <v>145</v>
       </c>
-      <c r="E66" s="109"/>
+      <c r="E66" s="111"/>
       <c r="F66" s="27"/>
-      <c r="G66" s="114" t="s">
+      <c r="G66" s="115" t="s">
         <v>146</v>
       </c>
-      <c r="H66" s="108"/>
-      <c r="I66" s="109"/>
+      <c r="H66" s="110"/>
+      <c r="I66" s="111"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="86">
         <v>12</v>
       </c>
-      <c r="B67" s="107" t="s">
+      <c r="B67" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="C67" s="109"/>
-      <c r="D67" s="107"/>
-      <c r="E67" s="109"/>
+      <c r="C67" s="111"/>
+      <c r="D67" s="109"/>
+      <c r="E67" s="111"/>
       <c r="F67" s="86"/>
-      <c r="G67" s="107"/>
-      <c r="H67" s="108"/>
-      <c r="I67" s="109"/>
+      <c r="G67" s="109"/>
+      <c r="H67" s="110"/>
+      <c r="I67" s="111"/>
     </row>
     <row r="68" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="27">
         <v>13</v>
       </c>
-      <c r="B68" s="107" t="s">
+      <c r="B68" s="109" t="s">
+        <v>444</v>
+      </c>
+      <c r="C68" s="111"/>
+      <c r="D68" s="109" t="s">
         <v>445</v>
       </c>
-      <c r="C68" s="109"/>
-      <c r="D68" s="107" t="s">
+      <c r="E68" s="111"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="115" t="s">
         <v>446</v>
       </c>
-      <c r="E68" s="109"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="114" t="s">
-        <v>447</v>
-      </c>
-      <c r="H68" s="115"/>
-      <c r="I68" s="116"/>
+      <c r="H68" s="116"/>
+      <c r="I68" s="117"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" s="104" t="s">
+      <c r="A69" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="B69" s="105"/>
-      <c r="C69" s="105"/>
-      <c r="D69" s="105"/>
-      <c r="E69" s="105"/>
-      <c r="F69" s="105"/>
-      <c r="G69" s="105"/>
-      <c r="H69" s="105"/>
-      <c r="I69" s="106"/>
+      <c r="B69" s="107"/>
+      <c r="C69" s="107"/>
+      <c r="D69" s="107"/>
+      <c r="E69" s="107"/>
+      <c r="F69" s="107"/>
+      <c r="G69" s="107"/>
+      <c r="H69" s="107"/>
+      <c r="I69" s="108"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="29"/>
@@ -44952,12 +45143,12 @@
       <c r="B91" s="40">
         <v>1</v>
       </c>
-      <c r="C91" s="101" t="s">
+      <c r="C91" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="D91" s="101"/>
-      <c r="E91" s="101"/>
-      <c r="F91" s="101"/>
+      <c r="D91" s="104"/>
+      <c r="E91" s="104"/>
+      <c r="F91" s="104"/>
       <c r="G91" s="18"/>
       <c r="H91" s="18"/>
       <c r="I91" s="20"/>
@@ -44967,12 +45158,12 @@
       <c r="B92" s="40">
         <v>2</v>
       </c>
-      <c r="C92" s="101" t="s">
+      <c r="C92" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="D92" s="101"/>
-      <c r="E92" s="101"/>
-      <c r="F92" s="101"/>
+      <c r="D92" s="104"/>
+      <c r="E92" s="104"/>
+      <c r="F92" s="104"/>
       <c r="G92" s="18"/>
       <c r="H92" s="18"/>
       <c r="I92" s="20"/>
@@ -44982,12 +45173,12 @@
       <c r="B93" s="40">
         <v>3</v>
       </c>
-      <c r="C93" s="101" t="s">
+      <c r="C93" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="D93" s="101"/>
-      <c r="E93" s="101"/>
-      <c r="F93" s="101"/>
+      <c r="D93" s="104"/>
+      <c r="E93" s="104"/>
+      <c r="F93" s="104"/>
       <c r="G93" s="18"/>
       <c r="H93" s="18"/>
       <c r="I93" s="20"/>
@@ -44997,12 +45188,12 @@
       <c r="B94" s="40">
         <v>4</v>
       </c>
-      <c r="C94" s="101" t="s">
+      <c r="C94" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="D94" s="101"/>
-      <c r="E94" s="101"/>
-      <c r="F94" s="101"/>
+      <c r="D94" s="104"/>
+      <c r="E94" s="104"/>
+      <c r="F94" s="104"/>
       <c r="G94" s="18"/>
       <c r="H94" s="18"/>
       <c r="I94" s="20"/>
@@ -45042,6 +45233,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="A69:I69"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="C91:F91"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="D68:E68"/>
@@ -45058,36 +45279,6 @@
     <mergeCell ref="A54:I54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="G55:I55"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="A69:I69"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="C91:F91"/>
-    <mergeCell ref="C92:F92"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45110,17 +45301,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -45129,11 +45320,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -45144,11 +45335,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="111"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -45159,11 +45350,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="111"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -45176,11 +45367,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="111"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -45191,13 +45382,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="109"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="111"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -45217,17 +45408,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="106"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="108"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -45670,26 +45861,26 @@
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="104" t="s">
+      <c r="A49" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="105"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="105"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="105"/>
-      <c r="I49" s="106"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="107"/>
+      <c r="D49" s="107"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="107"/>
+      <c r="G49" s="107"/>
+      <c r="H49" s="107"/>
+      <c r="I49" s="108"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="111" t="s">
+      <c r="B50" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="112"/>
+      <c r="C50" s="113"/>
       <c r="D50" s="25" t="s">
         <v>18</v>
       </c>
@@ -45697,30 +45888,30 @@
       <c r="F50" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="111" t="s">
+      <c r="G50" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="113"/>
-      <c r="I50" s="112"/>
+      <c r="H50" s="114"/>
+      <c r="I50" s="113"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="107" t="s">
+      <c r="B51" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="109"/>
-      <c r="D51" s="107" t="s">
+      <c r="C51" s="111"/>
+      <c r="D51" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="109"/>
+      <c r="E51" s="111"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="107"/>
-      <c r="H51" s="108"/>
-      <c r="I51" s="109"/>
+      <c r="G51" s="109"/>
+      <c r="H51" s="110"/>
+      <c r="I51" s="111"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="27">
@@ -45728,37 +45919,37 @@
       </c>
       <c r="B52" s="36"/>
       <c r="C52" s="37"/>
-      <c r="D52" s="107" t="s">
+      <c r="D52" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="109"/>
+      <c r="E52" s="111"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="107" t="s">
+      <c r="G52" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="108"/>
-      <c r="I52" s="109"/>
+      <c r="H52" s="110"/>
+      <c r="I52" s="111"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
         <v>3</v>
       </c>
-      <c r="B53" s="107" t="s">
+      <c r="B53" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="109"/>
-      <c r="D53" s="107" t="s">
+      <c r="C53" s="111"/>
+      <c r="D53" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="109"/>
+      <c r="E53" s="111"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="107" t="s">
+      <c r="G53" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="H53" s="108"/>
-      <c r="I53" s="109"/>
+      <c r="H53" s="110"/>
+      <c r="I53" s="111"/>
     </row>
     <row r="54" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="27">
@@ -45768,18 +45959,18 @@
         <v>147</v>
       </c>
       <c r="C54" s="37"/>
-      <c r="D54" s="107" t="s">
+      <c r="D54" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="E54" s="109"/>
+      <c r="E54" s="111"/>
       <c r="F54" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="114" t="s">
+      <c r="G54" s="115" t="s">
         <v>148</v>
       </c>
-      <c r="H54" s="108"/>
-      <c r="I54" s="109"/>
+      <c r="H54" s="110"/>
+      <c r="I54" s="111"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="27">
@@ -45802,33 +45993,33 @@
       <c r="A56" s="27">
         <v>6</v>
       </c>
-      <c r="B56" s="107" t="s">
+      <c r="B56" s="109" t="s">
         <v>151</v>
       </c>
-      <c r="C56" s="109"/>
-      <c r="D56" s="107" t="s">
+      <c r="C56" s="111"/>
+      <c r="D56" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="109"/>
+      <c r="E56" s="111"/>
       <c r="F56" s="27"/>
-      <c r="G56" s="107" t="s">
+      <c r="G56" s="109" t="s">
         <v>152</v>
       </c>
-      <c r="H56" s="108"/>
-      <c r="I56" s="109"/>
+      <c r="H56" s="110"/>
+      <c r="I56" s="111"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="104" t="s">
+      <c r="A57" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="105"/>
-      <c r="C57" s="105"/>
-      <c r="D57" s="105"/>
-      <c r="E57" s="105"/>
-      <c r="F57" s="105"/>
-      <c r="G57" s="105"/>
-      <c r="H57" s="105"/>
-      <c r="I57" s="106"/>
+      <c r="B57" s="107"/>
+      <c r="C57" s="107"/>
+      <c r="D57" s="107"/>
+      <c r="E57" s="107"/>
+      <c r="F57" s="107"/>
+      <c r="G57" s="107"/>
+      <c r="H57" s="107"/>
+      <c r="I57" s="108"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="29"/>
@@ -45986,6 +46177,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
     <mergeCell ref="A57:I57"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:E56"/>
@@ -45997,19 +46201,6 @@
     <mergeCell ref="G53:I53"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="G54:I54"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46032,17 +46223,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -46051,11 +46242,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -46066,11 +46257,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="111"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -46081,11 +46272,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="111"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -46098,11 +46289,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="111"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -46113,13 +46304,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="115" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="109"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="111"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -46139,17 +46330,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="106"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="108"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -46592,26 +46783,26 @@
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="104" t="s">
+      <c r="A49" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="105"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="105"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="105"/>
-      <c r="I49" s="106"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="107"/>
+      <c r="D49" s="107"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="107"/>
+      <c r="G49" s="107"/>
+      <c r="H49" s="107"/>
+      <c r="I49" s="108"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="111" t="s">
+      <c r="B50" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="112"/>
+      <c r="C50" s="113"/>
       <c r="D50" s="25" t="s">
         <v>18</v>
       </c>
@@ -46619,30 +46810,30 @@
       <c r="F50" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="111" t="s">
+      <c r="G50" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="113"/>
-      <c r="I50" s="112"/>
+      <c r="H50" s="114"/>
+      <c r="I50" s="113"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="107" t="s">
+      <c r="B51" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="109"/>
-      <c r="D51" s="107" t="s">
+      <c r="C51" s="111"/>
+      <c r="D51" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="109"/>
+      <c r="E51" s="111"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="107"/>
-      <c r="H51" s="108"/>
-      <c r="I51" s="109"/>
+      <c r="G51" s="109"/>
+      <c r="H51" s="110"/>
+      <c r="I51" s="111"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="27">
@@ -46650,37 +46841,37 @@
       </c>
       <c r="B52" s="36"/>
       <c r="C52" s="37"/>
-      <c r="D52" s="107" t="s">
+      <c r="D52" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="109"/>
+      <c r="E52" s="111"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="107" t="s">
+      <c r="G52" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="108"/>
-      <c r="I52" s="109"/>
+      <c r="H52" s="110"/>
+      <c r="I52" s="111"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
         <v>3</v>
       </c>
-      <c r="B53" s="107" t="s">
+      <c r="B53" s="109" t="s">
         <v>154</v>
       </c>
-      <c r="C53" s="109"/>
-      <c r="D53" s="107" t="s">
+      <c r="C53" s="111"/>
+      <c r="D53" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="109"/>
+      <c r="E53" s="111"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="107" t="s">
+      <c r="G53" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="H53" s="108"/>
-      <c r="I53" s="109"/>
+      <c r="H53" s="110"/>
+      <c r="I53" s="111"/>
     </row>
     <row r="54" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="27">
@@ -46690,18 +46881,18 @@
         <v>155</v>
       </c>
       <c r="C54" s="37"/>
-      <c r="D54" s="107" t="s">
+      <c r="D54" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="E54" s="109"/>
+      <c r="E54" s="111"/>
       <c r="F54" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="114" t="s">
+      <c r="G54" s="115" t="s">
         <v>156</v>
       </c>
-      <c r="H54" s="108"/>
-      <c r="I54" s="109"/>
+      <c r="H54" s="110"/>
+      <c r="I54" s="111"/>
     </row>
     <row r="55" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="27">
@@ -46716,138 +46907,138 @@
       </c>
       <c r="E55" s="37"/>
       <c r="F55" s="27"/>
-      <c r="G55" s="114" t="s">
+      <c r="G55" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="H55" s="108"/>
-      <c r="I55" s="109"/>
+      <c r="H55" s="110"/>
+      <c r="I55" s="111"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="27">
         <v>6</v>
       </c>
-      <c r="B56" s="107" t="s">
+      <c r="B56" s="109" t="s">
         <v>161</v>
       </c>
-      <c r="C56" s="109"/>
-      <c r="D56" s="107" t="s">
+      <c r="C56" s="111"/>
+      <c r="D56" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="E56" s="109"/>
+      <c r="E56" s="111"/>
       <c r="F56" s="27"/>
-      <c r="G56" s="107" t="s">
+      <c r="G56" s="109" t="s">
         <v>162</v>
       </c>
-      <c r="H56" s="108"/>
-      <c r="I56" s="109"/>
+      <c r="H56" s="110"/>
+      <c r="I56" s="111"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="27">
         <v>7</v>
       </c>
-      <c r="B57" s="107" t="s">
+      <c r="B57" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="109"/>
-      <c r="D57" s="107" t="s">
+      <c r="C57" s="111"/>
+      <c r="D57" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="E57" s="109"/>
+      <c r="E57" s="111"/>
       <c r="F57" s="27"/>
-      <c r="G57" s="107" t="s">
+      <c r="G57" s="109" t="s">
         <v>159</v>
       </c>
-      <c r="H57" s="108"/>
-      <c r="I57" s="109"/>
+      <c r="H57" s="110"/>
+      <c r="I57" s="111"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="27">
         <v>8</v>
       </c>
-      <c r="B58" s="107" t="s">
+      <c r="B58" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="C58" s="109"/>
-      <c r="D58" s="107" t="s">
+      <c r="C58" s="111"/>
+      <c r="D58" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="E58" s="109"/>
+      <c r="E58" s="111"/>
       <c r="F58" s="27"/>
-      <c r="G58" s="107" t="s">
+      <c r="G58" s="109" t="s">
         <v>163</v>
       </c>
-      <c r="H58" s="108"/>
-      <c r="I58" s="109"/>
+      <c r="H58" s="110"/>
+      <c r="I58" s="111"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="27">
         <v>9</v>
       </c>
-      <c r="B59" s="107" t="s">
+      <c r="B59" s="109" t="s">
         <v>165</v>
       </c>
-      <c r="C59" s="109"/>
-      <c r="D59" s="107" t="s">
+      <c r="C59" s="111"/>
+      <c r="D59" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="109"/>
+      <c r="E59" s="111"/>
       <c r="F59" s="27"/>
-      <c r="G59" s="107" t="s">
+      <c r="G59" s="109" t="s">
         <v>165</v>
       </c>
-      <c r="H59" s="108"/>
-      <c r="I59" s="109"/>
+      <c r="H59" s="110"/>
+      <c r="I59" s="111"/>
     </row>
     <row r="60" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="27">
         <v>10</v>
       </c>
-      <c r="B60" s="107" t="s">
+      <c r="B60" s="109" t="s">
         <v>304</v>
       </c>
-      <c r="C60" s="109"/>
-      <c r="D60" s="107" t="s">
+      <c r="C60" s="111"/>
+      <c r="D60" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="E60" s="109"/>
+      <c r="E60" s="111"/>
       <c r="F60" s="27"/>
-      <c r="G60" s="114" t="s">
+      <c r="G60" s="115" t="s">
         <v>305</v>
       </c>
-      <c r="H60" s="108"/>
-      <c r="I60" s="109"/>
+      <c r="H60" s="110"/>
+      <c r="I60" s="111"/>
     </row>
     <row r="61" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="27">
         <v>11</v>
       </c>
-      <c r="B61" s="107" t="s">
+      <c r="B61" s="109" t="s">
         <v>166</v>
       </c>
-      <c r="C61" s="109"/>
-      <c r="D61" s="107" t="s">
+      <c r="C61" s="111"/>
+      <c r="D61" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="E61" s="109"/>
+      <c r="E61" s="111"/>
       <c r="F61" s="27"/>
-      <c r="G61" s="114" t="s">
+      <c r="G61" s="115" t="s">
         <v>167</v>
       </c>
-      <c r="H61" s="108"/>
-      <c r="I61" s="109"/>
+      <c r="H61" s="110"/>
+      <c r="I61" s="111"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="104" t="s">
+      <c r="A62" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="105"/>
-      <c r="C62" s="105"/>
-      <c r="D62" s="105"/>
-      <c r="E62" s="105"/>
-      <c r="F62" s="105"/>
-      <c r="G62" s="105"/>
-      <c r="H62" s="105"/>
-      <c r="I62" s="106"/>
+      <c r="B62" s="107"/>
+      <c r="C62" s="107"/>
+      <c r="D62" s="107"/>
+      <c r="E62" s="107"/>
+      <c r="F62" s="107"/>
+      <c r="G62" s="107"/>
+      <c r="H62" s="107"/>
+      <c r="I62" s="108"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="29"/>
@@ -47068,26 +47259,12 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="G54:I54"/>
     <mergeCell ref="A8:I8"/>
@@ -47102,12 +47279,26 @@
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="G53:I53"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47129,17 +47320,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -47148,11 +47339,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -47163,11 +47354,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="111"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -47178,11 +47369,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="111"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -47195,11 +47386,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="111"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -47210,13 +47401,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="115" t="s">
         <v>381</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="109"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="111"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -47236,17 +47427,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="106"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="108"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -47524,26 +47715,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="104" t="s">
+      <c r="A34" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="106"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="108"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="111" t="s">
+      <c r="B35" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="112"/>
+      <c r="C35" s="113"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -47551,30 +47742,30 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="111" t="s">
+      <c r="G35" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="113"/>
-      <c r="I35" s="112"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="113"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="107" t="s">
+      <c r="B36" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="109"/>
-      <c r="D36" s="107" t="s">
+      <c r="C36" s="111"/>
+      <c r="D36" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="109"/>
+      <c r="E36" s="111"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="107"/>
-      <c r="H36" s="108"/>
-      <c r="I36" s="109"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="110"/>
+      <c r="I36" s="111"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="27">
@@ -47601,16 +47792,16 @@
       </c>
       <c r="B38" s="69"/>
       <c r="C38" s="71"/>
-      <c r="D38" s="107" t="s">
+      <c r="D38" s="109" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="109"/>
+      <c r="E38" s="111"/>
       <c r="F38" s="27"/>
-      <c r="G38" s="107" t="s">
+      <c r="G38" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="H38" s="108"/>
-      <c r="I38" s="109"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="111"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="27">
@@ -47667,31 +47858,31 @@
       <c r="A42" s="27">
         <v>7</v>
       </c>
-      <c r="B42" s="107" t="s">
+      <c r="B42" s="109" t="s">
         <v>378</v>
       </c>
-      <c r="C42" s="109"/>
-      <c r="D42" s="107" t="s">
+      <c r="C42" s="111"/>
+      <c r="D42" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="109"/>
+      <c r="E42" s="111"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="108"/>
-      <c r="I42" s="109"/>
+      <c r="G42" s="109"/>
+      <c r="H42" s="110"/>
+      <c r="I42" s="111"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="104" t="s">
+      <c r="A43" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="105"/>
-      <c r="C43" s="105"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
-      <c r="I43" s="106"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="107"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="108"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="29"/>
@@ -47849,12 +48040,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="B35:C35"/>
@@ -47862,12 +48053,12 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="G36:I36"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:I42"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47889,17 +48080,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -47908,11 +48099,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -47923,11 +48114,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="111"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -47938,11 +48129,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="111"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -47955,11 +48146,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="111"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -47970,13 +48161,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="115" t="s">
         <v>404</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="109"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="111"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -47996,17 +48187,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="106"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="108"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -48449,26 +48640,26 @@
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="104" t="s">
+      <c r="A49" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="105"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="105"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="105"/>
-      <c r="I49" s="106"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="107"/>
+      <c r="D49" s="107"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="107"/>
+      <c r="G49" s="107"/>
+      <c r="H49" s="107"/>
+      <c r="I49" s="108"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="111" t="s">
+      <c r="B50" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="112"/>
+      <c r="C50" s="113"/>
       <c r="D50" s="25" t="s">
         <v>18</v>
       </c>
@@ -48476,30 +48667,30 @@
       <c r="F50" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="111" t="s">
+      <c r="G50" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="113"/>
-      <c r="I50" s="112"/>
+      <c r="H50" s="114"/>
+      <c r="I50" s="113"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="107" t="s">
+      <c r="B51" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="109"/>
-      <c r="D51" s="107" t="s">
+      <c r="C51" s="111"/>
+      <c r="D51" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="109"/>
+      <c r="E51" s="111"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="107"/>
-      <c r="H51" s="108"/>
-      <c r="I51" s="109"/>
+      <c r="G51" s="109"/>
+      <c r="H51" s="110"/>
+      <c r="I51" s="111"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="27">
@@ -48507,18 +48698,18 @@
       </c>
       <c r="B52" s="74"/>
       <c r="C52" s="75"/>
-      <c r="D52" s="107" t="s">
+      <c r="D52" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="109"/>
+      <c r="E52" s="111"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="107" t="s">
+      <c r="G52" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="108"/>
-      <c r="I52" s="109"/>
+      <c r="H52" s="110"/>
+      <c r="I52" s="111"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
@@ -48528,18 +48719,18 @@
         <v>81</v>
       </c>
       <c r="C53" s="75"/>
-      <c r="D53" s="107" t="s">
+      <c r="D53" s="109" t="s">
         <v>393</v>
       </c>
-      <c r="E53" s="109"/>
+      <c r="E53" s="111"/>
       <c r="F53" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G53" s="114" t="s">
+      <c r="G53" s="115" t="s">
         <v>394</v>
       </c>
-      <c r="H53" s="108"/>
-      <c r="I53" s="109"/>
+      <c r="H53" s="110"/>
+      <c r="I53" s="111"/>
     </row>
     <row r="54" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="27">
@@ -48549,18 +48740,18 @@
         <v>397</v>
       </c>
       <c r="C54" s="75"/>
-      <c r="D54" s="107" t="s">
+      <c r="D54" s="109" t="s">
         <v>398</v>
       </c>
-      <c r="E54" s="109"/>
+      <c r="E54" s="111"/>
       <c r="F54" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="114" t="s">
+      <c r="G54" s="115" t="s">
         <v>399</v>
       </c>
-      <c r="H54" s="108"/>
-      <c r="I54" s="109"/>
+      <c r="H54" s="110"/>
+      <c r="I54" s="111"/>
     </row>
     <row r="55" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="27">
@@ -48575,62 +48766,62 @@
       </c>
       <c r="E55" s="75"/>
       <c r="F55" s="27"/>
-      <c r="G55" s="114" t="s">
+      <c r="G55" s="115" t="s">
         <v>396</v>
       </c>
-      <c r="H55" s="108"/>
-      <c r="I55" s="109"/>
+      <c r="H55" s="110"/>
+      <c r="I55" s="111"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="27">
         <v>6</v>
       </c>
-      <c r="B56" s="107" t="s">
+      <c r="B56" s="109" t="s">
         <v>400</v>
       </c>
-      <c r="C56" s="109"/>
-      <c r="D56" s="107" t="s">
+      <c r="C56" s="111"/>
+      <c r="D56" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="109"/>
+      <c r="E56" s="111"/>
       <c r="F56" s="27"/>
-      <c r="G56" s="107" t="s">
+      <c r="G56" s="109" t="s">
         <v>401</v>
       </c>
-      <c r="H56" s="108"/>
-      <c r="I56" s="109"/>
+      <c r="H56" s="110"/>
+      <c r="I56" s="111"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="27">
         <v>7</v>
       </c>
-      <c r="B57" s="107" t="s">
+      <c r="B57" s="109" t="s">
         <v>402</v>
       </c>
-      <c r="C57" s="109"/>
-      <c r="D57" s="107" t="s">
+      <c r="C57" s="111"/>
+      <c r="D57" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="E57" s="109"/>
+      <c r="E57" s="111"/>
       <c r="F57" s="27"/>
-      <c r="G57" s="107" t="s">
+      <c r="G57" s="109" t="s">
         <v>403</v>
       </c>
-      <c r="H57" s="108"/>
-      <c r="I57" s="109"/>
+      <c r="H57" s="110"/>
+      <c r="I57" s="111"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="104" t="s">
+      <c r="A58" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="105"/>
-      <c r="C58" s="105"/>
-      <c r="D58" s="105"/>
-      <c r="E58" s="105"/>
-      <c r="F58" s="105"/>
-      <c r="G58" s="105"/>
-      <c r="H58" s="105"/>
-      <c r="I58" s="106"/>
+      <c r="B58" s="107"/>
+      <c r="C58" s="107"/>
+      <c r="D58" s="107"/>
+      <c r="E58" s="107"/>
+      <c r="F58" s="107"/>
+      <c r="G58" s="107"/>
+      <c r="H58" s="107"/>
+      <c r="I58" s="108"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="29"/>
@@ -48667,6 +48858,25 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G54:I54"/>
     <mergeCell ref="A58:I58"/>
     <mergeCell ref="G55:I55"/>
     <mergeCell ref="B56:C56"/>
@@ -48675,25 +48885,6 @@
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="G57:I57"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48901,17 +49092,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -48920,11 +49111,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -48935,11 +49126,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="111"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -48950,11 +49141,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="111"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -48967,11 +49158,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="111"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -48982,13 +49173,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="109"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="111"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -49008,17 +49199,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="106"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="108"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -49461,26 +49652,26 @@
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="104" t="s">
+      <c r="A49" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="105"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="105"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="105"/>
-      <c r="I49" s="106"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="107"/>
+      <c r="D49" s="107"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="107"/>
+      <c r="G49" s="107"/>
+      <c r="H49" s="107"/>
+      <c r="I49" s="108"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="111" t="s">
+      <c r="B50" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="112"/>
+      <c r="C50" s="113"/>
       <c r="D50" s="25" t="s">
         <v>18</v>
       </c>
@@ -49488,30 +49679,30 @@
       <c r="F50" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="111" t="s">
+      <c r="G50" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="113"/>
-      <c r="I50" s="112"/>
+      <c r="H50" s="114"/>
+      <c r="I50" s="113"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="107" t="s">
+      <c r="B51" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="109"/>
-      <c r="D51" s="107" t="s">
+      <c r="C51" s="111"/>
+      <c r="D51" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="109"/>
+      <c r="E51" s="111"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="107"/>
-      <c r="H51" s="108"/>
-      <c r="I51" s="109"/>
+      <c r="G51" s="109"/>
+      <c r="H51" s="110"/>
+      <c r="I51" s="111"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="27">
@@ -49519,37 +49710,37 @@
       </c>
       <c r="B52" s="78"/>
       <c r="C52" s="80"/>
-      <c r="D52" s="107" t="s">
+      <c r="D52" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="109"/>
+      <c r="E52" s="111"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="107" t="s">
+      <c r="G52" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="108"/>
-      <c r="I52" s="109"/>
+      <c r="H52" s="110"/>
+      <c r="I52" s="111"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
         <v>3</v>
       </c>
-      <c r="B53" s="107" t="s">
+      <c r="B53" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="109"/>
-      <c r="D53" s="107" t="s">
+      <c r="C53" s="111"/>
+      <c r="D53" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="109"/>
+      <c r="E53" s="111"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="107" t="s">
+      <c r="G53" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="H53" s="108"/>
-      <c r="I53" s="109"/>
+      <c r="H53" s="110"/>
+      <c r="I53" s="111"/>
     </row>
     <row r="54" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="27">
@@ -49559,16 +49750,16 @@
         <v>147</v>
       </c>
       <c r="C54" s="80"/>
-      <c r="D54" s="107" t="s">
+      <c r="D54" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="E54" s="109"/>
+      <c r="E54" s="111"/>
       <c r="F54" s="27"/>
-      <c r="G54" s="114" t="s">
+      <c r="G54" s="115" t="s">
         <v>406</v>
       </c>
-      <c r="H54" s="108"/>
-      <c r="I54" s="109"/>
+      <c r="H54" s="110"/>
+      <c r="I54" s="111"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="27">
@@ -49589,27 +49780,27 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="27"/>
-      <c r="B56" s="107"/>
-      <c r="C56" s="109"/>
-      <c r="D56" s="107"/>
-      <c r="E56" s="109"/>
+      <c r="B56" s="109"/>
+      <c r="C56" s="111"/>
+      <c r="D56" s="109"/>
+      <c r="E56" s="111"/>
       <c r="F56" s="27"/>
-      <c r="G56" s="107"/>
-      <c r="H56" s="108"/>
-      <c r="I56" s="109"/>
+      <c r="G56" s="109"/>
+      <c r="H56" s="110"/>
+      <c r="I56" s="111"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="104" t="s">
+      <c r="A57" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="105"/>
-      <c r="C57" s="105"/>
-      <c r="D57" s="105"/>
-      <c r="E57" s="105"/>
-      <c r="F57" s="105"/>
-      <c r="G57" s="105"/>
-      <c r="H57" s="105"/>
-      <c r="I57" s="106"/>
+      <c r="B57" s="107"/>
+      <c r="C57" s="107"/>
+      <c r="D57" s="107"/>
+      <c r="E57" s="107"/>
+      <c r="F57" s="107"/>
+      <c r="G57" s="107"/>
+      <c r="H57" s="107"/>
+      <c r="I57" s="108"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="29"/>
@@ -49767,6 +49958,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="G56:I56"/>
@@ -49778,19 +49982,6 @@
     <mergeCell ref="G53:I53"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="G54:I54"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -49813,17 +50004,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -49832,11 +50023,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -49847,11 +50038,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="111"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -49862,11 +50053,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="111"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -49879,11 +50070,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="111"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -49894,13 +50085,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="109"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="111"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -49920,17 +50111,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="106"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="108"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -50373,26 +50564,26 @@
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="104" t="s">
+      <c r="A49" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="105"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="105"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="105"/>
-      <c r="I49" s="106"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="107"/>
+      <c r="D49" s="107"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="107"/>
+      <c r="G49" s="107"/>
+      <c r="H49" s="107"/>
+      <c r="I49" s="108"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="111" t="s">
+      <c r="B50" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="112"/>
+      <c r="C50" s="113"/>
       <c r="D50" s="25" t="s">
         <v>18</v>
       </c>
@@ -50400,30 +50591,30 @@
       <c r="F50" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="111" t="s">
+      <c r="G50" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="113"/>
-      <c r="I50" s="112"/>
+      <c r="H50" s="114"/>
+      <c r="I50" s="113"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="107" t="s">
+      <c r="B51" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="109"/>
-      <c r="D51" s="107" t="s">
+      <c r="C51" s="111"/>
+      <c r="D51" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="109"/>
+      <c r="E51" s="111"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="107"/>
-      <c r="H51" s="108"/>
-      <c r="I51" s="109"/>
+      <c r="G51" s="109"/>
+      <c r="H51" s="110"/>
+      <c r="I51" s="111"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="27">
@@ -50431,37 +50622,37 @@
       </c>
       <c r="B52" s="78"/>
       <c r="C52" s="80"/>
-      <c r="D52" s="107" t="s">
+      <c r="D52" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="109"/>
+      <c r="E52" s="111"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="107" t="s">
+      <c r="G52" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="108"/>
-      <c r="I52" s="109"/>
+      <c r="H52" s="110"/>
+      <c r="I52" s="111"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
         <v>3</v>
       </c>
-      <c r="B53" s="107" t="s">
+      <c r="B53" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="109"/>
-      <c r="D53" s="107" t="s">
+      <c r="C53" s="111"/>
+      <c r="D53" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="109"/>
+      <c r="E53" s="111"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="107" t="s">
+      <c r="G53" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="H53" s="108"/>
-      <c r="I53" s="109"/>
+      <c r="H53" s="110"/>
+      <c r="I53" s="111"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="27">
@@ -50471,18 +50662,18 @@
         <v>81</v>
       </c>
       <c r="C54" s="80"/>
-      <c r="D54" s="107" t="s">
+      <c r="D54" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="E54" s="109"/>
+      <c r="E54" s="111"/>
       <c r="F54" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="114" t="s">
+      <c r="G54" s="115" t="s">
         <v>427</v>
       </c>
-      <c r="H54" s="108"/>
-      <c r="I54" s="109"/>
+      <c r="H54" s="110"/>
+      <c r="I54" s="111"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="27">
@@ -50507,20 +50698,20 @@
       <c r="A56" s="27">
         <v>6</v>
       </c>
-      <c r="B56" s="107" t="s">
+      <c r="B56" s="109" t="s">
         <v>409</v>
       </c>
-      <c r="C56" s="109"/>
-      <c r="D56" s="107" t="s">
+      <c r="C56" s="111"/>
+      <c r="D56" s="109" t="s">
         <v>410</v>
       </c>
-      <c r="E56" s="109"/>
+      <c r="E56" s="111"/>
       <c r="F56" s="27"/>
-      <c r="G56" s="107" t="s">
+      <c r="G56" s="109" t="s">
         <v>411</v>
       </c>
-      <c r="H56" s="108"/>
-      <c r="I56" s="109"/>
+      <c r="H56" s="110"/>
+      <c r="I56" s="111"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="27">
@@ -50545,52 +50736,52 @@
       <c r="A58" s="27">
         <v>8</v>
       </c>
-      <c r="B58" s="107" t="s">
+      <c r="B58" s="109" t="s">
         <v>415</v>
       </c>
-      <c r="C58" s="109"/>
-      <c r="D58" s="107" t="s">
+      <c r="C58" s="111"/>
+      <c r="D58" s="109" t="s">
         <v>408</v>
       </c>
-      <c r="E58" s="109"/>
+      <c r="E58" s="111"/>
       <c r="F58" s="27"/>
-      <c r="G58" s="114" t="s">
+      <c r="G58" s="115" t="s">
         <v>416</v>
       </c>
-      <c r="H58" s="108"/>
-      <c r="I58" s="109"/>
+      <c r="H58" s="110"/>
+      <c r="I58" s="111"/>
     </row>
     <row r="59" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="27">
         <v>9</v>
       </c>
-      <c r="B59" s="107" t="s">
+      <c r="B59" s="109" t="s">
         <v>417</v>
       </c>
-      <c r="C59" s="109"/>
-      <c r="D59" s="107" t="s">
+      <c r="C59" s="111"/>
+      <c r="D59" s="109" t="s">
         <v>408</v>
       </c>
-      <c r="E59" s="109"/>
+      <c r="E59" s="111"/>
       <c r="F59" s="27"/>
-      <c r="G59" s="114" t="s">
+      <c r="G59" s="115" t="s">
         <v>416</v>
       </c>
-      <c r="H59" s="108"/>
-      <c r="I59" s="109"/>
+      <c r="H59" s="110"/>
+      <c r="I59" s="111"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="104" t="s">
+      <c r="A60" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="105"/>
-      <c r="C60" s="105"/>
-      <c r="D60" s="105"/>
-      <c r="E60" s="105"/>
-      <c r="F60" s="105"/>
-      <c r="G60" s="105"/>
-      <c r="H60" s="105"/>
-      <c r="I60" s="106"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="107"/>
+      <c r="D60" s="107"/>
+      <c r="E60" s="107"/>
+      <c r="F60" s="107"/>
+      <c r="G60" s="107"/>
+      <c r="H60" s="107"/>
+      <c r="I60" s="108"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="29"/>
@@ -50612,12 +50803,12 @@
       <c r="D62" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E62" s="124" t="s">
+      <c r="E62" s="125" t="s">
         <v>420</v>
       </c>
-      <c r="F62" s="124"/>
-      <c r="G62" s="124"/>
-      <c r="H62" s="124"/>
+      <c r="F62" s="125"/>
+      <c r="G62" s="125"/>
+      <c r="H62" s="125"/>
       <c r="I62" s="20"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
@@ -50629,12 +50820,12 @@
       <c r="D63" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="E63" s="125" t="s">
+      <c r="E63" s="126" t="s">
         <v>423</v>
       </c>
-      <c r="F63" s="125"/>
-      <c r="G63" s="125"/>
-      <c r="H63" s="125"/>
+      <c r="F63" s="126"/>
+      <c r="G63" s="126"/>
+      <c r="H63" s="126"/>
       <c r="I63" s="20"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
@@ -50646,12 +50837,12 @@
       <c r="D64" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="E64" s="125" t="s">
+      <c r="E64" s="126" t="s">
         <v>424</v>
       </c>
-      <c r="F64" s="125"/>
-      <c r="G64" s="125"/>
-      <c r="H64" s="125"/>
+      <c r="F64" s="126"/>
+      <c r="G64" s="126"/>
+      <c r="H64" s="126"/>
       <c r="I64" s="20"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
@@ -50663,12 +50854,12 @@
       <c r="D65" s="43" t="s">
         <v>421</v>
       </c>
-      <c r="E65" s="125" t="s">
+      <c r="E65" s="126" t="s">
         <v>425</v>
       </c>
-      <c r="F65" s="125"/>
-      <c r="G65" s="125"/>
-      <c r="H65" s="125"/>
+      <c r="F65" s="126"/>
+      <c r="G65" s="126"/>
+      <c r="H65" s="126"/>
       <c r="I65" s="20"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
@@ -50680,12 +50871,12 @@
       <c r="D66" s="43" t="s">
         <v>422</v>
       </c>
-      <c r="E66" s="125" t="s">
+      <c r="E66" s="126" t="s">
         <v>426</v>
       </c>
-      <c r="F66" s="125"/>
-      <c r="G66" s="125"/>
-      <c r="H66" s="125"/>
+      <c r="F66" s="126"/>
+      <c r="G66" s="126"/>
+      <c r="H66" s="126"/>
       <c r="I66" s="20"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
@@ -50778,20 +50969,11 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="A60:I60"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E66:H66"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="D59:E59"/>
@@ -50808,11 +50990,20 @@
     <mergeCell ref="G51:I51"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:E56"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="A60:I60"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G54:I54"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -50838,25 +51029,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="94" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="87" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="88" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="88" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87" t="s">
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88" t="s">
         <v>271</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="88" t="s">
         <v>272</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="88" t="s">
         <v>272</v>
       </c>
     </row>
@@ -50867,7 +51058,7 @@
       <c r="B3" s="52" t="s">
         <v>270</v>
       </c>
-      <c r="C3" s="87"/>
+      <c r="C3" s="88"/>
       <c r="D3" s="51" t="s">
         <v>124</v>
       </c>
@@ -50877,12 +51068,12 @@
       <c r="F3" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="90">
+      <c r="A4" s="96">
         <v>0</v>
       </c>
       <c r="B4" s="53">
@@ -50918,7 +51109,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="91"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="53">
         <v>2</v>
       </c>
@@ -50950,7 +51141,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="91"/>
+      <c r="A6" s="97"/>
       <c r="B6" s="53">
         <v>3</v>
       </c>
@@ -50982,7 +51173,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="92"/>
+      <c r="A7" s="98"/>
       <c r="B7" s="53">
         <v>4</v>
       </c>
@@ -51012,7 +51203,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="99">
+      <c r="A8" s="92">
         <v>1</v>
       </c>
       <c r="B8" s="53">
@@ -51048,7 +51239,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="100"/>
+      <c r="A9" s="93"/>
       <c r="B9" s="53">
         <v>2</v>
       </c>
@@ -51082,7 +51273,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="95">
+      <c r="A10" s="89">
         <v>2</v>
       </c>
       <c r="B10" s="53">
@@ -51118,7 +51309,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="97"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="53">
         <v>2</v>
       </c>
@@ -51152,7 +51343,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="95">
+      <c r="A12" s="89">
         <v>3</v>
       </c>
       <c r="B12" s="53">
@@ -51188,7 +51379,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="97"/>
+      <c r="A13" s="91"/>
       <c r="B13" s="53">
         <v>2</v>
       </c>
@@ -51222,7 +51413,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="99">
+      <c r="A14" s="92">
         <v>4</v>
       </c>
       <c r="B14" s="53">
@@ -51258,7 +51449,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="100"/>
+      <c r="A15" s="93"/>
       <c r="B15" s="53">
         <v>2</v>
       </c>
@@ -51292,7 +51483,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="95">
+      <c r="A16" s="89">
         <v>5</v>
       </c>
       <c r="B16" s="53">
@@ -51326,7 +51517,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="96"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="53">
         <v>2</v>
       </c>
@@ -51358,7 +51549,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="97"/>
+      <c r="A18" s="91"/>
       <c r="B18" s="53">
         <v>3</v>
       </c>
@@ -51390,7 +51581,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="95">
+      <c r="A19" s="89">
         <v>6</v>
       </c>
       <c r="B19" s="53">
@@ -51424,7 +51615,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="96"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="53">
         <v>2</v>
       </c>
@@ -51455,7 +51646,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="96"/>
+      <c r="A21" s="90"/>
       <c r="B21" s="53">
         <v>3</v>
       </c>
@@ -51487,7 +51678,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="97"/>
+      <c r="A22" s="91"/>
       <c r="B22" s="53">
         <v>4</v>
       </c>
@@ -51553,7 +51744,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="95">
+      <c r="A24" s="89">
         <v>8</v>
       </c>
       <c r="B24" s="53">
@@ -51587,7 +51778,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="96"/>
+      <c r="A25" s="90"/>
       <c r="B25" s="53">
         <v>2</v>
       </c>
@@ -51617,7 +51808,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="96"/>
+      <c r="A26" s="90"/>
       <c r="B26" s="53">
         <v>3</v>
       </c>
@@ -51647,7 +51838,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="97"/>
+      <c r="A27" s="91"/>
       <c r="B27" s="53">
         <v>4</v>
       </c>
@@ -51677,7 +51868,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="95">
+      <c r="A28" s="89">
         <v>9</v>
       </c>
       <c r="B28" s="53">
@@ -51713,7 +51904,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="96"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="53">
         <v>2</v>
       </c>
@@ -51745,7 +51936,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="97"/>
+      <c r="A30" s="91"/>
       <c r="B30" s="53">
         <v>3</v>
       </c>
@@ -51809,7 +52000,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="95">
+      <c r="A32" s="89">
         <v>11</v>
       </c>
       <c r="B32" s="53">
@@ -51843,7 +52034,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="96"/>
+      <c r="A33" s="90"/>
       <c r="B33" s="53">
         <v>2</v>
       </c>
@@ -51875,7 +52066,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="97"/>
+      <c r="A34" s="91"/>
       <c r="B34" s="53">
         <v>3</v>
       </c>
@@ -51907,7 +52098,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="93">
+      <c r="A35" s="99">
         <v>12</v>
       </c>
       <c r="B35" s="76">
@@ -51941,7 +52132,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="94"/>
+      <c r="A36" s="100"/>
       <c r="B36" s="76">
         <v>2</v>
       </c>
@@ -52079,7 +52270,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" s="93">
+      <c r="A40" s="99">
         <v>16</v>
       </c>
       <c r="B40" s="76">
@@ -52113,7 +52304,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A41" s="98"/>
+      <c r="A41" s="101"/>
       <c r="B41" s="76">
         <v>2</v>
       </c>
@@ -52145,7 +52336,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A42" s="94"/>
+      <c r="A42" s="100"/>
       <c r="B42" s="76">
         <v>3</v>
       </c>
@@ -52178,6 +52369,9 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A40:A42"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A24:A27"/>
@@ -52193,9 +52387,6 @@
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A40:A42"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -52305,7 +52496,7 @@
         <v>432</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -52313,10 +52504,10 @@
         <v>42969</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -52342,17 +52533,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="106" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -52361,13 +52552,13 @@
       <c r="B2" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="109" t="s">
         <v>217</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -52378,13 +52569,13 @@
       <c r="B3" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="109" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="111"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -52395,11 +52586,11 @@
       <c r="B4" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="111"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -52410,13 +52601,13 @@
       <c r="B5" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="109" t="s">
         <v>219</v>
       </c>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="109"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="111"/>
       <c r="H5" s="5" t="s">
         <v>224</v>
       </c>
@@ -52437,13 +52628,13 @@
       <c r="D7" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E7" s="103" t="s">
+      <c r="E7" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -52456,13 +52647,13 @@
       <c r="D8" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E8" s="102" t="s">
+      <c r="E8" s="103" t="s">
         <v>223</v>
       </c>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
       <c r="K8" t="str">
         <f>B8&amp;"="</f>
         <v>password.expiry=</v>
@@ -52479,13 +52670,13 @@
       <c r="D9" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E9" s="102" t="s">
+      <c r="E9" s="103" t="s">
         <v>226</v>
       </c>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
       <c r="K9" t="str">
         <f>B9&amp;"="</f>
         <v>display00001=</v>
@@ -52502,13 +52693,13 @@
       <c r="D10" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E10" s="102" t="s">
+      <c r="E10" s="103" t="s">
         <v>227</v>
       </c>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
       <c r="K10" t="str">
         <f>B10&amp;"="</f>
         <v>display00002=</v>
@@ -52525,13 +52716,13 @@
       <c r="D11" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E11" s="102" t="s">
+      <c r="E11" s="103" t="s">
         <v>228</v>
       </c>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
       <c r="K11" t="str">
         <f t="shared" ref="K11:K39" si="0">B11&amp;"="</f>
         <v>display00003=</v>
@@ -52548,13 +52739,13 @@
       <c r="D12" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E12" s="102" t="s">
+      <c r="E12" s="103" t="s">
         <v>229</v>
       </c>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
         <v>display00004=</v>
@@ -52571,13 +52762,13 @@
       <c r="D13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E13" s="102" t="s">
+      <c r="E13" s="103" t="s">
         <v>230</v>
       </c>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
         <v>display00101=</v>
@@ -52594,13 +52785,13 @@
       <c r="D14" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E14" s="102" t="s">
+      <c r="E14" s="103" t="s">
         <v>231</v>
       </c>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
         <v>display00102=</v>
@@ -52617,13 +52808,13 @@
       <c r="D15" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="102" t="s">
+      <c r="E15" s="103" t="s">
         <v>232</v>
       </c>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
         <v>display00201=</v>
@@ -52640,13 +52831,13 @@
       <c r="D16" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E16" s="102" t="s">
+      <c r="E16" s="103" t="s">
         <v>233</v>
       </c>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
         <v>display00202=</v>
@@ -52663,13 +52854,13 @@
       <c r="D17" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E17" s="102" t="s">
+      <c r="E17" s="103" t="s">
         <v>234</v>
       </c>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
         <v>display00301=</v>
@@ -52686,13 +52877,13 @@
       <c r="D18" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E18" s="102" t="s">
+      <c r="E18" s="103" t="s">
         <v>235</v>
       </c>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
         <v>display00302=</v>
@@ -52709,13 +52900,13 @@
       <c r="D19" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E19" s="102" t="s">
+      <c r="E19" s="103" t="s">
         <v>236</v>
       </c>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="102"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
         <v>display00401=</v>
@@ -52732,13 +52923,13 @@
       <c r="D20" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E20" s="102" t="s">
+      <c r="E20" s="103" t="s">
         <v>237</v>
       </c>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="102"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
         <v>display00402=</v>
@@ -52755,13 +52946,13 @@
       <c r="D21" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E21" s="102" t="s">
+      <c r="E21" s="103" t="s">
         <v>238</v>
       </c>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="102"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
         <v>display00501=</v>
@@ -52778,13 +52969,13 @@
       <c r="D22" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E22" s="102" t="s">
+      <c r="E22" s="103" t="s">
         <v>239</v>
       </c>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
         <v>display00502=</v>
@@ -52801,13 +52992,13 @@
       <c r="D23" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E23" s="102" t="s">
+      <c r="E23" s="103" t="s">
         <v>240</v>
       </c>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="102"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
         <v>display00503=</v>
@@ -52824,13 +53015,13 @@
       <c r="D24" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E24" s="102" t="s">
+      <c r="E24" s="103" t="s">
         <v>241</v>
       </c>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
         <v>display00601=</v>
@@ -52847,13 +53038,13 @@
       <c r="D25" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E25" s="102" t="s">
+      <c r="E25" s="103" t="s">
         <v>242</v>
       </c>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
         <v>display00602=</v>
@@ -52870,13 +53061,13 @@
       <c r="D26" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E26" s="102" t="s">
+      <c r="E26" s="103" t="s">
         <v>243</v>
       </c>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="102"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
         <v>display00603=</v>
@@ -52893,13 +53084,13 @@
       <c r="D27" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E27" s="102" t="s">
+      <c r="E27" s="103" t="s">
         <v>244</v>
       </c>
-      <c r="F27" s="102"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="102"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
       <c r="K27" t="str">
         <f t="shared" si="0"/>
         <v>display00701=</v>
@@ -52916,13 +53107,13 @@
       <c r="D28" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E28" s="102" t="s">
+      <c r="E28" s="103" t="s">
         <v>245</v>
       </c>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
       <c r="K28" t="str">
         <f t="shared" si="0"/>
         <v>display00801=</v>
@@ -52939,13 +53130,13 @@
       <c r="D29" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E29" s="102" t="s">
+      <c r="E29" s="103" t="s">
         <v>246</v>
       </c>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="102"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
       <c r="K29" t="str">
         <f t="shared" si="0"/>
         <v>display00802=</v>
@@ -52962,13 +53153,13 @@
       <c r="D30" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E30" s="102" t="s">
+      <c r="E30" s="103" t="s">
         <v>247</v>
       </c>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="102"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
         <v>display00803=</v>
@@ -52985,13 +53176,13 @@
       <c r="D31" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E31" s="102" t="s">
+      <c r="E31" s="103" t="s">
         <v>248</v>
       </c>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="102"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
       <c r="K31" t="str">
         <f t="shared" si="0"/>
         <v>display00804=</v>
@@ -53008,13 +53199,13 @@
       <c r="D32" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E32" s="102" t="s">
+      <c r="E32" s="103" t="s">
         <v>249</v>
       </c>
-      <c r="F32" s="102"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="102"/>
-      <c r="I32" s="102"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="103"/>
       <c r="K32" t="str">
         <f t="shared" si="0"/>
         <v>display00901=</v>
@@ -53031,13 +53222,13 @@
       <c r="D33" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E33" s="102" t="s">
+      <c r="E33" s="103" t="s">
         <v>250</v>
       </c>
-      <c r="F33" s="102"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="102"/>
-      <c r="I33" s="102"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
       <c r="K33" t="str">
         <f t="shared" si="0"/>
         <v>display00902=</v>
@@ -53054,13 +53245,13 @@
       <c r="D34" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E34" s="102" t="s">
+      <c r="E34" s="103" t="s">
         <v>251</v>
       </c>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="102"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
       <c r="K34" t="str">
         <f t="shared" si="0"/>
         <v>display00903=</v>
@@ -53077,13 +53268,13 @@
       <c r="D35" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E35" s="110" t="s">
+      <c r="E35" s="102" t="s">
         <v>252</v>
       </c>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="110"/>
-      <c r="I35" s="110"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="102"/>
       <c r="K35" t="str">
         <f t="shared" si="0"/>
         <v>password.policy=</v>
@@ -53102,13 +53293,13 @@
       <c r="D36" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E36" s="110" t="s">
+      <c r="E36" s="102" t="s">
         <v>253</v>
       </c>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="110"/>
-      <c r="I36" s="110"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
       <c r="K36" t="str">
         <f t="shared" si="0"/>
         <v>judge.class=</v>
@@ -53125,13 +53316,13 @@
       <c r="D37" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E37" s="110" t="s">
+      <c r="E37" s="102" t="s">
         <v>254</v>
       </c>
-      <c r="F37" s="110"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="110"/>
-      <c r="I37" s="110"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
       <c r="K37" t="str">
         <f t="shared" si="0"/>
         <v>force.pass.change=</v>
@@ -53150,13 +53341,13 @@
       <c r="D38" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E38" s="110" t="s">
+      <c r="E38" s="102" t="s">
         <v>255</v>
       </c>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="110"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="102"/>
       <c r="K38" t="str">
         <f t="shared" si="0"/>
         <v>judge.result.table.name=</v>
@@ -53175,13 +53366,13 @@
       <c r="D39" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E39" s="102" t="s">
+      <c r="E39" s="103" t="s">
         <v>263</v>
       </c>
-      <c r="F39" s="102"/>
-      <c r="G39" s="102"/>
-      <c r="H39" s="102"/>
-      <c r="I39" s="102"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="103"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="103"/>
       <c r="K39" t="str">
         <f t="shared" si="0"/>
         <v>pwd.hash.salt=</v>
@@ -53200,13 +53391,13 @@
       <c r="D40" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E40" s="102" t="s">
+      <c r="E40" s="103" t="s">
         <v>302</v>
       </c>
-      <c r="F40" s="102"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="102"/>
-      <c r="I40" s="102"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
       <c r="K40" t="str">
         <f t="shared" ref="K40" si="1">B40&amp;"="</f>
         <v>upload.directory=</v>
@@ -53225,13 +53416,13 @@
       <c r="D41" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E41" s="102" t="s">
+      <c r="E41" s="103" t="s">
         <v>303</v>
       </c>
-      <c r="F41" s="102"/>
-      <c r="G41" s="102"/>
-      <c r="H41" s="102"/>
-      <c r="I41" s="102"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
       <c r="K41" t="str">
         <f t="shared" ref="K41" si="2">B41&amp;"="</f>
         <v>result.directory=</v>
@@ -53248,13 +53439,13 @@
       <c r="D42" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E42" s="101" t="s">
+      <c r="E42" s="104" t="s">
         <v>339</v>
       </c>
-      <c r="F42" s="102"/>
-      <c r="G42" s="102"/>
-      <c r="H42" s="102"/>
-      <c r="I42" s="102"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="103"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="103"/>
       <c r="K42" t="str">
         <f t="shared" ref="K42" si="3">B42&amp;"="</f>
         <v>pwd.lock.limit=</v>
@@ -53262,15 +53453,22 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E14:I14"/>
     <mergeCell ref="E15:I15"/>
     <mergeCell ref="E16:I16"/>
     <mergeCell ref="E17:I17"/>
@@ -53287,22 +53485,15 @@
     <mergeCell ref="E28:I28"/>
     <mergeCell ref="E29:I29"/>
     <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E37:I37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -53343,17 +53534,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -53362,11 +53553,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -53377,11 +53568,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="111"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -53392,11 +53583,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="111"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -53409,11 +53600,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="111"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -53424,11 +53615,11 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="107"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="111"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -53448,17 +53639,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="106"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="108"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -53736,26 +53927,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="104" t="s">
+      <c r="A34" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="106"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="108"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="111" t="s">
+      <c r="B35" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="112"/>
+      <c r="C35" s="113"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -53763,100 +53954,100 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="111" t="s">
+      <c r="G35" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="113"/>
-      <c r="I35" s="112"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="113"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="107" t="s">
+      <c r="B36" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="109"/>
-      <c r="D36" s="107" t="s">
+      <c r="C36" s="111"/>
+      <c r="D36" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="109"/>
+      <c r="E36" s="111"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="107"/>
-      <c r="H36" s="108"/>
-      <c r="I36" s="109"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="110"/>
+      <c r="I36" s="111"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="107" t="s">
+      <c r="B37" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="109"/>
-      <c r="D37" s="107" t="s">
+      <c r="C37" s="111"/>
+      <c r="D37" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="109"/>
+      <c r="E37" s="111"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="107"/>
-      <c r="H37" s="108"/>
-      <c r="I37" s="109"/>
+      <c r="G37" s="109"/>
+      <c r="H37" s="110"/>
+      <c r="I37" s="111"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="107" t="s">
+      <c r="B38" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="109"/>
-      <c r="D38" s="107" t="s">
+      <c r="C38" s="111"/>
+      <c r="D38" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="109"/>
+      <c r="E38" s="111"/>
       <c r="F38" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="107"/>
-      <c r="H38" s="108"/>
-      <c r="I38" s="109"/>
+      <c r="G38" s="109"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="111"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="107" t="s">
+      <c r="B39" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="109"/>
-      <c r="D39" s="107" t="s">
+      <c r="C39" s="111"/>
+      <c r="D39" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="109"/>
+      <c r="E39" s="111"/>
       <c r="F39" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="107"/>
-      <c r="H39" s="108"/>
-      <c r="I39" s="109"/>
+      <c r="G39" s="109"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="111"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="104" t="s">
+      <c r="A40" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="105"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="105"/>
-      <c r="I40" s="106"/>
+      <c r="B40" s="107"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="108"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="29"/>
@@ -54168,6 +54359,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
     <mergeCell ref="A40:I40"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
@@ -54178,19 +54382,6 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="G38:I38"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -54212,17 +54403,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -54231,11 +54422,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -54246,11 +54437,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="111"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -54261,11 +54452,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="111"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -54278,11 +54469,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="111"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -54293,11 +54484,11 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="107"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="111"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -54317,17 +54508,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="106"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="108"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -54605,26 +54796,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="104" t="s">
+      <c r="A34" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="106"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="108"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="111" t="s">
+      <c r="B35" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="112"/>
+      <c r="C35" s="113"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -54632,78 +54823,78 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="111" t="s">
+      <c r="G35" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="113"/>
-      <c r="I35" s="112"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="113"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="107" t="s">
+      <c r="B36" s="109" t="s">
         <v>311</v>
       </c>
-      <c r="C36" s="109"/>
-      <c r="D36" s="107" t="s">
+      <c r="C36" s="111"/>
+      <c r="D36" s="109" t="s">
         <v>312</v>
       </c>
-      <c r="E36" s="109"/>
+      <c r="E36" s="111"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="107" t="s">
+      <c r="G36" s="109" t="s">
         <v>313</v>
       </c>
-      <c r="H36" s="108"/>
-      <c r="I36" s="109"/>
+      <c r="H36" s="110"/>
+      <c r="I36" s="111"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="27"/>
-      <c r="B37" s="107"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="109"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="111"/>
       <c r="F37" s="27"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="108"/>
-      <c r="I37" s="109"/>
+      <c r="G37" s="109"/>
+      <c r="H37" s="110"/>
+      <c r="I37" s="111"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="27"/>
-      <c r="B38" s="107"/>
-      <c r="C38" s="109"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="109"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="111"/>
       <c r="F38" s="27"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="108"/>
-      <c r="I38" s="109"/>
+      <c r="G38" s="109"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="111"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="28"/>
-      <c r="B39" s="107"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="109"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="111"/>
       <c r="F39" s="27"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="108"/>
-      <c r="I39" s="109"/>
+      <c r="G39" s="109"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="111"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="104" t="s">
+      <c r="A40" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="105"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="105"/>
-      <c r="I40" s="106"/>
+      <c r="B40" s="107"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="108"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="29"/>
@@ -55025,19 +55216,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="G39:I39"/>
@@ -55048,6 +55226,19 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="G38:I38"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -55071,17 +55262,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -55090,11 +55281,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -55105,11 +55296,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="111"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -55120,11 +55311,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="111"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -55137,11 +55328,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="111"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -55152,13 +55343,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="109"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="111"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -55178,17 +55369,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="106"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="108"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -55466,26 +55657,26 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="104" t="s">
+      <c r="A34" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="106"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="108"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="111" t="s">
+      <c r="B35" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="112"/>
+      <c r="C35" s="113"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -55493,30 +55684,30 @@
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="111" t="s">
+      <c r="G35" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="113"/>
-      <c r="I35" s="112"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="113"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="107" t="s">
+      <c r="B36" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="109"/>
-      <c r="D36" s="107" t="s">
+      <c r="C36" s="111"/>
+      <c r="D36" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="109"/>
+      <c r="E36" s="111"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="107"/>
-      <c r="H36" s="108"/>
-      <c r="I36" s="109"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="110"/>
+      <c r="I36" s="111"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="27">
@@ -55526,16 +55717,16 @@
         <v>36</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="107" t="s">
+      <c r="D37" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="109"/>
+      <c r="E37" s="111"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="107"/>
-      <c r="H37" s="108"/>
-      <c r="I37" s="109"/>
+      <c r="G37" s="109"/>
+      <c r="H37" s="110"/>
+      <c r="I37" s="111"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="27">
@@ -55545,16 +55736,16 @@
         <v>37</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="107" t="s">
+      <c r="D38" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="109"/>
+      <c r="E38" s="111"/>
       <c r="F38" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="107"/>
-      <c r="H38" s="108"/>
-      <c r="I38" s="109"/>
+      <c r="G38" s="109"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="111"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="27">
@@ -55617,54 +55808,54 @@
       <c r="A42" s="86">
         <v>7</v>
       </c>
-      <c r="B42" s="107"/>
-      <c r="C42" s="109"/>
-      <c r="D42" s="107" t="s">
+      <c r="B42" s="109"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="109"/>
+      <c r="E42" s="111"/>
       <c r="F42" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="107" t="s">
+      <c r="G42" s="109" t="s">
         <v>103</v>
       </c>
-      <c r="H42" s="108"/>
-      <c r="I42" s="109"/>
+      <c r="H42" s="110"/>
+      <c r="I42" s="111"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="27">
         <v>8</v>
       </c>
-      <c r="B43" s="107" t="s">
-        <v>448</v>
-      </c>
-      <c r="C43" s="109"/>
-      <c r="D43" s="107" t="s">
+      <c r="B43" s="109" t="s">
+        <v>447</v>
+      </c>
+      <c r="C43" s="111"/>
+      <c r="D43" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="109"/>
+      <c r="E43" s="111"/>
       <c r="F43" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="107" t="s">
-        <v>449</v>
-      </c>
-      <c r="H43" s="108"/>
-      <c r="I43" s="109"/>
+      <c r="G43" s="109" t="s">
+        <v>448</v>
+      </c>
+      <c r="H43" s="110"/>
+      <c r="I43" s="111"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="104" t="s">
+      <c r="A44" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="105"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="106"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="107"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="107"/>
+      <c r="H44" s="107"/>
+      <c r="I44" s="108"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="29"/>
@@ -55976,6 +56167,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="G43:I43"/>
@@ -55987,19 +56191,6 @@
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="G42:I42"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -56012,7 +56203,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
@@ -56022,17 +56213,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -56041,11 +56232,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -56056,11 +56247,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="111"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -56071,11 +56262,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="111"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -56088,11 +56279,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="111"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -56103,13 +56294,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="109"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="111"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -56129,17 +56320,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="106"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="108"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -56516,26 +56707,26 @@
       <c r="I42" s="23"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="104" t="s">
+      <c r="A43" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="105"/>
-      <c r="C43" s="105"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
-      <c r="I43" s="106"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="107"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="108"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="111" t="s">
+      <c r="B44" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="112"/>
+      <c r="C44" s="113"/>
       <c r="D44" s="25" t="s">
         <v>18</v>
       </c>
@@ -56543,30 +56734,30 @@
       <c r="F44" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G44" s="111" t="s">
+      <c r="G44" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="H44" s="113"/>
-      <c r="I44" s="112"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="113"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="27">
         <v>1</v>
       </c>
-      <c r="B45" s="107" t="s">
+      <c r="B45" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="109"/>
-      <c r="D45" s="107" t="s">
+      <c r="C45" s="111"/>
+      <c r="D45" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="E45" s="109"/>
+      <c r="E45" s="111"/>
       <c r="F45" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G45" s="107"/>
-      <c r="H45" s="108"/>
-      <c r="I45" s="109"/>
+      <c r="G45" s="109"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="111"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="27">
@@ -56574,39 +56765,39 @@
       </c>
       <c r="B46" s="30"/>
       <c r="C46" s="31"/>
-      <c r="D46" s="107" t="s">
+      <c r="D46" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E46" s="109"/>
+      <c r="E46" s="111"/>
       <c r="F46" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G46" s="107" t="s">
+      <c r="G46" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="H46" s="108"/>
-      <c r="I46" s="109"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="111"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="27">
         <v>3</v>
       </c>
-      <c r="B47" s="107" t="s">
+      <c r="B47" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="109"/>
-      <c r="D47" s="107" t="s">
+      <c r="C47" s="111"/>
+      <c r="D47" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="109"/>
+      <c r="E47" s="111"/>
       <c r="F47" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G47" s="107" t="s">
+      <c r="G47" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="H47" s="108"/>
-      <c r="I47" s="109"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="111"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="27">
@@ -56616,16 +56807,16 @@
         <v>45</v>
       </c>
       <c r="C48" s="31"/>
-      <c r="D48" s="107" t="s">
+      <c r="D48" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="109"/>
+      <c r="E48" s="111"/>
       <c r="F48" s="27"/>
-      <c r="G48" s="107" t="s">
+      <c r="G48" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="H48" s="108"/>
-      <c r="I48" s="109"/>
+      <c r="H48" s="110"/>
+      <c r="I48" s="111"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="27">
@@ -56648,20 +56839,20 @@
       <c r="A50" s="27">
         <v>6</v>
       </c>
-      <c r="B50" s="107" t="s">
+      <c r="B50" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="109"/>
-      <c r="D50" s="107" t="s">
+      <c r="C50" s="111"/>
+      <c r="D50" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="E50" s="109"/>
+      <c r="E50" s="111"/>
       <c r="F50" s="27"/>
-      <c r="G50" s="107" t="s">
+      <c r="G50" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="H50" s="108"/>
-      <c r="I50" s="109"/>
+      <c r="H50" s="110"/>
+      <c r="I50" s="111"/>
     </row>
     <row r="51" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="27">
@@ -56676,43 +56867,43 @@
       </c>
       <c r="E51" s="31"/>
       <c r="F51" s="27"/>
-      <c r="G51" s="114" t="s">
+      <c r="G51" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="H51" s="108"/>
-      <c r="I51" s="109"/>
+      <c r="H51" s="110"/>
+      <c r="I51" s="111"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="27">
         <v>8</v>
       </c>
-      <c r="B52" s="107"/>
-      <c r="C52" s="109"/>
-      <c r="D52" s="107" t="s">
+      <c r="B52" s="109"/>
+      <c r="C52" s="111"/>
+      <c r="D52" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="109"/>
+      <c r="E52" s="111"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="107" t="s">
+      <c r="G52" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="H52" s="108"/>
-      <c r="I52" s="109"/>
+      <c r="H52" s="110"/>
+      <c r="I52" s="111"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="104" t="s">
+      <c r="A53" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="105"/>
-      <c r="C53" s="105"/>
-      <c r="D53" s="105"/>
-      <c r="E53" s="105"/>
-      <c r="F53" s="105"/>
-      <c r="G53" s="105"/>
-      <c r="H53" s="105"/>
-      <c r="I53" s="106"/>
+      <c r="B53" s="107"/>
+      <c r="C53" s="107"/>
+      <c r="D53" s="107"/>
+      <c r="E53" s="107"/>
+      <c r="F53" s="107"/>
+      <c r="G53" s="107"/>
+      <c r="H53" s="107"/>
+      <c r="I53" s="108"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="29"/>
@@ -56790,7 +56981,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
@@ -57034,6 +57225,25 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="G52:I52"/>
@@ -57043,25 +57253,6 @@
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="G50:I50"/>
     <mergeCell ref="G51:I51"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -57072,10 +57263,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:I83"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83:I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -57084,17 +57275,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -57103,11 +57294,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -57118,11 +57309,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="111"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -57133,11 +57324,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="111"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -57150,11 +57341,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="111"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -57165,13 +57356,13 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="109"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="111"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -57191,17 +57382,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="106"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="108"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -57820,26 +58011,26 @@
       <c r="I64" s="23"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="104" t="s">
+      <c r="A65" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="B65" s="105"/>
-      <c r="C65" s="105"/>
-      <c r="D65" s="105"/>
-      <c r="E65" s="105"/>
-      <c r="F65" s="105"/>
-      <c r="G65" s="105"/>
-      <c r="H65" s="105"/>
-      <c r="I65" s="106"/>
+      <c r="B65" s="107"/>
+      <c r="C65" s="107"/>
+      <c r="D65" s="107"/>
+      <c r="E65" s="107"/>
+      <c r="F65" s="107"/>
+      <c r="G65" s="107"/>
+      <c r="H65" s="107"/>
+      <c r="I65" s="108"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B66" s="111" t="s">
+      <c r="B66" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="112"/>
+      <c r="C66" s="113"/>
       <c r="D66" s="25" t="s">
         <v>18</v>
       </c>
@@ -57847,30 +58038,30 @@
       <c r="F66" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G66" s="111" t="s">
+      <c r="G66" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="H66" s="113"/>
-      <c r="I66" s="112"/>
+      <c r="H66" s="114"/>
+      <c r="I66" s="113"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="27">
         <v>1</v>
       </c>
-      <c r="B67" s="107" t="s">
+      <c r="B67" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="109"/>
-      <c r="D67" s="107" t="s">
+      <c r="C67" s="111"/>
+      <c r="D67" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="E67" s="109"/>
+      <c r="E67" s="111"/>
       <c r="F67" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G67" s="107"/>
-      <c r="H67" s="108"/>
-      <c r="I67" s="109"/>
+      <c r="G67" s="109"/>
+      <c r="H67" s="110"/>
+      <c r="I67" s="111"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="27">
@@ -57878,69 +58069,69 @@
       </c>
       <c r="B68" s="30"/>
       <c r="C68" s="31"/>
-      <c r="D68" s="107" t="s">
+      <c r="D68" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E68" s="109"/>
+      <c r="E68" s="111"/>
       <c r="F68" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G68" s="107" t="s">
+      <c r="G68" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="H68" s="108"/>
-      <c r="I68" s="109"/>
+      <c r="H68" s="110"/>
+      <c r="I68" s="111"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="27">
         <v>3</v>
       </c>
-      <c r="B69" s="107"/>
-      <c r="C69" s="109"/>
-      <c r="D69" s="107" t="s">
+      <c r="B69" s="109"/>
+      <c r="C69" s="111"/>
+      <c r="D69" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E69" s="109"/>
+      <c r="E69" s="111"/>
       <c r="F69" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G69" s="107" t="s">
+      <c r="G69" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="H69" s="108"/>
-      <c r="I69" s="109"/>
+      <c r="H69" s="110"/>
+      <c r="I69" s="111"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="27">
         <v>4</v>
       </c>
-      <c r="B70" s="107" t="s">
+      <c r="B70" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="C70" s="109"/>
-      <c r="D70" s="107" t="s">
+      <c r="C70" s="111"/>
+      <c r="D70" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E70" s="109"/>
+      <c r="E70" s="111"/>
       <c r="F70" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G70" s="107" t="s">
+      <c r="G70" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="H70" s="108"/>
-      <c r="I70" s="109"/>
+      <c r="H70" s="110"/>
+      <c r="I70" s="111"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="27">
         <v>5</v>
       </c>
-      <c r="B71" s="107"/>
-      <c r="C71" s="109"/>
-      <c r="D71" s="107" t="s">
+      <c r="B71" s="109"/>
+      <c r="C71" s="111"/>
+      <c r="D71" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E71" s="109"/>
+      <c r="E71" s="111"/>
       <c r="F71" s="27" t="s">
         <v>22</v>
       </c>
@@ -57954,14 +58145,14 @@
       <c r="A72" s="27">
         <v>6</v>
       </c>
-      <c r="B72" s="107" t="s">
+      <c r="B72" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="C72" s="109"/>
-      <c r="D72" s="107" t="s">
+      <c r="C72" s="111"/>
+      <c r="D72" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E72" s="109"/>
+      <c r="E72" s="111"/>
       <c r="F72" s="27" t="s">
         <v>22</v>
       </c>
@@ -57975,212 +58166,218 @@
       <c r="A73" s="27">
         <v>7</v>
       </c>
-      <c r="B73" s="107" t="s">
+      <c r="B73" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="C73" s="109"/>
-      <c r="D73" s="107" t="s">
+      <c r="C73" s="111"/>
+      <c r="D73" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E73" s="109"/>
+      <c r="E73" s="111"/>
       <c r="F73" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G73" s="114" t="s">
+      <c r="G73" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="H73" s="115"/>
-      <c r="I73" s="116"/>
+      <c r="H73" s="116"/>
+      <c r="I73" s="117"/>
     </row>
     <row r="74" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="27">
         <v>8</v>
       </c>
-      <c r="B74" s="107" t="s">
+      <c r="B74" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="C74" s="109"/>
-      <c r="D74" s="107" t="s">
+      <c r="C74" s="111"/>
+      <c r="D74" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E74" s="109"/>
+      <c r="E74" s="111"/>
       <c r="F74" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G74" s="114" t="s">
+      <c r="G74" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="H74" s="115"/>
-      <c r="I74" s="116"/>
+      <c r="H74" s="116"/>
+      <c r="I74" s="117"/>
     </row>
     <row r="75" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="27">
         <v>9</v>
       </c>
-      <c r="B75" s="107" t="s">
+      <c r="B75" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="C75" s="109"/>
-      <c r="D75" s="107" t="s">
+      <c r="C75" s="111"/>
+      <c r="D75" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E75" s="109"/>
+      <c r="E75" s="111"/>
       <c r="F75" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G75" s="114" t="s">
+      <c r="G75" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="H75" s="115"/>
-      <c r="I75" s="116"/>
+      <c r="H75" s="116"/>
+      <c r="I75" s="117"/>
     </row>
     <row r="76" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="27">
         <v>10</v>
       </c>
-      <c r="B76" s="107" t="s">
+      <c r="B76" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="C76" s="109"/>
-      <c r="D76" s="107" t="s">
+      <c r="C76" s="111"/>
+      <c r="D76" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E76" s="109"/>
+      <c r="E76" s="111"/>
       <c r="F76" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G76" s="114" t="s">
+      <c r="G76" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="H76" s="115"/>
-      <c r="I76" s="116"/>
+      <c r="H76" s="116"/>
+      <c r="I76" s="117"/>
     </row>
     <row r="77" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="27">
         <v>11</v>
       </c>
-      <c r="B77" s="107"/>
-      <c r="C77" s="109"/>
-      <c r="D77" s="107"/>
-      <c r="E77" s="109"/>
+      <c r="B77" s="109"/>
+      <c r="C77" s="111"/>
+      <c r="D77" s="109"/>
+      <c r="E77" s="111"/>
       <c r="F77" s="27"/>
-      <c r="G77" s="107"/>
-      <c r="H77" s="108"/>
-      <c r="I77" s="109"/>
+      <c r="G77" s="109"/>
+      <c r="H77" s="110"/>
+      <c r="I77" s="111"/>
     </row>
     <row r="78" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="27">
         <v>12</v>
       </c>
-      <c r="B78" s="107"/>
-      <c r="C78" s="109"/>
-      <c r="D78" s="107"/>
-      <c r="E78" s="109"/>
+      <c r="B78" s="109"/>
+      <c r="C78" s="111"/>
+      <c r="D78" s="109"/>
+      <c r="E78" s="111"/>
       <c r="F78" s="27"/>
-      <c r="G78" s="107"/>
-      <c r="H78" s="108"/>
-      <c r="I78" s="109"/>
+      <c r="G78" s="109"/>
+      <c r="H78" s="110"/>
+      <c r="I78" s="111"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" s="27">
         <v>13</v>
       </c>
-      <c r="B79" s="107" t="s">
+      <c r="B79" s="109" t="s">
         <v>383</v>
       </c>
-      <c r="C79" s="109"/>
-      <c r="D79" s="107" t="s">
+      <c r="C79" s="111"/>
+      <c r="D79" s="109" t="s">
         <v>384</v>
       </c>
-      <c r="E79" s="109"/>
+      <c r="E79" s="111"/>
       <c r="F79" s="27"/>
-      <c r="G79" s="107"/>
-      <c r="H79" s="108"/>
-      <c r="I79" s="109"/>
+      <c r="G79" s="109"/>
+      <c r="H79" s="110"/>
+      <c r="I79" s="111"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" s="85">
         <v>14</v>
       </c>
-      <c r="B80" s="107" t="s">
+      <c r="B80" s="109" t="s">
         <v>385</v>
       </c>
-      <c r="C80" s="109"/>
-      <c r="D80" s="107" t="s">
+      <c r="C80" s="111"/>
+      <c r="D80" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E80" s="109"/>
+      <c r="E80" s="111"/>
       <c r="F80" s="85"/>
-      <c r="G80" s="107"/>
-      <c r="H80" s="108"/>
-      <c r="I80" s="109"/>
+      <c r="G80" s="109"/>
+      <c r="H80" s="110"/>
+      <c r="I80" s="111"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="85">
         <v>15</v>
       </c>
-      <c r="B81" s="107" t="s">
+      <c r="B81" s="109" t="s">
         <v>433</v>
       </c>
-      <c r="C81" s="109"/>
-      <c r="D81" s="107" t="s">
+      <c r="C81" s="111"/>
+      <c r="D81" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E81" s="109"/>
+      <c r="E81" s="111"/>
       <c r="F81" s="85"/>
-      <c r="G81" s="107" t="s">
+      <c r="G81" s="109" t="s">
         <v>434</v>
       </c>
-      <c r="H81" s="108"/>
-      <c r="I81" s="109"/>
+      <c r="H81" s="110"/>
+      <c r="I81" s="111"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82" s="27">
+      <c r="A82" s="87">
         <v>16</v>
       </c>
-      <c r="B82" s="107" t="s">
+      <c r="B82" s="109" t="s">
         <v>433</v>
       </c>
-      <c r="C82" s="109"/>
-      <c r="D82" s="107" t="s">
+      <c r="C82" s="111"/>
+      <c r="D82" s="109" t="s">
+        <v>408</v>
+      </c>
+      <c r="E82" s="111"/>
+      <c r="F82" s="87"/>
+      <c r="G82" s="109" t="s">
         <v>435</v>
       </c>
-      <c r="E82" s="109"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="107" t="s">
-        <v>436</v>
-      </c>
-      <c r="H82" s="108"/>
-      <c r="I82" s="109"/>
+      <c r="H82" s="110"/>
+      <c r="I82" s="111"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" s="104" t="s">
+      <c r="A83" s="27">
+        <v>17</v>
+      </c>
+      <c r="B83" s="109" t="s">
+        <v>451</v>
+      </c>
+      <c r="C83" s="111"/>
+      <c r="D83" s="109" t="s">
+        <v>452</v>
+      </c>
+      <c r="E83" s="111"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="109" t="s">
+        <v>453</v>
+      </c>
+      <c r="H83" s="110"/>
+      <c r="I83" s="111"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A84" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="B83" s="105"/>
-      <c r="C83" s="105"/>
-      <c r="D83" s="105"/>
-      <c r="E83" s="105"/>
-      <c r="F83" s="105"/>
-      <c r="G83" s="105"/>
-      <c r="H83" s="105"/>
-      <c r="I83" s="106"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A84" s="29"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="20"/>
+      <c r="B84" s="107"/>
+      <c r="C84" s="107"/>
+      <c r="D84" s="107"/>
+      <c r="E84" s="107"/>
+      <c r="F84" s="107"/>
+      <c r="G84" s="107"/>
+      <c r="H84" s="107"/>
+      <c r="I84" s="108"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A85" s="17" t="s">
-        <v>74</v>
-      </c>
+      <c r="A85" s="29"/>
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
       <c r="D85" s="18"/>
@@ -58191,7 +58388,9 @@
       <c r="I85" s="20"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A86" s="17"/>
+      <c r="A86" s="17" t="s">
+        <v>74</v>
+      </c>
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
       <c r="D86" s="18"/>
@@ -58202,12 +58401,8 @@
       <c r="I86" s="20"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A87" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B87" s="18" t="s">
-        <v>75</v>
-      </c>
+      <c r="A87" s="17"/>
+      <c r="B87" s="18"/>
       <c r="C87" s="18"/>
       <c r="D87" s="18"/>
       <c r="E87" s="18"/>
@@ -58218,10 +58413,10 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C88" s="18"/>
       <c r="D88" s="18"/>
@@ -58233,10 +58428,10 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C89" s="18"/>
       <c r="D89" s="18"/>
@@ -58248,10 +58443,10 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C90" s="18"/>
       <c r="D90" s="18"/>
@@ -58262,8 +58457,12 @@
       <c r="I90" s="20"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A91" s="17"/>
-      <c r="B91" s="18"/>
+      <c r="A91" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>78</v>
+      </c>
       <c r="C91" s="18"/>
       <c r="D91" s="18"/>
       <c r="E91" s="18"/>
@@ -58482,36 +58681,58 @@
       <c r="I110" s="20"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A111" s="21"/>
-      <c r="B111" s="22"/>
-      <c r="C111" s="22"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="22"/>
-      <c r="G111" s="22"/>
-      <c r="H111" s="22"/>
-      <c r="I111" s="23"/>
+      <c r="A111" s="17"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="20"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A112" s="21"/>
+      <c r="B112" s="22"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="22"/>
+      <c r="H112" s="22"/>
+      <c r="I112" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="A83:I83"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="G79:I79"/>
+  <mergeCells count="59">
     <mergeCell ref="B82:C82"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="D71:E71"/>
     <mergeCell ref="D82:E82"/>
     <mergeCell ref="G82:I82"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A65:I65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="G83:I83"/>
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="B69:C69"/>
@@ -58526,30 +58747,22 @@
     <mergeCell ref="D74:E74"/>
     <mergeCell ref="D79:E79"/>
     <mergeCell ref="B78:C78"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A65:I65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="A84:I84"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="D71:E71"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/設計書もどき.xlsx
+++ b/設計書/設計書もどき.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="機能一覧" sheetId="16" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="460">
   <si>
     <t>画面レイアウト定義</t>
     <rPh sb="0" eb="2">
@@ -5073,6 +5073,105 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人（ログインしたユーザー）に向けたメッセージ</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・先生が回答にコメントをした場合</t>
+    <rPh sb="1" eb="3">
+      <t>センセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・先生から個人に当てられたメッセージ（メッセージを登録する画面（未実装）から登録する）</t>
+    <rPh sb="1" eb="3">
+      <t>センセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ミジッソウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　→この場合（『課題「XXXXX（課題名）」にコメントが付きました！』をコメントされた日から1週間表示する</t>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>シュウカン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学科に向けたメッセージ</t>
+    <rPh sb="0" eb="2">
+      <t>ガッカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・先生から学科に当てられたメッセージ（メッセージを登録する画面（未実装）から登録する）</t>
+    <rPh sb="1" eb="3">
+      <t>センセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガッカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5548,9 +5647,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -5564,20 +5672,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5597,6 +5695,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -41924,17 +42023,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="108"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -41943,11 +42042,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="111"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="110"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -41958,11 +42057,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="111"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="110"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -41973,11 +42072,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="111"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="110"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -41990,11 +42089,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="111"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="110"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -42008,10 +42107,10 @@
       <c r="C6" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="111"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="110"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -42031,17 +42130,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="108"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="107"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -42319,17 +42418,17 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="106" t="s">
+      <c r="A34" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="107"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="108"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="107"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="24" t="s">
@@ -42356,20 +42455,20 @@
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="109" t="s">
+      <c r="B36" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="111"/>
-      <c r="D36" s="109" t="s">
+      <c r="C36" s="110"/>
+      <c r="D36" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="111"/>
+      <c r="E36" s="110"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="109"/>
-      <c r="H36" s="110"/>
-      <c r="I36" s="111"/>
+      <c r="G36" s="108"/>
+      <c r="H36" s="109"/>
+      <c r="I36" s="110"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="27">
@@ -42377,16 +42476,16 @@
       </c>
       <c r="B37" s="57"/>
       <c r="C37" s="59"/>
-      <c r="D37" s="109" t="s">
+      <c r="D37" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="111"/>
+      <c r="E37" s="110"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="109"/>
-      <c r="H37" s="110"/>
-      <c r="I37" s="111"/>
+      <c r="G37" s="108"/>
+      <c r="H37" s="109"/>
+      <c r="I37" s="110"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="27">
@@ -42396,18 +42495,18 @@
         <v>82</v>
       </c>
       <c r="C38" s="59"/>
-      <c r="D38" s="109" t="s">
+      <c r="D38" s="108" t="s">
         <v>319</v>
       </c>
-      <c r="E38" s="111"/>
+      <c r="E38" s="110"/>
       <c r="F38" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="G38" s="109" t="s">
+      <c r="G38" s="108" t="s">
         <v>321</v>
       </c>
-      <c r="H38" s="110"/>
-      <c r="I38" s="111"/>
+      <c r="H38" s="109"/>
+      <c r="I38" s="110"/>
     </row>
     <row r="39" spans="1:9" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="27">
@@ -42529,33 +42628,33 @@
       <c r="A45" s="27">
         <v>10</v>
       </c>
-      <c r="B45" s="109" t="s">
+      <c r="B45" s="108" t="s">
         <v>332</v>
       </c>
-      <c r="C45" s="111"/>
-      <c r="D45" s="109" t="s">
+      <c r="C45" s="110"/>
+      <c r="D45" s="108" t="s">
         <v>105</v>
       </c>
-      <c r="E45" s="111"/>
+      <c r="E45" s="110"/>
       <c r="F45" s="27"/>
-      <c r="G45" s="109" t="s">
+      <c r="G45" s="108" t="s">
         <v>334</v>
       </c>
-      <c r="H45" s="110"/>
-      <c r="I45" s="111"/>
+      <c r="H45" s="109"/>
+      <c r="I45" s="110"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="106" t="s">
+      <c r="A46" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="107"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="107"/>
-      <c r="F46" s="107"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="107"/>
-      <c r="I46" s="108"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="106"/>
+      <c r="E46" s="106"/>
+      <c r="F46" s="106"/>
+      <c r="G46" s="106"/>
+      <c r="H46" s="106"/>
+      <c r="I46" s="107"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="29"/>
@@ -42867,11 +42966,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="G37:I37"/>
     <mergeCell ref="D38:E38"/>
@@ -42879,19 +42986,11 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42914,17 +43013,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="108"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -42933,11 +43032,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="111"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="110"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -42948,11 +43047,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="111"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="110"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -42963,11 +43062,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="111"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="110"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -42980,11 +43079,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="111"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="110"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -42998,10 +43097,10 @@
       <c r="C6" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="111"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="110"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -43021,17 +43120,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="108"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="107"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -43309,17 +43408,17 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="106" t="s">
+      <c r="A34" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="107"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="108"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="107"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="24" t="s">
@@ -43346,20 +43445,20 @@
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="109" t="s">
+      <c r="B36" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="111"/>
-      <c r="D36" s="109" t="s">
+      <c r="C36" s="110"/>
+      <c r="D36" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="111"/>
+      <c r="E36" s="110"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="109"/>
-      <c r="H36" s="110"/>
-      <c r="I36" s="111"/>
+      <c r="G36" s="108"/>
+      <c r="H36" s="109"/>
+      <c r="I36" s="110"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="27">
@@ -43386,16 +43485,16 @@
       </c>
       <c r="B38" s="36"/>
       <c r="C38" s="37"/>
-      <c r="D38" s="109" t="s">
+      <c r="D38" s="108" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="111"/>
+      <c r="E38" s="110"/>
       <c r="F38" s="27"/>
-      <c r="G38" s="109" t="s">
+      <c r="G38" s="108" t="s">
         <v>106</v>
       </c>
-      <c r="H38" s="110"/>
-      <c r="I38" s="111"/>
+      <c r="H38" s="109"/>
+      <c r="I38" s="110"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="27">
@@ -43458,20 +43557,20 @@
       <c r="A42" s="27">
         <v>7</v>
       </c>
-      <c r="B42" s="109" t="s">
+      <c r="B42" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="111"/>
-      <c r="D42" s="109" t="s">
+      <c r="C42" s="110"/>
+      <c r="D42" s="108" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="111"/>
+      <c r="E42" s="110"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="109" t="s">
+      <c r="G42" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="H42" s="110"/>
-      <c r="I42" s="111"/>
+      <c r="H42" s="109"/>
+      <c r="I42" s="110"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="27">
@@ -43515,71 +43614,71 @@
       <c r="A45" s="27">
         <v>10</v>
       </c>
-      <c r="B45" s="109" t="s">
+      <c r="B45" s="108" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="111"/>
-      <c r="D45" s="109" t="s">
+      <c r="C45" s="110"/>
+      <c r="D45" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="111"/>
+      <c r="E45" s="110"/>
       <c r="F45" s="27"/>
-      <c r="G45" s="109" t="s">
+      <c r="G45" s="108" t="s">
         <v>119</v>
       </c>
-      <c r="H45" s="110"/>
-      <c r="I45" s="111"/>
+      <c r="H45" s="109"/>
+      <c r="I45" s="110"/>
     </row>
     <row r="46" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="86">
         <v>11</v>
       </c>
-      <c r="B46" s="109" t="s">
+      <c r="B46" s="108" t="s">
         <v>151</v>
       </c>
-      <c r="C46" s="111"/>
-      <c r="D46" s="109" t="s">
+      <c r="C46" s="110"/>
+      <c r="D46" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="111"/>
+      <c r="E46" s="110"/>
       <c r="F46" s="86"/>
       <c r="G46" s="115" t="s">
         <v>370</v>
       </c>
-      <c r="H46" s="110"/>
-      <c r="I46" s="111"/>
+      <c r="H46" s="109"/>
+      <c r="I46" s="110"/>
     </row>
     <row r="47" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="27">
         <v>12</v>
       </c>
-      <c r="B47" s="109" t="s">
+      <c r="B47" s="108" t="s">
         <v>437</v>
       </c>
-      <c r="C47" s="111"/>
-      <c r="D47" s="109" t="s">
+      <c r="C47" s="110"/>
+      <c r="D47" s="108" t="s">
         <v>438</v>
       </c>
-      <c r="E47" s="111"/>
+      <c r="E47" s="110"/>
       <c r="F47" s="27"/>
       <c r="G47" s="115" t="s">
         <v>439</v>
       </c>
-      <c r="H47" s="110"/>
-      <c r="I47" s="111"/>
+      <c r="H47" s="109"/>
+      <c r="I47" s="110"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="106" t="s">
+      <c r="A48" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="107"/>
-      <c r="C48" s="107"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="107"/>
-      <c r="F48" s="107"/>
-      <c r="G48" s="107"/>
-      <c r="H48" s="107"/>
-      <c r="I48" s="108"/>
+      <c r="B48" s="106"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="106"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="106"/>
+      <c r="I48" s="107"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="29"/>
@@ -43947,24 +44046,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:I42"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -43979,6 +44060,24 @@
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="G46:I46"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44001,17 +44100,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="108"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -44020,11 +44119,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="111"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="110"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -44035,11 +44134,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="111"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="110"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -44050,11 +44149,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="111"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="110"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -44067,11 +44166,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="111"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="110"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -44085,10 +44184,10 @@
       <c r="C6" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="111"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="110"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -44108,17 +44207,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="108"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="107"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -44616,17 +44715,17 @@
       <c r="I53" s="23"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="106" t="s">
+      <c r="A54" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="107"/>
-      <c r="C54" s="107"/>
-      <c r="D54" s="107"/>
-      <c r="E54" s="107"/>
-      <c r="F54" s="107"/>
-      <c r="G54" s="107"/>
-      <c r="H54" s="107"/>
-      <c r="I54" s="108"/>
+      <c r="B54" s="106"/>
+      <c r="C54" s="106"/>
+      <c r="D54" s="106"/>
+      <c r="E54" s="106"/>
+      <c r="F54" s="106"/>
+      <c r="G54" s="106"/>
+      <c r="H54" s="106"/>
+      <c r="I54" s="107"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="24" t="s">
@@ -44653,20 +44752,20 @@
       <c r="A56" s="27">
         <v>1</v>
       </c>
-      <c r="B56" s="109" t="s">
+      <c r="B56" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="111"/>
-      <c r="D56" s="109" t="s">
+      <c r="C56" s="110"/>
+      <c r="D56" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="111"/>
+      <c r="E56" s="110"/>
       <c r="F56" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G56" s="109"/>
-      <c r="H56" s="110"/>
-      <c r="I56" s="111"/>
+      <c r="G56" s="108"/>
+      <c r="H56" s="109"/>
+      <c r="I56" s="110"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="27">
@@ -44674,37 +44773,37 @@
       </c>
       <c r="B57" s="33"/>
       <c r="C57" s="35"/>
-      <c r="D57" s="109" t="s">
+      <c r="D57" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="111"/>
+      <c r="E57" s="110"/>
       <c r="F57" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G57" s="109" t="s">
+      <c r="G57" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="H57" s="110"/>
-      <c r="I57" s="111"/>
+      <c r="H57" s="109"/>
+      <c r="I57" s="110"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="27">
         <v>3</v>
       </c>
-      <c r="B58" s="109" t="s">
+      <c r="B58" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="111"/>
-      <c r="D58" s="109" t="s">
+      <c r="C58" s="110"/>
+      <c r="D58" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="111"/>
+      <c r="E58" s="110"/>
       <c r="F58" s="27"/>
-      <c r="G58" s="109" t="s">
+      <c r="G58" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="H58" s="110"/>
-      <c r="I58" s="111"/>
+      <c r="H58" s="109"/>
+      <c r="I58" s="110"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="27">
@@ -44714,18 +44813,18 @@
         <v>82</v>
       </c>
       <c r="C59" s="35"/>
-      <c r="D59" s="109" t="s">
+      <c r="D59" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="111"/>
+      <c r="E59" s="110"/>
       <c r="F59" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G59" s="109" t="s">
+      <c r="G59" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="H59" s="110"/>
-      <c r="I59" s="111"/>
+      <c r="H59" s="109"/>
+      <c r="I59" s="110"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="27">
@@ -44750,20 +44849,20 @@
       <c r="A61" s="27">
         <v>6</v>
       </c>
-      <c r="B61" s="109" t="s">
+      <c r="B61" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="C61" s="111"/>
-      <c r="D61" s="109" t="s">
+      <c r="C61" s="110"/>
+      <c r="D61" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="E61" s="111"/>
+      <c r="E61" s="110"/>
       <c r="F61" s="27"/>
-      <c r="G61" s="109" t="s">
+      <c r="G61" s="108" t="s">
         <v>91</v>
       </c>
-      <c r="H61" s="110"/>
-      <c r="I61" s="111"/>
+      <c r="H61" s="109"/>
+      <c r="I61" s="110"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="27">
@@ -44781,17 +44880,17 @@
       <c r="G62" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="H62" s="110"/>
-      <c r="I62" s="111"/>
+      <c r="H62" s="109"/>
+      <c r="I62" s="110"/>
     </row>
     <row r="63" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="27">
         <v>8</v>
       </c>
-      <c r="B63" s="109" t="s">
+      <c r="B63" s="108" t="s">
         <v>94</v>
       </c>
-      <c r="C63" s="111"/>
+      <c r="C63" s="110"/>
       <c r="D63" s="33" t="s">
         <v>83</v>
       </c>
@@ -44800,91 +44899,91 @@
       <c r="G63" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="H63" s="110"/>
-      <c r="I63" s="111"/>
+      <c r="H63" s="109"/>
+      <c r="I63" s="110"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="27">
         <v>9</v>
       </c>
-      <c r="B64" s="109" t="s">
+      <c r="B64" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="111"/>
-      <c r="D64" s="109"/>
-      <c r="E64" s="111"/>
+      <c r="C64" s="110"/>
+      <c r="D64" s="108"/>
+      <c r="E64" s="110"/>
       <c r="F64" s="27"/>
-      <c r="G64" s="109" t="s">
+      <c r="G64" s="108" t="s">
         <v>97</v>
       </c>
-      <c r="H64" s="110"/>
-      <c r="I64" s="111"/>
+      <c r="H64" s="109"/>
+      <c r="I64" s="110"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="27">
         <v>10</v>
       </c>
-      <c r="B65" s="109" t="s">
+      <c r="B65" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="111"/>
-      <c r="D65" s="109" t="s">
+      <c r="C65" s="110"/>
+      <c r="D65" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="E65" s="111"/>
+      <c r="E65" s="110"/>
       <c r="F65" s="27"/>
-      <c r="G65" s="109" t="s">
+      <c r="G65" s="108" t="s">
         <v>144</v>
       </c>
-      <c r="H65" s="110"/>
-      <c r="I65" s="111"/>
+      <c r="H65" s="109"/>
+      <c r="I65" s="110"/>
     </row>
     <row r="66" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="27">
         <v>11</v>
       </c>
-      <c r="B66" s="109" t="s">
+      <c r="B66" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="C66" s="111"/>
-      <c r="D66" s="109" t="s">
+      <c r="C66" s="110"/>
+      <c r="D66" s="108" t="s">
         <v>145</v>
       </c>
-      <c r="E66" s="111"/>
+      <c r="E66" s="110"/>
       <c r="F66" s="27"/>
       <c r="G66" s="115" t="s">
         <v>146</v>
       </c>
-      <c r="H66" s="110"/>
-      <c r="I66" s="111"/>
+      <c r="H66" s="109"/>
+      <c r="I66" s="110"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="86">
         <v>12</v>
       </c>
-      <c r="B67" s="109" t="s">
+      <c r="B67" s="108" t="s">
         <v>143</v>
       </c>
-      <c r="C67" s="111"/>
-      <c r="D67" s="109"/>
-      <c r="E67" s="111"/>
+      <c r="C67" s="110"/>
+      <c r="D67" s="108"/>
+      <c r="E67" s="110"/>
       <c r="F67" s="86"/>
-      <c r="G67" s="109"/>
-      <c r="H67" s="110"/>
-      <c r="I67" s="111"/>
+      <c r="G67" s="108"/>
+      <c r="H67" s="109"/>
+      <c r="I67" s="110"/>
     </row>
     <row r="68" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="27">
         <v>13</v>
       </c>
-      <c r="B68" s="109" t="s">
+      <c r="B68" s="108" t="s">
         <v>444</v>
       </c>
-      <c r="C68" s="111"/>
-      <c r="D68" s="109" t="s">
+      <c r="C68" s="110"/>
+      <c r="D68" s="108" t="s">
         <v>445</v>
       </c>
-      <c r="E68" s="111"/>
+      <c r="E68" s="110"/>
       <c r="F68" s="27"/>
       <c r="G68" s="115" t="s">
         <v>446</v>
@@ -44893,17 +44992,17 @@
       <c r="I68" s="117"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" s="106" t="s">
+      <c r="A69" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="B69" s="107"/>
-      <c r="C69" s="107"/>
-      <c r="D69" s="107"/>
-      <c r="E69" s="107"/>
-      <c r="F69" s="107"/>
-      <c r="G69" s="107"/>
-      <c r="H69" s="107"/>
-      <c r="I69" s="108"/>
+      <c r="B69" s="106"/>
+      <c r="C69" s="106"/>
+      <c r="D69" s="106"/>
+      <c r="E69" s="106"/>
+      <c r="F69" s="106"/>
+      <c r="G69" s="106"/>
+      <c r="H69" s="106"/>
+      <c r="I69" s="107"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="29"/>
@@ -45143,12 +45242,12 @@
       <c r="B91" s="40">
         <v>1</v>
       </c>
-      <c r="C91" s="104" t="s">
+      <c r="C91" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="D91" s="104"/>
-      <c r="E91" s="104"/>
-      <c r="F91" s="104"/>
+      <c r="D91" s="102"/>
+      <c r="E91" s="102"/>
+      <c r="F91" s="102"/>
       <c r="G91" s="18"/>
       <c r="H91" s="18"/>
       <c r="I91" s="20"/>
@@ -45158,12 +45257,12 @@
       <c r="B92" s="40">
         <v>2</v>
       </c>
-      <c r="C92" s="104" t="s">
+      <c r="C92" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="D92" s="104"/>
-      <c r="E92" s="104"/>
-      <c r="F92" s="104"/>
+      <c r="D92" s="102"/>
+      <c r="E92" s="102"/>
+      <c r="F92" s="102"/>
       <c r="G92" s="18"/>
       <c r="H92" s="18"/>
       <c r="I92" s="20"/>
@@ -45173,12 +45272,12 @@
       <c r="B93" s="40">
         <v>3</v>
       </c>
-      <c r="C93" s="104" t="s">
+      <c r="C93" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="D93" s="104"/>
-      <c r="E93" s="104"/>
-      <c r="F93" s="104"/>
+      <c r="D93" s="102"/>
+      <c r="E93" s="102"/>
+      <c r="F93" s="102"/>
       <c r="G93" s="18"/>
       <c r="H93" s="18"/>
       <c r="I93" s="20"/>
@@ -45188,12 +45287,12 @@
       <c r="B94" s="40">
         <v>4</v>
       </c>
-      <c r="C94" s="104" t="s">
+      <c r="C94" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="D94" s="104"/>
-      <c r="E94" s="104"/>
-      <c r="F94" s="104"/>
+      <c r="D94" s="102"/>
+      <c r="E94" s="102"/>
+      <c r="F94" s="102"/>
       <c r="G94" s="18"/>
       <c r="H94" s="18"/>
       <c r="I94" s="20"/>
@@ -45233,36 +45332,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="A69:I69"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="C91:F91"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="D68:E68"/>
@@ -45279,6 +45348,36 @@
     <mergeCell ref="A54:I54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="G55:I55"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="A69:I69"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="C91:F91"/>
+    <mergeCell ref="C92:F92"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45301,17 +45400,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="108"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -45320,11 +45419,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="111"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="110"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -45335,11 +45434,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="111"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="110"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -45350,11 +45449,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="111"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="110"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -45367,11 +45466,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="111"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="110"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -45385,10 +45484,10 @@
       <c r="C6" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="111"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="110"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -45408,17 +45507,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="108"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="107"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -45861,17 +45960,17 @@
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="106" t="s">
+      <c r="A49" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="107"/>
-      <c r="C49" s="107"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="107"/>
-      <c r="F49" s="107"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="107"/>
-      <c r="I49" s="108"/>
+      <c r="B49" s="106"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="106"/>
+      <c r="E49" s="106"/>
+      <c r="F49" s="106"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="107"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="24" t="s">
@@ -45898,20 +45997,20 @@
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="109" t="s">
+      <c r="B51" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="111"/>
-      <c r="D51" s="109" t="s">
+      <c r="C51" s="110"/>
+      <c r="D51" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="111"/>
+      <c r="E51" s="110"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="109"/>
-      <c r="H51" s="110"/>
-      <c r="I51" s="111"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="109"/>
+      <c r="I51" s="110"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="27">
@@ -45919,37 +46018,37 @@
       </c>
       <c r="B52" s="36"/>
       <c r="C52" s="37"/>
-      <c r="D52" s="109" t="s">
+      <c r="D52" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="111"/>
+      <c r="E52" s="110"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="109" t="s">
+      <c r="G52" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="110"/>
-      <c r="I52" s="111"/>
+      <c r="H52" s="109"/>
+      <c r="I52" s="110"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
         <v>3</v>
       </c>
-      <c r="B53" s="109" t="s">
+      <c r="B53" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="111"/>
-      <c r="D53" s="109" t="s">
+      <c r="C53" s="110"/>
+      <c r="D53" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="111"/>
+      <c r="E53" s="110"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="109" t="s">
+      <c r="G53" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="H53" s="110"/>
-      <c r="I53" s="111"/>
+      <c r="H53" s="109"/>
+      <c r="I53" s="110"/>
     </row>
     <row r="54" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="27">
@@ -45959,18 +46058,18 @@
         <v>147</v>
       </c>
       <c r="C54" s="37"/>
-      <c r="D54" s="109" t="s">
+      <c r="D54" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="E54" s="111"/>
+      <c r="E54" s="110"/>
       <c r="F54" s="27" t="s">
         <v>84</v>
       </c>
       <c r="G54" s="115" t="s">
         <v>148</v>
       </c>
-      <c r="H54" s="110"/>
-      <c r="I54" s="111"/>
+      <c r="H54" s="109"/>
+      <c r="I54" s="110"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="27">
@@ -45993,33 +46092,33 @@
       <c r="A56" s="27">
         <v>6</v>
       </c>
-      <c r="B56" s="109" t="s">
+      <c r="B56" s="108" t="s">
         <v>151</v>
       </c>
-      <c r="C56" s="111"/>
-      <c r="D56" s="109" t="s">
+      <c r="C56" s="110"/>
+      <c r="D56" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="111"/>
+      <c r="E56" s="110"/>
       <c r="F56" s="27"/>
-      <c r="G56" s="109" t="s">
+      <c r="G56" s="108" t="s">
         <v>152</v>
       </c>
-      <c r="H56" s="110"/>
-      <c r="I56" s="111"/>
+      <c r="H56" s="109"/>
+      <c r="I56" s="110"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="106" t="s">
+      <c r="A57" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="107"/>
-      <c r="C57" s="107"/>
-      <c r="D57" s="107"/>
-      <c r="E57" s="107"/>
-      <c r="F57" s="107"/>
-      <c r="G57" s="107"/>
-      <c r="H57" s="107"/>
-      <c r="I57" s="108"/>
+      <c r="B57" s="106"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="106"/>
+      <c r="E57" s="106"/>
+      <c r="F57" s="106"/>
+      <c r="G57" s="106"/>
+      <c r="H57" s="106"/>
+      <c r="I57" s="107"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="29"/>
@@ -46177,19 +46276,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
     <mergeCell ref="A57:I57"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:E56"/>
@@ -46201,6 +46287,19 @@
     <mergeCell ref="G53:I53"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="G54:I54"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46223,17 +46322,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="108"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -46242,11 +46341,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="111"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="110"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -46257,11 +46356,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="111"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="110"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -46272,11 +46371,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="111"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="110"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -46289,11 +46388,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="111"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="110"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -46307,10 +46406,10 @@
       <c r="C6" s="115" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="111"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="110"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -46330,17 +46429,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="108"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="107"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -46783,17 +46882,17 @@
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="106" t="s">
+      <c r="A49" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="107"/>
-      <c r="C49" s="107"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="107"/>
-      <c r="F49" s="107"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="107"/>
-      <c r="I49" s="108"/>
+      <c r="B49" s="106"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="106"/>
+      <c r="E49" s="106"/>
+      <c r="F49" s="106"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="107"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="24" t="s">
@@ -46820,20 +46919,20 @@
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="109" t="s">
+      <c r="B51" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="111"/>
-      <c r="D51" s="109" t="s">
+      <c r="C51" s="110"/>
+      <c r="D51" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="111"/>
+      <c r="E51" s="110"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="109"/>
-      <c r="H51" s="110"/>
-      <c r="I51" s="111"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="109"/>
+      <c r="I51" s="110"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="27">
@@ -46841,37 +46940,37 @@
       </c>
       <c r="B52" s="36"/>
       <c r="C52" s="37"/>
-      <c r="D52" s="109" t="s">
+      <c r="D52" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="111"/>
+      <c r="E52" s="110"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="109" t="s">
+      <c r="G52" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="110"/>
-      <c r="I52" s="111"/>
+      <c r="H52" s="109"/>
+      <c r="I52" s="110"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
         <v>3</v>
       </c>
-      <c r="B53" s="109" t="s">
+      <c r="B53" s="108" t="s">
         <v>154</v>
       </c>
-      <c r="C53" s="111"/>
-      <c r="D53" s="109" t="s">
+      <c r="C53" s="110"/>
+      <c r="D53" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="111"/>
+      <c r="E53" s="110"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="109" t="s">
+      <c r="G53" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="H53" s="110"/>
-      <c r="I53" s="111"/>
+      <c r="H53" s="109"/>
+      <c r="I53" s="110"/>
     </row>
     <row r="54" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="27">
@@ -46881,18 +46980,18 @@
         <v>155</v>
       </c>
       <c r="C54" s="37"/>
-      <c r="D54" s="109" t="s">
+      <c r="D54" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="E54" s="111"/>
+      <c r="E54" s="110"/>
       <c r="F54" s="27" t="s">
         <v>84</v>
       </c>
       <c r="G54" s="115" t="s">
         <v>156</v>
       </c>
-      <c r="H54" s="110"/>
-      <c r="I54" s="111"/>
+      <c r="H54" s="109"/>
+      <c r="I54" s="110"/>
     </row>
     <row r="55" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="27">
@@ -46910,135 +47009,135 @@
       <c r="G55" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="H55" s="110"/>
-      <c r="I55" s="111"/>
+      <c r="H55" s="109"/>
+      <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="27">
         <v>6</v>
       </c>
-      <c r="B56" s="109" t="s">
+      <c r="B56" s="108" t="s">
         <v>161</v>
       </c>
-      <c r="C56" s="111"/>
-      <c r="D56" s="109" t="s">
+      <c r="C56" s="110"/>
+      <c r="D56" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="E56" s="111"/>
+      <c r="E56" s="110"/>
       <c r="F56" s="27"/>
-      <c r="G56" s="109" t="s">
+      <c r="G56" s="108" t="s">
         <v>162</v>
       </c>
-      <c r="H56" s="110"/>
-      <c r="I56" s="111"/>
+      <c r="H56" s="109"/>
+      <c r="I56" s="110"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="27">
         <v>7</v>
       </c>
-      <c r="B57" s="109" t="s">
+      <c r="B57" s="108" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="111"/>
-      <c r="D57" s="109" t="s">
+      <c r="C57" s="110"/>
+      <c r="D57" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="E57" s="111"/>
+      <c r="E57" s="110"/>
       <c r="F57" s="27"/>
-      <c r="G57" s="109" t="s">
+      <c r="G57" s="108" t="s">
         <v>159</v>
       </c>
-      <c r="H57" s="110"/>
-      <c r="I57" s="111"/>
+      <c r="H57" s="109"/>
+      <c r="I57" s="110"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="27">
         <v>8</v>
       </c>
-      <c r="B58" s="109" t="s">
+      <c r="B58" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="C58" s="111"/>
-      <c r="D58" s="109" t="s">
+      <c r="C58" s="110"/>
+      <c r="D58" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="E58" s="111"/>
+      <c r="E58" s="110"/>
       <c r="F58" s="27"/>
-      <c r="G58" s="109" t="s">
+      <c r="G58" s="108" t="s">
         <v>163</v>
       </c>
-      <c r="H58" s="110"/>
-      <c r="I58" s="111"/>
+      <c r="H58" s="109"/>
+      <c r="I58" s="110"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="27">
         <v>9</v>
       </c>
-      <c r="B59" s="109" t="s">
+      <c r="B59" s="108" t="s">
         <v>165</v>
       </c>
-      <c r="C59" s="111"/>
-      <c r="D59" s="109" t="s">
+      <c r="C59" s="110"/>
+      <c r="D59" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="111"/>
+      <c r="E59" s="110"/>
       <c r="F59" s="27"/>
-      <c r="G59" s="109" t="s">
+      <c r="G59" s="108" t="s">
         <v>165</v>
       </c>
-      <c r="H59" s="110"/>
-      <c r="I59" s="111"/>
+      <c r="H59" s="109"/>
+      <c r="I59" s="110"/>
     </row>
     <row r="60" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="27">
         <v>10</v>
       </c>
-      <c r="B60" s="109" t="s">
+      <c r="B60" s="108" t="s">
         <v>304</v>
       </c>
-      <c r="C60" s="111"/>
-      <c r="D60" s="109" t="s">
+      <c r="C60" s="110"/>
+      <c r="D60" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="E60" s="111"/>
+      <c r="E60" s="110"/>
       <c r="F60" s="27"/>
       <c r="G60" s="115" t="s">
         <v>305</v>
       </c>
-      <c r="H60" s="110"/>
-      <c r="I60" s="111"/>
+      <c r="H60" s="109"/>
+      <c r="I60" s="110"/>
     </row>
     <row r="61" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="27">
         <v>11</v>
       </c>
-      <c r="B61" s="109" t="s">
+      <c r="B61" s="108" t="s">
         <v>166</v>
       </c>
-      <c r="C61" s="111"/>
-      <c r="D61" s="109" t="s">
+      <c r="C61" s="110"/>
+      <c r="D61" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="E61" s="111"/>
+      <c r="E61" s="110"/>
       <c r="F61" s="27"/>
       <c r="G61" s="115" t="s">
         <v>167</v>
       </c>
-      <c r="H61" s="110"/>
-      <c r="I61" s="111"/>
+      <c r="H61" s="109"/>
+      <c r="I61" s="110"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="106" t="s">
+      <c r="A62" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="107"/>
-      <c r="C62" s="107"/>
-      <c r="D62" s="107"/>
-      <c r="E62" s="107"/>
-      <c r="F62" s="107"/>
-      <c r="G62" s="107"/>
-      <c r="H62" s="107"/>
-      <c r="I62" s="108"/>
+      <c r="B62" s="106"/>
+      <c r="C62" s="106"/>
+      <c r="D62" s="106"/>
+      <c r="E62" s="106"/>
+      <c r="F62" s="106"/>
+      <c r="G62" s="106"/>
+      <c r="H62" s="106"/>
+      <c r="I62" s="107"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="29"/>
@@ -47259,12 +47358,26 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="G57:I57"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="G54:I54"/>
     <mergeCell ref="A8:I8"/>
@@ -47279,26 +47392,12 @@
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="G53:I53"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47320,17 +47419,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="108"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -47339,11 +47438,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="111"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="110"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -47354,11 +47453,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="111"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="110"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -47369,11 +47468,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="111"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="110"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -47386,11 +47485,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="111"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="110"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -47404,10 +47503,10 @@
       <c r="C6" s="115" t="s">
         <v>381</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="111"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="110"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -47427,17 +47526,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="108"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="107"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -47715,17 +47814,17 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="106" t="s">
+      <c r="A34" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="107"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="108"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="107"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="24" t="s">
@@ -47752,20 +47851,20 @@
       <c r="A36" s="27">
         <v>1</v>
       </c>
-      <c r="B36" s="109" t="s">
+      <c r="B36" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="111"/>
-      <c r="D36" s="109" t="s">
+      <c r="C36" s="110"/>
+      <c r="D36" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="111"/>
+      <c r="E36" s="110"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="109"/>
-      <c r="H36" s="110"/>
-      <c r="I36" s="111"/>
+      <c r="G36" s="108"/>
+      <c r="H36" s="109"/>
+      <c r="I36" s="110"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="27">
@@ -47792,16 +47891,16 @@
       </c>
       <c r="B38" s="69"/>
       <c r="C38" s="71"/>
-      <c r="D38" s="109" t="s">
+      <c r="D38" s="108" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="111"/>
+      <c r="E38" s="110"/>
       <c r="F38" s="27"/>
-      <c r="G38" s="109" t="s">
+      <c r="G38" s="108" t="s">
         <v>106</v>
       </c>
-      <c r="H38" s="110"/>
-      <c r="I38" s="111"/>
+      <c r="H38" s="109"/>
+      <c r="I38" s="110"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="27">
@@ -47858,31 +47957,31 @@
       <c r="A42" s="27">
         <v>7</v>
       </c>
-      <c r="B42" s="109" t="s">
+      <c r="B42" s="108" t="s">
         <v>378</v>
       </c>
-      <c r="C42" s="111"/>
-      <c r="D42" s="109" t="s">
+      <c r="C42" s="110"/>
+      <c r="D42" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="111"/>
+      <c r="E42" s="110"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="109"/>
-      <c r="H42" s="110"/>
-      <c r="I42" s="111"/>
+      <c r="G42" s="108"/>
+      <c r="H42" s="109"/>
+      <c r="I42" s="110"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="106" t="s">
+      <c r="A43" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="107"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="107"/>
-      <c r="F43" s="107"/>
-      <c r="G43" s="107"/>
-      <c r="H43" s="107"/>
-      <c r="I43" s="108"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="106"/>
+      <c r="G43" s="106"/>
+      <c r="H43" s="106"/>
+      <c r="I43" s="107"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="29"/>
@@ -48040,12 +48139,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:I42"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="B35:C35"/>
@@ -48053,12 +48152,12 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48080,17 +48179,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="108"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -48099,11 +48198,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="111"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="110"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -48114,11 +48213,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="111"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="110"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -48129,11 +48228,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="111"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="110"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -48146,11 +48245,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="111"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="110"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -48164,10 +48263,10 @@
       <c r="C6" s="115" t="s">
         <v>404</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="111"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="110"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -48187,17 +48286,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="108"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="107"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -48640,17 +48739,17 @@
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="106" t="s">
+      <c r="A49" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="107"/>
-      <c r="C49" s="107"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="107"/>
-      <c r="F49" s="107"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="107"/>
-      <c r="I49" s="108"/>
+      <c r="B49" s="106"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="106"/>
+      <c r="E49" s="106"/>
+      <c r="F49" s="106"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="107"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="24" t="s">
@@ -48677,20 +48776,20 @@
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="109" t="s">
+      <c r="B51" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="111"/>
-      <c r="D51" s="109" t="s">
+      <c r="C51" s="110"/>
+      <c r="D51" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="111"/>
+      <c r="E51" s="110"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="109"/>
-      <c r="H51" s="110"/>
-      <c r="I51" s="111"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="109"/>
+      <c r="I51" s="110"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="27">
@@ -48698,18 +48797,18 @@
       </c>
       <c r="B52" s="74"/>
       <c r="C52" s="75"/>
-      <c r="D52" s="109" t="s">
+      <c r="D52" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="111"/>
+      <c r="E52" s="110"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="109" t="s">
+      <c r="G52" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="110"/>
-      <c r="I52" s="111"/>
+      <c r="H52" s="109"/>
+      <c r="I52" s="110"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
@@ -48719,18 +48818,18 @@
         <v>81</v>
       </c>
       <c r="C53" s="75"/>
-      <c r="D53" s="109" t="s">
+      <c r="D53" s="108" t="s">
         <v>393</v>
       </c>
-      <c r="E53" s="111"/>
+      <c r="E53" s="110"/>
       <c r="F53" s="27" t="s">
         <v>84</v>
       </c>
       <c r="G53" s="115" t="s">
         <v>394</v>
       </c>
-      <c r="H53" s="110"/>
-      <c r="I53" s="111"/>
+      <c r="H53" s="109"/>
+      <c r="I53" s="110"/>
     </row>
     <row r="54" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="27">
@@ -48740,18 +48839,18 @@
         <v>397</v>
       </c>
       <c r="C54" s="75"/>
-      <c r="D54" s="109" t="s">
+      <c r="D54" s="108" t="s">
         <v>398</v>
       </c>
-      <c r="E54" s="111"/>
+      <c r="E54" s="110"/>
       <c r="F54" s="27" t="s">
         <v>84</v>
       </c>
       <c r="G54" s="115" t="s">
         <v>399</v>
       </c>
-      <c r="H54" s="110"/>
-      <c r="I54" s="111"/>
+      <c r="H54" s="109"/>
+      <c r="I54" s="110"/>
     </row>
     <row r="55" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="27">
@@ -48769,59 +48868,59 @@
       <c r="G55" s="115" t="s">
         <v>396</v>
       </c>
-      <c r="H55" s="110"/>
-      <c r="I55" s="111"/>
+      <c r="H55" s="109"/>
+      <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="27">
         <v>6</v>
       </c>
-      <c r="B56" s="109" t="s">
+      <c r="B56" s="108" t="s">
         <v>400</v>
       </c>
-      <c r="C56" s="111"/>
-      <c r="D56" s="109" t="s">
+      <c r="C56" s="110"/>
+      <c r="D56" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="111"/>
+      <c r="E56" s="110"/>
       <c r="F56" s="27"/>
-      <c r="G56" s="109" t="s">
+      <c r="G56" s="108" t="s">
         <v>401</v>
       </c>
-      <c r="H56" s="110"/>
-      <c r="I56" s="111"/>
+      <c r="H56" s="109"/>
+      <c r="I56" s="110"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="27">
         <v>7</v>
       </c>
-      <c r="B57" s="109" t="s">
+      <c r="B57" s="108" t="s">
         <v>402</v>
       </c>
-      <c r="C57" s="111"/>
-      <c r="D57" s="109" t="s">
+      <c r="C57" s="110"/>
+      <c r="D57" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="E57" s="111"/>
+      <c r="E57" s="110"/>
       <c r="F57" s="27"/>
-      <c r="G57" s="109" t="s">
+      <c r="G57" s="108" t="s">
         <v>403</v>
       </c>
-      <c r="H57" s="110"/>
-      <c r="I57" s="111"/>
+      <c r="H57" s="109"/>
+      <c r="I57" s="110"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="106" t="s">
+      <c r="A58" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="107"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="107"/>
-      <c r="E58" s="107"/>
-      <c r="F58" s="107"/>
-      <c r="G58" s="107"/>
-      <c r="H58" s="107"/>
-      <c r="I58" s="108"/>
+      <c r="B58" s="106"/>
+      <c r="C58" s="106"/>
+      <c r="D58" s="106"/>
+      <c r="E58" s="106"/>
+      <c r="F58" s="106"/>
+      <c r="G58" s="106"/>
+      <c r="H58" s="106"/>
+      <c r="I58" s="107"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="29"/>
@@ -48858,25 +48957,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G54:I54"/>
     <mergeCell ref="A58:I58"/>
     <mergeCell ref="G55:I55"/>
     <mergeCell ref="B56:C56"/>
@@ -48885,6 +48965,25 @@
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="G57:I57"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -49092,17 +49191,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="108"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -49111,11 +49210,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="111"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="110"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -49126,11 +49225,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="111"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="110"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -49141,11 +49240,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="111"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="110"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -49158,11 +49257,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="111"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="110"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -49176,10 +49275,10 @@
       <c r="C6" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="111"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="110"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -49199,17 +49298,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="108"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="107"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -49652,17 +49751,17 @@
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="106" t="s">
+      <c r="A49" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="107"/>
-      <c r="C49" s="107"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="107"/>
-      <c r="F49" s="107"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="107"/>
-      <c r="I49" s="108"/>
+      <c r="B49" s="106"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="106"/>
+      <c r="E49" s="106"/>
+      <c r="F49" s="106"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="107"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="24" t="s">
@@ -49689,20 +49788,20 @@
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="109" t="s">
+      <c r="B51" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="111"/>
-      <c r="D51" s="109" t="s">
+      <c r="C51" s="110"/>
+      <c r="D51" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="111"/>
+      <c r="E51" s="110"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="109"/>
-      <c r="H51" s="110"/>
-      <c r="I51" s="111"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="109"/>
+      <c r="I51" s="110"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="27">
@@ -49710,37 +49809,37 @@
       </c>
       <c r="B52" s="78"/>
       <c r="C52" s="80"/>
-      <c r="D52" s="109" t="s">
+      <c r="D52" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="111"/>
+      <c r="E52" s="110"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="109" t="s">
+      <c r="G52" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="110"/>
-      <c r="I52" s="111"/>
+      <c r="H52" s="109"/>
+      <c r="I52" s="110"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
         <v>3</v>
       </c>
-      <c r="B53" s="109" t="s">
+      <c r="B53" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="111"/>
-      <c r="D53" s="109" t="s">
+      <c r="C53" s="110"/>
+      <c r="D53" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="111"/>
+      <c r="E53" s="110"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="109" t="s">
+      <c r="G53" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="H53" s="110"/>
-      <c r="I53" s="111"/>
+      <c r="H53" s="109"/>
+      <c r="I53" s="110"/>
     </row>
     <row r="54" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="27">
@@ -49750,16 +49849,16 @@
         <v>147</v>
       </c>
       <c r="C54" s="80"/>
-      <c r="D54" s="109" t="s">
+      <c r="D54" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="E54" s="111"/>
+      <c r="E54" s="110"/>
       <c r="F54" s="27"/>
       <c r="G54" s="115" t="s">
         <v>406</v>
       </c>
-      <c r="H54" s="110"/>
-      <c r="I54" s="111"/>
+      <c r="H54" s="109"/>
+      <c r="I54" s="110"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="27">
@@ -49780,27 +49879,27 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="27"/>
-      <c r="B56" s="109"/>
-      <c r="C56" s="111"/>
-      <c r="D56" s="109"/>
-      <c r="E56" s="111"/>
+      <c r="B56" s="108"/>
+      <c r="C56" s="110"/>
+      <c r="D56" s="108"/>
+      <c r="E56" s="110"/>
       <c r="F56" s="27"/>
-      <c r="G56" s="109"/>
-      <c r="H56" s="110"/>
-      <c r="I56" s="111"/>
+      <c r="G56" s="108"/>
+      <c r="H56" s="109"/>
+      <c r="I56" s="110"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="106" t="s">
+      <c r="A57" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="107"/>
-      <c r="C57" s="107"/>
-      <c r="D57" s="107"/>
-      <c r="E57" s="107"/>
-      <c r="F57" s="107"/>
-      <c r="G57" s="107"/>
-      <c r="H57" s="107"/>
-      <c r="I57" s="108"/>
+      <c r="B57" s="106"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="106"/>
+      <c r="E57" s="106"/>
+      <c r="F57" s="106"/>
+      <c r="G57" s="106"/>
+      <c r="H57" s="106"/>
+      <c r="I57" s="107"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="29"/>
@@ -49958,19 +50057,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="G56:I56"/>
@@ -49982,6 +50068,19 @@
     <mergeCell ref="G53:I53"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="G54:I54"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -50004,17 +50103,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="108"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -50023,11 +50122,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="111"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="110"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -50038,11 +50137,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="111"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="110"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -50053,11 +50152,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="111"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="110"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -50070,11 +50169,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="111"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="110"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -50088,10 +50187,10 @@
       <c r="C6" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="111"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="110"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -50111,17 +50210,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="108"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="107"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -50564,17 +50663,17 @@
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="106" t="s">
+      <c r="A49" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="107"/>
-      <c r="C49" s="107"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="107"/>
-      <c r="F49" s="107"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="107"/>
-      <c r="I49" s="108"/>
+      <c r="B49" s="106"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="106"/>
+      <c r="E49" s="106"/>
+      <c r="F49" s="106"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="107"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="24" t="s">
@@ -50601,20 +50700,20 @@
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="109" t="s">
+      <c r="B51" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="111"/>
-      <c r="D51" s="109" t="s">
+      <c r="C51" s="110"/>
+      <c r="D51" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="111"/>
+      <c r="E51" s="110"/>
       <c r="F51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="109"/>
-      <c r="H51" s="110"/>
-      <c r="I51" s="111"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="109"/>
+      <c r="I51" s="110"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="27">
@@ -50622,37 +50721,37 @@
       </c>
       <c r="B52" s="78"/>
       <c r="C52" s="80"/>
-      <c r="D52" s="109" t="s">
+      <c r="D52" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="111"/>
+      <c r="E52" s="110"/>
       <c r="F52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="109" t="s">
+      <c r="G52" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="110"/>
-      <c r="I52" s="111"/>
+      <c r="H52" s="109"/>
+      <c r="I52" s="110"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
         <v>3</v>
       </c>
-      <c r="B53" s="109" t="s">
+      <c r="B53" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="111"/>
-      <c r="D53" s="109" t="s">
+      <c r="C53" s="110"/>
+      <c r="D53" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="111"/>
+      <c r="E53" s="110"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="109" t="s">
+      <c r="G53" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="H53" s="110"/>
-      <c r="I53" s="111"/>
+      <c r="H53" s="109"/>
+      <c r="I53" s="110"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="27">
@@ -50662,18 +50761,18 @@
         <v>81</v>
       </c>
       <c r="C54" s="80"/>
-      <c r="D54" s="109" t="s">
+      <c r="D54" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="E54" s="111"/>
+      <c r="E54" s="110"/>
       <c r="F54" s="27" t="s">
         <v>84</v>
       </c>
       <c r="G54" s="115" t="s">
         <v>427</v>
       </c>
-      <c r="H54" s="110"/>
-      <c r="I54" s="111"/>
+      <c r="H54" s="109"/>
+      <c r="I54" s="110"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="27">
@@ -50698,20 +50797,20 @@
       <c r="A56" s="27">
         <v>6</v>
       </c>
-      <c r="B56" s="109" t="s">
+      <c r="B56" s="108" t="s">
         <v>409</v>
       </c>
-      <c r="C56" s="111"/>
-      <c r="D56" s="109" t="s">
+      <c r="C56" s="110"/>
+      <c r="D56" s="108" t="s">
         <v>410</v>
       </c>
-      <c r="E56" s="111"/>
+      <c r="E56" s="110"/>
       <c r="F56" s="27"/>
-      <c r="G56" s="109" t="s">
+      <c r="G56" s="108" t="s">
         <v>411</v>
       </c>
-      <c r="H56" s="110"/>
-      <c r="I56" s="111"/>
+      <c r="H56" s="109"/>
+      <c r="I56" s="110"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="27">
@@ -50736,52 +50835,52 @@
       <c r="A58" s="27">
         <v>8</v>
       </c>
-      <c r="B58" s="109" t="s">
+      <c r="B58" s="108" t="s">
         <v>415</v>
       </c>
-      <c r="C58" s="111"/>
-      <c r="D58" s="109" t="s">
+      <c r="C58" s="110"/>
+      <c r="D58" s="108" t="s">
         <v>408</v>
       </c>
-      <c r="E58" s="111"/>
+      <c r="E58" s="110"/>
       <c r="F58" s="27"/>
       <c r="G58" s="115" t="s">
         <v>416</v>
       </c>
-      <c r="H58" s="110"/>
-      <c r="I58" s="111"/>
+      <c r="H58" s="109"/>
+      <c r="I58" s="110"/>
     </row>
     <row r="59" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="27">
         <v>9</v>
       </c>
-      <c r="B59" s="109" t="s">
+      <c r="B59" s="108" t="s">
         <v>417</v>
       </c>
-      <c r="C59" s="111"/>
-      <c r="D59" s="109" t="s">
+      <c r="C59" s="110"/>
+      <c r="D59" s="108" t="s">
         <v>408</v>
       </c>
-      <c r="E59" s="111"/>
+      <c r="E59" s="110"/>
       <c r="F59" s="27"/>
       <c r="G59" s="115" t="s">
         <v>416</v>
       </c>
-      <c r="H59" s="110"/>
-      <c r="I59" s="111"/>
+      <c r="H59" s="109"/>
+      <c r="I59" s="110"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="106" t="s">
+      <c r="A60" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="107"/>
-      <c r="C60" s="107"/>
-      <c r="D60" s="107"/>
-      <c r="E60" s="107"/>
-      <c r="F60" s="107"/>
-      <c r="G60" s="107"/>
-      <c r="H60" s="107"/>
-      <c r="I60" s="108"/>
+      <c r="B60" s="106"/>
+      <c r="C60" s="106"/>
+      <c r="D60" s="106"/>
+      <c r="E60" s="106"/>
+      <c r="F60" s="106"/>
+      <c r="G60" s="106"/>
+      <c r="H60" s="106"/>
+      <c r="I60" s="107"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="29"/>
@@ -50969,11 +51068,20 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="A60:I60"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="D59:E59"/>
@@ -50990,20 +51098,11 @@
     <mergeCell ref="G51:I51"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="A60:I60"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E66:H66"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51029,10 +51128,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="97" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="95"/>
+      <c r="B2" s="98"/>
       <c r="C2" s="88" t="s">
         <v>182</v>
       </c>
@@ -51073,7 +51172,7 @@
       <c r="I3" s="88"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="96">
+      <c r="A4" s="99">
         <v>0</v>
       </c>
       <c r="B4" s="53">
@@ -51109,7 +51208,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="97"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="53">
         <v>2</v>
       </c>
@@ -51141,7 +51240,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="97"/>
+      <c r="A6" s="100"/>
       <c r="B6" s="53">
         <v>3</v>
       </c>
@@ -51173,7 +51272,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="98"/>
+      <c r="A7" s="101"/>
       <c r="B7" s="53">
         <v>4</v>
       </c>
@@ -51203,7 +51302,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="92">
+      <c r="A8" s="95">
         <v>1</v>
       </c>
       <c r="B8" s="53">
@@ -51239,7 +51338,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="93"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="53">
         <v>2</v>
       </c>
@@ -51273,7 +51372,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="89">
+      <c r="A10" s="91">
         <v>2</v>
       </c>
       <c r="B10" s="53">
@@ -51309,7 +51408,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="91"/>
+      <c r="A11" s="93"/>
       <c r="B11" s="53">
         <v>2</v>
       </c>
@@ -51343,7 +51442,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="89">
+      <c r="A12" s="91">
         <v>3</v>
       </c>
       <c r="B12" s="53">
@@ -51379,7 +51478,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="91"/>
+      <c r="A13" s="93"/>
       <c r="B13" s="53">
         <v>2</v>
       </c>
@@ -51413,7 +51512,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="92">
+      <c r="A14" s="95">
         <v>4</v>
       </c>
       <c r="B14" s="53">
@@ -51449,7 +51548,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="93"/>
+      <c r="A15" s="96"/>
       <c r="B15" s="53">
         <v>2</v>
       </c>
@@ -51483,7 +51582,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="89">
+      <c r="A16" s="91">
         <v>5</v>
       </c>
       <c r="B16" s="53">
@@ -51517,7 +51616,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="90"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="53">
         <v>2</v>
       </c>
@@ -51549,7 +51648,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="91"/>
+      <c r="A18" s="93"/>
       <c r="B18" s="53">
         <v>3</v>
       </c>
@@ -51581,7 +51680,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="89">
+      <c r="A19" s="91">
         <v>6</v>
       </c>
       <c r="B19" s="53">
@@ -51615,7 +51714,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="90"/>
+      <c r="A20" s="92"/>
       <c r="B20" s="53">
         <v>2</v>
       </c>
@@ -51646,7 +51745,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="90"/>
+      <c r="A21" s="92"/>
       <c r="B21" s="53">
         <v>3</v>
       </c>
@@ -51678,7 +51777,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="91"/>
+      <c r="A22" s="93"/>
       <c r="B22" s="53">
         <v>4</v>
       </c>
@@ -51744,7 +51843,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="89">
+      <c r="A24" s="91">
         <v>8</v>
       </c>
       <c r="B24" s="53">
@@ -51778,7 +51877,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="90"/>
+      <c r="A25" s="92"/>
       <c r="B25" s="53">
         <v>2</v>
       </c>
@@ -51808,7 +51907,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="90"/>
+      <c r="A26" s="92"/>
       <c r="B26" s="53">
         <v>3</v>
       </c>
@@ -51838,7 +51937,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="91"/>
+      <c r="A27" s="93"/>
       <c r="B27" s="53">
         <v>4</v>
       </c>
@@ -51868,7 +51967,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="89">
+      <c r="A28" s="91">
         <v>9</v>
       </c>
       <c r="B28" s="53">
@@ -51904,7 +52003,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="90"/>
+      <c r="A29" s="92"/>
       <c r="B29" s="53">
         <v>2</v>
       </c>
@@ -51936,7 +52035,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="91"/>
+      <c r="A30" s="93"/>
       <c r="B30" s="53">
         <v>3</v>
       </c>
@@ -52000,7 +52099,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="89">
+      <c r="A32" s="91">
         <v>11</v>
       </c>
       <c r="B32" s="53">
@@ -52034,7 +52133,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="90"/>
+      <c r="A33" s="92"/>
       <c r="B33" s="53">
         <v>2</v>
       </c>
@@ -52066,7 +52165,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="91"/>
+      <c r="A34" s="93"/>
       <c r="B34" s="53">
         <v>3</v>
       </c>
@@ -52098,7 +52197,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="99">
+      <c r="A35" s="89">
         <v>12</v>
       </c>
       <c r="B35" s="76">
@@ -52132,7 +52231,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="100"/>
+      <c r="A36" s="90"/>
       <c r="B36" s="76">
         <v>2</v>
       </c>
@@ -52270,7 +52369,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" s="99">
+      <c r="A40" s="89">
         <v>16</v>
       </c>
       <c r="B40" s="76">
@@ -52304,7 +52403,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A41" s="101"/>
+      <c r="A41" s="94"/>
       <c r="B41" s="76">
         <v>2</v>
       </c>
@@ -52336,7 +52435,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A42" s="100"/>
+      <c r="A42" s="90"/>
       <c r="B42" s="76">
         <v>3</v>
       </c>
@@ -52369,6 +52468,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:A7"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A40:A42"/>
@@ -52385,8 +52486,6 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:A7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -52533,17 +52632,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="108"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -52552,13 +52651,13 @@
       <c r="B2" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="108" t="s">
         <v>217</v>
       </c>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="111"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="110"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -52569,13 +52668,13 @@
       <c r="B3" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="108" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="111"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="110"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -52586,11 +52685,11 @@
       <c r="B4" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="111"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="110"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -52601,13 +52700,13 @@
       <c r="B5" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="108" t="s">
         <v>219</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="111"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="110"/>
       <c r="H5" s="5" t="s">
         <v>224</v>
       </c>
@@ -52628,13 +52727,13 @@
       <c r="D7" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E7" s="105" t="s">
+      <c r="E7" s="104" t="s">
         <v>222</v>
       </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -53268,13 +53367,13 @@
       <c r="D35" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E35" s="102" t="s">
+      <c r="E35" s="111" t="s">
         <v>252</v>
       </c>
-      <c r="F35" s="102"/>
-      <c r="G35" s="102"/>
-      <c r="H35" s="102"/>
-      <c r="I35" s="102"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="111"/>
       <c r="K35" t="str">
         <f t="shared" si="0"/>
         <v>password.policy=</v>
@@ -53293,13 +53392,13 @@
       <c r="D36" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E36" s="102" t="s">
+      <c r="E36" s="111" t="s">
         <v>253</v>
       </c>
-      <c r="F36" s="102"/>
-      <c r="G36" s="102"/>
-      <c r="H36" s="102"/>
-      <c r="I36" s="102"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="111"/>
+      <c r="H36" s="111"/>
+      <c r="I36" s="111"/>
       <c r="K36" t="str">
         <f t="shared" si="0"/>
         <v>judge.class=</v>
@@ -53316,13 +53415,13 @@
       <c r="D37" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E37" s="102" t="s">
+      <c r="E37" s="111" t="s">
         <v>254</v>
       </c>
-      <c r="F37" s="102"/>
-      <c r="G37" s="102"/>
-      <c r="H37" s="102"/>
-      <c r="I37" s="102"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="111"/>
+      <c r="I37" s="111"/>
       <c r="K37" t="str">
         <f t="shared" si="0"/>
         <v>force.pass.change=</v>
@@ -53341,13 +53440,13 @@
       <c r="D38" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E38" s="102" t="s">
+      <c r="E38" s="111" t="s">
         <v>255</v>
       </c>
-      <c r="F38" s="102"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="102"/>
-      <c r="I38" s="102"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="111"/>
+      <c r="H38" s="111"/>
+      <c r="I38" s="111"/>
       <c r="K38" t="str">
         <f t="shared" si="0"/>
         <v>judge.result.table.name=</v>
@@ -53439,7 +53538,7 @@
       <c r="D42" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E42" s="104" t="s">
+      <c r="E42" s="102" t="s">
         <v>339</v>
       </c>
       <c r="F42" s="103"/>
@@ -53453,6 +53552,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
     <mergeCell ref="E42:I42"/>
     <mergeCell ref="E41:I41"/>
     <mergeCell ref="E7:I7"/>
@@ -53469,31 +53593,6 @@
     <mergeCell ref="E12:I12"/>
     <mergeCell ref="E13:I13"/>
     <mergeCell ref="E14:I14"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E37:I37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -53534,17 +53633,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="108"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -53553,11 +53652,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="111"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="110"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -53568,11 +53667,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="111"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="110"/>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -53583,11 +53682,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="111"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="110"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -53600,11 +53699,11 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="111"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="110"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
@@ -53615,11 +53714,11 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="111"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="110"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
@@ -53639,17 +53738,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="108"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="107"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -53927,17 +54026,17 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="106" t="s">
+      <c r="A34" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="107"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="108"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="107"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="24" t="s">
@@ -53964,90 +54063,90 @@
       <c r="A36" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="109" t="s">
+      <c r="B36" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="111"/>
-      <c r="D36" s="109" t="s">
+      <c r="C36" s="110"/>
+      <c r="D36" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="111"/>
+      <c r="E36" s="110"/>
       <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="109"/>
-      <c r="H36" s="110"/>
-      <c r="I36" s="111"/>
+      <c r="G36" s="108"/>
+      <c r="H36" s="109"/>
+      <c r="I36" s="110"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="109" t="s">
+      <c r="B37" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="111"/>
-      <c r="D37" s="109" t="s">
+      <c r="C37" s="110"/>
+      <c r="D37" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="111"/>
+      <c r="E37" s="110"/>
       <c r="F37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="109"/>
-      <c r="H37" s="110"/>
-      <c r="I37" s="111"/>
+      <c r="G37" s="108"/>
+      <c r="H37" s="109"/>
+      <c r="I37" s="110"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="109" t="s">
+      <c r="B38" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="111"/>
-      <c r="D38" s="109" t="s">
+      <c r="C38" s="110"/>
+      <c r="D38" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="111"/>
+      <c r="E38" s="110"/>
       <c r="F38" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="109"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="111"/>
+      <c r="G38" s="108"/>
+      <c r="H38" s="109"/>
+      <c r="I38" s="110"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="109" t="s">
+      <c r="B39" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="111"/>
-      <c r="D39" s="109" t="s">
+      <c r="C39" s="110"/>
+      <c r="D39" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="111"/>
+      <c r="E39" s="110"/>
       <c r="F39" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="109"/>
-      <c r="H39" s="110"/>
-      <c r="I39" s="111"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="109"/>
+      <c r="I39" s="110"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="106" t="s">
+      <c r="A40" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="107"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="108"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="106"/>
+      <c r="I40" s="107"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="29"/>
@@ -54359,867 +54458,10 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
     <mergeCell ref="A40:I40"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="G39:I39"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:I38"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I68"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="9" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="106" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="108"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="106" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="108"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="20"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="20"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="20"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="20"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="20"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="20"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="20"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="20"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="20"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="20"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="20"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="20"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="20"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="20"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="20"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="20"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="20"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="20"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="20"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="20"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="20"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="20"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="20"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="21"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="23"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="106" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="107"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="108"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="112" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="113"/>
-      <c r="D35" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="112" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" s="114"/>
-      <c r="I35" s="113"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="109" t="s">
-        <v>311</v>
-      </c>
-      <c r="C36" s="111"/>
-      <c r="D36" s="109" t="s">
-        <v>312</v>
-      </c>
-      <c r="E36" s="111"/>
-      <c r="F36" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="109" t="s">
-        <v>313</v>
-      </c>
-      <c r="H36" s="110"/>
-      <c r="I36" s="111"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="27"/>
-      <c r="B37" s="109"/>
-      <c r="C37" s="111"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="109"/>
-      <c r="H37" s="110"/>
-      <c r="I37" s="111"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="27"/>
-      <c r="B38" s="109"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="109"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="109"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="111"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="28"/>
-      <c r="B39" s="109"/>
-      <c r="C39" s="111"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="109"/>
-      <c r="H39" s="110"/>
-      <c r="I39" s="111"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="107"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="108"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="29"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="20"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="20"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="20"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="20"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="20"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="20"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="20"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="17"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="20"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="17"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="20"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="17"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="20"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="17"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="20"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="17"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="20"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="17"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="20"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="17"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="20"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="17"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="20"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="17"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="20"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="17"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="20"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="17"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="20"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="17"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="20"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="17"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="20"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="17"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="20"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="17"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="20"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="17"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="20"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="17"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="20"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="17"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="20"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" s="17"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="20"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" s="17"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="20"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="21"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="23"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="A40:I40"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="G37:I37"/>
@@ -55239,6 +54481,875 @@
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="9" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="107"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="108"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="7"/>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="108"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="108"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="10"/>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="108"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="107"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="20"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="20"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="20"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="20"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="20"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="20"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="20"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="20"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="23"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="106"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="107"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="113"/>
+      <c r="D35" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="26"/>
+      <c r="F35" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="112" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="114"/>
+      <c r="I35" s="113"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="108" t="s">
+        <v>311</v>
+      </c>
+      <c r="C36" s="110"/>
+      <c r="D36" s="108" t="s">
+        <v>312</v>
+      </c>
+      <c r="E36" s="110"/>
+      <c r="F36" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="108" t="s">
+        <v>313</v>
+      </c>
+      <c r="H36" s="109"/>
+      <c r="I36" s="110"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="27"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="108"/>
+      <c r="H37" s="109"/>
+      <c r="I37" s="110"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="27"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="108"/>
+      <c r="H38" s="109"/>
+      <c r="I38" s="110"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="28"/>
+      <c r="B39" s="108"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="109"/>
+      <c r="I39" s="110"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="105" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="106"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="106"/>
+      <c r="I40" s="107"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" s="29"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="20"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="20"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" s="17"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="20"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="20"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="20"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="20"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="20"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48" s="17"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="20"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A49" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="20"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="20"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="20"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="20"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53" s="17"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="20"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="20"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="20"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56" s="17"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="20"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57" s="17"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="20"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58" s="17"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="20"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59" s="17"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="20"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60" s="17"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="20"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61" s="17"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="20"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A62" s="17"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="20"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A63" s="17"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="20"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A64" s="17"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="20"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65" s="17"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="20"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+    